--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="400" windowWidth="33620" windowHeight="18440" tabRatio="500"/>
+    <workbookView xWindow="8500" yWindow="460" windowWidth="29040" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="3" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="136">
   <si>
     <t>类别</t>
   </si>
@@ -359,6 +359,185 @@
   </si>
   <si>
     <t>Day15</t>
+  </si>
+  <si>
+    <t>核心战斗-照妖镜部分操作逻辑文档分析及跟进</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本核心逻辑设计文档分析及跟进</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统大招部分逻辑文档分析及跟进</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局部分表现逻辑文档分析及跟进</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调优自动发布平台，与程序联调</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity学习（推箱子游戏制作，1个关卡）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数据结构确定，资源加载模块完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物属性配置表读取转换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔瑱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器通信测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>定数据库 定协议</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅 小珍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">帅帅 小珍 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-照妖镜部分操作逻辑</t>
+  </si>
+  <si>
+    <t>杨雪</t>
+  </si>
+  <si>
+    <t>技能系统大招部分逻辑</t>
+  </si>
+  <si>
+    <t>小星</t>
+  </si>
+  <si>
+    <t>副本核心逻辑设计</t>
+  </si>
+  <si>
+    <t>副本核心逻辑设计-（针对demo基础架构，表现部分从简）</t>
+  </si>
+  <si>
+    <t>Demo版本关卡设计</t>
+  </si>
+  <si>
+    <t>胖子</t>
+  </si>
+  <si>
+    <t>对局部分表现逻辑</t>
+  </si>
+  <si>
+    <t>辛炜</t>
+  </si>
+  <si>
+    <t>副本部分表现逻辑</t>
+  </si>
+  <si>
+    <t>世界观玩法支持-城镇，副本，抓宠物</t>
+  </si>
+  <si>
+    <t>孔老师</t>
+  </si>
+  <si>
+    <t>主流程框架（家园，副本入口）文档</t>
+  </si>
+  <si>
+    <t>副本时间模拟器</t>
+  </si>
+  <si>
+    <t>创建角色文档</t>
+  </si>
+  <si>
+    <t>标准化</t>
+  </si>
+  <si>
+    <t>美术需求模板</t>
+  </si>
+  <si>
+    <t>demo版本场景需求</t>
+  </si>
+  <si>
+    <t>ui风格第三版</t>
+  </si>
+  <si>
+    <t>孙帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss原画一张细化（定原画标准） </t>
+  </si>
+  <si>
+    <t>豆豆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小怪物模型（3d风格标准） </t>
+  </si>
+  <si>
+    <t>当康原画</t>
+  </si>
+  <si>
+    <t>demo版本玩家角色需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo版本Npc，Boss需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算（考虑随机保底方法）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试描边</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -488,7 +667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,9 +689,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,8 +803,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -656,10 +844,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -706,56 +894,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="49">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 25" xfId="3"/>
     <cellStyle name="常规 8" xfId="5"/>
-    <cellStyle name="常规_10-22周输出 2" xfId="6"/>
-    <cellStyle name="常规_2-4周版本输出" xfId="7"/>
+    <cellStyle name="常规_2-4周版本输出" xfId="6"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -763,6 +960,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -798,6 +1037,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1137,29 +1381,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="2"/>
-    <col min="4" max="4" width="49.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="2"/>
-    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="2"/>
+    <col min="1" max="1" width="13.1640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="25"/>
+    <col min="4" max="4" width="49.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="25"/>
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1211,566 +1454,962 @@
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="16">
+    <row r="3" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="4"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="1:14" ht="16">
+    <row r="4" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="1:14" ht="16">
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="7"/>
       <c r="C5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
       <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="1:14" ht="16">
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
       <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="1:14" ht="16">
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="5"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="16">
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="16">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="33"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="K10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="K11" s="33"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="K12" s="33"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="K13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="K14" s="33"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="33"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="K17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+      <c r="K18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4"/>
+      <c r="K20" s="33"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3"/>
+      <c r="B21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="C22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="C23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="3"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="16">
-      <c r="B10" s="10" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="16">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+      <c r="D27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="5"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="5"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="9"/>
+      <c r="C34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="11"/>
+      <c r="C35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="11"/>
+      <c r="C36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9"/>
+      <c r="C37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="25"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="16">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="16">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="5"/>
-      <c r="N13" s="33"/>
-    </row>
-    <row r="14" spans="1:14" ht="16">
-      <c r="A14" s="12"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="25"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="5"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="16">
-      <c r="A15" s="12"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="25"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="16">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="25"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="16">
-      <c r="A17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="16">
-      <c r="A18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="16">
-      <c r="B19" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="16">
-      <c r="A20" s="9"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="16">
-      <c r="A21" s="12"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" ht="16">
-      <c r="A22" s="12"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" ht="16">
-      <c r="A23" s="9"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="8" t="s">
+      <c r="D37" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="C38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
-      <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="16">
-      <c r="A25" s="9" t="s">
+      <c r="D38" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="16">
-      <c r="A26" s="9"/>
-      <c r="B26" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="33"/>
-    </row>
-    <row r="27" spans="1:14" ht="16">
-      <c r="A27" s="9"/>
-      <c r="C27" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" ht="16">
-      <c r="A28" s="9"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="5"/>
-      <c r="L28" s="33"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" ht="16">
-      <c r="A29" s="9"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="5"/>
-      <c r="L29" s="33"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:14" ht="16">
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="25" customFormat="1" ht="16">
-      <c r="A31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" s="25" customFormat="1" ht="32">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="32">
-      <c r="B33" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" s="25" customFormat="1" ht="32">
-      <c r="A34" s="3"/>
-      <c r="B34" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="A35" s="3"/>
-      <c r="B35" s="24"/>
-      <c r="F35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B36" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B37" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B38" s="24"/>
-      <c r="F38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B39" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="20"/>
+      <c r="B39" s="19"/>
       <c r="H39" s="20"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F40" s="20"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="9"/>
+      <c r="B40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="H40" s="20"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B41" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="20"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="9"/>
+      <c r="C41" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="H41" s="20"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F42" s="20"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="9"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="H42" s="20"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B43" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="L42" s="33"/>
+      <c r="N42" s="33"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="9"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="L43" s="33"/>
+      <c r="N43" s="33"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="C44" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F45" s="20"/>
-      <c r="H45" s="20"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B46" s="25" t="s">
-        <v>62</v>
+    <row r="46" spans="1:14" ht="32">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="F46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="5"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10" s="25" customFormat="1" ht="16">
+    <row r="47" spans="1:14" ht="32">
+      <c r="B47" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F47" s="20"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="5"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" s="25" customFormat="1" ht="16">
+    <row r="48" spans="1:14" ht="32">
+      <c r="A48" s="3"/>
+      <c r="B48" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F48" s="20"/>
-      <c r="H48" s="26"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="5"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:12" s="25" customFormat="1" ht="16">
+    <row r="49" spans="1:10">
+      <c r="A49" s="3"/>
+      <c r="B49" s="24"/>
       <c r="F49" s="20"/>
-      <c r="H49" s="26"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="5"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:12" s="25" customFormat="1" ht="16">
-      <c r="B50" s="25" t="s">
-        <v>63</v>
+    <row r="50" spans="1:10">
+      <c r="B50" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="27"/>
       <c r="H50" s="20"/>
       <c r="I50" s="5"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:12" s="25" customFormat="1" ht="16">
+    <row r="51" spans="1:10">
+      <c r="B51" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="H51" s="20"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="35"/>
-    </row>
-    <row r="52" spans="2:12" s="25" customFormat="1" ht="32">
-      <c r="B52" s="38" t="s">
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="24"/>
+      <c r="F52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="F54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="F56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="F58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="F59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="F61" s="20"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="F62" s="20"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="F63" s="20"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="F65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="2:12" ht="32">
+      <c r="B66" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C66" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D66" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="29" t="s">
+      <c r="E66" s="38"/>
+      <c r="F66" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G66" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H66" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37" t="s">
+      <c r="I66" s="36"/>
+      <c r="J66" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="K52" s="38" t="s">
+      <c r="K66" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="L52" s="38" t="s">
+      <c r="L66" s="38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
+    <row r="67" spans="2:12">
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A39:XFD39 A33:C38 F33:XFD38 A24:XFD32 A44:XFD1048576 A40:C43 G40:XFD43">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38 D33:E37">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:XFD23 A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 D42:F43">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:F41">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1784,25 +2423,25 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I30 I69:I1048576</xm:sqref>
+          <xm:sqref>I83:I1048576 I1:I43 I44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
+          <xm:sqref>C83:C1048576 C1:C43 C44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
+          <xm:sqref>B83:B1048576 B1:B43 B44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F30</xm:sqref>
+          <xm:sqref>F1:F43 F44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2517,7 +3156,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="I1" s="2"/>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="460" windowWidth="29040" windowHeight="19240" tabRatio="500"/>
+    <workbookView xWindow="4720" yWindow="620" windowWidth="27540" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="3" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="模板" sheetId="5" r:id="rId3"/>
     <sheet name="附录" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
+  </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -101,8 +104,48 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="184">
   <si>
     <t>类别</t>
   </si>
@@ -455,88 +498,271 @@
     <t>副本核心逻辑设计-（针对demo基础架构，表现部分从简）</t>
   </si>
   <si>
+    <t>胖子</t>
+  </si>
+  <si>
+    <t>对局部分表现逻辑</t>
+  </si>
+  <si>
+    <t>辛炜</t>
+  </si>
+  <si>
+    <t>副本部分表现逻辑</t>
+  </si>
+  <si>
+    <t>世界观玩法支持-城镇，副本，抓宠物</t>
+  </si>
+  <si>
+    <t>孔老师</t>
+  </si>
+  <si>
+    <t>主流程框架（家园，副本入口）文档</t>
+  </si>
+  <si>
+    <t>副本时间模拟器</t>
+  </si>
+  <si>
+    <t>创建角色文档</t>
+  </si>
+  <si>
+    <t>标准化</t>
+  </si>
+  <si>
+    <t>美术需求模板</t>
+  </si>
+  <si>
+    <t>demo版本场景需求</t>
+  </si>
+  <si>
+    <t>ui风格第三版</t>
+  </si>
+  <si>
+    <t>孙帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss原画一张细化（定原画标准） </t>
+  </si>
+  <si>
+    <t>豆豆</t>
+  </si>
+  <si>
+    <t>demo版本玩家角色需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo版本Npc，Boss需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算（考虑随机保底方法）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试描边</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-36</t>
+  </si>
+  <si>
+    <t>MG-54</t>
+  </si>
+  <si>
+    <t>MG-53</t>
+  </si>
+  <si>
+    <t>MG-50</t>
+  </si>
+  <si>
+    <t>MG-52</t>
+  </si>
+  <si>
+    <t>MG-46</t>
+  </si>
+  <si>
+    <t>MG-48</t>
+  </si>
+  <si>
+    <t>MG-14</t>
+  </si>
+  <si>
+    <t>MG-51</t>
+  </si>
+  <si>
+    <t>MG-34</t>
+  </si>
+  <si>
+    <t>MG-35</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-30，MG-31</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-32，MG-33</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-47</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-49</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-43，MG-44</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算文档跟进</t>
+  </si>
+  <si>
+    <t>MG-45</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-39，MG-40</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-37，MG-38</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-41，MG-42</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-57</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-56</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-58</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-59</t>
+  </si>
+  <si>
+    <t>MG-60</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术风格-角色-2d-人形原画第二版</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成初版</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周延期工作较多，需要考虑任务预估时间是否合理，制作时间是否高效？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划处于工作流前端，工作延期很容易影响后续部门工作开展，需要考虑方法保证进度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计今晚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要等待做Unity测试，延期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间待定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天提交测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui风格第四版</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计明天上午给程序</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计明天</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Demo版本关卡设计</t>
-  </si>
-  <si>
-    <t>胖子</t>
-  </si>
-  <si>
-    <t>对局部分表现逻辑</t>
-  </si>
-  <si>
-    <t>辛炜</t>
-  </si>
-  <si>
-    <t>副本部分表现逻辑</t>
-  </si>
-  <si>
-    <t>世界观玩法支持-城镇，副本，抓宠物</t>
-  </si>
-  <si>
-    <t>孔老师</t>
-  </si>
-  <si>
-    <t>主流程框架（家园，副本入口）文档</t>
-  </si>
-  <si>
-    <t>副本时间模拟器</t>
-  </si>
-  <si>
-    <t>创建角色文档</t>
-  </si>
-  <si>
-    <t>标准化</t>
-  </si>
-  <si>
-    <t>美术需求模板</t>
-  </si>
-  <si>
-    <t>demo版本场景需求</t>
-  </si>
-  <si>
-    <t>ui风格第三版</t>
-  </si>
-  <si>
-    <t>孙帆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boss原画一张细化（定原画标准） </t>
-  </si>
-  <si>
-    <t>豆豆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小怪物模型（3d风格标准） </t>
-  </si>
-  <si>
-    <t>当康原画</t>
-  </si>
-  <si>
-    <t>demo版本玩家角色需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo版本Npc，Boss需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本结算（考虑随机保底方法）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试描边</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙帆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度的广播方式-白板+邮件？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM资源学习方式：分配不同人先学习之后选取精华进行推送？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小怪物模型-初版（3d风格标准） </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天上午完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪原画一张</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有风险</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -635,12 +861,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -667,7 +899,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,8 +1047,152 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -899,9 +1275,51 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="97">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
@@ -930,6 +1348,30 @@
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
@@ -951,8 +1393,72 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -996,12 +1502,21 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1381,13 +1896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1398,8 +1913,13 @@
     <col min="4" max="4" width="49.33203125" style="25" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="25" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="25" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="25"/>
+    <col min="7" max="7" width="13.33203125" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="20"/>
+    <col min="9" max="9" width="10.1640625" style="25"/>
+    <col min="10" max="11" width="10.1640625" style="26"/>
+    <col min="12" max="13" width="10.1640625" style="25"/>
+    <col min="14" max="14" width="10.1640625" style="26"/>
+    <col min="15" max="16384" width="10.1640625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1427,19 +1947,19 @@
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1455,11 +1975,11 @@
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3"/>
@@ -1479,9 +1999,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="L3" s="33"/>
+      <c r="L3" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3"/>
@@ -1499,11 +2026,17 @@
         <v>12</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="I4" s="4"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="58"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3"/>
@@ -1521,11 +2054,14 @@
         <v>12</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I5" s="4"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="51"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3"/>
@@ -1534,10 +2070,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
@@ -1545,9 +2081,11 @@
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3"/>
@@ -1557,9 +2095,10 @@
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3"/>
@@ -1579,10 +2118,15 @@
         <v>9</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="I8" s="4"/>
-      <c r="K8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3"/>
@@ -1600,10 +2144,14 @@
         <v>8</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="K9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="K9" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3"/>
@@ -1612,19 +2160,24 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="K10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3"/>
@@ -1633,19 +2186,24 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="49" t="s">
+        <v>157</v>
+      </c>
       <c r="I11" s="4"/>
-      <c r="K11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3"/>
@@ -1654,10 +2212,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>12</v>
@@ -1665,8 +2223,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
-      <c r="K12" s="33"/>
-      <c r="M12" s="33"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="51"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3"/>
@@ -1677,8 +2237,10 @@
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
-      <c r="K13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3"/>
@@ -1689,10 +2251,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
@@ -1700,8 +2262,10 @@
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
-      <c r="K14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3"/>
@@ -1710,19 +2274,23 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="I15" s="4"/>
-      <c r="K15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3"/>
@@ -1731,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1740,10 +2308,15 @@
         <v>10</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="49" t="s">
+        <v>156</v>
+      </c>
       <c r="I16" s="4"/>
-      <c r="K16" s="33"/>
-      <c r="M16" s="33"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3"/>
@@ -1752,7 +2325,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -1761,8 +2334,10 @@
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
       <c r="I17" s="4"/>
-      <c r="K17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3"/>
@@ -1774,31 +2349,37 @@
       <c r="G18" s="7"/>
       <c r="H18" s="6"/>
       <c r="I18" s="4"/>
-      <c r="K18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="49" t="s">
+        <v>155</v>
+      </c>
       <c r="I19" s="4"/>
-      <c r="K19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="K19" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3"/>
@@ -1810,8 +2391,10 @@
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
       <c r="I20" s="4"/>
-      <c r="K20" s="33"/>
-      <c r="M20" s="33"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="51"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3"/>
@@ -1822,17 +2405,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="44" t="s">
+        <v>137</v>
+      </c>
       <c r="I21" s="4"/>
+      <c r="L21" s="25" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="3"/>
@@ -1840,17 +2428,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="44" t="s">
+        <v>135</v>
+      </c>
       <c r="I22" s="4"/>
+      <c r="K22" s="26" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1">
       <c r="A23" s="3"/>
@@ -1858,17 +2451,22 @@
         <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="44" t="s">
+        <v>134</v>
+      </c>
       <c r="I23" s="4"/>
+      <c r="J23" s="26" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3"/>
@@ -1877,8 +2475,11 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="5"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="N24" s="51"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
@@ -1886,8 +2487,11 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="5"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="N25" s="51"/>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="10" t="s">
@@ -1905,7 +2509,13 @@
       <c r="F26" s="25" t="s">
         <v>9</v>
       </c>
+      <c r="H26" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="I26" s="5"/>
+      <c r="K26" s="26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="B27" s="10"/>
@@ -1921,14 +2531,23 @@
       <c r="F27" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="H27" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="I27" s="5"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="N28" s="51"/>
+    </row>
+    <row r="29" spans="1:14" ht="32">
       <c r="A29" s="11"/>
       <c r="B29" s="13" t="s">
         <v>31</v>
@@ -1945,11 +2564,15 @@
       <c r="F29" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="33"/>
+      <c r="H29" s="33" t="s">
+        <v>144</v>
+      </c>
       <c r="I29" s="5"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="N29" s="52"/>
+    </row>
+    <row r="30" spans="1:14" ht="32">
       <c r="A30" s="11"/>
       <c r="C30" s="11" t="s">
         <v>16</v>
@@ -1961,17 +2584,24 @@
         <v>103</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="33"/>
+        <v>130</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>145</v>
+      </c>
       <c r="I30" s="5"/>
-      <c r="N30" s="33"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="I31" s="5"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="N31" s="51"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
@@ -1980,8 +2610,11 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="N32" s="51"/>
+    </row>
+    <row r="33" spans="1:14" ht="32">
       <c r="B33" s="25" t="s">
         <v>15</v>
       </c>
@@ -1995,10 +2628,15 @@
         <v>86</v>
       </c>
       <c r="F33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="48" t="s">
+        <v>152</v>
+      </c>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="N33" s="51"/>
+    </row>
+    <row r="34" spans="1:14" ht="32">
       <c r="A34" s="9"/>
       <c r="C34" s="8" t="s">
         <v>16</v>
@@ -2010,10 +2648,15 @@
         <v>88</v>
       </c>
       <c r="F34" s="41"/>
-      <c r="H34" s="41"/>
+      <c r="H34" s="48" t="s">
+        <v>151</v>
+      </c>
       <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="N34" s="51"/>
+    </row>
+    <row r="35" spans="1:14" ht="32">
       <c r="A35" s="11"/>
       <c r="C35" s="8" t="s">
         <v>16</v>
@@ -2025,96 +2668,125 @@
         <v>90</v>
       </c>
       <c r="F35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="H35" s="48" t="s">
+        <v>148</v>
+      </c>
       <c r="I35" s="5"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="N35" s="51"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="11"/>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="H36" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="N36" s="51"/>
+    </row>
+    <row r="37" spans="1:14" ht="32">
+      <c r="A37" s="11"/>
+      <c r="C37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E37" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="9"/>
-      <c r="C37" s="8" t="s">
+      <c r="F37" s="41"/>
+      <c r="H37" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="N37" s="51"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="9"/>
+      <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D38" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E38" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="C38" s="8" t="s">
+      <c r="F38" s="41"/>
+      <c r="H38" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="N38" s="51"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="C39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D39" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E39" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="9" t="s">
+      <c r="H39" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="N39" s="51"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="9"/>
-      <c r="B40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="20"/>
+      <c r="B40" s="19"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="33"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="N40" s="51"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="9"/>
+      <c r="B41" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="C41" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="I41" s="5"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="26" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="9"/>
@@ -2123,293 +2795,413 @@
         <v>16</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="20"/>
       <c r="I42" s="5"/>
-      <c r="L42" s="33"/>
-      <c r="N42" s="33"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="51"/>
+      <c r="M42" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="N42" s="51"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="9"/>
-      <c r="B43" s="19"/>
       <c r="C43" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="L43" s="33"/>
-      <c r="N43" s="33"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="N43" s="51"/>
     </row>
     <row r="44" spans="1:14">
+      <c r="A44" s="9"/>
       <c r="C44" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="L44" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="9"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="N45" s="52"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="C46" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="22" t="s">
+      <c r="I46" s="5"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="M46" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="N46" s="51"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="9"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="M47" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="N47" s="52"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="I48" s="5"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="N48" s="51"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:14" ht="32">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24" t="s">
+      <c r="I49" s="5"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="N49" s="51"/>
+    </row>
+    <row r="50" spans="1:14" ht="32">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D50" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="1:14" ht="32">
-      <c r="B47" s="24" t="s">
+      <c r="F50" s="20"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="N50" s="51"/>
+    </row>
+    <row r="51" spans="1:14" ht="32">
+      <c r="B51" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D51" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:14" ht="32">
-      <c r="A48" s="3"/>
-      <c r="B48" s="24" t="s">
+      <c r="F51" s="20"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="N51" s="51"/>
+    </row>
+    <row r="52" spans="1:14" ht="32">
+      <c r="A52" s="3"/>
+      <c r="B52" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D52" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="3"/>
-      <c r="B49" s="24"/>
-      <c r="F49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="24" t="s">
+      <c r="F52" s="20"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="N52" s="51"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="3"/>
+      <c r="B53" s="24"/>
+      <c r="F53" s="20"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="N53" s="51"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="B54" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="24" t="s">
+      <c r="F54" s="20"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="N54" s="51"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="B55" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="B52" s="24"/>
-      <c r="F52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="B53" s="24" t="s">
+      <c r="F55" s="20"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="N55" s="51"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="B56" s="24"/>
+      <c r="F56" s="20"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="N56" s="51"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="B57" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="F54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55" s="19" t="s">
+      <c r="F57" s="20"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="N57" s="51"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="F58" s="20"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="N58" s="51"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="F59" s="20"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="N59" s="51"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="F60" s="20"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="N60" s="51"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="F61" s="20"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="N61" s="51"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="B62" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="F56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="25" t="s">
+      <c r="F62" s="20"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="N62" s="51"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="F63" s="20"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="N63" s="51"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="B64" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="F58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="F59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="25" t="s">
+      <c r="F64" s="20"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="N64" s="51"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="F65" s="20"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="N65" s="51"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="F66" s="20"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="N66" s="51"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="F61" s="20"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="F62" s="20"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="F63" s="20"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="B64" s="25" t="s">
+      <c r="F67" s="20"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="N67" s="51"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="F68" s="20"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="N68" s="51"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="F69" s="20"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="N69" s="51"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="F70" s="20"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="N70" s="51"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="F65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="35"/>
-    </row>
-    <row r="66" spans="2:12" ht="32">
-      <c r="B66" s="38" t="s">
+      <c r="F71" s="20"/>
+      <c r="G71" s="27"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="N71" s="51"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="F72" s="20"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="51"/>
+      <c r="N72" s="51"/>
+    </row>
+    <row r="73" spans="2:14" ht="32">
+      <c r="B73" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C73" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D73" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="29" t="s">
+      <c r="E73" s="38"/>
+      <c r="F73" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="38" t="s">
+      <c r="G73" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H73" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37" t="s">
+      <c r="I73" s="36"/>
+      <c r="J73" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="K66" s="38" t="s">
+      <c r="K73" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L66" s="38" t="s">
+      <c r="L73" s="38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="B67" s="42"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
+      <c r="N73" s="51"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="42"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="43"/>
+      <c r="N74" s="51"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N74"/>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A39:XFD39 A33:C38 F33:XFD38 A24:XFD32 A44:XFD1048576 A40:C43 G40:XFD43">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A40:XFD40 A33:C39 F33:XFD39 A24:XFD32 A50:XFD56 A41:C42 G41:XFD42 G44 A48:G49 I48:XFD49 H48 A43:XFD43 G45:XFD45 A44:C45 A47:C47 G47:XFD47 A61:XFD1048576 A57:C60 E57:XFD60 A46:XFD46 I44:XFD44">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38 D33:E37">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="E39 D33:E38">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:XFD23 A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 D42:F43">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F41">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 G2:XFD23 D44:F45 D47:F47 D41:F42">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2423,25 +3215,25 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I83:I1048576 I1:I43 I44</xm:sqref>
+          <xm:sqref>I90:I1048576 I1:I48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C83:C1048576 C1:C43 C44</xm:sqref>
+          <xm:sqref>C90:C1048576 C1:C48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B83:B1048576 B1:B43 B44</xm:sqref>
+          <xm:sqref>B90:B1048576 B1:B48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F43 F44</xm:sqref>
+          <xm:sqref>F1:F48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2453,17 +3245,665 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="2"/>
+    <col min="4" max="4" width="49.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="2"/>
+    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="25"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="16">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="33"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" ht="16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="33"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="16">
+      <c r="A8" s="3"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="16">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="16">
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="16">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="25"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="16">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="16">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="25"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" ht="16">
+      <c r="A14" s="12"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="25"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="5"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" ht="16">
+      <c r="A15" s="12"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="25"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="25"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="16">
+      <c r="A17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="16">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="16">
+      <c r="B19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="16">
+      <c r="A20" s="9"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="16">
+      <c r="A21" s="12"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="16">
+      <c r="A22" s="12"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="16">
+      <c r="A23" s="9"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="16">
+      <c r="C24" s="8"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="16">
+      <c r="A25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" ht="16">
+      <c r="A26" s="9"/>
+      <c r="B26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="1:14" ht="16">
+      <c r="A27" s="9"/>
+      <c r="C27" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" ht="16">
+      <c r="A28" s="9"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="5"/>
+      <c r="L28" s="33"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" ht="16">
+      <c r="A29" s="9"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="5"/>
+      <c r="L29" s="33"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14" ht="16">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="25" customFormat="1" ht="16">
+      <c r="A31" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" s="25" customFormat="1" ht="32">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" s="25" customFormat="1" ht="32">
+      <c r="B33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" s="25" customFormat="1" ht="32">
+      <c r="A34" s="3"/>
+      <c r="B34" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="A35" s="3"/>
+      <c r="B35" s="24"/>
+      <c r="F35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="B36" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="B37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="B38" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="B39" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="B40" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="F41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="B42" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="D43" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="D44" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="D45" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="B46" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" s="25" customFormat="1" ht="16">
+      <c r="F47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" spans="1:12" s="25" customFormat="1" ht="32">
+      <c r="B48" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A46:XFD1048576 A42:C45 E42:XFD45 A1:XFD41">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D45">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I30 I65:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C30 C65:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B30 B65:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -2476,7 +3916,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3105,7 +4545,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3458,12 +4898,12 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12630" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34660" windowHeight="18900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$62</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -137,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="209">
   <si>
     <t>类别</t>
   </si>
@@ -551,9 +557,6 @@
   </si>
   <si>
     <t>Demo版本村落文档</t>
-  </si>
-  <si>
-    <t>Demo版本创建角色文档</t>
   </si>
   <si>
     <t>对局部分表现逻辑（非boss部分暂缓）</t>
@@ -753,6 +756,34 @@
   </si>
   <si>
     <t>孔瑱</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究热更方式，确认使用方法</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    每两周开会讨论产品问题，对产品的疑问都可以提出来，也会同时广播项目进度和设计方向。初次会议定在下周三</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +791,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -851,6 +882,20 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -876,21 +921,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,8 +957,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1071,17 +1122,162 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 25" xfId="3"/>
     <cellStyle name="常规 8" xfId="5"/>
     <cellStyle name="常规_2-4周版本输出" xfId="6"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="60"/>
@@ -1090,6 +1286,42 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1485,31 +1717,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="23"/>
-    <col min="9" max="9" width="10.125" style="5"/>
-    <col min="10" max="11" width="10.125" style="27"/>
-    <col min="12" max="13" width="10.125" style="5"/>
-    <col min="14" max="14" width="10.125" style="27"/>
-    <col min="15" max="16384" width="10.125" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="10.1640625" style="23"/>
+    <col min="10" max="11" width="10.1640625" style="27"/>
+    <col min="12" max="13" width="10.1640625" style="5"/>
+    <col min="14" max="14" width="10.1640625" style="27"/>
+    <col min="15" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1568,7 +1799,7 @@
       <c r="M2" s="55"/>
       <c r="N2" s="56"/>
     </row>
-    <row r="3" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="41" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>14</v>
@@ -1589,7 +1820,7 @@
       <c r="H3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="44" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="57"/>
@@ -1602,7 +1833,7 @@
       </c>
       <c r="N3" s="57"/>
     </row>
-    <row r="4" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="41" customFormat="1">
       <c r="A4" s="40"/>
       <c r="B4" s="42"/>
       <c r="C4" s="41" t="s">
@@ -1621,7 +1852,7 @@
       <c r="H4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="44" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="58"/>
@@ -1632,7 +1863,7 @@
       <c r="M4" s="60"/>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="41" customFormat="1">
       <c r="A5" s="40"/>
       <c r="B5" s="42"/>
       <c r="C5" s="41" t="s">
@@ -1651,7 +1882,7 @@
       <c r="H5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="58"/>
@@ -1662,7 +1893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="41" customFormat="1">
       <c r="A6" s="40"/>
       <c r="B6" s="42"/>
       <c r="C6" s="41" t="s">
@@ -1679,7 +1910,7 @@
       </c>
       <c r="G6" s="42"/>
       <c r="H6" s="44"/>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="57"/>
@@ -1690,7 +1921,7 @@
       <c r="M6" s="60"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="41" customFormat="1">
       <c r="A7" s="40"/>
       <c r="B7" s="42"/>
       <c r="E7" s="42"/>
@@ -1703,7 +1934,7 @@
       <c r="M7" s="60"/>
       <c r="N7" s="58"/>
     </row>
-    <row r="8" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="41" customFormat="1">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
         <v>30</v>
@@ -1724,7 +1955,7 @@
       <c r="H8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="57"/>
@@ -1735,7 +1966,7 @@
       <c r="M8" s="60"/>
       <c r="N8" s="57"/>
     </row>
-    <row r="9" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="41" customFormat="1">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="41" t="s">
@@ -1754,7 +1985,7 @@
       <c r="H9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="57"/>
@@ -1764,7 +1995,7 @@
       <c r="M9" s="60"/>
       <c r="N9" s="57"/>
     </row>
-    <row r="10" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="41" customFormat="1">
       <c r="A10" s="40"/>
       <c r="B10" s="42"/>
       <c r="C10" s="41" t="s">
@@ -1792,7 +2023,7 @@
       <c r="M10" s="60"/>
       <c r="N10" s="57"/>
     </row>
-    <row r="11" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="41" customFormat="1">
       <c r="A11" s="40"/>
       <c r="B11" s="42"/>
       <c r="C11" s="41" t="s">
@@ -1811,7 +2042,7 @@
       <c r="H11" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="34" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="57"/>
@@ -1825,7 +2056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="41" customFormat="1">
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="41" t="s">
@@ -1842,7 +2073,7 @@
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="58"/>
@@ -1853,7 +2084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="41" customFormat="1">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="D13" s="42"/>
@@ -1867,7 +2098,7 @@
       <c r="M13" s="60"/>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="41" customFormat="1">
       <c r="A14" s="40"/>
       <c r="B14" s="42" t="s">
         <v>45</v>
@@ -1886,7 +2117,7 @@
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="44"/>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="58"/>
@@ -1894,7 +2125,7 @@
       <c r="M14" s="60"/>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="41" customFormat="1">
       <c r="A15" s="40"/>
       <c r="B15" s="42"/>
       <c r="C15" s="41" t="s">
@@ -1913,7 +2144,7 @@
       <c r="H15" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="58"/>
@@ -1921,7 +2152,7 @@
       <c r="M15" s="60"/>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="41" customFormat="1">
       <c r="A16" s="40"/>
       <c r="B16" s="42"/>
       <c r="C16" s="41" t="s">
@@ -1940,7 +2171,7 @@
       <c r="H16" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="57"/>
@@ -1951,7 +2182,7 @@
       <c r="M16" s="60"/>
       <c r="N16" s="57"/>
     </row>
-    <row r="17" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="41" customFormat="1">
       <c r="A17" s="40"/>
       <c r="B17" s="42"/>
       <c r="C17" s="41" t="s">
@@ -1966,13 +2197,13 @@
       <c r="F17" s="43"/>
       <c r="G17" s="42"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="58"/>
       <c r="K17" s="59"/>
       <c r="M17" s="60"/>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="41" customFormat="1">
       <c r="A18" s="40"/>
       <c r="B18" s="42"/>
       <c r="C18" s="46"/>
@@ -1981,13 +2212,13 @@
       <c r="F18" s="43"/>
       <c r="G18" s="42"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="58"/>
       <c r="K18" s="59"/>
       <c r="M18" s="60"/>
       <c r="N18" s="58"/>
     </row>
-    <row r="19" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="41" customFormat="1">
       <c r="A19" s="40"/>
       <c r="B19" s="42" t="s">
         <v>54</v>
@@ -2008,7 +2239,7 @@
       <c r="H19" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="57"/>
@@ -2018,7 +2249,7 @@
       <c r="M19" s="60"/>
       <c r="N19" s="57"/>
     </row>
-    <row r="20" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="41" customFormat="1">
       <c r="A20" s="40"/>
       <c r="B20" s="42"/>
       <c r="C20" s="46"/>
@@ -2027,13 +2258,13 @@
       <c r="F20" s="43"/>
       <c r="G20" s="42"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="58"/>
       <c r="K20" s="59"/>
       <c r="M20" s="60"/>
       <c r="N20" s="58"/>
     </row>
-    <row r="21" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="41" customFormat="1">
       <c r="A21" s="40"/>
       <c r="B21" s="41" t="s">
         <v>58</v>
@@ -2054,7 +2285,7 @@
       <c r="H21" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="57"/>
@@ -2064,7 +2295,7 @@
       </c>
       <c r="N21" s="57"/>
     </row>
-    <row r="22" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="40"/>
       <c r="C22" s="41" t="s">
         <v>15</v>
@@ -2082,7 +2313,7 @@
       <c r="H22" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="57"/>
@@ -2091,7 +2322,7 @@
       </c>
       <c r="N22" s="57"/>
     </row>
-    <row r="23" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="40"/>
       <c r="C23" s="41" t="s">
         <v>15</v>
@@ -2109,7 +2340,7 @@
       <c r="H23" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="57" t="s">
@@ -2118,7 +2349,7 @@
       <c r="K23" s="57"/>
       <c r="N23" s="57"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="3"/>
       <c r="C24" s="10"/>
       <c r="D24" s="7"/>
@@ -2126,24 +2357,24 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
       <c r="N24" s="63"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="51"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="63"/>
       <c r="K25" s="63"/>
       <c r="N25" s="63"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="B26" s="12" t="s">
         <v>66</v>
       </c>
@@ -2162,17 +2393,17 @@
       <c r="H26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="51" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="27" t="s">
         <v>19</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>42</v>
@@ -2189,22 +2420,22 @@
       <c r="H27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="63"/>
       <c r="K27" s="63"/>
       <c r="N27" s="63"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="63"/>
       <c r="K28" s="63"/>
       <c r="N28" s="63"/>
     </row>
-    <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
         <v>72</v>
@@ -2224,14 +2455,14 @@
       <c r="H29" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="63"/>
       <c r="K29" s="63"/>
       <c r="N29" s="64"/>
     </row>
-    <row r="30" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
       <c r="C30" s="13" t="s">
         <v>15</v>
@@ -2248,36 +2479,36 @@
       <c r="H30" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
       <c r="N30" s="64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="51"/>
       <c r="J31" s="63"/>
       <c r="K31" s="63"/>
       <c r="N31" s="63"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="63"/>
       <c r="K32" s="63"/>
       <c r="N32" s="63"/>
     </row>
-    <row r="33" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -2294,14 +2525,14 @@
       <c r="H33" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="63"/>
       <c r="K33" s="63"/>
       <c r="N33" s="63"/>
     </row>
-    <row r="34" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -2316,7 +2547,7 @@
       <c r="H34" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="63"/>
@@ -2325,7 +2556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="32">
       <c r="A35" s="13"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
@@ -2340,14 +2571,14 @@
       <c r="H35" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J35" s="63"/>
       <c r="K35" s="63"/>
       <c r="N35" s="63"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="5" t="s">
@@ -2360,14 +2591,14 @@
       <c r="H36" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="63"/>
       <c r="K36" s="63"/>
       <c r="N36" s="63"/>
     </row>
-    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
@@ -2382,14 +2613,14 @@
       <c r="H37" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="63"/>
       <c r="K37" s="63"/>
       <c r="N37" s="63"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="11"/>
       <c r="C38" s="10" t="s">
         <v>42</v>
@@ -2404,14 +2635,14 @@
       <c r="H38" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J38" s="63"/>
       <c r="K38" s="63"/>
       <c r="N38" s="63"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="C39" s="10" t="s">
         <v>97</v>
       </c>
@@ -2424,24 +2655,24 @@
       <c r="H39" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="63"/>
       <c r="K39" s="63"/>
       <c r="N39" s="63"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="I40" s="7"/>
+      <c r="I40" s="51"/>
       <c r="J40" s="63"/>
       <c r="K40" s="63"/>
       <c r="N40" s="63"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="11"/>
       <c r="B41" s="21" t="s">
         <v>45</v>
@@ -2461,7 +2692,7 @@
       <c r="H41" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="26"/>
@@ -2469,7 +2700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" s="11"/>
       <c r="B42" s="21"/>
       <c r="C42" s="5" t="s">
@@ -2484,7 +2715,7 @@
       <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J42" s="64"/>
@@ -2494,7 +2725,7 @@
       </c>
       <c r="N42" s="63"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
@@ -2507,14 +2738,14 @@
       <c r="H43" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="51" t="s">
         <v>108</v>
       </c>
       <c r="J43" s="63"/>
       <c r="K43" s="63"/>
       <c r="N43" s="63"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="11"/>
       <c r="C44" s="5" t="s">
         <v>15</v>
@@ -2528,7 +2759,7 @@
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -2538,7 +2769,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" s="11"/>
       <c r="B45" s="21"/>
       <c r="C45" s="5" t="s">
@@ -2553,7 +2784,7 @@
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="63"/>
@@ -2563,7 +2794,7 @@
       </c>
       <c r="N45" s="64"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
@@ -2576,7 +2807,7 @@
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="51" t="s">
         <v>108</v>
       </c>
       <c r="J46" s="63"/>
@@ -2586,7 +2817,7 @@
       </c>
       <c r="N46" s="63"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" s="11"/>
       <c r="B47" s="21"/>
       <c r="C47" s="5" t="s">
@@ -2601,7 +2832,7 @@
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J47" s="63"/>
@@ -2611,22 +2842,22 @@
       </c>
       <c r="N47" s="64"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I48" s="7"/>
+    <row r="48" spans="1:14">
+      <c r="I48" s="51"/>
       <c r="J48" s="63"/>
       <c r="K48" s="63"/>
       <c r="N48" s="63"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="7"/>
+      <c r="I49" s="51"/>
       <c r="J49" s="63"/>
       <c r="K49" s="63"/>
       <c r="N49" s="63"/>
     </row>
-    <row r="50" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
         <v>117</v>
@@ -2635,12 +2866,12 @@
         <v>118</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="I50" s="7"/>
+      <c r="I50" s="51"/>
       <c r="J50" s="63"/>
       <c r="K50" s="63"/>
       <c r="N50" s="63"/>
     </row>
-    <row r="51" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
         <v>119</v>
       </c>
@@ -2648,12 +2879,12 @@
         <v>118</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="I51" s="7"/>
+      <c r="I51" s="51"/>
       <c r="J51" s="63"/>
       <c r="K51" s="63"/>
       <c r="N51" s="63"/>
     </row>
-    <row r="52" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
       <c r="B52" s="26" t="s">
         <v>120</v>
@@ -2662,177 +2893,177 @@
         <v>118</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="I52" s="7"/>
+      <c r="I52" s="51"/>
       <c r="J52" s="63"/>
       <c r="K52" s="63"/>
       <c r="N52" s="63"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="26"/>
       <c r="F53" s="23"/>
-      <c r="I53" s="7"/>
+      <c r="I53" s="51"/>
       <c r="J53" s="63"/>
       <c r="K53" s="63"/>
       <c r="N53" s="63"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="B54" s="26" t="s">
         <v>121</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="I54" s="7"/>
+      <c r="I54" s="51"/>
       <c r="J54" s="63"/>
       <c r="K54" s="63"/>
       <c r="N54" s="63"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
         <v>122</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="I55" s="7"/>
+      <c r="I55" s="51"/>
       <c r="J55" s="63"/>
       <c r="K55" s="63"/>
       <c r="N55" s="63"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14">
       <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="I56" s="7"/>
+      <c r="I56" s="51"/>
       <c r="J56" s="63"/>
       <c r="K56" s="63"/>
       <c r="N56" s="63"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="I57" s="7"/>
+      <c r="I57" s="51"/>
       <c r="J57" s="63"/>
       <c r="K57" s="63"/>
       <c r="N57" s="63"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="F58" s="23"/>
-      <c r="I58" s="7"/>
+      <c r="I58" s="51"/>
       <c r="J58" s="63"/>
       <c r="K58" s="63"/>
       <c r="N58" s="63"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="F59" s="23"/>
-      <c r="I59" s="7"/>
+      <c r="I59" s="51"/>
       <c r="J59" s="63"/>
       <c r="K59" s="63"/>
       <c r="N59" s="63"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="I60" s="7"/>
+      <c r="I60" s="51"/>
       <c r="J60" s="63"/>
       <c r="K60" s="63"/>
       <c r="N60" s="63"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="F61" s="23"/>
-      <c r="I61" s="7"/>
+      <c r="I61" s="51"/>
       <c r="J61" s="63"/>
       <c r="K61" s="63"/>
       <c r="N61" s="63"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="B62" s="21" t="s">
         <v>124</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="I62" s="7"/>
+      <c r="I62" s="51"/>
       <c r="J62" s="63"/>
       <c r="K62" s="63"/>
       <c r="N62" s="63"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14">
       <c r="F63" s="23"/>
-      <c r="I63" s="7"/>
+      <c r="I63" s="51"/>
       <c r="J63" s="63"/>
       <c r="K63" s="63"/>
       <c r="N63" s="63"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14">
       <c r="B64" s="5" t="s">
         <v>125</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="I64" s="7"/>
+      <c r="I64" s="51"/>
       <c r="J64" s="63"/>
       <c r="K64" s="63"/>
       <c r="N64" s="63"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14">
       <c r="F65" s="23"/>
-      <c r="I65" s="7"/>
+      <c r="I65" s="51"/>
       <c r="J65" s="63"/>
       <c r="K65" s="63"/>
       <c r="N65" s="63"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14">
       <c r="F66" s="23"/>
-      <c r="I66" s="7"/>
+      <c r="I66" s="51"/>
       <c r="J66" s="63"/>
       <c r="K66" s="63"/>
       <c r="N66" s="63"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14">
       <c r="B67" s="5" t="s">
         <v>126</v>
       </c>
       <c r="F67" s="23"/>
-      <c r="I67" s="7"/>
+      <c r="I67" s="51"/>
       <c r="J67" s="63"/>
       <c r="K67" s="63"/>
       <c r="N67" s="63"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14">
       <c r="F68" s="23"/>
-      <c r="I68" s="7"/>
+      <c r="I68" s="51"/>
       <c r="J68" s="63"/>
       <c r="K68" s="63"/>
       <c r="N68" s="63"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14">
       <c r="F69" s="23"/>
-      <c r="I69" s="7"/>
+      <c r="I69" s="51"/>
       <c r="J69" s="63"/>
       <c r="K69" s="63"/>
       <c r="N69" s="63"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14">
       <c r="F70" s="23"/>
-      <c r="I70" s="7"/>
+      <c r="I70" s="51"/>
       <c r="J70" s="63"/>
       <c r="K70" s="63"/>
       <c r="N70" s="63"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14">
       <c r="B71" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="28"/>
-      <c r="I71" s="7"/>
+      <c r="I71" s="51"/>
       <c r="J71" s="63"/>
       <c r="K71" s="63"/>
       <c r="N71" s="63"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14">
       <c r="F72" s="23"/>
-      <c r="I72" s="7"/>
+      <c r="I72" s="51"/>
       <c r="J72" s="68"/>
       <c r="K72" s="63"/>
       <c r="N72" s="63"/>
     </row>
-    <row r="73" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" ht="32">
       <c r="B73" s="29" t="s">
         <v>128</v>
       </c>
@@ -2852,7 +3083,7 @@
       <c r="H73" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="I73" s="37"/>
+      <c r="I73" s="30"/>
       <c r="J73" s="69" t="s">
         <v>134</v>
       </c>
@@ -2864,7 +3095,7 @@
       </c>
       <c r="N73" s="63"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14">
       <c r="B74" s="65"/>
       <c r="C74" s="66"/>
       <c r="D74" s="66"/>
@@ -2872,7 +3103,7 @@
       <c r="F74" s="66"/>
       <c r="G74" s="66"/>
       <c r="H74" s="67"/>
-      <c r="I74" s="66"/>
+      <c r="I74" s="71"/>
       <c r="J74" s="70"/>
       <c r="K74" s="70"/>
       <c r="L74" s="66"/>
@@ -2881,14 +3112,22 @@
   </sheetData>
   <autoFilter ref="A1:N74"/>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="A24:XFD40 E47 A1:XFD1 A50:XFD56 A41:C45 G41:XFD42 G44 A48:G49 I48:XFD49 H48 F43:XFD43 G45:XFD45 A47:C47 G47:XFD47 A61:XFD1048576 A57:C60 E57:XFD60 A46:XFD46 I44:XFD44">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 G2:XFD23 D44:F45 D47 F47 D41:F41 E42:F42 E43 D42:D43">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 D44:F45 D47 F47 D41:F41 E42:F42 E43 D42:D43">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"阻碍"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"未完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2923,31 +3162,37 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="4"/>
-    <col min="7" max="7" width="13.375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2989,7 +3234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3007,7 +3252,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="39" t="s">
         <v>14</v>
@@ -3031,13 +3276,13 @@
       <c r="I3" s="43"/>
       <c r="L3" s="47"/>
     </row>
-    <row r="4" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A4" s="40"/>
       <c r="C4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>137</v>
+      <c r="D4" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>34</v>
@@ -3050,92 +3295,92 @@
       <c r="I4" s="43"/>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A5" s="40"/>
-      <c r="C5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="42"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="L5" s="47"/>
     </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="42"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="43"/>
+      <c r="H6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="48"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A7" s="40"/>
-      <c r="B7" s="39" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>139</v>
+      <c r="D7" s="41" t="s">
+        <v>137</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="42"/>
-      <c r="H7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="43"/>
       <c r="L7" s="47"/>
     </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>34</v>
+      <c r="D8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="L8" s="47"/>
     </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="43"/>
       <c r="G9" s="42"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
         <v>45</v>
@@ -3144,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>22</v>
@@ -3159,14 +3404,14 @@
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
     </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>34</v>
@@ -3178,14 +3423,14 @@
       <c r="H11" s="46"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>38</v>
@@ -3199,14 +3444,14 @@
       <c r="K12" s="47"/>
       <c r="M12" s="47"/>
     </row>
-    <row r="13" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>38</v>
@@ -3220,14 +3465,14 @@
       <c r="K13" s="47"/>
       <c r="M13" s="47"/>
     </row>
-    <row r="14" spans="1:14" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
       <c r="C14" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>17</v>
@@ -3239,7 +3484,7 @@
       <c r="H14" s="46"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="16">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="10"/>
@@ -3250,7 +3495,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="16">
       <c r="A16" s="11" t="s">
         <v>65</v>
       </c>
@@ -3259,7 +3504,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="16">
       <c r="B17" s="12" t="s">
         <v>66</v>
       </c>
@@ -3267,23 +3512,23 @@
         <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="16">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>68</v>
@@ -3293,381 +3538,388 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:14" ht="16">
       <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
-        <v>72</v>
-      </c>
+    <row r="20" spans="1:14" ht="16">
+      <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="16"/>
       <c r="I20" s="7"/>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="13" t="s">
+    </row>
+    <row r="21" spans="1:14" ht="16">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="16">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="7"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" ht="16">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="7"/>
-      <c r="N21" s="34"/>
-    </row>
-    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="5"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="5"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" ht="16">
       <c r="A24" s="14"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="D24" s="13"/>
+      <c r="E24" s="5"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>79</v>
-      </c>
+    <row r="25" spans="1:14" ht="16">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
+      <c r="E25" s="5"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:14" ht="16">
+      <c r="A26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="16">
+      <c r="A27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="16">
+      <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="C28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:14" ht="16">
+      <c r="A29" s="11"/>
       <c r="B29" s="5"/>
       <c r="C29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>81</v>
+      <c r="D29" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="F29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:14" ht="16">
+      <c r="A30" s="14"/>
       <c r="B30" s="5"/>
       <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>95</v>
+      <c r="D30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:14" ht="16">
+      <c r="A31" s="14"/>
       <c r="B31" s="5"/>
       <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>90</v>
+      <c r="D31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="16">
       <c r="A32" s="11"/>
       <c r="B32" s="5"/>
       <c r="C32" s="10" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="C33" s="10"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+    <row r="33" spans="1:14" ht="16">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:14" ht="16">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="16">
+      <c r="C35" s="10"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="16">
+      <c r="A36" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="34"/>
-    </row>
-    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="C36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="5"/>
       <c r="H36" s="23"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="16">
       <c r="A37" s="11"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="1:14" ht="16">
+      <c r="A38" s="11"/>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="7"/>
-      <c r="L37" s="34"/>
-      <c r="N37" s="34"/>
-    </row>
-    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="23"/>
       <c r="I38" s="7"/>
-      <c r="L38" s="34"/>
-      <c r="N38" s="34"/>
-    </row>
-    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:14" ht="16">
+      <c r="A39" s="11"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
+      <c r="L39" s="34"/>
+      <c r="N39" s="34"/>
+    </row>
+    <row r="40" spans="1:14" ht="16">
+      <c r="A40" s="11"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
+      <c r="L40" s="34"/>
+      <c r="N40" s="34"/>
+    </row>
+    <row r="41" spans="1:14" ht="16">
+      <c r="C41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" customFormat="1" ht="16">
+      <c r="A42" s="4"/>
+      <c r="C42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="A43" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B43" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:14" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="26" t="s">
-        <v>120</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>118</v>
@@ -3677,169 +3929,216 @@
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="26"/>
+    <row r="45" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="B45" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="F45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="A46" s="3"/>
       <c r="B46" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="F46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="26" t="s">
-        <v>122</v>
-      </c>
+    <row r="47" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="A47" s="3"/>
+      <c r="B47" s="26"/>
       <c r="F47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="5" customFormat="1" ht="16">
       <c r="B48" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="21" t="s">
-        <v>124</v>
+    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B49" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="F49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
-        <v>125</v>
+    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B50" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="F50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B51" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="F51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="7"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="B52" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="F52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="7"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="5" t="s">
-        <v>158</v>
-      </c>
+    <row r="53" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F53" s="23"/>
-      <c r="H53" s="27"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="7"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B54" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D54" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="H54" s="27"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="D55" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F55" s="23"/>
       <c r="H55" s="27"/>
       <c r="I55" s="7"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="5" t="s">
-        <v>127</v>
+    <row r="56" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="D56" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F56" s="23"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="23"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="7"/>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="D57" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="F57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="H57" s="27"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="36"/>
-    </row>
-    <row r="58" spans="2:12" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="29" t="s">
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="D58" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="36"/>
+    </row>
+    <row r="61" spans="2:12" s="5" customFormat="1" ht="32">
+      <c r="B61" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C61" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D61" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30" t="s">
+      <c r="E61" s="29"/>
+      <c r="F61" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G61" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H61" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38" t="s">
+      <c r="I61" s="37"/>
+      <c r="J61" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="K58" s="29" t="s">
+      <c r="K61" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="L58" s="29" t="s">
+      <c r="L61" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
+    <row r="62" spans="2:12">
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="A41:XFD1048576 A1:XFD27 A30:XFD35 A36:F38 G36:XFD38 A39:XFD39 F28:XFD29 A28:C29 A40:XFD40">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD3 A32:XFD1048576 F30:XFD31 A30:C31 A4:C4 E4:XFD4 A5:XFD29">
+    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3852,27 +4151,30 @@
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B40 B1:B39 B75:B1048576</xm:sqref>
+          <xm:sqref>B78:B1048576 B1:B42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C78:C1048576 C1:C42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I78:I1048576 I1:I42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F40 F1:F39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C40 C1:C39 C75:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>I40 I1:I39 I75:I1048576</xm:sqref>
+          <xm:sqref>F1:F42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -3883,22 +4185,22 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="4"/>
-    <col min="7" max="7" width="13.375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3940,7 +4242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3958,7 +4260,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
@@ -3974,7 +4276,7 @@
       <c r="I3" s="7"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
@@ -3990,7 +4292,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
@@ -4005,7 +4307,7 @@
       <c r="K5" s="34"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -4020,7 +4322,7 @@
       <c r="K6" s="34"/>
       <c r="M6" s="34"/>
     </row>
-    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -4035,7 +4337,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
@@ -4046,7 +4348,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="16">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -4055,7 +4357,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="16">
       <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
@@ -4066,7 +4368,7 @@
       <c r="E10" s="5"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="16">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>42</v>
@@ -4075,12 +4377,12 @@
       <c r="E11" s="5"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="16">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="16">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>72</v>
@@ -4094,7 +4396,7 @@
       <c r="I13" s="7"/>
       <c r="N13" s="34"/>
     </row>
-    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="16">
       <c r="A14" s="14"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4106,7 +4408,7 @@
       <c r="I14" s="7"/>
       <c r="N14" s="34"/>
     </row>
-    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="16">
       <c r="A15" s="14"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -4116,7 +4418,7 @@
       <c r="E15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="16">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
@@ -4124,13 +4426,13 @@
       <c r="E16" s="5"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="16">
       <c r="A17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="16">
       <c r="A18" s="11" t="s">
         <v>79</v>
       </c>
@@ -4138,7 +4440,7 @@
       <c r="D18" s="13"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="16">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -4151,7 +4453,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="16">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -4163,7 +4465,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="16">
       <c r="A21" s="14"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -4175,7 +4477,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="16">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
@@ -4187,7 +4489,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="16">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
@@ -4199,13 +4501,13 @@
       <c r="H23" s="18"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="16">
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="16">
       <c r="A25" s="11" t="s">
         <v>100</v>
       </c>
@@ -4218,7 +4520,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="16">
       <c r="A26" s="11"/>
       <c r="B26" s="21" t="s">
         <v>45</v>
@@ -4233,7 +4535,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="16">
       <c r="A27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -4245,7 +4547,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="16">
       <c r="A28" s="11"/>
       <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
@@ -4260,7 +4562,7 @@
       <c r="L28" s="34"/>
       <c r="N28" s="34"/>
     </row>
-    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="16">
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
@@ -4275,13 +4577,13 @@
       <c r="L29" s="34"/>
       <c r="N29" s="34"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="16">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" s="5" customFormat="1" ht="16">
       <c r="A31" s="24" t="s">
         <v>116</v>
       </c>
@@ -4298,7 +4600,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="5" customFormat="1" ht="32">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>117</v>
@@ -4311,7 +4613,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="B33" s="26" t="s">
         <v>119</v>
       </c>
@@ -4323,7 +4625,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="A34" s="3"/>
       <c r="B34" s="26" t="s">
         <v>120</v>
@@ -4336,7 +4638,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A35" s="3"/>
       <c r="B35" s="26"/>
       <c r="F35" s="23"/>
@@ -4344,7 +4646,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B36" s="26" t="s">
         <v>121</v>
       </c>
@@ -4353,7 +4655,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B37" s="26" t="s">
         <v>122</v>
       </c>
@@ -4362,14 +4664,14 @@
       <c r="I37" s="7"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B38" s="26"/>
       <c r="F38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="7"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B39" s="26" t="s">
         <v>123</v>
       </c>
@@ -4378,13 +4680,13 @@
       <c r="I39" s="7"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B41" s="21" t="s">
         <v>124</v>
       </c>
@@ -4393,13 +4695,13 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B43" s="5" t="s">
         <v>125</v>
       </c>
@@ -4408,19 +4710,19 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B46" s="5" t="s">
         <v>126</v>
       </c>
@@ -4429,25 +4731,25 @@
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F47" s="23"/>
       <c r="H47" s="27"/>
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F48" s="23"/>
       <c r="H48" s="27"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F49" s="23"/>
       <c r="H49" s="27"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="B50" s="5" t="s">
         <v>127</v>
       </c>
@@ -4457,13 +4759,13 @@
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="7"/>
       <c r="J51" s="36"/>
     </row>
-    <row r="52" spans="2:12" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" s="5" customFormat="1" ht="32">
       <c r="B52" s="29" t="s">
         <v>128</v>
       </c>
@@ -4494,7 +4796,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
@@ -4510,8 +4812,11 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"未完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4546,6 +4851,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -4558,33 +4866,33 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -4597,12 +4905,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -4615,12 +4923,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -4633,226 +4941,226 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="16">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4860,11 +5168,16 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34660" windowHeight="18900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$66</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="225">
   <si>
     <t>类别</t>
   </si>
@@ -554,27 +554,6 @@
   </si>
   <si>
     <t>进展</t>
-  </si>
-  <si>
-    <t>Demo版本村落文档</t>
-  </si>
-  <si>
-    <t>对局部分表现逻辑（非boss部分暂缓）</t>
-  </si>
-  <si>
-    <t>Demo数值指定</t>
-  </si>
-  <si>
-    <t>任务逻辑初版</t>
-  </si>
-  <si>
-    <t>Unity测试-Boss对局镜头</t>
-  </si>
-  <si>
-    <t>Unity测试-描边测试、场景光测试</t>
-  </si>
-  <si>
-    <t>抓妖怪设计初版</t>
   </si>
   <si>
     <t>主流程-创建角色文档分析及跟进</t>
@@ -784,14 +763,106 @@
   </si>
   <si>
     <t xml:space="preserve">    每两周开会讨论产品问题，对产品的疑问都可以提出来，也会同时广播项目进度和设计方向。初次会议定在下周三</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪、孔老师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo数值指定</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务逻辑审核</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛炜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity测试-卡通渲染、场景光测试</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Km资料阅读、分类处理及分享</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本关卡设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局部分表现逻辑（非boss部分暂缓）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本村落文档</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务逻辑初版</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity测试-Boss对局镜头</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓妖怪设计初版</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招表现形式，操作方式构想</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity基础操作学习-创建物件、UI排版及美术资源导入</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1127,64 +1198,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 25" xfId="3"/>
     <cellStyle name="常规 8" xfId="5"/>
     <cellStyle name="常规_2-4周版本输出" xfId="6"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="11">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color indexed="60"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1223,62 +1255,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color indexed="60"/>
       </font>
@@ -1302,12 +1278,21 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1322,50 +1307,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1714,30 +1655,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="C11:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="5"/>
-    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="5"/>
+    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="10.1640625" style="23"/>
-    <col min="10" max="11" width="10.1640625" style="27"/>
-    <col min="12" max="13" width="10.1640625" style="5"/>
-    <col min="14" max="14" width="10.1640625" style="27"/>
-    <col min="15" max="16384" width="10.1640625" style="5"/>
+    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="10.125" style="23"/>
+    <col min="10" max="11" width="10.125" style="27"/>
+    <col min="12" max="13" width="10.125" style="5"/>
+    <col min="14" max="14" width="10.125" style="27"/>
+    <col min="15" max="16384" width="10.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2400,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2435,7 +2376,7 @@
       <c r="K28" s="63"/>
       <c r="N28" s="63"/>
     </row>
-    <row r="29" spans="1:14" ht="32">
+    <row r="29" spans="1:14" ht="33">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
         <v>72</v>
@@ -2462,7 +2403,7 @@
       <c r="K29" s="63"/>
       <c r="N29" s="64"/>
     </row>
-    <row r="30" spans="1:14" ht="96">
+    <row r="30" spans="1:14" ht="115.5">
       <c r="A30" s="13"/>
       <c r="C30" s="13" t="s">
         <v>15</v>
@@ -2485,7 +2426,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
       <c r="N30" s="64" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2508,7 +2449,7 @@
       <c r="K32" s="63"/>
       <c r="N32" s="63"/>
     </row>
-    <row r="33" spans="1:14" ht="32">
+    <row r="33" spans="1:14" ht="33">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -2532,7 +2473,7 @@
       <c r="K33" s="63"/>
       <c r="N33" s="63"/>
     </row>
-    <row r="34" spans="1:14" ht="32">
+    <row r="34" spans="1:14" ht="33">
       <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -2556,7 +2497,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="32">
+    <row r="35" spans="1:14" ht="33">
       <c r="A35" s="13"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
@@ -2598,7 +2539,7 @@
       <c r="K36" s="63"/>
       <c r="N36" s="63"/>
     </row>
-    <row r="37" spans="1:14" ht="32">
+    <row r="37" spans="1:14" ht="33">
       <c r="A37" s="13"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
@@ -2857,7 +2798,7 @@
       <c r="K49" s="63"/>
       <c r="N49" s="63"/>
     </row>
-    <row r="50" spans="1:14" ht="32">
+    <row r="50" spans="1:14" ht="33">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
         <v>117</v>
@@ -2871,7 +2812,7 @@
       <c r="K50" s="63"/>
       <c r="N50" s="63"/>
     </row>
-    <row r="51" spans="1:14" ht="32">
+    <row r="51" spans="1:14" ht="33">
       <c r="B51" s="26" t="s">
         <v>119</v>
       </c>
@@ -2884,7 +2825,7 @@
       <c r="K51" s="63"/>
       <c r="N51" s="63"/>
     </row>
-    <row r="52" spans="1:14" ht="32">
+    <row r="52" spans="1:14" ht="33">
       <c r="A52" s="3"/>
       <c r="B52" s="26" t="s">
         <v>120</v>
@@ -3063,7 +3004,7 @@
       <c r="K72" s="63"/>
       <c r="N72" s="63"/>
     </row>
-    <row r="73" spans="2:14" ht="32">
+    <row r="73" spans="2:14" ht="33">
       <c r="B73" s="29" t="s">
         <v>128</v>
       </c>
@@ -3133,8 +3074,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3170,29 +3111,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17:I18"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="4"/>
-    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="4"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="4"/>
+    <col min="7" max="7" width="13.375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:14" ht="17.25">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3234,7 +3175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3252,7 +3193,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="3" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A3" s="40"/>
       <c r="B3" s="39" t="s">
         <v>14</v>
@@ -3276,13 +3217,13 @@
       <c r="I3" s="43"/>
       <c r="L3" s="47"/>
     </row>
-    <row r="4" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="4" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A4" s="40"/>
       <c r="C4" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>34</v>
@@ -3295,7 +3236,7 @@
       <c r="I4" s="43"/>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="5" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A5" s="40"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -3306,7 +3247,7 @@
       <c r="I5" s="43"/>
       <c r="L5" s="47"/>
     </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="6" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A6" s="40"/>
       <c r="B6" s="39" t="s">
         <v>30</v>
@@ -3315,7 +3256,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>38</v>
@@ -3331,13 +3272,13 @@
       <c r="J6" s="48"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="7" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A7" s="40"/>
       <c r="C7" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>34</v>
@@ -3350,16 +3291,16 @@
       <c r="I7" s="43"/>
       <c r="L7" s="47"/>
     </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="8" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A8" s="40"/>
       <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>8</v>
@@ -3369,7 +3310,7 @@
       <c r="I8" s="43"/>
       <c r="L8" s="47"/>
     </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="9" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A9" s="40"/>
       <c r="C9" s="41"/>
       <c r="D9" s="5"/>
@@ -3380,7 +3321,7 @@
       <c r="I9" s="43"/>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="10" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
         <v>45</v>
@@ -3389,7 +3330,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>22</v>
@@ -3404,54 +3345,52 @@
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
     </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="11" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>38</v>
+      <c r="C12" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>214</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="44"/>
+        <v>213</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="43"/>
-      <c r="K12" s="47"/>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:14" s="39" customFormat="1" ht="16">
+    </row>
+    <row r="13" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>38</v>
@@ -3465,711 +3404,789 @@
       <c r="K13" s="47"/>
       <c r="M13" s="47"/>
     </row>
-    <row r="14" spans="1:14" s="39" customFormat="1" ht="16">
+    <row r="14" spans="1:14" s="39" customFormat="1" ht="17.25">
       <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>17</v>
+      <c r="D14" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="46"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" ht="16">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="16">
-      <c r="A16" s="11" t="s">
+      <c r="K14" s="47"/>
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:14" s="39" customFormat="1" ht="17.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:14" s="39" customFormat="1" ht="17.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:14" s="39" customFormat="1" ht="17.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:14" s="39" customFormat="1" ht="17.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="17.25">
+      <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="16">
-      <c r="B17" s="12" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="17.25">
+      <c r="B21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="D21" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" ht="16">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="17.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D22" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="16">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="16">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="16">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="16">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="16"/>
       <c r="I22" s="7"/>
-      <c r="N22" s="34"/>
-    </row>
-    <row r="23" spans="1:14" ht="16">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="17.25">
+      <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="17.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="7"/>
-      <c r="N23" s="34"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="5"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="16">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="5"/>
+    <row r="25" spans="1:14" ht="17.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="16">
+    <row r="26" spans="1:14" ht="17.25">
       <c r="A26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="16"/>
       <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="16">
-      <c r="A27" s="11" t="s">
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="1:14" ht="17.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="7"/>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="1:14" ht="17.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="5"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="17.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="5"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25">
+      <c r="A30" s="14"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="17.25">
+      <c r="A31" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="16">
-      <c r="B28" s="5" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.25">
+      <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="C32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="16">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="16">
-      <c r="A30" s="14"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="16">
-      <c r="A31" s="14"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="16">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="F32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="16">
+    <row r="33" spans="1:14" ht="17.25">
       <c r="A33" s="11"/>
       <c r="B33" s="5"/>
       <c r="C33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>90</v>
+      <c r="D33" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="F33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="16">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:14" ht="17.25">
+      <c r="A34" s="14"/>
       <c r="B34" s="5"/>
       <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="17.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="17.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" ht="17.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" ht="17.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="D38" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="16">
-      <c r="C35" s="10"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" ht="16">
-      <c r="A36" s="11" t="s">
+      <c r="F38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" ht="17.25">
+      <c r="C39" s="10"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" ht="17.25">
+      <c r="A40" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="16">
-      <c r="A37" s="11"/>
-      <c r="B37" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="34"/>
-    </row>
-    <row r="38" spans="1:14" ht="16">
-      <c r="A38" s="11"/>
-      <c r="C38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" ht="16">
-      <c r="A39" s="11"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="7"/>
-      <c r="L39" s="34"/>
-      <c r="N39" s="34"/>
-    </row>
-    <row r="40" spans="1:14" ht="16">
-      <c r="A40" s="11"/>
       <c r="B40" s="21"/>
-      <c r="C40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="5"/>
       <c r="H40" s="23"/>
       <c r="I40" s="7"/>
-      <c r="L40" s="34"/>
-      <c r="N40" s="34"/>
-    </row>
-    <row r="41" spans="1:14" ht="16">
+    </row>
+    <row r="41" spans="1:14" ht="17.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C41" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>102</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" customFormat="1" ht="16">
-      <c r="A42" s="4"/>
+      <c r="J41" s="34"/>
+    </row>
+    <row r="42" spans="1:14" ht="17.25">
+      <c r="A42" s="11"/>
       <c r="C42" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>102</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="17.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="7"/>
+      <c r="L43" s="34"/>
+      <c r="N43" s="34"/>
+    </row>
+    <row r="44" spans="1:14" ht="17.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="A43" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" s="5" customFormat="1" ht="32">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="23"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="23"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="45" spans="1:14" s="5" customFormat="1" ht="32">
-      <c r="B45" s="26" t="s">
-        <v>119</v>
+      <c r="L44" s="34"/>
+      <c r="N44" s="34"/>
+    </row>
+    <row r="45" spans="1:14" ht="17.25">
+      <c r="C45" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" customFormat="1" ht="17.25">
+      <c r="A46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" s="5" customFormat="1" ht="17.25">
+      <c r="A47" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" ht="33">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="F45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="23"/>
-    </row>
-    <row r="46" spans="1:14" s="5" customFormat="1" ht="32">
-      <c r="A46" s="3"/>
-      <c r="B46" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="A47" s="3"/>
-      <c r="B47" s="26"/>
-      <c r="F47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="23"/>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="B48" s="26" t="s">
-        <v>121</v>
       </c>
       <c r="F48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="33">
       <c r="B49" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="F49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="33">
+      <c r="A50" s="3"/>
       <c r="B50" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="F50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="B51" s="21" t="s">
-        <v>124</v>
-      </c>
+    <row r="51" spans="1:10" s="5" customFormat="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="26"/>
       <c r="F51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="7"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="B52" s="5" t="s">
-        <v>125</v>
+    <row r="52" spans="1:10" s="5" customFormat="1">
+      <c r="B52" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="F52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="7"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="53" spans="1:10" s="5" customFormat="1">
+      <c r="B53" s="26" t="s">
+        <v>122</v>
+      </c>
       <c r="F53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="7"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="B54" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>156</v>
+    <row r="54" spans="1:10" s="5" customFormat="1">
+      <c r="B54" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="F54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="D55" s="5" t="s">
-        <v>157</v>
+    <row r="55" spans="1:10" s="5" customFormat="1">
+      <c r="B55" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="H55" s="27"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="7"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="D56" s="5" t="s">
-        <v>158</v>
+    <row r="56" spans="1:10" s="5" customFormat="1">
+      <c r="B56" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F56" s="23"/>
-      <c r="H56" s="27"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="7"/>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="D57" s="5" t="s">
-        <v>208</v>
-      </c>
+    <row r="57" spans="1:10" s="5" customFormat="1">
       <c r="F57" s="23"/>
-      <c r="H57" s="27"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="7"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="58" spans="1:10" s="5" customFormat="1">
+      <c r="B58" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D58" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F58" s="23"/>
-      <c r="H58" s="27"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="7"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="B59" s="5" t="s">
-        <v>127</v>
+    <row r="59" spans="1:10" s="5" customFormat="1">
+      <c r="D59" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F59" s="23"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="23"/>
+      <c r="H59" s="27"/>
       <c r="I59" s="7"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="60" spans="1:10" s="5" customFormat="1">
+      <c r="D60" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F60" s="23"/>
-      <c r="H60" s="23"/>
+      <c r="H60" s="27"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="36"/>
-    </row>
-    <row r="61" spans="2:12" s="5" customFormat="1" ht="32">
-      <c r="B61" s="29" t="s">
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="1:10" s="5" customFormat="1">
+      <c r="D61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" s="5" customFormat="1">
+      <c r="D62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" s="5" customFormat="1">
+      <c r="B63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:10" s="5" customFormat="1">
+      <c r="F64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="36"/>
+    </row>
+    <row r="65" spans="2:12" s="5" customFormat="1" ht="33">
+      <c r="B65" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C65" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30" t="s">
+      <c r="E65" s="29"/>
+      <c r="F65" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G65" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H65" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="I61" s="37"/>
-      <c r="J61" s="38" t="s">
+      <c r="I65" s="37"/>
+      <c r="J65" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="K61" s="29" t="s">
+      <c r="K65" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="L61" s="29" t="s">
+      <c r="L65" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
+    <row r="66" spans="2:12">
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD3 A32:XFD1048576 F30:XFD31 A30:C31 A4:C4 E4:XFD4 A5:XFD29">
-    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD3 A36:XFD1048576 F34:XFD35 A34:C35 A4:C4 E4:XFD4 A5:XFD33">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"阻碍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"未完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B78:B1048576 B1:B42</xm:sqref>
+          <xm:sqref>B82:B1048576 B1:B46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C78:C1048576 C1:C42</xm:sqref>
+          <xm:sqref>C82:C1048576 C1:C46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I78:I1048576 I1:I42</xm:sqref>
+          <xm:sqref>I82:I1048576 I1:I46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F42</xm:sqref>
+          <xm:sqref>F1:F46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4181,26 +4198,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="4"/>
-    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="4"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="4"/>
+    <col min="7" max="7" width="13.375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:14" ht="17.25">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4242,7 +4259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -4260,7 +4277,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="16">
+    <row r="3" spans="1:14" ht="17.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
@@ -4276,7 +4293,7 @@
       <c r="I3" s="7"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="16">
+    <row r="4" spans="1:14" ht="17.25">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
@@ -4292,7 +4309,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:14" ht="16">
+    <row r="5" spans="1:14" ht="17.25">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
@@ -4307,7 +4324,7 @@
       <c r="K5" s="34"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:14" ht="16">
+    <row r="6" spans="1:14" ht="17.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -4322,7 +4339,7 @@
       <c r="K6" s="34"/>
       <c r="M6" s="34"/>
     </row>
-    <row r="7" spans="1:14" ht="16">
+    <row r="7" spans="1:14" ht="17.25">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -4337,7 +4354,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:14" ht="16">
+    <row r="8" spans="1:14" ht="17.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
@@ -4348,7 +4365,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="16">
+    <row r="9" spans="1:14" ht="17.25">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -4357,7 +4374,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="16">
+    <row r="10" spans="1:14" ht="17.25">
       <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
@@ -4368,7 +4385,7 @@
       <c r="E10" s="5"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="16">
+    <row r="11" spans="1:14" ht="17.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>42</v>
@@ -4377,12 +4394,12 @@
       <c r="E11" s="5"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="16">
+    <row r="12" spans="1:14" ht="17.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="16">
+    <row r="13" spans="1:14" ht="17.25">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>72</v>
@@ -4396,7 +4413,7 @@
       <c r="I13" s="7"/>
       <c r="N13" s="34"/>
     </row>
-    <row r="14" spans="1:14" ht="16">
+    <row r="14" spans="1:14" ht="17.25">
       <c r="A14" s="14"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4408,7 +4425,7 @@
       <c r="I14" s="7"/>
       <c r="N14" s="34"/>
     </row>
-    <row r="15" spans="1:14" ht="16">
+    <row r="15" spans="1:14" ht="17.25">
       <c r="A15" s="14"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -4418,7 +4435,7 @@
       <c r="E15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="16">
+    <row r="16" spans="1:14" ht="17.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
@@ -4426,13 +4443,13 @@
       <c r="E16" s="5"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="16">
+    <row r="17" spans="1:14" ht="17.25">
       <c r="A17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="16">
+    <row r="18" spans="1:14" ht="17.25">
       <c r="A18" s="11" t="s">
         <v>79</v>
       </c>
@@ -4440,7 +4457,7 @@
       <c r="D18" s="13"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="16">
+    <row r="19" spans="1:14" ht="17.25">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -4453,7 +4470,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="16">
+    <row r="20" spans="1:14" ht="17.25">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -4465,7 +4482,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="16">
+    <row r="21" spans="1:14" ht="17.25">
       <c r="A21" s="14"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -4477,7 +4494,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="16">
+    <row r="22" spans="1:14" ht="17.25">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
@@ -4489,7 +4506,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="16">
+    <row r="23" spans="1:14" ht="17.25">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
@@ -4501,13 +4518,13 @@
       <c r="H23" s="18"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="16">
+    <row r="24" spans="1:14" ht="17.25">
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="16">
+    <row r="25" spans="1:14" ht="17.25">
       <c r="A25" s="11" t="s">
         <v>100</v>
       </c>
@@ -4520,7 +4537,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="16">
+    <row r="26" spans="1:14" ht="17.25">
       <c r="A26" s="11"/>
       <c r="B26" s="21" t="s">
         <v>45</v>
@@ -4535,7 +4552,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:14" ht="16">
+    <row r="27" spans="1:14" ht="17.25">
       <c r="A27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -4547,7 +4564,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="16">
+    <row r="28" spans="1:14" ht="17.25">
       <c r="A28" s="11"/>
       <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
@@ -4562,7 +4579,7 @@
       <c r="L28" s="34"/>
       <c r="N28" s="34"/>
     </row>
-    <row r="29" spans="1:14" ht="16">
+    <row r="29" spans="1:14" ht="17.25">
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
@@ -4577,13 +4594,13 @@
       <c r="L29" s="34"/>
       <c r="N29" s="34"/>
     </row>
-    <row r="30" spans="1:14" ht="16">
+    <row r="30" spans="1:14" ht="17.25">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="31" spans="1:14" s="5" customFormat="1" ht="17.25">
       <c r="A31" s="24" t="s">
         <v>116</v>
       </c>
@@ -4600,7 +4617,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" s="5" customFormat="1" ht="32">
+    <row r="32" spans="1:14" s="5" customFormat="1" ht="33">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>117</v>
@@ -4613,7 +4630,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="32">
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="33">
       <c r="B33" s="26" t="s">
         <v>119</v>
       </c>
@@ -4625,7 +4642,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="32">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="33">
       <c r="A34" s="3"/>
       <c r="B34" s="26" t="s">
         <v>120</v>
@@ -4638,7 +4655,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="35" spans="1:10" s="5" customFormat="1">
       <c r="A35" s="3"/>
       <c r="B35" s="26"/>
       <c r="F35" s="23"/>
@@ -4646,7 +4663,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="36" spans="1:10" s="5" customFormat="1">
       <c r="B36" s="26" t="s">
         <v>121</v>
       </c>
@@ -4655,7 +4672,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="37" spans="1:10" s="5" customFormat="1">
       <c r="B37" s="26" t="s">
         <v>122</v>
       </c>
@@ -4664,14 +4681,14 @@
       <c r="I37" s="7"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="38" spans="1:10" s="5" customFormat="1">
       <c r="B38" s="26"/>
       <c r="F38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="7"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="39" spans="1:10" s="5" customFormat="1">
       <c r="B39" s="26" t="s">
         <v>123</v>
       </c>
@@ -4680,13 +4697,13 @@
       <c r="I39" s="7"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="40" spans="1:10" s="5" customFormat="1">
       <c r="F40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="41" spans="1:10" s="5" customFormat="1">
       <c r="B41" s="21" t="s">
         <v>124</v>
       </c>
@@ -4695,13 +4712,13 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="42" spans="1:10" s="5" customFormat="1">
       <c r="F42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="43" spans="1:10" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
         <v>125</v>
       </c>
@@ -4710,19 +4727,19 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="44" spans="1:10" s="5" customFormat="1">
       <c r="F44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="45" spans="1:10" s="5" customFormat="1">
       <c r="F45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="46" spans="1:10" s="5" customFormat="1">
       <c r="B46" s="5" t="s">
         <v>126</v>
       </c>
@@ -4731,25 +4748,25 @@
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="47" spans="1:10" s="5" customFormat="1">
       <c r="F47" s="23"/>
       <c r="H47" s="27"/>
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" ht="16">
+    <row r="48" spans="1:10" s="5" customFormat="1">
       <c r="F48" s="23"/>
       <c r="H48" s="27"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="49" spans="2:12" s="5" customFormat="1">
       <c r="F49" s="23"/>
       <c r="H49" s="27"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="50" spans="2:12" s="5" customFormat="1">
       <c r="B50" s="5" t="s">
         <v>127</v>
       </c>
@@ -4759,13 +4776,13 @@
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="51" spans="2:12" s="5" customFormat="1">
       <c r="F51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="7"/>
       <c r="J51" s="36"/>
     </row>
-    <row r="52" spans="2:12" s="5" customFormat="1" ht="32">
+    <row r="52" spans="2:12" s="5" customFormat="1" ht="33">
       <c r="B52" s="29" t="s">
         <v>128</v>
       </c>
@@ -4812,18 +4829,18 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4859,40 +4876,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17.25">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -4905,12 +4922,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16">
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -4923,12 +4940,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:9" ht="17.25">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -4941,226 +4958,226 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="17.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="17.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="17.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="17.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="17.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="17.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="17.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="17.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="17.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="17.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="17.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="17.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="17.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="17.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="16">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="16">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" ht="16">
+    <row r="33" spans="1:3" ht="16.5">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" ht="16">
+    <row r="34" spans="1:3" ht="16.5">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" ht="16">
+    <row r="35" spans="1:3" ht="16.5">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5168,7 +5185,7 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2620" yWindow="980" windowWidth="20940" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="252">
   <si>
     <t>类别</t>
   </si>
@@ -855,14 +855,121 @@
   </si>
   <si>
     <t>Unity基础操作学习-创建物件、UI排版及美术资源导入</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-14</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-69</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-68</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-67,MG-68</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-70,MG-71</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-72,MG-73</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-41,MG-42</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-39</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-74</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-75</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-76,MG-77</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-65</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-60</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-83</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-80</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-81</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-82</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-84</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-85</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-86</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-87</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-88</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-89</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-90</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-91</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本村落文档审核</t>
+  </si>
+  <si>
+    <t>MG-93</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -967,6 +1074,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1006,7 +1118,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,8 +1146,26 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1196,19 +1326,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="15">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 25" xfId="3"/>
     <cellStyle name="常规 8" xfId="5"/>
     <cellStyle name="常规_2-4周版本输出" xfId="6"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="60"/>
@@ -1231,6 +1413,17 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1655,30 +1848,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I11" sqref="C11:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="10.125" style="23"/>
-    <col min="10" max="11" width="10.125" style="27"/>
-    <col min="12" max="13" width="10.125" style="5"/>
-    <col min="14" max="14" width="10.125" style="27"/>
-    <col min="15" max="16384" width="10.125" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="10.1640625" style="23"/>
+    <col min="10" max="11" width="10.1640625" style="27"/>
+    <col min="12" max="13" width="10.1640625" style="5"/>
+    <col min="14" max="14" width="10.1640625" style="27"/>
+    <col min="15" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2376,7 +2569,7 @@
       <c r="K28" s="63"/>
       <c r="N28" s="63"/>
     </row>
-    <row r="29" spans="1:14" ht="33">
+    <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
         <v>72</v>
@@ -2403,7 +2596,7 @@
       <c r="K29" s="63"/>
       <c r="N29" s="64"/>
     </row>
-    <row r="30" spans="1:14" ht="115.5">
+    <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
       <c r="C30" s="13" t="s">
         <v>15</v>
@@ -2449,7 +2642,7 @@
       <c r="K32" s="63"/>
       <c r="N32" s="63"/>
     </row>
-    <row r="33" spans="1:14" ht="33">
+    <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -2473,7 +2666,7 @@
       <c r="K33" s="63"/>
       <c r="N33" s="63"/>
     </row>
-    <row r="34" spans="1:14" ht="33">
+    <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -2497,7 +2690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="33">
+    <row r="35" spans="1:14" ht="32">
       <c r="A35" s="13"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
@@ -2539,7 +2732,7 @@
       <c r="K36" s="63"/>
       <c r="N36" s="63"/>
     </row>
-    <row r="37" spans="1:14" ht="33">
+    <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
@@ -2798,7 +2991,7 @@
       <c r="K49" s="63"/>
       <c r="N49" s="63"/>
     </row>
-    <row r="50" spans="1:14" ht="33">
+    <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
         <v>117</v>
@@ -2812,7 +3005,7 @@
       <c r="K50" s="63"/>
       <c r="N50" s="63"/>
     </row>
-    <row r="51" spans="1:14" ht="33">
+    <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
         <v>119</v>
       </c>
@@ -2825,7 +3018,7 @@
       <c r="K51" s="63"/>
       <c r="N51" s="63"/>
     </row>
-    <row r="52" spans="1:14" ht="33">
+    <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
       <c r="B52" s="26" t="s">
         <v>120</v>
@@ -3004,7 +3197,7 @@
       <c r="K72" s="63"/>
       <c r="N72" s="63"/>
     </row>
-    <row r="73" spans="2:14" ht="33">
+    <row r="73" spans="2:14" ht="32">
       <c r="B73" s="29" t="s">
         <v>128</v>
       </c>
@@ -3054,28 +3247,28 @@
   <autoFilter ref="A1:N74"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 D44:F45 D47 F47 D41:F41 E42:F42 E43 D42:D43">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"阻碍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"未完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3111,29 +3304,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="4"/>
-    <col min="7" max="7" width="13.375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="76"/>
+    <col min="9" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3153,7 +3347,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -3175,7 +3369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3185,7 +3379,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="6"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="7"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -3193,7 +3387,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="3" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A3" s="40"/>
       <c r="B3" s="39" t="s">
         <v>14</v>
@@ -3211,13 +3405,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="42"/>
-      <c r="H3" s="44" t="s">
-        <v>26</v>
+      <c r="H3" s="72" t="s">
+        <v>225</v>
       </c>
       <c r="I3" s="43"/>
       <c r="L3" s="47"/>
     </row>
-    <row r="4" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="4" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A4" s="40"/>
       <c r="C4" s="41" t="s">
         <v>15</v>
@@ -3232,22 +3426,24 @@
         <v>12</v>
       </c>
       <c r="G4" s="42"/>
-      <c r="H4" s="44"/>
+      <c r="H4" s="72" t="s">
+        <v>239</v>
+      </c>
       <c r="I4" s="43"/>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="5" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A5" s="40"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="42"/>
       <c r="F5" s="43"/>
       <c r="G5" s="42"/>
-      <c r="H5" s="44"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="43"/>
       <c r="L5" s="47"/>
     </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="6" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A6" s="40"/>
       <c r="B6" s="39" t="s">
         <v>30</v>
@@ -3265,14 +3461,14 @@
         <v>9</v>
       </c>
       <c r="G6" s="42"/>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="74" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="48"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="7" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A7" s="40"/>
       <c r="C7" s="41" t="s">
         <v>15</v>
@@ -3287,11 +3483,13 @@
         <v>9</v>
       </c>
       <c r="G7" s="42"/>
-      <c r="H7" s="44"/>
+      <c r="H7" s="72" t="s">
+        <v>240</v>
+      </c>
       <c r="I7" s="43"/>
       <c r="L7" s="47"/>
     </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="8" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A8" s="40"/>
       <c r="C8" s="41" t="s">
         <v>15</v>
@@ -3306,22 +3504,24 @@
         <v>8</v>
       </c>
       <c r="G8" s="42"/>
-      <c r="H8" s="44"/>
+      <c r="H8" s="72" t="s">
+        <v>241</v>
+      </c>
       <c r="I8" s="43"/>
       <c r="L8" s="47"/>
     </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="9" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A9" s="40"/>
       <c r="C9" s="41"/>
       <c r="D9" s="5"/>
       <c r="E9" s="9"/>
       <c r="F9" s="43"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="44"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="43"/>
       <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="10" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
         <v>45</v>
@@ -3339,13 +3539,15 @@
         <v>12</v>
       </c>
       <c r="G10" s="42"/>
-      <c r="H10" s="44"/>
+      <c r="H10" s="72" t="s">
+        <v>238</v>
+      </c>
       <c r="I10" s="43"/>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
     </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="11" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="46" t="s">
@@ -3361,10 +3563,12 @@
         <v>211</v>
       </c>
       <c r="G11" s="43"/>
-      <c r="H11" s="46"/>
+      <c r="H11" s="10" t="s">
+        <v>242</v>
+      </c>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
       <c r="C12" s="46" t="s">
@@ -3380,10 +3584,12 @@
         <v>213</v>
       </c>
       <c r="G12" s="43"/>
-      <c r="H12" s="46"/>
+      <c r="H12" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="13" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
@@ -3399,12 +3605,14 @@
         <v>12</v>
       </c>
       <c r="G13" s="42"/>
-      <c r="H13" s="44"/>
+      <c r="H13" s="72" t="s">
+        <v>244</v>
+      </c>
       <c r="I13" s="43"/>
       <c r="K13" s="47"/>
       <c r="M13" s="47"/>
     </row>
-    <row r="14" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="14" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A14" s="40"/>
       <c r="B14" s="42"/>
       <c r="C14" s="46" t="s">
@@ -3420,243 +3628,281 @@
         <v>12</v>
       </c>
       <c r="G14" s="42"/>
-      <c r="H14" s="44"/>
+      <c r="H14" s="72" t="s">
+        <v>245</v>
+      </c>
       <c r="I14" s="43"/>
       <c r="K14" s="47"/>
       <c r="M14" s="47"/>
     </row>
-    <row r="15" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="15" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="46"/>
+      <c r="D15" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="72" t="s">
+        <v>251</v>
+      </c>
       <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" s="39" customFormat="1" ht="17.25">
+      <c r="K15" s="47"/>
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
       <c r="C16" s="46" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="G16" s="43"/>
-      <c r="H16" s="46"/>
+      <c r="H16" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="17" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="46" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>203</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G17" s="43"/>
-      <c r="H17" s="46"/>
+      <c r="H17" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" spans="1:14" s="39" customFormat="1" ht="17.25">
+    <row r="18" spans="1:14" s="39" customFormat="1" ht="16">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
       <c r="C18" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:14" s="39" customFormat="1" ht="16">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D19" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E19" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F19" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="17.25">
-      <c r="A20" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:14" ht="16">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="17.25">
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:14" ht="16">
+      <c r="A21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="16">
+      <c r="B22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="17.25">
-      <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>193</v>
+      <c r="D22" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="17.25">
+    <row r="23" spans="1:14" ht="16">
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>226</v>
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25">
+    <row r="24" spans="1:14" ht="16">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>200</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="16">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="17.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:14" ht="16">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="16">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="7"/>
-      <c r="N26" s="34"/>
-    </row>
-    <row r="27" spans="1:14" ht="17.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="27" t="s">
+        <v>228</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="N27" s="34"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25">
+    <row r="28" spans="1:14" ht="16">
       <c r="A28" s="14"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>228</v>
+      </c>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.25">
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="1:14" ht="16">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="5"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25">
+    <row r="30" spans="1:14" ht="16">
       <c r="A30" s="14"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="17.25">
+    <row r="31" spans="1:14" ht="16">
       <c r="A31" s="11" t="s">
         <v>79</v>
       </c>
@@ -3664,7 +3910,7 @@
       <c r="D31" s="13"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="17.25">
+    <row r="32" spans="1:14" ht="16">
       <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
@@ -3678,10 +3924,12 @@
         <v>81</v>
       </c>
       <c r="F32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="H32" s="78" t="s">
+        <v>229</v>
+      </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="17.25">
+    <row r="33" spans="1:14" ht="16">
       <c r="A33" s="11"/>
       <c r="B33" s="5"/>
       <c r="C33" s="10" t="s">
@@ -3694,10 +3942,12 @@
         <v>87</v>
       </c>
       <c r="F33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="H33" s="78" t="s">
+        <v>230</v>
+      </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="17.25">
+    <row r="34" spans="1:14" ht="16">
       <c r="A34" s="14"/>
       <c r="B34" s="5"/>
       <c r="C34" s="10" t="s">
@@ -3710,10 +3960,12 @@
         <v>87</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="79" t="s">
+        <v>231</v>
+      </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="17.25">
+    <row r="35" spans="1:14" ht="16">
       <c r="A35" s="14"/>
       <c r="B35" s="5"/>
       <c r="C35" s="10" t="s">
@@ -3726,10 +3978,12 @@
         <v>81</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="H35" s="78" t="s">
+        <v>232</v>
+      </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="17.25">
+    <row r="36" spans="1:14" ht="16">
       <c r="A36" s="11"/>
       <c r="B36" s="5"/>
       <c r="C36" s="10" t="s">
@@ -3742,10 +3996,12 @@
         <v>95</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="H36" s="78" t="s">
+        <v>233</v>
+      </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="17.25">
+    <row r="37" spans="1:14" ht="16">
       <c r="A37" s="11"/>
       <c r="B37" s="5"/>
       <c r="C37" s="10" t="s">
@@ -3758,10 +4014,12 @@
         <v>90</v>
       </c>
       <c r="F37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="H37" s="78" t="s">
+        <v>234</v>
+      </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="17.25">
+    <row r="38" spans="1:14" ht="16">
       <c r="A38" s="11"/>
       <c r="B38" s="5"/>
       <c r="C38" s="10" t="s">
@@ -3774,16 +4032,19 @@
         <v>87</v>
       </c>
       <c r="F38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="H38" s="78" t="s">
+        <v>235</v>
+      </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="17.25">
+    <row r="39" spans="1:14" ht="16">
       <c r="C39" s="10"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="17.25">
+    <row r="40" spans="1:14" ht="16">
       <c r="A40" s="11" t="s">
         <v>100</v>
       </c>
@@ -3793,10 +4054,10 @@
       <c r="E40" s="5"/>
       <c r="F40" s="22"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="23"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="17.25">
+    <row r="41" spans="1:14" ht="16">
       <c r="A41" s="11"/>
       <c r="B41" s="21" t="s">
         <v>45</v>
@@ -3814,11 +4075,11 @@
         <v>8</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="23"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="7"/>
       <c r="J41" s="34"/>
     </row>
-    <row r="42" spans="1:14" ht="17.25">
+    <row r="42" spans="1:14" ht="16">
       <c r="A42" s="11"/>
       <c r="C42" s="5" t="s">
         <v>15</v>
@@ -3833,10 +4094,12 @@
         <v>9</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="23"/>
+      <c r="H42" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="17.25">
+    <row r="43" spans="1:14" ht="16">
       <c r="A43" s="11"/>
       <c r="B43" s="21"/>
       <c r="C43" s="5" t="s">
@@ -3852,12 +4115,14 @@
         <v>9</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="H43" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="L43" s="34"/>
       <c r="N43" s="34"/>
     </row>
-    <row r="44" spans="1:14" ht="17.25">
+    <row r="44" spans="1:14" ht="16">
       <c r="A44" s="11"/>
       <c r="B44" s="21"/>
       <c r="C44" s="5" t="s">
@@ -3873,12 +4138,14 @@
         <v>12</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="23"/>
+      <c r="H44" s="27" t="s">
+        <v>237</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="L44" s="34"/>
       <c r="N44" s="34"/>
     </row>
-    <row r="45" spans="1:14" ht="17.25">
+    <row r="45" spans="1:14" ht="16">
       <c r="C45" s="5" t="s">
         <v>42</v>
       </c>
@@ -3893,7 +4160,7 @@
       </c>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:14" customFormat="1" ht="17.25">
+    <row r="46" spans="1:14" customFormat="1" ht="16">
       <c r="A46" s="4"/>
       <c r="C46" s="5" t="s">
         <v>42</v>
@@ -3908,7 +4175,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="76"/>
       <c r="I46" s="7"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3916,7 +4183,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" ht="17.25">
+    <row r="47" spans="1:14" s="5" customFormat="1" ht="16">
       <c r="A47" s="24" t="s">
         <v>116</v>
       </c>
@@ -3925,7 +4192,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="76"/>
       <c r="I47" s="7"/>
       <c r="J47" s="35"/>
       <c r="K47" s="4"/>
@@ -3933,7 +4200,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="33">
+    <row r="48" spans="1:14" s="5" customFormat="1" ht="32">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>117</v>
@@ -3942,11 +4209,11 @@
         <v>118</v>
       </c>
       <c r="F48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="H48" s="27"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" ht="33">
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="B49" s="26" t="s">
         <v>119</v>
       </c>
@@ -3954,11 +4221,11 @@
         <v>118</v>
       </c>
       <c r="F49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" ht="33">
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="A50" s="3"/>
       <c r="B50" s="26" t="s">
         <v>120</v>
@@ -3967,70 +4234,70 @@
         <v>118</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="1:10" s="5" customFormat="1">
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A51" s="3"/>
       <c r="B51" s="26"/>
       <c r="F51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="7"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="1:10" s="5" customFormat="1">
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B52" s="26" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="7"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="1:10" s="5" customFormat="1">
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B53" s="26" t="s">
         <v>122</v>
       </c>
       <c r="F53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="7"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="1:10" s="5" customFormat="1">
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B54" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:10" s="5" customFormat="1">
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B55" s="21" t="s">
         <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="7"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="1:10" s="5" customFormat="1">
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B56" s="5" t="s">
         <v>125</v>
       </c>
       <c r="F56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="7"/>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="1:10" s="5" customFormat="1">
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="H57" s="27"/>
       <c r="I57" s="7"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10" s="5" customFormat="1">
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B58" s="5" t="s">
         <v>126</v>
       </c>
@@ -4038,11 +4305,11 @@
         <v>149</v>
       </c>
       <c r="F58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="7"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="1:10" s="5" customFormat="1">
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="D59" s="5" t="s">
         <v>150</v>
       </c>
@@ -4051,7 +4318,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1">
+    <row r="60" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="D60" s="5" t="s">
         <v>151</v>
       </c>
@@ -4060,7 +4327,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:10" s="5" customFormat="1">
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="D61" s="5" t="s">
         <v>201</v>
       </c>
@@ -4069,7 +4336,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:10" s="5" customFormat="1">
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="D62" s="5" t="s">
         <v>152</v>
       </c>
@@ -4078,23 +4345,23 @@
       <c r="I62" s="7"/>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:10" s="5" customFormat="1">
+    <row r="63" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B63" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="28"/>
-      <c r="H63" s="23"/>
+      <c r="H63" s="27"/>
       <c r="I63" s="7"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" s="5" customFormat="1">
+    <row r="64" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="H64" s="27"/>
       <c r="I64" s="7"/>
       <c r="J64" s="36"/>
     </row>
-    <row r="65" spans="2:12" s="5" customFormat="1" ht="33">
+    <row r="65" spans="2:12" s="5" customFormat="1" ht="32">
       <c r="B65" s="29" t="s">
         <v>128</v>
       </c>
@@ -4111,7 +4378,7 @@
       <c r="G65" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H65" s="37" t="s">
         <v>133</v>
       </c>
       <c r="I65" s="37"/>
@@ -4132,7 +4399,7 @@
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
+      <c r="H66" s="77"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32"/>
@@ -4140,29 +4407,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD3 A36:XFD1048576 F34:XFD35 A34:C35 A4:C4 E4:XFD4 A5:XFD33">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD2 A45:XFD1048576 F34:G35 A34:C35 A4:C4 E4:G4 A3:G3 I3:XFD4 A36:G44 A22:G33 I22:XFD44 H22:H30 H32:H44 A5:XFD21">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4198,26 +4470,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="4"/>
-    <col min="7" max="7" width="13.375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4259,7 +4531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -4277,7 +4549,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="17.25">
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
@@ -4293,7 +4565,7 @@
       <c r="I3" s="7"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25">
+    <row r="4" spans="1:14" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
@@ -4309,7 +4581,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:14" ht="17.25">
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
@@ -4324,7 +4596,7 @@
       <c r="K5" s="34"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25">
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -4339,7 +4611,7 @@
       <c r="K6" s="34"/>
       <c r="M6" s="34"/>
     </row>
-    <row r="7" spans="1:14" ht="17.25">
+    <row r="7" spans="1:14" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -4354,7 +4626,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:14" ht="17.25">
+    <row r="8" spans="1:14" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
@@ -4365,7 +4637,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="17.25">
+    <row r="9" spans="1:14" ht="16">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -4374,7 +4646,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="17.25">
+    <row r="10" spans="1:14" ht="16">
       <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
@@ -4385,7 +4657,7 @@
       <c r="E10" s="5"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="17.25">
+    <row r="11" spans="1:14" ht="16">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>42</v>
@@ -4394,12 +4666,12 @@
       <c r="E11" s="5"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="17.25">
+    <row r="12" spans="1:14" ht="16">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="17.25">
+    <row r="13" spans="1:14" ht="16">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>72</v>
@@ -4413,7 +4685,7 @@
       <c r="I13" s="7"/>
       <c r="N13" s="34"/>
     </row>
-    <row r="14" spans="1:14" ht="17.25">
+    <row r="14" spans="1:14" ht="16">
       <c r="A14" s="14"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4425,7 +4697,7 @@
       <c r="I14" s="7"/>
       <c r="N14" s="34"/>
     </row>
-    <row r="15" spans="1:14" ht="17.25">
+    <row r="15" spans="1:14" ht="16">
       <c r="A15" s="14"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -4435,7 +4707,7 @@
       <c r="E15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="17.25">
+    <row r="16" spans="1:14" ht="16">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
@@ -4443,13 +4715,13 @@
       <c r="E16" s="5"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="17.25">
+    <row r="17" spans="1:14" ht="16">
       <c r="A17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="17.25">
+    <row r="18" spans="1:14" ht="16">
       <c r="A18" s="11" t="s">
         <v>79</v>
       </c>
@@ -4457,7 +4729,7 @@
       <c r="D18" s="13"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="17.25">
+    <row r="19" spans="1:14" ht="16">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -4470,7 +4742,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="17.25">
+    <row r="20" spans="1:14" ht="16">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -4482,7 +4754,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="17.25">
+    <row r="21" spans="1:14" ht="16">
       <c r="A21" s="14"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -4494,7 +4766,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="17.25">
+    <row r="22" spans="1:14" ht="16">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
@@ -4506,7 +4778,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="17.25">
+    <row r="23" spans="1:14" ht="16">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
@@ -4518,13 +4790,13 @@
       <c r="H23" s="18"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25">
+    <row r="24" spans="1:14" ht="16">
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25">
+    <row r="25" spans="1:14" ht="16">
       <c r="A25" s="11" t="s">
         <v>100</v>
       </c>
@@ -4537,7 +4809,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="17.25">
+    <row r="26" spans="1:14" ht="16">
       <c r="A26" s="11"/>
       <c r="B26" s="21" t="s">
         <v>45</v>
@@ -4552,7 +4824,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:14" ht="17.25">
+    <row r="27" spans="1:14" ht="16">
       <c r="A27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -4564,7 +4836,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25">
+    <row r="28" spans="1:14" ht="16">
       <c r="A28" s="11"/>
       <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
@@ -4579,7 +4851,7 @@
       <c r="L28" s="34"/>
       <c r="N28" s="34"/>
     </row>
-    <row r="29" spans="1:14" ht="17.25">
+    <row r="29" spans="1:14" ht="16">
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
@@ -4594,13 +4866,13 @@
       <c r="L29" s="34"/>
       <c r="N29" s="34"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25">
+    <row r="30" spans="1:14" ht="16">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" ht="17.25">
+    <row r="31" spans="1:14" s="5" customFormat="1" ht="16">
       <c r="A31" s="24" t="s">
         <v>116</v>
       </c>
@@ -4617,7 +4889,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" s="5" customFormat="1" ht="33">
+    <row r="32" spans="1:14" s="5" customFormat="1" ht="32">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>117</v>
@@ -4630,7 +4902,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="33">
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="B33" s="26" t="s">
         <v>119</v>
       </c>
@@ -4642,7 +4914,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="33">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="A34" s="3"/>
       <c r="B34" s="26" t="s">
         <v>120</v>
@@ -4655,7 +4927,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1">
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A35" s="3"/>
       <c r="B35" s="26"/>
       <c r="F35" s="23"/>
@@ -4663,7 +4935,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1">
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B36" s="26" t="s">
         <v>121</v>
       </c>
@@ -4672,7 +4944,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1">
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B37" s="26" t="s">
         <v>122</v>
       </c>
@@ -4681,14 +4953,14 @@
       <c r="I37" s="7"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:10" s="5" customFormat="1">
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B38" s="26"/>
       <c r="F38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="7"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B39" s="26" t="s">
         <v>123</v>
       </c>
@@ -4697,13 +4969,13 @@
       <c r="I39" s="7"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1">
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1">
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B41" s="21" t="s">
         <v>124</v>
       </c>
@@ -4712,13 +4984,13 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" s="5" customFormat="1">
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B43" s="5" t="s">
         <v>125</v>
       </c>
@@ -4727,19 +4999,19 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1">
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1">
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" s="5" customFormat="1">
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B46" s="5" t="s">
         <v>126</v>
       </c>
@@ -4748,25 +5020,25 @@
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10" s="5" customFormat="1">
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F47" s="23"/>
       <c r="H47" s="27"/>
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" s="5" customFormat="1">
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F48" s="23"/>
       <c r="H48" s="27"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="5" customFormat="1">
+    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F49" s="23"/>
       <c r="H49" s="27"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="5" customFormat="1">
+    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="B50" s="5" t="s">
         <v>127</v>
       </c>
@@ -4776,13 +5048,13 @@
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:12" s="5" customFormat="1">
+    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="7"/>
       <c r="J51" s="36"/>
     </row>
-    <row r="52" spans="2:12" s="5" customFormat="1" ht="33">
+    <row r="52" spans="2:12" s="5" customFormat="1" ht="32">
       <c r="B52" s="29" t="s">
         <v>128</v>
       </c>
@@ -4829,18 +5101,18 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"阻碍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"未完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4876,19 +5148,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25">
+    <row r="1" spans="1:9">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="17.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
         <v>153</v>
       </c>
@@ -4904,7 +5176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4922,7 +5194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -4940,7 +5212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
@@ -4958,7 +5230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4969,7 +5241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -4979,7 +5251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -4989,7 +5261,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -4999,7 +5271,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
@@ -5009,7 +5281,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
@@ -5019,7 +5291,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
@@ -5029,7 +5301,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -5039,7 +5311,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
@@ -5049,7 +5321,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -5059,7 +5331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -5069,7 +5341,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25">
+    <row r="17" spans="1:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -5079,7 +5351,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25">
+    <row r="18" spans="1:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -5087,7 +5359,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -5095,7 +5367,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25">
+    <row r="20" spans="1:9">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -5103,7 +5375,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25">
+    <row r="21" spans="1:9">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -5111,7 +5383,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25">
+    <row r="22" spans="1:9">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -5119,7 +5391,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25">
+    <row r="23" spans="1:9">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -5127,7 +5399,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="17.25">
+    <row r="24" spans="1:9">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -5135,49 +5407,49 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="17.25">
+    <row r="25" spans="1:9">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="17.25">
+    <row r="26" spans="1:9">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="17.25">
+    <row r="27" spans="1:9">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="17.25">
+    <row r="28" spans="1:9">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="17.25">
+    <row r="29" spans="1:9">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="17.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="16.5">
+    <row r="31" spans="1:9" ht="16">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5">
+    <row r="32" spans="1:9" ht="16">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" ht="16.5">
+    <row r="33" spans="1:3" ht="16">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" ht="16.5">
+    <row r="34" spans="1:3" ht="16">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" ht="16.5">
+    <row r="35" spans="1:3" ht="16">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5185,7 +5457,7 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="980" windowWidth="20940" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="19500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
     <sheet name="4-8周输出" sheetId="2" r:id="rId2"/>
-    <sheet name="模板" sheetId="3" r:id="rId3"/>
-    <sheet name="附录" sheetId="4" r:id="rId4"/>
+    <sheet name="4-15周输出" sheetId="3" r:id="rId3"/>
+    <sheet name="模板" sheetId="4" r:id="rId4"/>
+    <sheet name="附录" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$69</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -142,8 +143,47 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="294">
   <si>
     <t>类别</t>
   </si>
@@ -355,6 +395,9 @@
     <t>MG-34</t>
   </si>
   <si>
+    <t>场景组织部分延后</t>
+  </si>
+  <si>
     <t>宠物属性配置表读取转换</t>
   </si>
   <si>
@@ -382,6 +425,9 @@
     <t>MG-32，MG-33</t>
   </si>
   <si>
+    <t>数据库协议为长期任务，放到各个功能里 不再单独给出任务</t>
+  </si>
+  <si>
     <t>QA本周输出</t>
   </si>
   <si>
@@ -556,36 +602,189 @@
     <t>进展</t>
   </si>
   <si>
+    <t>MG-80</t>
+  </si>
+  <si>
+    <t>对局部分表现逻辑（非boss部分暂缓）</t>
+  </si>
+  <si>
+    <t>Demo版本村落文档</t>
+  </si>
+  <si>
+    <t>MG-81</t>
+  </si>
+  <si>
+    <t>创建角色</t>
+  </si>
+  <si>
+    <t>MG-82</t>
+  </si>
+  <si>
+    <t>Demo数值指定</t>
+  </si>
+  <si>
+    <t>MG-83</t>
+  </si>
+  <si>
+    <t>任务逻辑初版</t>
+  </si>
+  <si>
+    <t>MG-84</t>
+  </si>
+  <si>
+    <t>任务逻辑审核</t>
+  </si>
+  <si>
+    <t>MG-85</t>
+  </si>
+  <si>
+    <t>Unity测试-Boss对局镜头</t>
+  </si>
+  <si>
+    <t>MG-86</t>
+  </si>
+  <si>
+    <t>Unity测试-卡通渲染、场景光测试</t>
+  </si>
+  <si>
+    <t>MG-87</t>
+  </si>
+  <si>
+    <t>创建角色文档审核</t>
+  </si>
+  <si>
+    <t>MG-92</t>
+  </si>
+  <si>
+    <t>Demo版本村落文档审核</t>
+  </si>
+  <si>
+    <t>MG-93</t>
+  </si>
+  <si>
+    <t>抓妖怪设计初版</t>
+  </si>
+  <si>
+    <t>杨雪、孔老师</t>
+  </si>
+  <si>
+    <t>MG-88</t>
+  </si>
+  <si>
+    <t>Km资料阅读、分类处理及分享</t>
+  </si>
+  <si>
+    <t>MG-89</t>
+  </si>
+  <si>
+    <t>大招表现形式，操作方式构想</t>
+  </si>
+  <si>
+    <t>MG-90</t>
+  </si>
+  <si>
+    <t>Unity基础操作学习-创建物件、UI排版及美术资源导入</t>
+  </si>
+  <si>
+    <t>MG-91</t>
+  </si>
+  <si>
+    <t>MG-69</t>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>研究热更方式，确认使用方法</t>
+  </si>
+  <si>
+    <t>小郑</t>
+  </si>
+  <si>
+    <t>MG-68</t>
+  </si>
+  <si>
+    <t>富文本研究</t>
+  </si>
+  <si>
+    <t>人物相关数据库格式确认</t>
+  </si>
+  <si>
+    <t>小珍 帅帅</t>
+  </si>
+  <si>
+    <t>MG-67,MG-68</t>
+  </si>
+  <si>
+    <t>属性相关配置文件格式确认</t>
+  </si>
+  <si>
     <t>主流程-创建角色文档分析及跟进</t>
   </si>
   <si>
+    <t>MG-70,MG-71</t>
+  </si>
+  <si>
     <t>村落文档分析及跟进</t>
   </si>
   <si>
+    <t>MG-72,MG-73</t>
+  </si>
+  <si>
     <t>对局表现文档分析及跟进</t>
   </si>
   <si>
+    <t>MG-41,MG-42</t>
+  </si>
+  <si>
     <t>副本逻辑文档跟进</t>
   </si>
   <si>
+    <t>MG-39</t>
+  </si>
+  <si>
     <t>数据库数值结构确认测试</t>
   </si>
   <si>
+    <t>MG-74</t>
+  </si>
+  <si>
     <t>程序服务器网络调通测试</t>
   </si>
   <si>
+    <t>MG-75</t>
+  </si>
+  <si>
     <t>GIT与unity结合使用预研</t>
   </si>
   <si>
+    <t>MG-76,MG-77</t>
+  </si>
+  <si>
     <t>美术量-2d-boss-九尾狐</t>
   </si>
   <si>
     <t>美术量-2d-boss-混沌</t>
   </si>
   <si>
+    <t>MG-65</t>
+  </si>
+  <si>
     <t>美术量-2d-小怪-朱厌</t>
   </si>
   <si>
+    <t>MG-79</t>
+  </si>
+  <si>
+    <t>美术量-2d-boss-白泽</t>
+  </si>
+  <si>
+    <t>MG-64</t>
+  </si>
+  <si>
+    <t>美术风格-2d-混沌&amp;朱厌造型设计修改</t>
+  </si>
+  <si>
     <t>外包反馈</t>
   </si>
   <si>
@@ -601,9 +800,30 @@
     <t>项目进度的广播方式-白板+邮件？</t>
   </si>
   <si>
+    <t xml:space="preserve">    每两周开会讨论产品问题，对产品的疑问都可以提出来，也会同时广播项目进度和设计方向。初次会议定在下周三</t>
+  </si>
+  <si>
     <t>KM资源学习方式：分配不同人先学习之后选取精华进行推送？</t>
   </si>
   <si>
+    <t>对局ui设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙帆 </t>
+  </si>
+  <si>
+    <t>美术量-2d-npc-妲己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豆豆 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">美术量-2d-npc-玩家角色 女  </t>
+  </si>
+  <si>
+    <t>美术量-2d-npc-玩家角色 男</t>
+  </si>
+  <si>
     <t>任务时限</t>
   </si>
   <si>
@@ -703,26 +923,111 @@
     <t>特效</t>
   </si>
   <si>
-    <t>数据库协议为长期任务，放到各个功能里 不再单独给出任务</t>
+    <t>完成</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>场景组织部分延后</t>
+    <t>封文档</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>人物相关数据库格式确认</t>
+    <t>任务系统</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>属性相关配置文件格式确认</t>
+    <t>胖子</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>小珍 帅帅</t>
-  </si>
-  <si>
-    <t>小珍 帅帅</t>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交文档</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间分流设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛炜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠设计审核</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资料分享</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物属性成长设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线故事框架设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统文档分析及跟进</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统、伤害公式、对局流程测试用例（粗略）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hockeyapp使用研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>confluence破解研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>share资料学习（游戏心理学）</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -734,51 +1039,51 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>ugui富文本测试</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能，对局接口确认</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建删除角色</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物属性变更相关功能接口</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>孔瑱</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>创建角色</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究热更方式，确认使用方法</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富文本研究</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>小郑</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    每两周开会讨论产品问题，对产品的疑问都可以提出来，也会同时广播项目进度和设计方向。初次会议定在下周三</t>
+    <t>孔瑱小郑</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>必须</t>
+    <t>卡通渲染测试跟进（带进新模型）</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>孔老师</t>
+    <t>Day1</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>杨雪、孔老师</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day4</t>
+    <t>Day2</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -786,11 +1091,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>必须</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔老师</t>
+    <t>Day2、5</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -798,7 +1099,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Demo数值指定</t>
+    <t>Day2</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -806,162 +1107,11 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>任务逻辑审核</t>
+    <t>Day5</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Day4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛炜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unity测试-卡通渲染、场景光测试</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Km资料阅读、分类处理及分享</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo版本关卡设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局部分表现逻辑（非boss部分暂缓）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo版本村落文档</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务逻辑初版</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unity测试-Boss对局镜头</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓妖怪设计初版</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招表现形式，操作方式构想</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unity基础操作学习-创建物件、UI排版及美术资源导入</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-14</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-69</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-68</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-67,MG-68</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-70,MG-71</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-72,MG-73</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-41,MG-42</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-39</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-74</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-75</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-76,MG-77</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-65</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-60</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-83</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-80</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-81</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-82</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-84</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-85</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-86</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-87</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-88</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-89</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-90</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-91</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo版本村落文档审核</t>
-  </si>
-  <si>
-    <t>MG-93</t>
+    <t>Day3</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -969,7 +1119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1022,7 +1172,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1034,19 +1195,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1058,6 +1208,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1076,8 +1233,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1118,7 +1277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,7 +1287,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1140,28 +1299,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,26 +1407,46 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1300,6 +1485,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1307,10 +1495,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1323,35 +1507,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
@@ -1363,12 +1522,146 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="60"/>
@@ -1417,20 +1710,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1438,9 +1717,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1471,8 +1747,142 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color indexed="60"/>
       </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1480,9 +1890,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1504,10 +1911,13 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1852,10 +2262,10 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="C11:I12"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1908,7 +2318,7 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="63" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="24" t="s">
@@ -1927,561 +2337,561 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-    </row>
-    <row r="3" spans="1:15" s="41" customFormat="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41" t="s">
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+    </row>
+    <row r="3" spans="1:15" s="50" customFormat="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="41" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="1:15" s="41" customFormat="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="N3" s="65"/>
+    </row>
+    <row r="4" spans="1:15" s="50" customFormat="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="52"/>
+      <c r="H4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="41" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="58"/>
-    </row>
-    <row r="5" spans="1:15" s="41" customFormat="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="66"/>
+    </row>
+    <row r="5" spans="1:15" s="50" customFormat="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="44" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="54" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="59"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="41" customFormat="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="41" t="s">
+    <row r="6" spans="1:15" s="50" customFormat="1">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="44"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="41" t="s">
+      <c r="J6" s="65"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="57"/>
-    </row>
-    <row r="7" spans="1:15" s="41" customFormat="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="58"/>
-    </row>
-    <row r="8" spans="1:15" s="41" customFormat="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="42" t="s">
+      <c r="M6" s="68"/>
+      <c r="N6" s="65"/>
+    </row>
+    <row r="7" spans="1:15" s="50" customFormat="1">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="66"/>
+    </row>
+    <row r="8" spans="1:15" s="50" customFormat="1">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="44" t="s">
+      <c r="G8" s="52"/>
+      <c r="H8" s="54" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="41" t="s">
+      <c r="J8" s="65"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="57"/>
-    </row>
-    <row r="9" spans="1:15" s="41" customFormat="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="42" t="s">
+      <c r="M8" s="68"/>
+      <c r="N8" s="65"/>
+    </row>
+    <row r="9" spans="1:15" s="50" customFormat="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="44" t="s">
+      <c r="G9" s="52"/>
+      <c r="H9" s="54" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="61" t="s">
+      <c r="J9" s="65"/>
+      <c r="K9" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="57"/>
-    </row>
-    <row r="10" spans="1:15" s="41" customFormat="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="42" t="s">
+      <c r="M9" s="68"/>
+      <c r="N9" s="65"/>
+    </row>
+    <row r="10" spans="1:15" s="50" customFormat="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="52"/>
+      <c r="H10" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="41" t="s">
+      <c r="I10" s="70"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="57"/>
-    </row>
-    <row r="11" spans="1:15" s="41" customFormat="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="42" t="s">
+      <c r="M10" s="68"/>
+      <c r="N10" s="65"/>
+    </row>
+    <row r="11" spans="1:15" s="50" customFormat="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="52"/>
+      <c r="H11" s="55" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62" t="s">
+      <c r="J11" s="65"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="60"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57" t="s">
+      <c r="M11" s="68"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="41" customFormat="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41" t="s">
+    <row r="12" spans="1:15" s="50" customFormat="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="44"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="41" t="s">
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="41" customFormat="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="58"/>
-    </row>
-    <row r="14" spans="1:15" s="41" customFormat="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42" t="s">
+    <row r="13" spans="1:15" s="50" customFormat="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="66"/>
+    </row>
+    <row r="14" spans="1:15" s="50" customFormat="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="44"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="58"/>
-    </row>
-    <row r="15" spans="1:15" s="41" customFormat="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="66"/>
+    </row>
+    <row r="15" spans="1:15" s="50" customFormat="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="44" t="s">
+      <c r="G15" s="52"/>
+      <c r="H15" s="54" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="58"/>
-    </row>
-    <row r="16" spans="1:15" s="41" customFormat="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="42" t="s">
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="66"/>
+    </row>
+    <row r="16" spans="1:15" s="50" customFormat="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="52"/>
+      <c r="H16" s="55" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62" t="s">
+      <c r="J16" s="65"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="57"/>
-    </row>
-    <row r="17" spans="1:14" s="41" customFormat="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41" t="s">
+      <c r="M16" s="68"/>
+      <c r="N16" s="65"/>
+    </row>
+    <row r="17" spans="1:14" s="50" customFormat="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="58"/>
-    </row>
-    <row r="18" spans="1:14" s="41" customFormat="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="44"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="66"/>
+    </row>
+    <row r="18" spans="1:14" s="50" customFormat="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="58"/>
-    </row>
-    <row r="19" spans="1:14" s="41" customFormat="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42" t="s">
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="66"/>
+    </row>
+    <row r="19" spans="1:14" s="50" customFormat="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="45" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="55" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="61" t="s">
+      <c r="J19" s="65"/>
+      <c r="K19" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="60"/>
-      <c r="N19" s="57"/>
-    </row>
-    <row r="20" spans="1:14" s="41" customFormat="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="44"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="65"/>
+    </row>
+    <row r="20" spans="1:14" s="50" customFormat="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="58"/>
-    </row>
-    <row r="21" spans="1:14" s="41" customFormat="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41" t="s">
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="66"/>
+    </row>
+    <row r="21" spans="1:14" s="50" customFormat="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="49" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="57" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="41" t="s">
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="57"/>
-    </row>
-    <row r="22" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="C22" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="1:14" s="50" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="C22" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="49" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="57" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57" t="s">
+      <c r="J22" s="65"/>
+      <c r="K22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="57"/>
-    </row>
-    <row r="23" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="C23" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="43" t="s">
+      <c r="N22" s="65"/>
+    </row>
+    <row r="23" spans="1:14" s="50" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="C23" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="49" t="s">
+      <c r="G23" s="53"/>
+      <c r="H23" s="57" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="N23" s="57"/>
+      <c r="K23" s="65"/>
+      <c r="N23" s="65"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3"/>
@@ -2490,11 +2900,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="N24" s="63"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="N24" s="72"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
@@ -2502,11 +2912,11 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="N25" s="63"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="N25" s="72"/>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="12" t="s">
@@ -2527,14 +2937,14 @@
       <c r="H26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="59" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="27" t="s">
         <v>19</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2543,7 +2953,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>68</v>
@@ -2552,49 +2962,49 @@
         <v>12</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="N27" s="63"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="N27" s="72"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="N28" s="63"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="N28" s="72"/>
     </row>
     <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="N29" s="64"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="N29" s="73"/>
     </row>
     <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
@@ -2602,45 +3012,45 @@
         <v>15</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="N30" s="64" t="s">
-        <v>186</v>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="N30" s="73" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="N31" s="63"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="N31" s="72"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="N32" s="63"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="N32" s="72"/>
     </row>
     <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
@@ -2650,21 +3060,21 @@
         <v>15</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="52"/>
-      <c r="H33" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="H33" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="N33" s="63"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="N33" s="72"/>
     </row>
     <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
@@ -2672,22 +3082,22 @@
         <v>15</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="52"/>
-      <c r="H34" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="51" t="s">
+      <c r="F34" s="60"/>
+      <c r="H34" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
       <c r="N34" s="27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="32">
@@ -2696,41 +3106,41 @@
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="52"/>
-      <c r="H35" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="H35" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="N35" s="63"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="N35" s="72"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="H36" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="H36" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="N36" s="63"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="N36" s="72"/>
     </row>
     <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
@@ -2738,21 +3148,21 @@
         <v>15</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="H37" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="H37" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="N37" s="63"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="N37" s="72"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11"/>
@@ -2760,51 +3170,51 @@
         <v>42</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="H38" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="H38" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="N38" s="63"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="N38" s="72"/>
     </row>
     <row r="39" spans="1:14">
       <c r="C39" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I39" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="N39" s="63"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="N39" s="72"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="N40" s="63"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="N40" s="72"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="11"/>
@@ -2815,18 +3225,18 @@
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="59" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="26"/>
@@ -2841,43 +3251,43 @@
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="51" t="s">
+      <c r="I42" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="64"/>
-      <c r="K42" s="63"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="72"/>
       <c r="M42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="63"/>
+      <c r="N42" s="72"/>
     </row>
     <row r="43" spans="1:14">
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="N43" s="63"/>
+        <v>109</v>
+      </c>
+      <c r="I43" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="N43" s="72"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="11"/>
@@ -2885,22 +3295,22 @@
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="51" t="s">
+      <c r="I44" s="59" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2910,46 +3320,46 @@
         <v>42</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="51" t="s">
+      <c r="I45" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
       <c r="L45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="64"/>
+      <c r="N45" s="73"/>
     </row>
     <row r="46" spans="1:14">
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
+      <c r="I46" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
       <c r="M46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N46" s="63"/>
+        <v>116</v>
+      </c>
+      <c r="N46" s="72"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11"/>
@@ -2958,310 +3368,302 @@
         <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="51" t="s">
+      <c r="I47" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
       <c r="M47" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N47" s="64"/>
+        <v>113</v>
+      </c>
+      <c r="N47" s="73"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="I48" s="51"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="N48" s="63"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="N48" s="72"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="51"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="N49" s="63"/>
+        <v>118</v>
+      </c>
+      <c r="I49" s="59"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="N49" s="72"/>
     </row>
     <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="N50" s="63"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="N50" s="72"/>
     </row>
     <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="N51" s="63"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="N51" s="72"/>
     </row>
     <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
       <c r="B52" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="F52" s="23"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="N52" s="63"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="N52" s="72"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="26"/>
       <c r="F53" s="23"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="N53" s="63"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="N53" s="72"/>
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="N54" s="63"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="N54" s="72"/>
     </row>
     <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="N55" s="63"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="N55" s="72"/>
     </row>
     <row r="56" spans="1:14">
       <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="N56" s="63"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="N56" s="72"/>
     </row>
     <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="N57" s="63"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="N57" s="72"/>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" s="23"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
-      <c r="N58" s="63"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="N58" s="72"/>
     </row>
     <row r="59" spans="1:14">
       <c r="F59" s="23"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="N59" s="63"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="N59" s="72"/>
     </row>
     <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="N60" s="63"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="N60" s="72"/>
     </row>
     <row r="61" spans="1:14">
       <c r="F61" s="23"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="N61" s="63"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="N61" s="72"/>
     </row>
     <row r="62" spans="1:14">
       <c r="B62" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="N62" s="63"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="N62" s="72"/>
     </row>
     <row r="63" spans="1:14">
       <c r="F63" s="23"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="N63" s="63"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="N63" s="72"/>
     </row>
     <row r="64" spans="1:14">
       <c r="B64" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="N64" s="63"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="N64" s="72"/>
     </row>
     <row r="65" spans="2:14">
       <c r="F65" s="23"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="N65" s="63"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="N65" s="72"/>
     </row>
     <row r="66" spans="2:14">
       <c r="F66" s="23"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="N66" s="63"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="N66" s="72"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F67" s="23"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="N67" s="63"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="N67" s="72"/>
     </row>
     <row r="68" spans="2:14">
       <c r="F68" s="23"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="N68" s="63"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="N68" s="72"/>
     </row>
     <row r="69" spans="2:14">
       <c r="F69" s="23"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="N69" s="63"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="N69" s="72"/>
     </row>
     <row r="70" spans="2:14">
       <c r="F70" s="23"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="N70" s="63"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="N70" s="72"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="28"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="N71" s="63"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="N71" s="72"/>
     </row>
     <row r="72" spans="2:14">
       <c r="F72" s="23"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="63"/>
-      <c r="N72" s="63"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="72"/>
+      <c r="N72" s="72"/>
     </row>
     <row r="73" spans="2:14" ht="32">
       <c r="B73" s="29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I73" s="30"/>
-      <c r="J73" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="K73" s="69" t="s">
-        <v>135</v>
+      <c r="J73" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="K73" s="76" t="s">
+        <v>137</v>
       </c>
       <c r="L73" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="N73" s="63"/>
+        <v>138</v>
+      </c>
+      <c r="N73" s="72"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="66"/>
-      <c r="N74" s="63"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="47"/>
+      <c r="N74" s="72"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N74"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 D44:F45 D47 F47 D41:F41 E42:F42 E43 D42:D43">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>"阻碍"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3305,30 +3707,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="4"/>
-    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="76"/>
-    <col min="9" max="16384" width="10.1640625" style="4"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="27"/>
+    <col min="9" max="9" width="10.1640625" style="5"/>
+    <col min="10" max="14" width="10.1640625" style="23"/>
+    <col min="15" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3387,1046 +3790,1233 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A3" s="40"/>
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="L3" s="47"/>
-    </row>
-    <row r="4" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A4" s="40"/>
-      <c r="C4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="42" t="s">
+      <c r="H3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="L4" s="47"/>
-    </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="43"/>
-      <c r="L5" s="47"/>
-    </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A6" s="40"/>
-      <c r="B6" s="39" t="s">
+      <c r="H4" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="52"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="48"/>
-      <c r="L6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A7" s="40"/>
-      <c r="C7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="42" t="s">
+      <c r="I6" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="L6" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="72" t="s">
-        <v>240</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="L7" s="47"/>
-    </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A8" s="40"/>
-      <c r="C8" s="41" t="s">
+      <c r="H7" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3"/>
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="L8" s="47"/>
-    </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="5"/>
+      <c r="H8" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="43"/>
-      <c r="L9" s="47"/>
-    </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41" t="s">
+      <c r="F9" s="7"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="52"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="72" t="s">
-        <v>238</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="43" t="s">
+      <c r="H10" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3"/>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="43"/>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="H11" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I11" s="43"/>
-    </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3"/>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="K13" s="47"/>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="42" t="s">
+      <c r="H13" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="I14" s="43"/>
-      <c r="K14" s="47"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="H14" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="K15" s="47"/>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="43" t="s">
+      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3"/>
+      <c r="C17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="10" t="s">
+      <c r="H17" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="I17" s="43"/>
-    </row>
-    <row r="18" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="43"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3"/>
+      <c r="C18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" s="39" customFormat="1" ht="16">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="43"/>
+        <v>163</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3"/>
+      <c r="C19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:14" ht="16">
+        <v>165</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="16">
-      <c r="A21" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="C20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="75"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="16">
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="16">
-      <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>193</v>
+      <c r="D23" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>12</v>
+      <c r="F23" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
+        <v>168</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="16">
+        <v>168</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="16">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="16">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="I26" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="F27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="43"/>
+      <c r="B28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="N27" s="34"/>
-    </row>
-    <row r="28" spans="1:14" ht="16">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="H28" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="43"/>
+      <c r="C29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="N28" s="34"/>
-    </row>
-    <row r="29" spans="1:14" ht="16">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="5"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="16">
-      <c r="A30" s="14"/>
+      <c r="H29" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="34"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="43"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="H30" s="27"/>
+      <c r="F30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="16">
-      <c r="A31" s="11" t="s">
-        <v>79</v>
-      </c>
+    <row r="31" spans="1:14">
+      <c r="A31" s="43"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
+      <c r="F31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="16">
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="F32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="H32" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" ht="16">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5"/>
       <c r="C33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="H33" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="16">
-      <c r="A34" s="14"/>
-      <c r="B34" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="H34" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="16">
-      <c r="A35" s="14"/>
-      <c r="B35" s="5"/>
+      <c r="D34" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="43"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="H35" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" ht="16">
-      <c r="A36" s="11"/>
-      <c r="B36" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="43"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="H36" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="16">
+        <v>184</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="11"/>
-      <c r="B37" s="5"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="H37" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="16">
+        <v>186</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="11"/>
-      <c r="B38" s="5"/>
       <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="11"/>
+      <c r="C39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="H38" s="78" t="s">
-        <v>235</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" ht="16">
-      <c r="C39" s="10"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" ht="16">
-      <c r="A40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="27"/>
+      <c r="D39" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="C40" s="10"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="16">
-      <c r="A41" s="11"/>
-      <c r="B41" s="21" t="s">
+    <row r="41" spans="1:14">
+      <c r="A41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="F41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="11"/>
+      <c r="B42" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="34"/>
-    </row>
-    <row r="42" spans="1:14" ht="16">
-      <c r="A42" s="11"/>
-      <c r="C42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="I42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="34"/>
+      <c r="K42" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="11"/>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" ht="16">
-      <c r="A43" s="11"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="5"/>
       <c r="H43" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="L43" s="34"/>
-      <c r="N43" s="34"/>
-    </row>
-    <row r="44" spans="1:14" ht="16">
+        <v>194</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="11"/>
       <c r="B44" s="21"/>
       <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="34"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="11"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="34"/>
+      <c r="N45" s="34"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="11"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="34"/>
+      <c r="N46" s="34"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="11"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="L44" s="34"/>
-      <c r="N44" s="34"/>
-    </row>
-    <row r="45" spans="1:14" ht="16">
-      <c r="C45" s="5" t="s">
+      <c r="H47" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="34"/>
+      <c r="N47" s="34"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="C48" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="D48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" customFormat="1" ht="16">
-      <c r="A46" s="4"/>
-      <c r="C46" s="5" t="s">
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" s="39" customFormat="1">
+      <c r="A49" s="5"/>
+      <c r="C49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="D49" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="A47" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="32">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="23"/>
-    </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" ht="32">
-      <c r="B49" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" s="23"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="27"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
-    </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" ht="32">
-      <c r="A50" s="3"/>
-      <c r="B50" s="26" t="s">
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" ht="32">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" ht="16">
-      <c r="A51" s="3"/>
-      <c r="B51" s="26"/>
       <c r="F51" s="23"/>
-      <c r="H51" s="27"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="23"/>
-    </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" ht="16">
+    </row>
+    <row r="52" spans="1:14" ht="32">
       <c r="B52" s="26" t="s">
         <v>121</v>
       </c>
+      <c r="D52" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F52" s="23"/>
-      <c r="H52" s="27"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" ht="16">
+    </row>
+    <row r="53" spans="1:14" ht="32">
+      <c r="A53" s="3"/>
       <c r="B53" s="26" t="s">
         <v>122</v>
       </c>
+      <c r="D53" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F53" s="23"/>
-      <c r="H53" s="27"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" ht="16">
-      <c r="B54" s="26" t="s">
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="3"/>
+      <c r="B54" s="26"/>
+      <c r="F54" s="23"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="B55" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" ht="16">
-      <c r="B55" s="21" t="s">
+      <c r="F55" s="23"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="B56" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="23"/>
-    </row>
-    <row r="56" spans="1:10" s="5" customFormat="1" ht="16">
-      <c r="B56" s="5" t="s">
+      <c r="F56" s="23"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="23"/>
-    </row>
-    <row r="57" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="F57" s="23"/>
-      <c r="H57" s="27"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="23"/>
-    </row>
-    <row r="58" spans="1:10" s="5" customFormat="1" ht="16">
-      <c r="B58" s="5" t="s">
+    </row>
+    <row r="58" spans="1:14">
+      <c r="B58" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="F58" s="23"/>
-      <c r="H58" s="27"/>
       <c r="I58" s="7"/>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" s="5" customFormat="1" ht="16">
-      <c r="D59" s="5" t="s">
-        <v>150</v>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="B59" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="F59" s="23"/>
-      <c r="H59" s="27"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" ht="16">
-      <c r="D60" s="5" t="s">
-        <v>151</v>
-      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="H60" s="27"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="1:10" s="5" customFormat="1" ht="16">
+    </row>
+    <row r="61" spans="1:14">
+      <c r="B61" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="D61" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F61" s="23"/>
-      <c r="H61" s="27"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="62" spans="1:10" s="5" customFormat="1" ht="16">
+    </row>
+    <row r="62" spans="1:14">
       <c r="D62" s="5" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="H62" s="27"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" s="5" customFormat="1" ht="16">
-      <c r="B63" s="5" t="s">
-        <v>127</v>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="D63" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="F63" s="23"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="27"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="23"/>
-    </row>
-    <row r="64" spans="1:10" s="5" customFormat="1" ht="16">
+    </row>
+    <row r="64" spans="1:14">
+      <c r="D64" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="F64" s="23"/>
-      <c r="H64" s="27"/>
       <c r="I64" s="7"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="2:12" s="5" customFormat="1" ht="32">
-      <c r="B65" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="29" t="s">
+    </row>
+    <row r="65" spans="2:12">
+      <c r="D65" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="F66" s="23"/>
+      <c r="G66" s="28"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="F67" s="23"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="36"/>
+    </row>
+    <row r="68" spans="2:12" ht="32">
+      <c r="B68" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30" t="s">
+      <c r="C68" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="D68" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="E68" s="29"/>
+      <c r="F68" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38" t="s">
+      <c r="G68" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="K65" s="29" t="s">
+      <c r="H68" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="L65" s="29" t="s">
+      <c r="I68" s="37"/>
+      <c r="J68" s="38" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="66" spans="2:12">
-      <c r="B66" s="31"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
+      <c r="K68" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="L68" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N69"/>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD2 A45:XFD1048576 F34:G35 A34:C35 A4:C4 E4:G4 A3:G3 I3:XFD4 A36:G44 A22:G33 I22:XFD44 H22:H30 H32:H44 A5:XFD21">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"阻碍"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F46">
+    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I18">
+    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="26" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="24" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="20" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4440,25 +5030,25 @@
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B82:B1048576 B1:B46</xm:sqref>
+          <xm:sqref>B1:B49 B85:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C82:C1048576 C1:C46</xm:sqref>
+          <xm:sqref>C1:C49 C85:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I82:I1048576 I1:I46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F46</xm:sqref>
+          <xm:sqref>I85:I1048576 I1:I2 I21:I32 I40:I49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4471,10 +5061,857 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="16">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="K5" s="34"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" ht="16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="16">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="16">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="16">
+      <c r="A15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
+      <c r="B16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:14" ht="16">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" ht="16">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="16">
+      <c r="A22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="F22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="16">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="16">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="16">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="16">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="16">
+      <c r="A27" s="11"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="16">
+      <c r="C28" s="10"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="16">
+      <c r="A29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="16">
+      <c r="A30" s="11"/>
+      <c r="B30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" spans="1:14" ht="16">
+      <c r="A31" s="11"/>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="16">
+      <c r="A32" s="11"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="7"/>
+      <c r="L32" s="34"/>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="1:14" ht="16">
+      <c r="A33" s="11"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="7"/>
+      <c r="L33" s="34"/>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="1:14" ht="16">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="A35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="B37" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="A38" s="3"/>
+      <c r="B38" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="A39" s="3"/>
+      <c r="B39" s="26"/>
+      <c r="F39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B40" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B41" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B42" s="26"/>
+      <c r="F42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B43" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="F44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B45" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="F46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="F48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F51" s="23"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F52" s="23"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F53" s="23"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="36"/>
+    </row>
+    <row r="56" spans="2:12" s="5" customFormat="1" ht="32">
+      <c r="B56" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="L56" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F27">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"阻碍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"阻碍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C73:C1048576 C1:C2 C14:C34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B73:B1048576 B1:B2 B14:B34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I73:I1048576 I1:I5 D3:D12 I21:I34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F2 F14:F34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4674,7 +6111,7 @@
     <row r="13" spans="1:14" ht="16">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>15</v>
@@ -4723,7 +6160,7 @@
     </row>
     <row r="18" spans="1:14" ht="16">
       <c r="A18" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4782,7 +6219,7 @@
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="17"/>
@@ -4798,7 +6235,7 @@
     </row>
     <row r="25" spans="1:14" ht="16">
       <c r="A25" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="5"/>
@@ -4874,7 +6311,7 @@
     </row>
     <row r="31" spans="1:14" s="5" customFormat="1" ht="16">
       <c r="A31" s="24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4892,10 +6329,10 @@
     <row r="32" spans="1:14" s="5" customFormat="1" ht="32">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F32" s="23"/>
       <c r="H32" s="23"/>
@@ -4904,10 +6341,10 @@
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="B33" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F33" s="23"/>
       <c r="H33" s="23"/>
@@ -4917,10 +6354,10 @@
     <row r="34" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="A34" s="3"/>
       <c r="B34" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="F34" s="23"/>
       <c r="H34" s="23"/>
@@ -4937,7 +6374,7 @@
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B36" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F36" s="23"/>
       <c r="H36" s="23"/>
@@ -4946,7 +6383,7 @@
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B37" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F37" s="23"/>
       <c r="H37" s="23"/>
@@ -4962,7 +6399,7 @@
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B39" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F39" s="23"/>
       <c r="H39" s="23"/>
@@ -4977,7 +6414,7 @@
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B41" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F41" s="23"/>
       <c r="H41" s="23"/>
@@ -4992,7 +6429,7 @@
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B43" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F43" s="23"/>
       <c r="H43" s="23"/>
@@ -5013,7 +6450,7 @@
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="B46" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F46" s="23"/>
       <c r="H46" s="23"/>
@@ -5040,7 +6477,7 @@
     </row>
     <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="B50" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="28"/>
@@ -5056,33 +6493,33 @@
     </row>
     <row r="52" spans="2:12" s="5" customFormat="1" ht="32">
       <c r="B52" s="29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E52" s="29"/>
       <c r="F52" s="30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I52" s="37"/>
       <c r="J52" s="38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K52" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L52" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="2:12">
@@ -5100,14 +6537,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"阻碍"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -5147,7 +6576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -5162,15 +6591,15 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
@@ -5181,7 +6610,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -5199,7 +6628,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -5214,17 +6643,17 @@
     </row>
     <row r="5" spans="1:9" ht="16">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>10</v>
@@ -5235,7 +6664,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -5245,7 +6674,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
@@ -5258,37 +6687,37 @@
         <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5298,64 +6727,64 @@
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -5363,7 +6792,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -5371,7 +6800,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -5379,7 +6808,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -5387,7 +6816,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -5395,7 +6824,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -5403,7 +6832,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="I24" s="4"/>
     </row>
@@ -5457,7 +6886,7 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="19500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26580" windowHeight="19100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="320">
   <si>
     <t>类别</t>
   </si>
@@ -809,309 +809,415 @@
     <t>对局ui设计</t>
   </si>
   <si>
+    <t>美术量-2d-npc-妲己</t>
+  </si>
+  <si>
+    <t>美术量-2d-npc-玩家角色 男</t>
+  </si>
+  <si>
+    <t>任务时限</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>任务状态</t>
+  </si>
+  <si>
+    <t>本周必须完成的任务</t>
+  </si>
+  <si>
+    <t>超额任务，有可能在本周完成</t>
+  </si>
+  <si>
+    <t>长期持续进行的工作</t>
+  </si>
+  <si>
+    <t>提交配置</t>
+  </si>
+  <si>
+    <t>提交测试</t>
+  </si>
+  <si>
+    <t>Day6</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>客户端新功能</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>服务器新功能</t>
+  </si>
+  <si>
+    <t>Day9</t>
+  </si>
+  <si>
+    <t>Day10</t>
+  </si>
+  <si>
+    <t>服务器自主任务</t>
+  </si>
+  <si>
+    <t>Day11</t>
+  </si>
+  <si>
+    <t>文档分析</t>
+  </si>
+  <si>
+    <t>Day12</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>Day13</t>
+  </si>
+  <si>
+    <t>功能测试</t>
+  </si>
+  <si>
+    <t>Day14</t>
+  </si>
+  <si>
+    <t>内容测试</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>角色原画</t>
+  </si>
+  <si>
+    <t>场景原画</t>
+  </si>
+  <si>
+    <t>角色3D</t>
+  </si>
+  <si>
+    <t>场景3D</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交文档</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间分流设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛炜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠设计审核</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习资料分享</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物属性成长设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线故事框架设计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统文档分析及跟进</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统、伤害公式、对局流程测试用例（粗略）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hockeyapp使用研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>confluence破解研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>share资料学习（游戏心理学）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端流程完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端流程测试</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ugui富文本测试</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能，对局接口确认</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建删除角色</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物属性变更相关功能接口</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡通渲染测试跟进（带进新模型）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2、5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-100</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔瑱</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-69</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-99</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔瑱小郑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-97,MG-98</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-101</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-103,MG-104</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-102</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-105,MG-106</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-107</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-108,MG-109</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">孙帆 </t>
-  </si>
-  <si>
-    <t>美术量-2d-npc-妲己</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">豆豆 </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-96</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">豆豆 </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-110</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-110</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-111</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-112</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-113</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-114</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-115</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-116</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-117</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">美术量-2d-npc-玩家角色 女  </t>
-  </si>
-  <si>
-    <t>美术量-2d-npc-玩家角色 男</t>
-  </si>
-  <si>
-    <t>任务时限</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>任务状态</t>
-  </si>
-  <si>
-    <t>本周必须完成的任务</t>
-  </si>
-  <si>
-    <t>超额任务，有可能在本周完成</t>
-  </si>
-  <si>
-    <t>长期持续进行的工作</t>
-  </si>
-  <si>
-    <t>提交配置</t>
-  </si>
-  <si>
-    <t>提交测试</t>
-  </si>
-  <si>
-    <t>Day6</t>
-  </si>
-  <si>
-    <t>debug</t>
-  </si>
-  <si>
-    <t>Day7</t>
-  </si>
-  <si>
-    <t>客户端新功能</t>
-  </si>
-  <si>
-    <t>Day8</t>
-  </si>
-  <si>
-    <t>服务器新功能</t>
-  </si>
-  <si>
-    <t>Day9</t>
-  </si>
-  <si>
-    <t>Day10</t>
-  </si>
-  <si>
-    <t>服务器自主任务</t>
-  </si>
-  <si>
-    <t>Day11</t>
-  </si>
-  <si>
-    <t>文档分析</t>
-  </si>
-  <si>
-    <t>Day12</t>
-  </si>
-  <si>
-    <t>测试用例</t>
-  </si>
-  <si>
-    <t>Day13</t>
-  </si>
-  <si>
-    <t>功能测试</t>
-  </si>
-  <si>
-    <t>Day14</t>
-  </si>
-  <si>
-    <t>内容测试</t>
-  </si>
-  <si>
-    <t>Day15</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>角色原画</t>
-  </si>
-  <si>
-    <t>场景原画</t>
-  </si>
-  <si>
-    <t>角色3D</t>
-  </si>
-  <si>
-    <t>场景3D</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>封文档</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖子</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交文档</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓宠设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨雪</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>自主任务</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间分流设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛炜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓宠设计审核</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习资料分享</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔老师</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物属性成长设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线故事框架设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统文档分析及跟进</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能系统、伤害公式、对局流程测试用例（粗略）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hockeyapp使用研究</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>confluence破解研究</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>share资料学习（游戏心理学）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端流程完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端流程测试</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ugui富文本测试</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能，对局接口确认</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建删除角色</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物属性变更相关功能接口</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小珍</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔瑱</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔瑱小郑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡通渲染测试跟进（带进新模型）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2、5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-118</t>
+  </si>
+  <si>
+    <t>MG-119</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1383,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,6 +1403,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1510,7 +1622,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
@@ -1523,167 +1635,15 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -1867,6 +1827,75 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
       <fill>
         <patternFill>
           <fgColor indexed="10"/>
@@ -1885,28 +1914,8 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2261,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3657,12 +3666,12 @@
   <autoFilter ref="A1:N74"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 D44:F45 D47 F47 D41:F41 E42:F42 E43 D42:D43">
-    <cfRule type="cellIs" dxfId="32" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3709,7 +3718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3811,7 +3820,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>19</v>
@@ -3836,7 +3845,7 @@
         <v>139</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="23" t="s">
@@ -3872,7 +3881,7 @@
         <v>39</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J6" s="6"/>
       <c r="L6" s="34" t="s">
@@ -3897,7 +3906,7 @@
         <v>142</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>19</v>
@@ -3922,7 +3931,7 @@
         <v>144</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>19</v>
@@ -3958,7 +3967,7 @@
         <v>146</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -3982,7 +3991,7 @@
         <v>148</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>19</v>
@@ -4006,7 +4015,7 @@
         <v>150</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4027,7 +4036,7 @@
         <v>152</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K13" s="34"/>
       <c r="M13" s="34"/>
@@ -4051,7 +4060,7 @@
         <v>154</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K14" s="34"/>
       <c r="M14" s="34"/>
@@ -4075,7 +4084,7 @@
         <v>156</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>19</v>
@@ -4102,7 +4111,7 @@
         <v>158</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>19</v>
@@ -4128,7 +4137,7 @@
         <v>161</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4149,7 +4158,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4170,7 +4179,7 @@
         <v>165</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4191,7 +4200,7 @@
         <v>167</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4221,7 +4230,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>68</v>
@@ -4245,7 +4254,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>68</v>
@@ -4401,7 +4410,7 @@
         <v>179</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>19</v>
@@ -4424,7 +4433,7 @@
         <v>181</v>
       </c>
       <c r="I34" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>19</v>
@@ -4447,7 +4456,7 @@
         <v>183</v>
       </c>
       <c r="I35" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4467,7 +4476,7 @@
         <v>185</v>
       </c>
       <c r="I36" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K36" s="23" t="s">
         <v>19</v>
@@ -4490,7 +4499,7 @@
         <v>187</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4510,7 +4519,7 @@
         <v>189</v>
       </c>
       <c r="I38" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4530,7 +4539,7 @@
         <v>191</v>
       </c>
       <c r="I39" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4921,77 +4930,77 @@
   <autoFilter ref="A1:N69"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="31" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F46">
-    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I18">
-    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="26" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="24" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="20" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5001,22 +5010,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5063,8 +5072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H30" sqref="E30:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5142,22 +5151,24 @@
     <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="13" t="s">
+        <v>308</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="L3" s="34"/>
     </row>
@@ -5169,7 +5180,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="7"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
@@ -5178,22 +5189,24 @@
     <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="13" t="s">
+        <v>309</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="K5" s="34"/>
       <c r="M5" s="34"/>
@@ -5202,16 +5215,19 @@
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="M6" s="34"/>
     </row>
@@ -5222,56 +5238,66 @@
       <c r="D7" s="7"/>
       <c r="E7" s="9"/>
       <c r="F7" s="7"/>
+      <c r="H7" s="13"/>
       <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16">
@@ -5281,44 +5307,53 @@
         <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7"/>
+      <c r="H13" s="13" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="16">
       <c r="A14" s="3"/>
@@ -5342,13 +5377,17 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>290</v>
+      <c r="F16" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16">
@@ -5357,13 +5396,17 @@
         <v>15</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>268</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16">
@@ -5373,13 +5416,17 @@
         <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>269</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16">
@@ -5391,13 +5438,17 @@
         <v>15</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="N19" s="34"/>
     </row>
@@ -5408,13 +5459,17 @@
         <v>15</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>271</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="N20" s="34"/>
     </row>
@@ -5423,8 +5478,10 @@
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="16">
@@ -5433,7 +5490,10 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="16">
@@ -5444,13 +5504,16 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="H23" s="18"/>
+        <v>261</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>293</v>
+      </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="16">
@@ -5460,13 +5523,16 @@
         <v>15</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="H24" s="18"/>
+        <v>262</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>295</v>
+      </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="16">
@@ -5476,13 +5542,16 @@
         <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="H25" s="19"/>
+        <v>263</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="16">
@@ -5492,13 +5561,16 @@
         <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="H26" s="18"/>
+        <v>264</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="16">
@@ -5508,19 +5580,25 @@
         <v>99</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="H27" s="18"/>
+      <c r="E27" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13" t="s">
+        <v>301</v>
+      </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:14" ht="16">
       <c r="C28" s="10"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:14" ht="16">
@@ -5530,10 +5608,10 @@
       <c r="B29" s="21"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="23"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="16">
@@ -5547,14 +5625,16 @@
       <c r="D30" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="23"/>
+      <c r="E30" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13" t="s">
+        <v>319</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="34"/>
     </row>
@@ -5564,16 +5644,18 @@
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="23"/>
+        <v>208</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
+        <v>306</v>
+      </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="16">
@@ -5583,16 +5665,18 @@
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
+        <v>318</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="L32" s="34"/>
       <c r="N32" s="34"/>
@@ -5604,14 +5688,14 @@
         <v>42</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="23"/>
+        <v>209</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="7"/>
       <c r="L33" s="34"/>
       <c r="N33" s="34"/>
@@ -5851,19 +5935,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F27">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+  <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F15">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5910,7 +5994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -6580,7 +6664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -6591,15 +6675,15 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
@@ -6610,7 +6694,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -6628,7 +6712,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -6646,7 +6730,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -6664,7 +6748,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -6674,7 +6758,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
@@ -6687,37 +6771,37 @@
         <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6727,64 +6811,64 @@
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -6792,7 +6876,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -6800,7 +6884,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -6808,7 +6892,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -6816,7 +6900,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -6824,7 +6908,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -6832,7 +6916,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I24" s="4"/>
     </row>
@@ -6886,7 +6970,7 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26580" windowHeight="19100" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32060" windowHeight="18900" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
     <sheet name="4-8周输出" sheetId="2" r:id="rId2"/>
     <sheet name="4-15周输出" sheetId="3" r:id="rId3"/>
-    <sheet name="模板" sheetId="4" r:id="rId4"/>
-    <sheet name="附录" sheetId="5" r:id="rId5"/>
+    <sheet name="4-22周输出" sheetId="4" r:id="rId4"/>
+    <sheet name="模板" sheetId="5" r:id="rId5"/>
+    <sheet name="附录" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$69</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -182,8 +183,47 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="332">
   <si>
     <t>类别</t>
   </si>
@@ -689,9 +729,15 @@
     <t>MG-91</t>
   </si>
   <si>
+    <t>客户端流程完成</t>
+  </si>
+  <si>
     <t>MG-69</t>
   </si>
   <si>
+    <t>客户端流程测试</t>
+  </si>
+  <si>
     <t>测试中</t>
   </si>
   <si>
@@ -806,15 +852,231 @@
     <t>KM资源学习方式：分配不同人先学习之后选取精华进行推送？</t>
   </si>
   <si>
+    <t>任务系统</t>
+  </si>
+  <si>
+    <t>MG-110</t>
+  </si>
+  <si>
+    <t>抓宠设计</t>
+  </si>
+  <si>
+    <t>MG-111</t>
+  </si>
+  <si>
+    <t>时间分流设计</t>
+  </si>
+  <si>
+    <t>MG-112</t>
+  </si>
+  <si>
+    <t>抓宠设计审核</t>
+  </si>
+  <si>
+    <t>MG-113</t>
+  </si>
+  <si>
+    <t>学习资料分享</t>
+  </si>
+  <si>
+    <t>MG-114</t>
+  </si>
+  <si>
+    <t>怪物属性成长设计</t>
+  </si>
+  <si>
+    <t>Day2、5</t>
+  </si>
+  <si>
+    <t>MG-115</t>
+  </si>
+  <si>
+    <t>主线故事框架设计</t>
+  </si>
+  <si>
+    <t>MG-116</t>
+  </si>
+  <si>
+    <t>卡通渲染测试跟进（带进新模型）</t>
+  </si>
+  <si>
+    <t>MG-117</t>
+  </si>
+  <si>
+    <t>ugui富文本测试</t>
+  </si>
+  <si>
+    <t>MG-99</t>
+  </si>
+  <si>
+    <t>技能，对局接口确认</t>
+  </si>
+  <si>
+    <t>孔瑱小郑</t>
+  </si>
+  <si>
+    <t>MG-97,MG-98</t>
+  </si>
+  <si>
+    <t>创建删除角色</t>
+  </si>
+  <si>
+    <t>郑帅</t>
+  </si>
+  <si>
+    <t>MG-100</t>
+  </si>
+  <si>
+    <t>宠物属性变更相关功能接口</t>
+  </si>
+  <si>
+    <t>小珍</t>
+  </si>
+  <si>
+    <t>MG-101</t>
+  </si>
+  <si>
+    <t>任务系统文档分析及跟进</t>
+  </si>
+  <si>
+    <t>MG-103,MG-104</t>
+  </si>
+  <si>
+    <t>技能系统、伤害公式、对局流程测试用例（粗略）</t>
+  </si>
+  <si>
+    <t>MG-102</t>
+  </si>
+  <si>
+    <t>hockeyapp使用研究</t>
+  </si>
+  <si>
+    <t>MG-105,MG-106</t>
+  </si>
+  <si>
+    <t>confluence破解研究</t>
+  </si>
+  <si>
+    <t>MG-107</t>
+  </si>
+  <si>
+    <t>share资料学习（游戏心理学）</t>
+  </si>
+  <si>
+    <t>MG-108,MG-109</t>
+  </si>
+  <si>
     <t>对局ui设计</t>
   </si>
   <si>
+    <t xml:space="preserve">孙帆 </t>
+  </si>
+  <si>
+    <t>MG-119</t>
+  </si>
+  <si>
     <t>美术量-2d-npc-妲己</t>
   </si>
   <si>
+    <t xml:space="preserve">豆豆 </t>
+  </si>
+  <si>
+    <t>MG-96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美术量-2d-npc-玩家角色 女  </t>
+  </si>
+  <si>
+    <t>MG-118</t>
+  </si>
+  <si>
     <t>美术量-2d-npc-玩家角色 男</t>
   </si>
   <si>
+    <t>MG-120</t>
+  </si>
+  <si>
+    <t>战斗节奏调整</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>主线副本设计规划</t>
+  </si>
+  <si>
+    <t>UI规范</t>
+  </si>
+  <si>
+    <t>buff规范</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>时间模板细化——各个玩法时间调节</t>
+  </si>
+  <si>
+    <t>辛</t>
+  </si>
+  <si>
+    <t>主线剧情深入</t>
+  </si>
+  <si>
+    <t>技能整合进现有框架</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>技能测试</t>
+  </si>
+  <si>
+    <t>对局主流程测试</t>
+  </si>
+  <si>
+    <t>小智</t>
+  </si>
+  <si>
+    <t>参考学习一个完整的游戏服务器</t>
+  </si>
+  <si>
+    <t>小珍，帅帅</t>
+  </si>
+  <si>
+    <t>对局通用逻辑测试用例</t>
+  </si>
+  <si>
+    <t>伤害公式测试用例</t>
+  </si>
+  <si>
+    <t>副本测试用例走读</t>
+  </si>
+  <si>
+    <t>技能测试用例走读</t>
+  </si>
+  <si>
+    <t>核心战斗-换宠文档分析</t>
+  </si>
+  <si>
+    <t>UI规范文档分析</t>
+  </si>
+  <si>
+    <t>buff规范文档分析</t>
+  </si>
+  <si>
+    <t>副本、技能测试用例修改</t>
+  </si>
+  <si>
+    <t>主角属性，账号基础数据</t>
+  </si>
+  <si>
+    <t>对局ui版本2</t>
+  </si>
+  <si>
+    <t>外包第一批反馈审核修改</t>
+  </si>
+  <si>
     <t>任务时限</t>
   </si>
   <si>
@@ -915,317 +1177,70 @@
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>封文档</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖子</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交文档</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓宠设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨雪</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>自主任务</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间分流设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛炜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓宠设计审核</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习资料分享</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity学习——特效动画（讲解）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo后新增美术需求</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>孔老师</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物属性成长设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线故事框架设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统文档分析及跟进</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能系统、伤害公式、对局流程测试用例（粗略）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>hockeyapp使用研究</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>confluence破解研究</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>share资料学习（游戏心理学）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端流程完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端流程测试</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ugui富文本测试</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能，对局接口确认</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建删除角色</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物属性变更相关功能接口</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡通渲染测试跟进（带进新模型）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2、5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-100</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔瑱</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-69</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-99</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔瑱小郑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-97,MG-98</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小珍</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-101</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-103,MG-104</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-102</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-105,MG-106</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-107</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-108,MG-109</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">孙帆 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">豆豆 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-96</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">豆豆 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-110</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-110</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-111</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-112</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-113</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-114</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-115</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-116</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-117</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">美术量-2d-npc-玩家角色 女  </t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-118</t>
-  </si>
-  <si>
-    <t>MG-119</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">战斗节奏调整文档分析 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗-出手速度计算方法确认</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗-出手速度计算方法文档分析</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画-主角-男 评审</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆 豆豆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity学习—特效动画（讲解）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1270,11 +1285,33 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1286,7 +1323,13 @@
     <font>
       <sz val="11"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1296,12 +1339,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1318,9 +1355,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1335,13 +1372,6 @@
       <sz val="12"/>
       <color theme="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1383,7 +1413,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,7 +1423,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1405,44 +1435,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1518,7 +1524,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1528,8 +1540,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1545,22 +1560,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1582,25 +1594,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1619,10 +1631,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="11">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
@@ -1632,18 +1643,10 @@
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -1658,28 +1661,56 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor indexed="10"/>
+          <bgColor indexed="13"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1920,15 +1951,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -2327,7 +2350,7 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="67" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="24" t="s">
@@ -2346,561 +2369,561 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-    </row>
-    <row r="3" spans="1:15" s="50" customFormat="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="50" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+    </row>
+    <row r="3" spans="1:15" s="55" customFormat="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="50" t="s">
+      <c r="I3" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="65"/>
-    </row>
-    <row r="4" spans="1:15" s="50" customFormat="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="50" t="s">
+      <c r="M3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="69"/>
+    </row>
+    <row r="4" spans="1:15" s="55" customFormat="1">
+      <c r="A4" s="56"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="54" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="50" t="s">
+      <c r="I4" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="66"/>
-    </row>
-    <row r="5" spans="1:15" s="50" customFormat="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="M4" s="72"/>
+      <c r="N4" s="70"/>
+    </row>
+    <row r="5" spans="1:15" s="55" customFormat="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="50" customFormat="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="50" t="s">
+    <row r="6" spans="1:15" s="55" customFormat="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="54"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="65"/>
-    </row>
-    <row r="7" spans="1:15" s="50" customFormat="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="66"/>
-    </row>
-    <row r="8" spans="1:15" s="50" customFormat="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52" t="s">
+      <c r="J6" s="69"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="72"/>
+      <c r="N6" s="69"/>
+    </row>
+    <row r="7" spans="1:15" s="55" customFormat="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="70"/>
+    </row>
+    <row r="8" spans="1:15" s="55" customFormat="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="54" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="58" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="65"/>
-    </row>
-    <row r="9" spans="1:15" s="50" customFormat="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="52" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8" s="69"/>
+    </row>
+    <row r="9" spans="1:15" s="55" customFormat="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="54" t="s">
+      <c r="G9" s="48"/>
+      <c r="H9" s="58" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="65"/>
-    </row>
-    <row r="10" spans="1:15" s="50" customFormat="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="52" t="s">
+      <c r="J9" s="69"/>
+      <c r="K9" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="69"/>
+    </row>
+    <row r="10" spans="1:15" s="55" customFormat="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="54" t="s">
+      <c r="G10" s="48"/>
+      <c r="H10" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="50" t="s">
+      <c r="I10" s="74"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="65"/>
-    </row>
-    <row r="11" spans="1:15" s="50" customFormat="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="52" t="s">
+      <c r="M10" s="72"/>
+      <c r="N10" s="69"/>
+    </row>
+    <row r="11" spans="1:15" s="55" customFormat="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="55" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="59" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="71" t="s">
+      <c r="J11" s="69"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65" t="s">
+      <c r="M11" s="72"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="50" customFormat="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="50" t="s">
+    <row r="12" spans="1:15" s="55" customFormat="1">
+      <c r="A12" s="56"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="50" t="s">
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="50" customFormat="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="66"/>
-    </row>
-    <row r="14" spans="1:15" s="50" customFormat="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52" t="s">
+    <row r="13" spans="1:15" s="55" customFormat="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="70"/>
+    </row>
+    <row r="14" spans="1:15" s="55" customFormat="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="66"/>
-    </row>
-    <row r="15" spans="1:15" s="50" customFormat="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="52" t="s">
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="70"/>
+    </row>
+    <row r="15" spans="1:15" s="55" customFormat="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="54" t="s">
+      <c r="G15" s="48"/>
+      <c r="H15" s="58" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="66"/>
-    </row>
-    <row r="16" spans="1:15" s="50" customFormat="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="52" t="s">
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="70"/>
+    </row>
+    <row r="16" spans="1:15" s="55" customFormat="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="59" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="71" t="s">
+      <c r="J16" s="69"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="68"/>
-      <c r="N16" s="65"/>
-    </row>
-    <row r="17" spans="1:14" s="50" customFormat="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="50" t="s">
+      <c r="M16" s="72"/>
+      <c r="N16" s="69"/>
+    </row>
+    <row r="17" spans="1:14" s="55" customFormat="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="54"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="66"/>
-    </row>
-    <row r="18" spans="1:14" s="50" customFormat="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="54"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="70"/>
+    </row>
+    <row r="18" spans="1:14" s="55" customFormat="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="66"/>
-    </row>
-    <row r="19" spans="1:14" s="50" customFormat="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="70"/>
+    </row>
+    <row r="19" spans="1:14" s="55" customFormat="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="55" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="59" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="65"/>
-      <c r="K19" s="69" t="s">
+      <c r="J19" s="69"/>
+      <c r="K19" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="68"/>
-      <c r="N19" s="65"/>
-    </row>
-    <row r="20" spans="1:14" s="50" customFormat="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="54"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="69"/>
+    </row>
+    <row r="20" spans="1:14" s="55" customFormat="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="58"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="66"/>
-    </row>
-    <row r="21" spans="1:14" s="50" customFormat="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="50" t="s">
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="70"/>
+    </row>
+    <row r="21" spans="1:14" s="55" customFormat="1">
+      <c r="A21" s="56"/>
+      <c r="B21" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="53" t="s">
+      <c r="C21" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="57" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="61" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="65"/>
-    </row>
-    <row r="22" spans="1:14" s="50" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="C22" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="53" t="s">
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="69"/>
+    </row>
+    <row r="22" spans="1:14" s="55" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="56"/>
+      <c r="C22" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="57" t="s">
+      <c r="G22" s="57"/>
+      <c r="H22" s="61" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="65"/>
-    </row>
-    <row r="23" spans="1:14" s="50" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="C23" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="53" t="s">
+      <c r="J22" s="69"/>
+      <c r="K22" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="69"/>
+    </row>
+    <row r="23" spans="1:14" s="55" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="56"/>
+      <c r="C23" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="57" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="61" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="65"/>
-      <c r="N23" s="65"/>
+      <c r="J23" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="69"/>
+      <c r="N23" s="69"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3"/>
@@ -2909,11 +2932,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="N24" s="72"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="N24" s="76"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
@@ -2921,11 +2944,11 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="N25" s="72"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="N25" s="76"/>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="12" t="s">
@@ -2946,7 +2969,7 @@
       <c r="H26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="63" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="27" t="s">
@@ -2973,20 +2996,20 @@
       <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="N27" s="72"/>
+      <c r="I27" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="N27" s="76"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="N28" s="72"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="N28" s="76"/>
     </row>
     <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
@@ -3008,12 +3031,12 @@
       <c r="H29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="N29" s="73"/>
+      <c r="I29" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="N29" s="77"/>
     </row>
     <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
@@ -3032,12 +3055,12 @@
       <c r="H30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="N30" s="73" t="s">
+      <c r="I30" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="N30" s="77" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3045,10 +3068,10 @@
       <c r="A31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="N31" s="72"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="N31" s="76"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
@@ -3056,10 +3079,10 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="N32" s="72"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="N32" s="76"/>
     </row>
     <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
@@ -3074,16 +3097,16 @@
       <c r="E33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="H33" s="61" t="s">
+      <c r="F33" s="64"/>
+      <c r="H33" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="N33" s="72"/>
+      <c r="I33" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="N33" s="76"/>
     </row>
     <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
@@ -3096,15 +3119,15 @@
       <c r="E34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="H34" s="61" t="s">
+      <c r="F34" s="64"/>
+      <c r="H34" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
+      <c r="I34" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
       <c r="N34" s="27" t="s">
         <v>87</v>
       </c>
@@ -3120,16 +3143,16 @@
       <c r="E35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="H35" s="61" t="s">
+      <c r="F35" s="64"/>
+      <c r="H35" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="N35" s="72"/>
+      <c r="I35" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="N35" s="76"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="13"/>
@@ -3140,16 +3163,16 @@
       <c r="E36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="60"/>
-      <c r="H36" s="61" t="s">
+      <c r="F36" s="64"/>
+      <c r="H36" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="N36" s="72"/>
+      <c r="I36" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="N36" s="76"/>
     </row>
     <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
@@ -3162,16 +3185,16 @@
       <c r="E37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="H37" s="61" t="s">
+      <c r="F37" s="64"/>
+      <c r="H37" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="N37" s="72"/>
+      <c r="I37" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="N37" s="76"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11"/>
@@ -3184,16 +3207,16 @@
       <c r="E38" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="60"/>
-      <c r="H38" s="62" t="s">
+      <c r="F38" s="64"/>
+      <c r="H38" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="N38" s="72"/>
+      <c r="I38" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="N38" s="76"/>
     </row>
     <row r="39" spans="1:14">
       <c r="C39" s="10" t="s">
@@ -3208,22 +3231,22 @@
       <c r="H39" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="N39" s="72"/>
+      <c r="I39" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="N39" s="76"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="N40" s="72"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="N40" s="76"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="11"/>
@@ -3245,7 +3268,7 @@
       <c r="H41" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="59" t="s">
+      <c r="I41" s="63" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="26"/>
@@ -3268,15 +3291,15 @@
       <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="73"/>
-      <c r="K42" s="72"/>
+      <c r="I42" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="77"/>
+      <c r="K42" s="76"/>
       <c r="M42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="72"/>
+      <c r="N42" s="76"/>
     </row>
     <row r="43" spans="1:14">
       <c r="C43" s="5" t="s">
@@ -3291,12 +3314,12 @@
       <c r="H43" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="59" t="s">
+      <c r="I43" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="N43" s="72"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="N43" s="76"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="11"/>
@@ -3312,7 +3335,7 @@
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="59" t="s">
+      <c r="I44" s="63" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -3337,15 +3360,15 @@
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
+      <c r="I45" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
       <c r="L45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="73"/>
+      <c r="N45" s="77"/>
     </row>
     <row r="46" spans="1:14">
       <c r="C46" s="5" t="s">
@@ -3360,15 +3383,15 @@
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="59" t="s">
+      <c r="I46" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
       <c r="M46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="72"/>
+      <c r="N46" s="76"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11"/>
@@ -3385,30 +3408,30 @@
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
+      <c r="I47" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
       <c r="M47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N47" s="73"/>
+      <c r="N47" s="77"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="I48" s="59"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="N48" s="72"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="N48" s="76"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="59"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="N49" s="72"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="N49" s="76"/>
     </row>
     <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
@@ -3419,10 +3442,10 @@
         <v>120</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="N50" s="72"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="N50" s="76"/>
     </row>
     <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
@@ -3432,10 +3455,10 @@
         <v>120</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="N51" s="72"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="N51" s="76"/>
     </row>
     <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
@@ -3446,157 +3469,157 @@
         <v>120</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="N52" s="72"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="N52" s="76"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="26"/>
       <c r="F53" s="23"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="N53" s="72"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="N53" s="76"/>
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="N54" s="72"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="N54" s="76"/>
     </row>
     <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="N55" s="72"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="N55" s="76"/>
     </row>
     <row r="56" spans="1:14">
       <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="N56" s="72"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="N56" s="76"/>
     </row>
     <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="N57" s="72"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="N57" s="76"/>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" s="23"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72"/>
-      <c r="N58" s="72"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="N58" s="76"/>
     </row>
     <row r="59" spans="1:14">
       <c r="F59" s="23"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="N59" s="72"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="N59" s="76"/>
     </row>
     <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="N60" s="72"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="N60" s="76"/>
     </row>
     <row r="61" spans="1:14">
       <c r="F61" s="23"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="N61" s="72"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="N61" s="76"/>
     </row>
     <row r="62" spans="1:14">
       <c r="B62" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="N62" s="72"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="N62" s="76"/>
     </row>
     <row r="63" spans="1:14">
       <c r="F63" s="23"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="N63" s="72"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="N63" s="76"/>
     </row>
     <row r="64" spans="1:14">
       <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="N64" s="72"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="N64" s="76"/>
     </row>
     <row r="65" spans="2:14">
       <c r="F65" s="23"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="N65" s="72"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76"/>
+      <c r="N65" s="76"/>
     </row>
     <row r="66" spans="2:14">
       <c r="F66" s="23"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
-      <c r="N66" s="72"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
+      <c r="N66" s="76"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="23"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="N67" s="72"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="76"/>
+      <c r="K67" s="76"/>
+      <c r="N67" s="76"/>
     </row>
     <row r="68" spans="2:14">
       <c r="F68" s="23"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-      <c r="N68" s="72"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
+      <c r="N68" s="76"/>
     </row>
     <row r="69" spans="2:14">
       <c r="F69" s="23"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="72"/>
-      <c r="N69" s="72"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76"/>
+      <c r="N69" s="76"/>
     </row>
     <row r="70" spans="2:14">
       <c r="F70" s="23"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="N70" s="72"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="76"/>
+      <c r="N70" s="76"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="5" t="s">
@@ -3604,17 +3627,17 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="28"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="N71" s="72"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="76"/>
+      <c r="K71" s="76"/>
+      <c r="N71" s="76"/>
     </row>
     <row r="72" spans="2:14">
       <c r="F72" s="23"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="72"/>
-      <c r="N72" s="72"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="76"/>
+      <c r="N72" s="76"/>
     </row>
     <row r="73" spans="2:14" ht="32">
       <c r="B73" s="29" t="s">
@@ -3637,41 +3660,41 @@
         <v>135</v>
       </c>
       <c r="I73" s="30"/>
-      <c r="J73" s="76" t="s">
+      <c r="J73" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="K73" s="76" t="s">
+      <c r="K73" s="80" t="s">
         <v>137</v>
       </c>
       <c r="L73" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N73" s="72"/>
+      <c r="N73" s="76"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="46"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="47"/>
-      <c r="N74" s="72"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="52"/>
+      <c r="N74" s="76"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N74"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 D44:F45 D47 F47 D41:F41 E42:F42 E43 D42:D43">
-    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3722,7 +3745,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3816,11 +3839,11 @@
       <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="52" t="s">
-        <v>243</v>
+      <c r="I3" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>19</v>
@@ -3841,11 +3864,11 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="52" t="s">
-        <v>243</v>
+      <c r="I4" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="23" t="s">
@@ -3856,8 +3879,8 @@
       <c r="A5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="48"/>
       <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:14">
@@ -3877,11 +3900,11 @@
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="52" t="s">
-        <v>243</v>
+      <c r="I6" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="6"/>
       <c r="L6" s="34" t="s">
@@ -3902,11 +3925,11 @@
       <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>243</v>
+      <c r="I7" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>19</v>
@@ -3927,11 +3950,11 @@
       <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="52" t="s">
-        <v>243</v>
+      <c r="I8" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>19</v>
@@ -3942,8 +3965,8 @@
       <c r="A9" s="3"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="48"/>
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:14">
@@ -3963,11 +3986,11 @@
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="52" t="s">
-        <v>243</v>
+      <c r="I10" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -3990,8 +4013,8 @@
       <c r="H11" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="52" t="s">
-        <v>243</v>
+      <c r="I11" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>19</v>
@@ -4014,8 +4037,8 @@
       <c r="H12" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="52" t="s">
-        <v>243</v>
+      <c r="I12" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4032,11 +4055,11 @@
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="52" t="s">
-        <v>243</v>
+      <c r="I13" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K13" s="34"/>
       <c r="M13" s="34"/>
@@ -4056,11 +4079,11 @@
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>243</v>
+      <c r="I14" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K14" s="34"/>
       <c r="M14" s="34"/>
@@ -4080,11 +4103,11 @@
       <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="52" t="s">
-        <v>243</v>
+      <c r="I15" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>19</v>
@@ -4107,11 +4130,11 @@
       <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="52" t="s">
-        <v>243</v>
+      <c r="I16" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>19</v>
@@ -4136,8 +4159,8 @@
       <c r="H17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="52" t="s">
-        <v>243</v>
+      <c r="I17" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4157,8 +4180,8 @@
       <c r="H18" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="52" t="s">
-        <v>243</v>
+      <c r="I18" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4178,8 +4201,8 @@
       <c r="H19" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I19" s="52" t="s">
-        <v>243</v>
+      <c r="I19" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4199,8 +4222,8 @@
       <c r="H20" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="52" t="s">
-        <v>243</v>
+      <c r="I20" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4219,7 +4242,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="42"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:14">
@@ -4230,7 +4253,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>68</v>
@@ -4239,7 +4262,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>19</v>
@@ -4254,7 +4277,7 @@
         <v>42</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>68</v>
@@ -4263,13 +4286,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4278,22 +4301,22 @@
         <v>15</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4302,10 +4325,10 @@
         <v>15</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
@@ -4321,7 +4344,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="43"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
@@ -4329,16 +4352,16 @@
         <v>15</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>19</v>
@@ -4346,21 +4369,21 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="43"/>
+      <c r="A29" s="47"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>19</v>
@@ -4368,7 +4391,7 @@
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="43"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -4376,7 +4399,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="F31" s="7"/>
@@ -4399,18 +4422,18 @@
         <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>83</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>243</v>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>19</v>
@@ -4422,61 +4445,61 @@
         <v>15</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>89</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="I34" s="52" t="s">
-        <v>243</v>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="43"/>
+      <c r="A35" s="47"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>243</v>
+      <c r="G35" s="48"/>
+      <c r="H35" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="43"/>
+      <c r="A36" s="47"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" s="52" t="s">
-        <v>243</v>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="K36" s="23" t="s">
         <v>19</v>
@@ -4488,18 +4511,18 @@
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>97</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="I37" s="52" t="s">
-        <v>243</v>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4508,18 +4531,18 @@
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="I38" s="52" t="s">
-        <v>243</v>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4528,18 +4551,18 @@
         <v>42</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="I39" s="52" t="s">
-        <v>243</v>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -4566,7 +4589,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>104</v>
@@ -4588,7 +4611,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>104</v>
@@ -4597,7 +4620,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>19</v>
@@ -4613,7 +4636,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>108</v>
@@ -4622,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>19</v>
@@ -4639,7 +4662,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>108</v>
@@ -4648,7 +4671,7 @@
         <v>8</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>19</v>
@@ -4666,7 +4689,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>108</v>
@@ -4675,7 +4698,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>19</v>
@@ -4715,7 +4738,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>104</v>
@@ -4725,13 +4748,13 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:14" s="39" customFormat="1">
+    <row r="49" spans="1:14" s="43" customFormat="1">
       <c r="A49" s="5"/>
       <c r="C49" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>104</v>
@@ -4836,35 +4859,35 @@
         <v>128</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F61" s="23"/>
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:14">
       <c r="D62" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F62" s="23"/>
       <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:14">
       <c r="D63" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F63" s="23"/>
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:14">
       <c r="D64" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F64" s="23"/>
       <c r="I64" s="7"/>
     </row>
     <row r="65" spans="2:12">
       <c r="D65" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F65" s="23"/>
       <c r="I65" s="7"/>
@@ -4914,118 +4937,118 @@
       </c>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="46"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N69"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F46">
-    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I18">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
     <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5057,7 +5080,7 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I85:I1048576 I1:I2 I21:I32 I40:I49</xm:sqref>
+          <xm:sqref>I1:I2 I21:I32 I40:I49 I85:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5070,10 +5093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H30" sqref="E30:H32"/>
+    <sheetView showRuler="0" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5088,7 +5111,7 @@
     <col min="8" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:15" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5130,7 +5153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:15" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -5142,37 +5165,47 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="16">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="16">
+        <v>210</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -5182,56 +5215,75 @@
       <c r="G4" s="9"/>
       <c r="H4" s="13"/>
       <c r="I4" s="7"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="16">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="K5" s="34"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="16">
+        <v>210</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="16">
+        <v>212</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
@@ -5239,137 +5291,210 @@
       <c r="E7" s="9"/>
       <c r="F7" s="7"/>
       <c r="H7" s="13"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="16">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16">
+        <v>214</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="16">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16">
+        <v>216</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="16">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16">
+        <v>218</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="16">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16">
+        <v>221</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="16">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16">
+        <v>223</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="16">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>273</v>
+        <v>15</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>224</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="H13" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16">
+        <v>225</v>
+      </c>
+      <c r="I13" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="16">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="10"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="16">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="16">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="16">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="16">
       <c r="B16" s="12" t="s">
         <v>66</v>
       </c>
@@ -5377,59 +5502,92 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16">
+        <v>169</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" ht="16">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16">
+        <v>227</v>
+      </c>
+      <c r="I17" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" ht="16">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="16">
+        <v>230</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" ht="16">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
         <v>73</v>
@@ -5438,42 +5596,62 @@
         <v>15</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="N19" s="34"/>
-    </row>
-    <row r="20" spans="1:14" ht="16">
+        <v>233</v>
+      </c>
+      <c r="I19" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" ht="16">
       <c r="A20" s="14"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="1:14" ht="16">
+        <v>236</v>
+      </c>
+      <c r="I20" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" ht="16">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
@@ -5483,8 +5661,14 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="16">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" ht="16">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
@@ -5495,8 +5679,14 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="16">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" ht="16">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -5504,95 +5694,144 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
+        <v>238</v>
+      </c>
+      <c r="I23" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" ht="16">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="78" t="s">
-        <v>262</v>
+      <c r="D24" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="16">
+        <v>240</v>
+      </c>
+      <c r="I24" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" ht="16">
       <c r="A25" s="14"/>
       <c r="B25" s="5"/>
       <c r="C25" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="16">
+        <v>242</v>
+      </c>
+      <c r="I25" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" ht="16">
       <c r="A26" s="14"/>
       <c r="B26" s="5"/>
       <c r="C26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="16">
+        <v>244</v>
+      </c>
+      <c r="I26" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" ht="16">
       <c r="A27" s="11"/>
       <c r="B27" s="5"/>
       <c r="C27" s="10" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="16">
+        <v>246</v>
+      </c>
+      <c r="I27" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" ht="16">
       <c r="C28" s="10"/>
       <c r="D28" s="20"/>
       <c r="E28" s="13"/>
@@ -5600,8 +5839,14 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="16">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" ht="16">
       <c r="A29" s="11" t="s">
         <v>102</v>
       </c>
@@ -5613,8 +5858,14 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="16">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" ht="16">
       <c r="A30" s="11"/>
       <c r="B30" s="21" t="s">
         <v>45</v>
@@ -5623,91 +5874,134 @@
         <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" spans="1:14" ht="16">
+        <v>249</v>
+      </c>
+      <c r="I30" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" ht="16">
       <c r="A31" s="11"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>305</v>
+        <v>10</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="16">
+        <v>252</v>
+      </c>
+      <c r="I31" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" ht="16">
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="L32" s="34"/>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" spans="1:14" ht="16">
+        <v>254</v>
+      </c>
+      <c r="I32" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" ht="16">
       <c r="A33" s="11"/>
       <c r="B33" s="21"/>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="7"/>
-      <c r="L33" s="34"/>
-      <c r="N33" s="34"/>
-    </row>
-    <row r="34" spans="1:14" ht="16">
+      <c r="H33" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" ht="16">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
       <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="A35" s="24" t="s">
         <v>118</v>
       </c>
@@ -5724,7 +6018,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" s="5" customFormat="1" ht="32">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>119</v>
@@ -5737,7 +6031,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:14" s="5" customFormat="1" ht="32">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="B37" s="26" t="s">
         <v>121</v>
       </c>
@@ -5749,7 +6043,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:14" s="5" customFormat="1" ht="32">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="A38" s="3"/>
       <c r="B38" s="26" t="s">
         <v>122</v>
@@ -5762,7 +6056,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="A39" s="3"/>
       <c r="B39" s="26"/>
       <c r="F39" s="23"/>
@@ -5770,7 +6064,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="40" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B40" s="26" t="s">
         <v>123</v>
       </c>
@@ -5779,7 +6073,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="41" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B41" s="26" t="s">
         <v>124</v>
       </c>
@@ -5788,14 +6082,14 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="42" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B42" s="26"/>
       <c r="F42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="43" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B43" s="26" t="s">
         <v>125</v>
       </c>
@@ -5804,13 +6098,13 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="44" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="45" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B45" s="21" t="s">
         <v>126</v>
       </c>
@@ -5819,13 +6113,13 @@
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="46" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="47" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B47" s="5" t="s">
         <v>127</v>
       </c>
@@ -5834,7 +6128,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="48" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="7"/>
@@ -5934,20 +6228,28 @@
       <c r="L57" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:O19 J20:M20 O20 J21:O23 J24:K24 N24:O24 J25:M25 O25 J26 J28:O34 J27:M27 O27 L26:O26">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"阻碍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5959,27 +6261,27 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C73:C1048576 C1:C2 C14:C34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B73:B1048576 B1:B2 B14:B34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>I73:I1048576 I1:I5 D3:D12 I21:I34</xm:sqref>
+          <xm:sqref>B1:B2 B14:B34 B73:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F2 F14:F34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C2 C14:C34 C73:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D12 I1:I6 I8:I9 I73:I1048576 I21:I22 I28:I29 I34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5992,10 +6294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6071,6 +6373,984 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="16">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" ht="16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="16">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="K8" s="34"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" ht="16">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="34"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:14" ht="16">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="34"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:14" ht="16">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="K11" s="34"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:14" ht="16">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:14" ht="16">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" ht="16">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:14" ht="16">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
+      <c r="A16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="I16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:14" ht="16">
+      <c r="B17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:14" ht="16">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:14" ht="16">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:14" ht="16">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="L20"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" ht="16">
+      <c r="A21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:14" ht="16">
+      <c r="A22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="16">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="16">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="16">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="16">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="16">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="16">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="16">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="16">
+      <c r="A30" s="14"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="16">
+      <c r="A31" s="14"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="16">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" ht="16">
+      <c r="C33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" ht="16">
+      <c r="C34" s="10"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="20"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="16">
+      <c r="A35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="16">
+      <c r="A36" s="11"/>
+      <c r="B36" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" spans="1:14" ht="16">
+      <c r="A37" s="11"/>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" ht="16">
+      <c r="A38" s="11"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="7"/>
+      <c r="L38" s="34"/>
+      <c r="N38" s="34"/>
+    </row>
+    <row r="39" spans="1:14" ht="16">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="A40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="B42" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="A43" s="3"/>
+      <c r="B43" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="A44" s="3"/>
+      <c r="B44" s="26"/>
+      <c r="F44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B45" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B46" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B47" s="26"/>
+      <c r="F47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B48" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B50" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F56" s="23"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F57" s="23"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F58" s="23"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="36"/>
+    </row>
+    <row r="61" spans="2:12" s="5" customFormat="1" ht="32">
+      <c r="B61" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B78:B1048576 B1:B39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C78:C1048576 C1:C39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I78:I1048576 I1:I39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F39 F46</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
@@ -6620,7 +7900,7 @@
       <c r="L53" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -6660,7 +7940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -6675,15 +7955,15 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
@@ -6694,7 +7974,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -6712,7 +7992,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -6730,7 +8010,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -6748,7 +8028,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -6758,7 +8038,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
@@ -6771,37 +8051,37 @@
         <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6811,64 +8091,64 @@
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -6876,7 +8156,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -6884,7 +8164,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -6892,7 +8172,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -6900,7 +8180,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -6908,7 +8188,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -6916,7 +8196,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="I24" s="4"/>
     </row>
@@ -6968,7 +8248,7 @@
       <c r="C35" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5 I1:I25">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32060" windowHeight="18900" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="359">
   <si>
     <t>类别</t>
   </si>
@@ -1069,12 +1069,6 @@
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-  </si>
-  <si>
-    <t>对局ui版本2</t>
-  </si>
-  <si>
-    <t>外包第一批反馈审核修改</t>
   </si>
   <si>
     <t>任务时限</t>
@@ -1233,6 +1227,122 @@
   </si>
   <si>
     <t>Unity学习—特效动画（讲解）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-126 MG-127</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-139</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-140</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-141</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-142</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-143</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-144</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-145</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-146</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-147</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-148</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-123</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-133</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-136</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-124 MG-125</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-134 MG-135</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-128 MG-129</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-130 MG-131</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-132</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-137 MG-138</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-149</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-150</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-151</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-152 MG-153</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局ui版本2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包第一批反馈审核修改</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-154 MG-155</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-156 MG-157</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5244,7 +5354,7 @@
         <v>210</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
@@ -5274,7 +5384,7 @@
         <v>212</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -5319,7 +5429,7 @@
         <v>214</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -5347,7 +5457,7 @@
         <v>216</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -5375,7 +5485,7 @@
         <v>218</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>19</v>
@@ -5515,7 +5625,7 @@
         <v>169</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
@@ -6296,8 +6406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6308,7 +6418,7 @@
     <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="4"/>
-    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
@@ -6381,16 +6491,18 @@
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="34"/>
+      <c r="H3" s="34" t="s">
+        <v>331</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
@@ -6431,7 +6543,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="L5" s="34"/>
     </row>
@@ -6442,17 +6556,22 @@
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="I6" s="7"/>
+      <c r="J6" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="16">
@@ -6471,7 +6590,9 @@
         <v>12</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
@@ -6493,7 +6614,9 @@
         <v>9</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="K8" s="34"/>
       <c r="M8" s="34"/>
@@ -6514,7 +6637,9 @@
         <v>10</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="K9" s="34"/>
       <c r="M9" s="34"/>
@@ -6535,7 +6660,9 @@
         <v>11</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="K10" s="34"/>
       <c r="M10" s="34"/>
@@ -6547,7 +6674,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>264</v>
@@ -6556,7 +6683,9 @@
         <v>10</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="K11" s="34"/>
       <c r="M11" s="34"/>
@@ -6577,7 +6706,9 @@
         <v>12</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -6603,12 +6734,15 @@
         <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7"/>
+      <c r="H14" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -6622,6 +6756,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -6633,6 +6768,7 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
       <c r="I16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -6652,6 +6788,9 @@
       </c>
       <c r="F17" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="I17"/>
       <c r="K17"/>
@@ -6670,6 +6809,9 @@
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="I18"/>
       <c r="K18"/>
@@ -6690,11 +6832,14 @@
       <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H19" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:14" ht="16">
+    <row r="20" spans="1:14" ht="32">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
         <v>73</v>
@@ -6710,6 +6855,9 @@
       </c>
       <c r="F20" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -6720,7 +6868,7 @@
       <c r="A21" s="14"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="H21"/>
+      <c r="H21" s="8"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -6732,6 +6880,7 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="16">
@@ -6748,7 +6897,9 @@
         <v>92</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="16">
@@ -6764,7 +6915,9 @@
         <v>97</v>
       </c>
       <c r="F24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="16">
@@ -6780,7 +6933,9 @@
         <v>97</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="16">
@@ -6796,10 +6951,10 @@
         <v>97</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="16">
+    <row r="27" spans="1:14" ht="32">
       <c r="A27" s="14"/>
       <c r="B27" s="5"/>
       <c r="C27" s="10" t="s">
@@ -6812,10 +6967,12 @@
         <v>83</v>
       </c>
       <c r="F27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="16">
+    <row r="28" spans="1:14" ht="32">
       <c r="A28" s="14"/>
       <c r="B28" s="5"/>
       <c r="C28" s="10" t="s">
@@ -6828,10 +6985,12 @@
         <v>89</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="H28" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="16">
+    <row r="29" spans="1:14" ht="32">
       <c r="A29" s="14"/>
       <c r="B29" s="5"/>
       <c r="C29" s="10" t="s">
@@ -6844,39 +7003,45 @@
         <v>83</v>
       </c>
       <c r="F29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="H29" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="16">
+    <row r="30" spans="1:14" ht="32">
       <c r="A30" s="14"/>
       <c r="B30" s="5"/>
       <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="H30" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="16">
+    <row r="31" spans="1:14" ht="32">
       <c r="A31" s="14"/>
       <c r="B31" s="5"/>
       <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E31" s="39" t="s">
         <v>83</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="H31" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="16">
@@ -6892,10 +7057,12 @@
         <v>92</v>
       </c>
       <c r="F32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="H32" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="16">
+    <row r="33" spans="1:14" ht="32">
       <c r="C33" s="10" t="s">
         <v>42</v>
       </c>
@@ -6904,6 +7071,9 @@
       </c>
       <c r="E33" s="39" t="s">
         <v>92</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="I33" s="7"/>
     </row>
@@ -6926,7 +7096,7 @@
       <c r="H35" s="23"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="16">
+    <row r="36" spans="1:14" ht="32">
       <c r="A36" s="11"/>
       <c r="B36" s="21" t="s">
         <v>45</v>
@@ -6935,35 +7105,39 @@
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="23"/>
+      <c r="H36" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="34"/>
     </row>
-    <row r="37" spans="1:14" ht="16">
+    <row r="37" spans="1:14" ht="32">
       <c r="A37" s="11"/>
       <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="23"/>
+      <c r="H37" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="16">
@@ -6973,16 +7147,16 @@
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="7"/>
       <c r="L38" s="34"/>
       <c r="N38" s="34"/>
@@ -6991,6 +7165,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:14" s="5" customFormat="1" ht="16">
@@ -7070,7 +7245,7 @@
         <v>124</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>10</v>
@@ -7955,15 +8130,15 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
@@ -7974,7 +8149,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -7992,7 +8167,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -8010,7 +8185,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -8028,7 +8203,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -8038,7 +8213,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
@@ -8051,37 +8226,37 @@
         <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8091,64 +8266,64 @@
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -8156,7 +8331,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -8164,7 +8339,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -8172,7 +8347,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -8180,7 +8355,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -8188,7 +8363,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -8196,7 +8371,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I24" s="4"/>
     </row>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12520" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
     <sheet name="4-8周输出" sheetId="2" r:id="rId2"/>
     <sheet name="4-15周输出" sheetId="3" r:id="rId3"/>
     <sheet name="4-22周输出" sheetId="4" r:id="rId4"/>
-    <sheet name="模板" sheetId="5" r:id="rId5"/>
-    <sheet name="附录" sheetId="6" r:id="rId6"/>
+    <sheet name="4-29周输出" sheetId="5" r:id="rId5"/>
+    <sheet name="模板" sheetId="6" r:id="rId6"/>
+    <sheet name="附录" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$69</definedName>
@@ -40,6 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>本周必须完成的任务
@@ -55,6 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
@@ -79,6 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>本周必须完成的任务
@@ -94,6 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
@@ -118,6 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>本周必须完成的任务
@@ -133,6 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
@@ -157,6 +167,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>本周必须完成的任务
@@ -172,6 +183,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
@@ -196,6 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>本周必须完成的任务
@@ -211,6 +224,48 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
@@ -223,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="424">
   <si>
     <t>类别</t>
   </si>
@@ -996,22 +1051,46 @@
     <t>MG-120</t>
   </si>
   <si>
+    <t>抓宠、封妖</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>MG-139</t>
+  </si>
+  <si>
     <t>战斗节奏调整</t>
   </si>
   <si>
-    <t>雪</t>
+    <t>MG-140</t>
+  </si>
+  <si>
+    <t>战斗-出手速度计算方法确认</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>MG-141</t>
   </si>
   <si>
     <t>主线副本设计规划</t>
   </si>
   <si>
+    <t>MG-142</t>
+  </si>
+  <si>
     <t>UI规范</t>
   </si>
   <si>
+    <t>MG-143</t>
+  </si>
+  <si>
     <t>buff规范</t>
   </si>
   <si>
-    <t>星</t>
+    <t>MG-144</t>
   </si>
   <si>
     <t>时间模板细化——各个玩法时间调节</t>
@@ -1020,57 +1099,246 @@
     <t>辛</t>
   </si>
   <si>
+    <t>MG-145</t>
+  </si>
+  <si>
+    <t>Unity学习——特效动画（讲解）</t>
+  </si>
+  <si>
+    <t>MG-146</t>
+  </si>
+  <si>
     <t>主线剧情深入</t>
   </si>
   <si>
+    <t>MG-147</t>
+  </si>
+  <si>
+    <t>MG-148</t>
+  </si>
+  <si>
     <t>技能整合进现有框架</t>
   </si>
   <si>
     <t>zz</t>
   </si>
   <si>
+    <t>MG-149</t>
+  </si>
+  <si>
     <t>技能测试</t>
   </si>
   <si>
+    <t>MG-150</t>
+  </si>
+  <si>
     <t>对局主流程测试</t>
   </si>
   <si>
     <t>小智</t>
   </si>
   <si>
+    <t>MG-151</t>
+  </si>
+  <si>
     <t>参考学习一个完整的游戏服务器</t>
   </si>
   <si>
     <t>小珍，帅帅</t>
   </si>
   <si>
+    <t>MG-152 MG-153</t>
+  </si>
+  <si>
     <t>对局通用逻辑测试用例</t>
   </si>
   <si>
+    <t>MG-123</t>
+  </si>
+  <si>
+    <t>文档修改内容未补充</t>
+  </si>
+  <si>
     <t>伤害公式测试用例</t>
   </si>
   <si>
+    <t>MG-133</t>
+  </si>
+  <si>
     <t>副本测试用例走读</t>
   </si>
   <si>
+    <t>MG-132</t>
+  </si>
+  <si>
     <t>技能测试用例走读</t>
   </si>
   <si>
     <t>核心战斗-换宠文档分析</t>
   </si>
   <si>
+    <t>MG-124 MG-125</t>
+  </si>
+  <si>
     <t>UI规范文档分析</t>
   </si>
   <si>
+    <t>MG-134 MG-135</t>
+  </si>
+  <si>
     <t>buff规范文档分析</t>
   </si>
   <si>
+    <t>MG-128 MG-129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战斗节奏调整文档分析 </t>
+  </si>
+  <si>
+    <t>MG-126 MG-127</t>
+  </si>
+  <si>
+    <t>战斗-出手速度计算方法文档分析</t>
+  </si>
+  <si>
+    <t>MG-130 MG-131</t>
+  </si>
+  <si>
     <t>副本、技能测试用例修改</t>
   </si>
   <si>
+    <t>MG-136</t>
+  </si>
+  <si>
     <t>主角属性，账号基础数据</t>
   </si>
   <si>
+    <t>MG-137 MG-138</t>
+  </si>
+  <si>
+    <t>对局ui版本2</t>
+  </si>
+  <si>
+    <t>孙帆 豆豆</t>
+  </si>
+  <si>
+    <t>MG-154 MG-155</t>
+  </si>
+  <si>
+    <t>外包第一批反馈审核修改</t>
+  </si>
+  <si>
+    <t>MG-156 MG-157</t>
+  </si>
+  <si>
+    <t>原画-主角-男 评审</t>
+  </si>
+  <si>
+    <t>Unity学习—特效动画（讲解）</t>
+  </si>
+  <si>
+    <t>策划文档提交</t>
+  </si>
+  <si>
+    <t>辛，雪</t>
+  </si>
+  <si>
+    <t>day4</t>
+  </si>
+  <si>
+    <t>道具文档提交QC</t>
+  </si>
+  <si>
+    <t>coms项目UI规则细化</t>
+  </si>
+  <si>
+    <t>day2</t>
+  </si>
+  <si>
+    <t>策划自主任务</t>
+  </si>
+  <si>
+    <t>副本规划</t>
+  </si>
+  <si>
+    <t>day6</t>
+  </si>
+  <si>
+    <t>7天时间模板</t>
+  </si>
+  <si>
+    <t>辛，星</t>
+  </si>
+  <si>
+    <t>day3</t>
+  </si>
+  <si>
+    <t>全策</t>
+  </si>
+  <si>
+    <t>背包文档提交审核</t>
+  </si>
+  <si>
+    <t>手游IM系统预研</t>
+  </si>
+  <si>
+    <t>雪，胖</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>对局逻辑测试用例修改</t>
+  </si>
+  <si>
+    <t>对局逻辑测试用例走读</t>
+  </si>
+  <si>
+    <t>伤害公式测试用例走读</t>
+  </si>
+  <si>
+    <t>伤害公式测试用例修改</t>
+  </si>
+  <si>
+    <t>技能通用逻辑测试用例</t>
+  </si>
+  <si>
+    <t>功能测试</t>
+  </si>
+  <si>
+    <t>技能逻辑测试</t>
+  </si>
+  <si>
+    <t>伤害公式测试</t>
+  </si>
+  <si>
+    <t>文档分析</t>
+  </si>
+  <si>
+    <t>道具逻辑文档分析</t>
+  </si>
+  <si>
+    <t>UI规范细化文档跟进</t>
+  </si>
+  <si>
+    <t>女性角色脸方案5个</t>
+  </si>
+  <si>
+    <t>资源导入学习</t>
+  </si>
+  <si>
+    <t>新UI界面</t>
+  </si>
+  <si>
+    <t>新怪物原画草图</t>
+  </si>
+  <si>
+    <t>豆豆 孙帆</t>
+  </si>
+  <si>
+    <t>新怪物原画细化</t>
+  </si>
+  <si>
     <t>任务时限</t>
   </si>
   <si>
@@ -1125,21 +1393,12 @@
     <t>Day11</t>
   </si>
   <si>
-    <t>文档分析</t>
-  </si>
-  <si>
     <t>Day12</t>
   </si>
   <si>
-    <t>测试用例</t>
-  </si>
-  <si>
     <t>Day13</t>
   </si>
   <si>
-    <t>功能测试</t>
-  </si>
-  <si>
     <t>Day14</t>
   </si>
   <si>
@@ -1170,187 +1429,197 @@
     <t>特效</t>
   </si>
   <si>
+    <t>技能通用逻辑测试用例走读</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能通用逻辑测试用例修改</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技能测试l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>og格式确认</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能副本整合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画模块实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本换宠逻辑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz，小智</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小智</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展情况：一尾到九尾完成，大概4、5章，第一个版本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情整理提交moxtra</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo后新增美术需求-3小怪3boss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>完成</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓宠、封妖</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unity学习——特效动画（讲解）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo后新增美术需求</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔老师</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">战斗节奏调整文档分析 </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗-出手速度计算方法确认</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>星</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗-出手速度计算方法文档分析</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆豆</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>原画-主角-男 评审</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙帆 豆豆</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unity学习—特效动画（讲解）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-126 MG-127</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-139</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-140</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-141</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-142</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-143</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-144</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-145</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-146</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-147</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-148</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-123</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-133</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-136</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-124 MG-125</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-134 MG-135</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-128 MG-129</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-130 MG-131</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-132</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-137 MG-138</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-149</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-150</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-151</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-152 MG-153</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局ui版本2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包第一批反馈审核修改</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-154 MG-155</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-156 MG-157</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景外包制作规范</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本编辑器需求列表提交程序</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期（7天）任务初版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo版本特效制作（每人一个）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏模块拆分及时间计划（包括美术、开发、工具以及内容项，day3左右对一下）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器新框架代码学习-逻辑层</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器新框架代码学习-数据层</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文生</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>demo对局战斗流程测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（风险）</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HockeyApp安卓平台测试，crash report测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内容是否偏多？-本周计划游戏内容，计划讨论后进行决策</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议时间、内容掌控、内容预告</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    大纲清晰，扩展发散注意程度，多讲与我们游戏相关的内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    基础设计方法及思想统一之后，可能用上面的方法比较合适</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    游戏推荐，游戏举例配一些资料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1362,111 +1631,115 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1523,7 +1796,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,20 +1818,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1636,9 +1921,20 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1651,7 +1947,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1660,29 +1956,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1691,7 +1982,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1704,25 +1994,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1741,20 +2031,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 25" xfId="3"/>
     <cellStyle name="常规 8" xfId="5"/>
     <cellStyle name="常规_2-4周版本输出" xfId="6"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -2061,8 +2354,29 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="附录"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2403,7 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2460,7 +2774,7 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="70" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="24" t="s">
@@ -2479,561 +2793,561 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-    </row>
-    <row r="3" spans="1:15" s="55" customFormat="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="55" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+    </row>
+    <row r="3" spans="1:15" s="60" customFormat="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="55" t="s">
+      <c r="I3" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="69"/>
-    </row>
-    <row r="4" spans="1:15" s="55" customFormat="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="55" t="s">
+      <c r="M3" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="72"/>
+    </row>
+    <row r="4" spans="1:15" s="60" customFormat="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="58" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="55" t="s">
+      <c r="I4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="70"/>
-    </row>
-    <row r="5" spans="1:15" s="55" customFormat="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="M4" s="75"/>
+      <c r="N4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" s="60" customFormat="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="62" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69" t="s">
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="55" customFormat="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="55" t="s">
+    <row r="6" spans="1:15" s="60" customFormat="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="58"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="69"/>
-    </row>
-    <row r="7" spans="1:15" s="55" customFormat="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="70"/>
-    </row>
-    <row r="8" spans="1:15" s="55" customFormat="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="48" t="s">
+      <c r="J6" s="72"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="75"/>
+      <c r="N6" s="72"/>
+    </row>
+    <row r="7" spans="1:15" s="60" customFormat="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" s="60" customFormat="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="58" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="62" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="69"/>
-    </row>
-    <row r="9" spans="1:15" s="55" customFormat="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="48" t="s">
+      <c r="J8" s="72"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="75"/>
+      <c r="N8" s="72"/>
+    </row>
+    <row r="9" spans="1:15" s="60" customFormat="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="58" t="s">
+      <c r="G9" s="55"/>
+      <c r="H9" s="62" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="69"/>
-    </row>
-    <row r="10" spans="1:15" s="55" customFormat="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="48" t="s">
+      <c r="J9" s="72"/>
+      <c r="K9" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="75"/>
+      <c r="N9" s="72"/>
+    </row>
+    <row r="10" spans="1:15" s="60" customFormat="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="58" t="s">
+      <c r="G10" s="55"/>
+      <c r="H10" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="55" t="s">
+      <c r="I10" s="77"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="69"/>
-    </row>
-    <row r="11" spans="1:15" s="55" customFormat="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="48" t="s">
+      <c r="M10" s="75"/>
+      <c r="N10" s="72"/>
+    </row>
+    <row r="11" spans="1:15" s="60" customFormat="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="59" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="63" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="75" t="s">
+      <c r="J11" s="72"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69" t="s">
+      <c r="M11" s="75"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="55" customFormat="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="55" t="s">
+    <row r="12" spans="1:15" s="60" customFormat="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="58"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="55" t="s">
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="55" customFormat="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="70"/>
-    </row>
-    <row r="14" spans="1:15" s="55" customFormat="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="48" t="s">
+    <row r="13" spans="1:15" s="60" customFormat="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="73"/>
+    </row>
+    <row r="14" spans="1:15" s="60" customFormat="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="58"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="70"/>
-    </row>
-    <row r="15" spans="1:15" s="55" customFormat="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="48" t="s">
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="73"/>
+    </row>
+    <row r="15" spans="1:15" s="60" customFormat="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="58" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="62" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="70"/>
-    </row>
-    <row r="16" spans="1:15" s="55" customFormat="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="48" t="s">
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" s="60" customFormat="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="59" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="63" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="75" t="s">
+      <c r="J16" s="72"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="69"/>
-    </row>
-    <row r="17" spans="1:14" s="55" customFormat="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="55" t="s">
+      <c r="M16" s="75"/>
+      <c r="N16" s="72"/>
+    </row>
+    <row r="17" spans="1:14" s="60" customFormat="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="58"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="70"/>
-    </row>
-    <row r="18" spans="1:14" s="55" customFormat="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="58"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="73"/>
+    </row>
+    <row r="18" spans="1:14" s="60" customFormat="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="70"/>
-    </row>
-    <row r="19" spans="1:14" s="55" customFormat="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="48" t="s">
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="73"/>
+    </row>
+    <row r="19" spans="1:14" s="60" customFormat="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="48" t="s">
+      <c r="C19" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="59" t="s">
+      <c r="G19" s="55"/>
+      <c r="H19" s="63" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="73" t="s">
+      <c r="J19" s="72"/>
+      <c r="K19" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="72"/>
-      <c r="N19" s="69"/>
-    </row>
-    <row r="20" spans="1:14" s="55" customFormat="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="58"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="72"/>
+    </row>
+    <row r="20" spans="1:14" s="60" customFormat="1">
+      <c r="A20" s="61"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="70"/>
-    </row>
-    <row r="21" spans="1:14" s="55" customFormat="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="55" t="s">
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="73"/>
+    </row>
+    <row r="21" spans="1:14" s="60" customFormat="1">
+      <c r="A21" s="61"/>
+      <c r="B21" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="61" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="65" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="69"/>
-    </row>
-    <row r="22" spans="1:14" s="55" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="C22" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="57" t="s">
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="72"/>
+    </row>
+    <row r="22" spans="1:14" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="61"/>
+      <c r="C22" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="61" t="s">
+      <c r="G22" s="47"/>
+      <c r="H22" s="65" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="69"/>
-    </row>
-    <row r="23" spans="1:14" s="55" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="C23" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="57" t="s">
+      <c r="J22" s="72"/>
+      <c r="K22" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="72"/>
+    </row>
+    <row r="23" spans="1:14" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="61"/>
+      <c r="C23" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="61" t="s">
+      <c r="G23" s="47"/>
+      <c r="H23" s="65" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="69"/>
-      <c r="N23" s="69"/>
+      <c r="J23" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="72"/>
+      <c r="N23" s="72"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3"/>
@@ -3042,11 +3356,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="N24" s="76"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="N24" s="79"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
@@ -3054,11 +3368,11 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="N25" s="76"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="N25" s="79"/>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="12" t="s">
@@ -3079,7 +3393,7 @@
       <c r="H26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="67" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="27" t="s">
@@ -3106,20 +3420,20 @@
       <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="N27" s="76"/>
+      <c r="I27" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="N27" s="79"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="N28" s="76"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="N28" s="79"/>
     </row>
     <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
@@ -3141,12 +3455,12 @@
       <c r="H29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="N29" s="77"/>
+      <c r="I29" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="N29" s="80"/>
     </row>
     <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
@@ -3165,12 +3479,12 @@
       <c r="H30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="N30" s="77" t="s">
+      <c r="I30" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="N30" s="80" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3178,10 +3492,10 @@
       <c r="A31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="N31" s="76"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="N31" s="79"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
@@ -3189,10 +3503,10 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="N32" s="76"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="N32" s="79"/>
     </row>
     <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
@@ -3207,16 +3521,16 @@
       <c r="E33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="H33" s="65" t="s">
+      <c r="F33" s="41"/>
+      <c r="H33" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="N33" s="76"/>
+      <c r="I33" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="N33" s="79"/>
     </row>
     <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
@@ -3229,15 +3543,15 @@
       <c r="E34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="H34" s="65" t="s">
+      <c r="F34" s="41"/>
+      <c r="H34" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
+      <c r="I34" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
       <c r="N34" s="27" t="s">
         <v>87</v>
       </c>
@@ -3253,16 +3567,16 @@
       <c r="E35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="H35" s="65" t="s">
+      <c r="F35" s="41"/>
+      <c r="H35" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="N35" s="76"/>
+      <c r="I35" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="N35" s="79"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="13"/>
@@ -3273,16 +3587,16 @@
       <c r="E36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="H36" s="65" t="s">
+      <c r="F36" s="41"/>
+      <c r="H36" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="N36" s="76"/>
+      <c r="I36" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="N36" s="79"/>
     </row>
     <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
@@ -3295,16 +3609,16 @@
       <c r="E37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="H37" s="65" t="s">
+      <c r="F37" s="41"/>
+      <c r="H37" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="I37" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="N37" s="79"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11"/>
@@ -3317,16 +3631,16 @@
       <c r="E38" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="H38" s="66" t="s">
+      <c r="F38" s="41"/>
+      <c r="H38" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="N38" s="76"/>
+      <c r="I38" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="N38" s="79"/>
     </row>
     <row r="39" spans="1:14">
       <c r="C39" s="10" t="s">
@@ -3341,22 +3655,22 @@
       <c r="H39" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="N39" s="76"/>
+      <c r="I39" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="N39" s="79"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="N40" s="76"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="N40" s="79"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="11"/>
@@ -3378,7 +3692,7 @@
       <c r="H41" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="63" t="s">
+      <c r="I41" s="67" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="26"/>
@@ -3401,15 +3715,15 @@
       <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="76"/>
+      <c r="I42" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="80"/>
+      <c r="K42" s="79"/>
       <c r="M42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="76"/>
+      <c r="N42" s="79"/>
     </row>
     <row r="43" spans="1:14">
       <c r="C43" s="5" t="s">
@@ -3424,12 +3738,12 @@
       <c r="H43" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="63" t="s">
+      <c r="I43" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="N43" s="76"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="N43" s="79"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="11"/>
@@ -3445,7 +3759,7 @@
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="63" t="s">
+      <c r="I44" s="67" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -3470,15 +3784,15 @@
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
+      <c r="I45" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
       <c r="L45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="77"/>
+      <c r="N45" s="80"/>
     </row>
     <row r="46" spans="1:14">
       <c r="C46" s="5" t="s">
@@ -3493,15 +3807,15 @@
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="63" t="s">
+      <c r="I46" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
       <c r="M46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="76"/>
+      <c r="N46" s="79"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11"/>
@@ -3518,30 +3832,30 @@
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
+      <c r="I47" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
       <c r="M47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N47" s="77"/>
+      <c r="N47" s="80"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="I48" s="63"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="N48" s="76"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="N48" s="79"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="63"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="N49" s="76"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="N49" s="79"/>
     </row>
     <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
@@ -3552,10 +3866,10 @@
         <v>120</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="N50" s="76"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="N50" s="79"/>
     </row>
     <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
@@ -3565,10 +3879,10 @@
         <v>120</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="N51" s="76"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="N51" s="79"/>
     </row>
     <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
@@ -3579,157 +3893,157 @@
         <v>120</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="N52" s="76"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="N52" s="79"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="26"/>
       <c r="F53" s="23"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="N53" s="76"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="N53" s="79"/>
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="N54" s="76"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="N54" s="79"/>
     </row>
     <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="N55" s="76"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="N55" s="79"/>
     </row>
     <row r="56" spans="1:14">
       <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="N56" s="76"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="N56" s="79"/>
     </row>
     <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="N57" s="76"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="N57" s="79"/>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" s="23"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="N58" s="76"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="N58" s="79"/>
     </row>
     <row r="59" spans="1:14">
       <c r="F59" s="23"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="N59" s="76"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="N59" s="79"/>
     </row>
     <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="N60" s="76"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="N60" s="79"/>
     </row>
     <row r="61" spans="1:14">
       <c r="F61" s="23"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="N61" s="76"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="N61" s="79"/>
     </row>
     <row r="62" spans="1:14">
       <c r="B62" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="N62" s="76"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="N62" s="79"/>
     </row>
     <row r="63" spans="1:14">
       <c r="F63" s="23"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="N63" s="76"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="N63" s="79"/>
     </row>
     <row r="64" spans="1:14">
       <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="N64" s="76"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="N64" s="79"/>
     </row>
     <row r="65" spans="2:14">
       <c r="F65" s="23"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="N65" s="76"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="N65" s="79"/>
     </row>
     <row r="66" spans="2:14">
       <c r="F66" s="23"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="76"/>
-      <c r="N66" s="76"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="N66" s="79"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="23"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="76"/>
-      <c r="K67" s="76"/>
-      <c r="N67" s="76"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="N67" s="79"/>
     </row>
     <row r="68" spans="2:14">
       <c r="F68" s="23"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="76"/>
-      <c r="N68" s="76"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="N68" s="79"/>
     </row>
     <row r="69" spans="2:14">
       <c r="F69" s="23"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="N69" s="76"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="N69" s="79"/>
     </row>
     <row r="70" spans="2:14">
       <c r="F70" s="23"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="76"/>
-      <c r="K70" s="76"/>
-      <c r="N70" s="76"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="N70" s="79"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="5" t="s">
@@ -3737,17 +4051,17 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="28"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="N71" s="76"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="N71" s="79"/>
     </row>
     <row r="72" spans="2:14">
       <c r="F72" s="23"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="76"/>
-      <c r="N72" s="76"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="79"/>
+      <c r="N72" s="79"/>
     </row>
     <row r="73" spans="2:14" ht="32">
       <c r="B73" s="29" t="s">
@@ -3770,34 +4084,34 @@
         <v>135</v>
       </c>
       <c r="I73" s="30"/>
-      <c r="J73" s="80" t="s">
+      <c r="J73" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="K73" s="80" t="s">
+      <c r="K73" s="83" t="s">
         <v>137</v>
       </c>
       <c r="L73" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N73" s="76"/>
+      <c r="N73" s="79"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="51"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="52"/>
-      <c r="N74" s="76"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="84"/>
+      <c r="K74" s="84"/>
+      <c r="L74" s="44"/>
+      <c r="N74" s="79"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N74"/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
@@ -3851,7 +4165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3949,10 +4263,10 @@
       <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="23" t="s">
@@ -3974,10 +4288,10 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="55" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="34"/>
@@ -3989,8 +4303,8 @@
       <c r="A5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="48"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="55"/>
       <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:14">
@@ -4010,10 +4324,10 @@
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="55" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="6"/>
@@ -4035,10 +4349,10 @@
       <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="23" t="s">
@@ -4060,10 +4374,10 @@
       <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="55" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="23" t="s">
@@ -4075,8 +4389,8 @@
       <c r="A9" s="3"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="55"/>
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:14">
@@ -4096,10 +4410,10 @@
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="34"/>
@@ -4123,7 +4437,7 @@
       <c r="H11" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="23" t="s">
@@ -4147,7 +4461,7 @@
       <c r="H12" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4165,10 +4479,10 @@
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="34"/>
@@ -4189,10 +4503,10 @@
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="34"/>
@@ -4213,10 +4527,10 @@
       <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="55" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="23" t="s">
@@ -4240,10 +4554,10 @@
       <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="55" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="23" t="s">
@@ -4269,7 +4583,7 @@
       <c r="H17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4290,7 +4604,7 @@
       <c r="H18" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4311,7 +4625,7 @@
       <c r="H19" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4332,7 +4646,7 @@
       <c r="H20" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4352,7 +4666,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:14">
@@ -4454,7 +4768,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="47"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
@@ -4479,7 +4793,7 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="47"/>
+      <c r="A29" s="54"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
@@ -4501,7 +4815,7 @@
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="47"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -4509,7 +4823,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="47"/>
+      <c r="A31" s="54"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="F31" s="7"/>
@@ -4538,11 +4852,11 @@
         <v>83</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49" t="s">
+      <c r="G33" s="55"/>
+      <c r="H33" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="23" t="s">
@@ -4561,11 +4875,11 @@
         <v>89</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49" t="s">
+      <c r="G34" s="55"/>
+      <c r="H34" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="23" t="s">
@@ -4573,7 +4887,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="47"/>
+      <c r="A35" s="54"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
@@ -4584,16 +4898,16 @@
         <v>89</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="50" t="s">
+      <c r="G35" s="55"/>
+      <c r="H35" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="55" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="47"/>
+      <c r="A36" s="54"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -4604,11 +4918,11 @@
         <v>83</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49" t="s">
+      <c r="G36" s="55"/>
+      <c r="H36" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K36" s="23" t="s">
@@ -4627,11 +4941,11 @@
         <v>97</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="55"/>
+      <c r="H37" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4647,11 +4961,11 @@
         <v>92</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49" t="s">
+      <c r="G38" s="55"/>
+      <c r="H38" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4667,11 +4981,11 @@
         <v>89</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49" t="s">
+      <c r="G39" s="55"/>
+      <c r="H39" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4858,7 +5172,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:14" s="43" customFormat="1">
+    <row r="49" spans="1:14" s="50" customFormat="1">
       <c r="A49" s="5"/>
       <c r="C49" s="5" t="s">
         <v>42</v>
@@ -5047,21 +5361,21 @@
       </c>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="51"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N69"/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
@@ -5205,7 +5519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -5354,7 +5668,7 @@
         <v>210</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
@@ -5384,7 +5698,7 @@
         <v>212</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -5429,7 +5743,7 @@
         <v>214</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -5457,7 +5771,7 @@
         <v>216</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -5485,7 +5799,7 @@
         <v>218</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>19</v>
@@ -5514,7 +5828,7 @@
       <c r="H11" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="7"/>
@@ -5542,7 +5856,7 @@
       <c r="H12" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="7"/>
@@ -5558,7 +5872,7 @@
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="47" t="s">
         <v>224</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -5568,7 +5882,7 @@
       <c r="H13" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="7"/>
@@ -5625,7 +5939,7 @@
         <v>169</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
@@ -5654,7 +5968,7 @@
       <c r="H17" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="7"/>
@@ -5685,7 +5999,7 @@
       <c r="H18" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="7"/>
@@ -5718,7 +6032,7 @@
       <c r="H19" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="I19" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="7"/>
@@ -5749,14 +6063,14 @@
       <c r="H20" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I20" s="82" t="s">
+      <c r="I20" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="47" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="7"/>
@@ -5814,7 +6128,7 @@
       <c r="H23" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="I23" s="82" t="s">
+      <c r="I23" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="7"/>
@@ -5832,7 +6146,7 @@
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="48" t="s">
         <v>239</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -5843,12 +6157,12 @@
       <c r="H24" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="I24" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="47" t="s">
         <v>19</v>
       </c>
       <c r="N24" s="7"/>
@@ -5871,14 +6185,14 @@
       <c r="H25" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I25" s="82" t="s">
+      <c r="I25" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="42" t="s">
+      <c r="N25" s="47" t="s">
         <v>19</v>
       </c>
       <c r="O25" s="7"/>
@@ -5900,11 +6214,11 @@
       <c r="H26" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="7"/>
-      <c r="K26" s="42" t="s">
+      <c r="K26" s="47" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7"/>
@@ -5929,14 +6243,14 @@
       <c r="H27" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="I27" s="82" t="s">
+      <c r="I27" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="47" t="s">
         <v>19</v>
       </c>
       <c r="O27" s="7"/>
@@ -5996,7 +6310,7 @@
       <c r="H30" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="7"/>
@@ -6026,7 +6340,7 @@
       <c r="H31" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I31" s="82" t="s">
+      <c r="I31" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="7"/>
@@ -6057,7 +6371,7 @@
       <c r="H32" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="I32" s="82" t="s">
+      <c r="I32" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="7"/>
@@ -6086,7 +6400,7 @@
       <c r="H33" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="I33" s="82" t="s">
+      <c r="I33" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="7"/>
@@ -6338,7 +6652,7 @@
       <c r="L57" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F15">
     <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
@@ -6371,6 +6685,12 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I34 D3:D12 I1:I6 I8:I9 I21:I22 I28:I29 I73:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B2 B14:B34 B73:B1048576</xm:sqref>
@@ -6387,12 +6707,6 @@
           </x14:formula1>
           <xm:sqref>C1:C2 C14:C34 C73:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D12 I1:I6 I8:I9 I73:I1048576 I21:I22 I28:I29 I34</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6406,24 +6720,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="4"/>
-    <col min="7" max="7" width="13.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="4"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6464,7 +6780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -6476,14 +6792,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="16">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:14">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -6491,26 +6806,27 @@
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5"/>
       <c r="H3" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="I3" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="16">
+    <row r="4" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6519,13 +6835,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="16">
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>45</v>
@@ -6534,198 +6850,240 @@
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>261</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="16">
+      <c r="M5" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4" t="s">
-        <v>358</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="16">
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="1:14" ht="16">
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="K8" s="34"/>
+        <v>268</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="34"/>
       <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="1:14" ht="16">
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="34"/>
       <c r="K9" s="34"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:14" ht="16">
+      <c r="L9" s="34"/>
+      <c r="M9" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="34"/>
       <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:14" ht="16">
+    <row r="11" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="34"/>
       <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:14" ht="16">
+      <c r="N11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="80">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>396</v>
+      </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="1:14" ht="16">
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="16">
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>58</v>
@@ -6734,46 +7092,51 @@
         <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:14" ht="16">
+        <v>278</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
       <c r="C15" s="10"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:14" ht="16">
+      <c r="I15" s="7"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
-      <c r="I16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:14" ht="16">
+      <c r="I16" s="7"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="B17" s="12" t="s">
         <v>66</v>
       </c>
@@ -6781,66 +7144,80 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="I17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:14" ht="16">
+        <v>281</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F18" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:14" ht="16">
+        <v>283</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
+        <v>286</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="32">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="15" t="s">
         <v>73</v>
       </c>
@@ -6848,33 +7225,38 @@
         <v>15</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="L20"/>
+        <v>289</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="34"/>
     </row>
-    <row r="21" spans="1:14" ht="16">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:14">
+      <c r="A21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="H21" s="8"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="1:14" ht="16">
+      <c r="I21" s="7"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
@@ -6882,8 +7264,12 @@
       <c r="D22" s="13"/>
       <c r="H22" s="8"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="16">
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" ht="32">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -6891,210 +7277,286 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E23" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="41"/>
       <c r="H23" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
+        <v>291</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="11"/>
-      <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E24" s="39" t="s">
+      <c r="D24" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="41"/>
       <c r="H24" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="16">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5"/>
+        <v>294</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="13"/>
       <c r="C25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="E25" s="39" t="s">
+      <c r="D25" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="41"/>
       <c r="H25" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="16">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5"/>
+        <v>296</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="13"/>
       <c r="C26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
+      <c r="F26" s="41"/>
+      <c r="H26" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="32">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="13"/>
       <c r="C27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="E27" s="39" t="s">
+      <c r="D27" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="41"/>
       <c r="H27" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I27" s="7"/>
+        <v>299</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:14" ht="32">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="13"/>
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="39" t="s">
+      <c r="D28" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="41"/>
       <c r="H28" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I28" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="32">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="13"/>
       <c r="C29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29" s="39" t="s">
+      <c r="D29" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="41"/>
       <c r="H29" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="I29" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="32">
-      <c r="A30" s="14"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="13"/>
       <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E30" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="41"/>
       <c r="H30" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="I30" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="32">
-      <c r="A31" s="14"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="13"/>
       <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E31" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="41"/>
       <c r="H31" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="16">
+        <v>307</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="11"/>
-      <c r="B32" s="5"/>
       <c r="C32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="39" t="s">
+      <c r="D32" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="41"/>
       <c r="H32" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="I32" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="32">
       <c r="C33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="39" t="s">
+      <c r="D33" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>92</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="16">
+        <v>311</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="C34" s="10"/>
-      <c r="D34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="20"/>
       <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="16">
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="21"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="5"/>
       <c r="H35" s="23"/>
       <c r="I35" s="7"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
     </row>
     <row r="36" spans="1:14" ht="32">
       <c r="A36" s="11"/>
@@ -7105,20 +7567,26 @@
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="F36" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="5"/>
       <c r="H36" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="I36" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="34"/>
     </row>
     <row r="37" spans="1:14" ht="32">
       <c r="A37" s="11"/>
@@ -7126,66 +7594,64 @@
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="F37" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="5"/>
       <c r="H37" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="16">
+        <v>316</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="11"/>
       <c r="B38" s="21"/>
       <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="F38" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="5"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
       <c r="N38" s="34"/>
     </row>
-    <row r="39" spans="1:14" ht="16">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+    <row r="39" spans="1:14">
       <c r="H39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="40" spans="1:14">
       <c r="A40" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:14" ht="32">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>119</v>
@@ -7198,7 +7664,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:14" s="5" customFormat="1" ht="32">
+    <row r="42" spans="1:14" ht="32">
       <c r="B42" s="26" t="s">
         <v>121</v>
       </c>
@@ -7210,7 +7676,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" ht="32">
+    <row r="43" spans="1:14" ht="32">
       <c r="A43" s="3"/>
       <c r="B43" s="26" t="s">
         <v>122</v>
@@ -7223,7 +7689,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="44" spans="1:14">
       <c r="A44" s="3"/>
       <c r="B44" s="26"/>
       <c r="F44" s="23"/>
@@ -7231,7 +7697,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="45" spans="1:14">
       <c r="B45" s="26" t="s">
         <v>123</v>
       </c>
@@ -7240,28 +7706,28 @@
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="46" spans="1:14">
       <c r="B46" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F46" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="47" spans="1:14">
       <c r="B47" s="26"/>
       <c r="F47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="16">
+    <row r="48" spans="1:14">
       <c r="B48" s="26" t="s">
         <v>125</v>
       </c>
@@ -7270,13 +7736,13 @@
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="49" spans="2:12">
       <c r="F49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="50" spans="2:12">
       <c r="B50" s="21" t="s">
         <v>126</v>
       </c>
@@ -7285,13 +7751,13 @@
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="51" spans="2:12">
       <c r="F51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="7"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="52" spans="2:12">
       <c r="B52" s="5" t="s">
         <v>127</v>
       </c>
@@ -7300,19 +7766,19 @@
       <c r="I52" s="7"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="53" spans="2:12">
       <c r="F53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="7"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="54" spans="2:12">
       <c r="F54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="55" spans="2:12">
       <c r="B55" s="5" t="s">
         <v>128</v>
       </c>
@@ -7321,25 +7787,25 @@
       <c r="I55" s="7"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="56" spans="2:12">
       <c r="F56" s="23"/>
       <c r="H56" s="27"/>
       <c r="I56" s="7"/>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="57" spans="2:12">
       <c r="F57" s="23"/>
       <c r="H57" s="27"/>
       <c r="I57" s="7"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="58" spans="2:12">
       <c r="F58" s="23"/>
       <c r="H58" s="27"/>
       <c r="I58" s="7"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="59" spans="2:12">
       <c r="B59" s="5" t="s">
         <v>129</v>
       </c>
@@ -7349,13 +7815,13 @@
       <c r="I59" s="7"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="60" spans="2:12">
       <c r="F60" s="23"/>
       <c r="H60" s="23"/>
       <c r="I60" s="7"/>
       <c r="J60" s="36"/>
     </row>
-    <row r="61" spans="2:12" s="5" customFormat="1" ht="32">
+    <row r="61" spans="2:12" ht="32">
       <c r="B61" s="29" t="s">
         <v>130</v>
       </c>
@@ -7387,20 +7853,20 @@
       </c>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
@@ -7414,27 +7880,27 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
+            <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B78:B1048576 B1:B39</xm:sqref>
+          <xm:sqref>C1:C39 C78:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
+            <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>C78:C1048576 C1:C39</xm:sqref>
+          <xm:sqref>F46 F1:F39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B39 B78:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I78:I1048576 I1:I39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F39 F46</xm:sqref>
+          <xm:sqref>I1:I39 I78:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7447,10 +7913,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7528,6 +7994,1169 @@
     <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="16">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="16">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" ht="16">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="34"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:14" ht="16">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="34"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:14" ht="16">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:14" ht="16">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="16">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="16">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="16">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="16">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="16">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="16">
+      <c r="A19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="16">
+      <c r="B20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="16">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="16">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="16">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="E23" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="16">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="7"/>
+      <c r="N24" s="34"/>
+    </row>
+    <row r="25" spans="1:14" ht="16">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="7"/>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="26" spans="1:14" ht="16">
+      <c r="A26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="16">
+      <c r="A27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="16">
+      <c r="A28" s="11"/>
+      <c r="B28" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="16">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="16">
+      <c r="A30" s="11"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="16">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="16">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" ht="16">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" ht="16">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="16">
+      <c r="A35" s="11"/>
+      <c r="B35" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="16">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" ht="16">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" ht="16">
+      <c r="A38" s="11"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" ht="16">
+      <c r="A39" s="11"/>
+      <c r="B39" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" ht="16">
+      <c r="A40" s="11"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" ht="16">
+      <c r="A41" s="11"/>
+      <c r="B41" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" ht="16">
+      <c r="A42" s="11"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="13"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="16">
+      <c r="A43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" ht="16">
+      <c r="A44" s="11"/>
+      <c r="B44" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="34"/>
+    </row>
+    <row r="45" spans="1:14" ht="16">
+      <c r="A45" s="11"/>
+      <c r="C45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" ht="16">
+      <c r="A46" s="11"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="7"/>
+      <c r="L46" s="34"/>
+      <c r="N46" s="34"/>
+    </row>
+    <row r="47" spans="1:14" ht="16">
+      <c r="A47" s="11"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="7"/>
+      <c r="L47" s="34"/>
+      <c r="N47" s="34"/>
+    </row>
+    <row r="48" spans="1:14" ht="16">
+      <c r="C48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="A49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="B51" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:14" s="5" customFormat="1" ht="32">
+      <c r="A52" s="3"/>
+      <c r="B52" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="A53" s="3"/>
+      <c r="B53" s="26"/>
+      <c r="F53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B54" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B55" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B56" s="26"/>
+      <c r="F56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B57" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="F58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B59" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="F60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="F62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="F63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="B64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="D65" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="D66" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="23"/>
+    </row>
+    <row r="67" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="D67" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="23"/>
+    </row>
+    <row r="68" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="D68" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="23"/>
+    </row>
+    <row r="69" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F69" s="23"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="23"/>
+    </row>
+    <row r="70" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F70" s="23"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="B71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="23"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="23"/>
+    </row>
+    <row r="72" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="F72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="36"/>
+    </row>
+    <row r="73" spans="2:12" s="5" customFormat="1" ht="32">
+      <c r="B73" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I73" s="37"/>
+      <c r="J73" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]附录!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B27 I27:I42 F39:F42 F27:F37 C27:C40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C43:C48 C90:C1048576 C1:C26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F43:F49 F1:F26 F38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B90:B1048576 B28:B48 B1:B26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I43:I48 I90:I1048576 I1:I26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -8075,7 +9704,7 @@
       <c r="L53" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -8115,11 +9744,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -8130,15 +9759,15 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
@@ -8149,7 +9778,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -8167,7 +9796,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -8185,7 +9814,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -8203,7 +9832,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -8213,7 +9842,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
@@ -8226,37 +9855,37 @@
         <v>58</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>290</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>292</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>293</v>
+        <v>364</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8266,64 +9895,64 @@
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>298</v>
+        <v>369</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -8331,7 +9960,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -8339,7 +9968,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -8347,7 +9976,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -8355,7 +9984,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -8363,7 +9992,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -8371,7 +10000,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="I24" s="4"/>
     </row>
@@ -8423,7 +10052,7 @@
       <c r="C35" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5 I1:I25">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12520" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1120" yWindow="40" windowWidth="29740" windowHeight="19700" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="4-15周输出" sheetId="3" r:id="rId3"/>
     <sheet name="4-22周输出" sheetId="4" r:id="rId4"/>
     <sheet name="4-29周输出" sheetId="5" r:id="rId5"/>
-    <sheet name="模板" sheetId="6" r:id="rId6"/>
-    <sheet name="附录" sheetId="7" r:id="rId7"/>
+    <sheet name="5-6周输出" sheetId="8" r:id="rId6"/>
+    <sheet name="模板" sheetId="6" r:id="rId7"/>
+    <sheet name="附录" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +259,48 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="501">
   <si>
     <t>类别</t>
   </si>
@@ -1430,196 +1472,481 @@
   </si>
   <si>
     <t>技能通用逻辑测试用例走读</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>兔桑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>技能通用逻辑测试用例修改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>技能测试l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>og格式确认</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>兔桑、雷神</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>雷神、兔桑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>技能副本整合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>动画模块实现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>副本换宠逻辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>zz，小智</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>小智</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>进展情况：一尾到九尾完成，大概4、5章，第一个版本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>主线剧情整理提交moxtra</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>孔老师</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>day2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Demo后新增美术需求-3小怪3boss</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>场景外包制作规范</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>辛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>副本编辑器需求列表提交程序</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>初期（7天）任务初版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪物分类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>demo版本特效制作（每人一个）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>游戏模块拆分及时间计划（包括美术、开发、工具以及内容项，day3左右对一下）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>服务器新框架代码学习-逻辑层</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>服务器新框架代码学习-数据层</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>李文生</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Day1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>demo对局战斗流程测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（风险）</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>自主任务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>HockeyApp安卓平台测试，crash report测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>兔桑、雷神</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>游戏内容是否偏多？-本周计划游戏内容，计划讨论后进行决策</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>会议时间、内容掌控、内容预告</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    大纲清晰，扩展发散注意程度，多讲与我们游戏相关的内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    基础设计方法及思想统一之后，可能用上面的方法比较合适</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    游戏推荐，游戏举例配一些资料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能文档升级相关数据框架补充</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-179</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-174</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-178</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-181</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-174</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-176</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-177</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-192</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-180</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-182</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-146</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-183 MG-184 MG-185 MG-186</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-187</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-188</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-190</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-151</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-159</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-160</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-161</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-163</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-164</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-165</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-166 MG-167</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-168</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-170 MG-171</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-172</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-173</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-158</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-159</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-162</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-191</t>
+  </si>
+  <si>
+    <t>MG-189</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo对局战斗流程测试（风险）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能测试log格式确认</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-193</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-197</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-198</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-199</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-196</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-200</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包时间把控方面，关于验收和修改需要多预留一些时间。虽然第一批需求时间没有要求太紧，但也有部分内容晚于截止日期</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于周会：</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.希望每个组都继续保持开周会的习惯</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2） 给组员提供可以分享、讨论、反馈问题的渠道</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         Leader也可以通过周会收集组员的一些问题，从而去跟进，反馈和解决。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   3）有些组员在工作中遇到的问题不敢直接反应，可能在这种小范围的周会上会比较愿意“吐槽”。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1） 统一大家的目标，传达leader周会中的一些内容（如：计划、规范、思想等等）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        对于不太习惯思考和总结的人，可能是一个强化习惯的方法或者过程。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        比如：测试比较容易做的就是典型bug分享，配置方法以及测试经验分享。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   我相信策划，程序，美术也一定有工作中积累的精华经验</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        不要因为觉得简单、低级、小而不去做，也许正是这些小点的积累，日后会帮你提高不少效率</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        尤其是对策划组这一点更为重要。如果从设计的源头都没有统一思想，那么发散后续的设计就更无法保证统一性了</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.开会的目的不仅是为了沟通工作计划，还有其他很多显性或者隐性的目的</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4）了解组内、组间本周的工作情况，合理安排自己工作</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包进度：</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        平时散点1对1的讨论思路还是会局限于两个人，而且讨论完的结果不一定是最合理的，也不一定及时做了广播而且有时候还可能没有结果。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        多人一起分享和讨论也可以拓宽自己的视野</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        把平时工作中遇到的问题和解决方法总结分享出来，大家可以共同学习提高</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        leader会中可能会提出一些规范，如果没有周会可能会忘了传达，统一传达规范和标准会更正式和有力度</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        如果有相关需要配合的工作内容，可以预留一些工作时间，更合理的安排自己的工作计划</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余3个动作返工修改</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day6</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 各组周会时间确认</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要做两个项目：</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    一个是随便可以放什么测试内容的，比如：测试场景、怪物性能的</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    一个是放正式游戏的，后面更新发布大家可以通过hockeyapp自行下载</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins是否可以集成hockeyapp，完成测试项目的发布？如果不集成，通过itunes安装？</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员安排：</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>王世博时间确认</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑帅是否可以做客户端内容</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序陆续制作出可以验收的功能，策划应尽快派人跟进验收，配合紧密一些</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有未完成的工作或者缺陷及时发现</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序派发任务时需要将任务继续细化，拆到功能点层面，确认功能点完成程度及时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1676,19 +2003,6 @@
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1796,7 +2110,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1806,7 +2120,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1818,32 +2132,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1919,8 +2317,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1933,10 +2329,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1946,11 +2342,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1962,18 +2358,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1994,25 +2390,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2032,22 +2428,50 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="43">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 25" xfId="3"/>
     <cellStyle name="常规 8" xfId="5"/>
     <cellStyle name="常规_2-4周版本输出" xfId="6"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -2774,7 +3198,7 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="68" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="24" t="s">
@@ -2793,561 +3217,561 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-    </row>
-    <row r="3" spans="1:15" s="60" customFormat="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="60" t="s">
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" s="58" customFormat="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="60" t="s">
+      <c r="I3" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="72"/>
-    </row>
-    <row r="4" spans="1:15" s="60" customFormat="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="60" t="s">
+      <c r="M3" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="70"/>
+    </row>
+    <row r="4" spans="1:15" s="58" customFormat="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="60" t="s">
+      <c r="I4" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="73"/>
-    </row>
-    <row r="5" spans="1:15" s="60" customFormat="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="M4" s="73"/>
+      <c r="N4" s="71"/>
+    </row>
+    <row r="5" spans="1:15" s="58" customFormat="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="62" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="60" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="60" customFormat="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="60" t="s">
+    <row r="6" spans="1:15" s="58" customFormat="1">
+      <c r="A6" s="59"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="62"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="75"/>
-      <c r="N6" s="72"/>
-    </row>
-    <row r="7" spans="1:15" s="60" customFormat="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="73"/>
-    </row>
-    <row r="8" spans="1:15" s="60" customFormat="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="55" t="s">
+      <c r="J6" s="70"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="73"/>
+      <c r="N6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" s="58" customFormat="1">
+      <c r="A7" s="59"/>
+      <c r="B7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="1:15" s="58" customFormat="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="62" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="60" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="72"/>
-    </row>
-    <row r="9" spans="1:15" s="60" customFormat="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="55" t="s">
+      <c r="J8" s="70"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="73"/>
+      <c r="N8" s="70"/>
+    </row>
+    <row r="9" spans="1:15" s="58" customFormat="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="62" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="60" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="72"/>
-    </row>
-    <row r="10" spans="1:15" s="60" customFormat="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="55" t="s">
+      <c r="J9" s="70"/>
+      <c r="K9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="73"/>
+      <c r="N9" s="70"/>
+    </row>
+    <row r="10" spans="1:15" s="58" customFormat="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="62" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="60" t="s">
+      <c r="I10" s="75"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="72"/>
-    </row>
-    <row r="11" spans="1:15" s="60" customFormat="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="55" t="s">
+      <c r="M10" s="73"/>
+      <c r="N10" s="70"/>
+    </row>
+    <row r="11" spans="1:15" s="58" customFormat="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="63" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="61" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="78" t="s">
+      <c r="J11" s="70"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="75"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72" t="s">
+      <c r="M11" s="73"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="60" customFormat="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="60" t="s">
+    <row r="12" spans="1:15" s="58" customFormat="1">
+      <c r="A12" s="59"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="60" t="s">
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="60" customFormat="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="73"/>
-    </row>
-    <row r="14" spans="1:15" s="60" customFormat="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="55" t="s">
+    <row r="13" spans="1:15" s="58" customFormat="1">
+      <c r="A13" s="59"/>
+      <c r="B13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" s="58" customFormat="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="55" t="s">
+      <c r="C14" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="62"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="73"/>
-    </row>
-    <row r="15" spans="1:15" s="60" customFormat="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="55" t="s">
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="71"/>
+    </row>
+    <row r="15" spans="1:15" s="58" customFormat="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="62" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="60" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="73"/>
-    </row>
-    <row r="16" spans="1:15" s="60" customFormat="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="55" t="s">
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="71"/>
+    </row>
+    <row r="16" spans="1:15" s="58" customFormat="1">
+      <c r="A16" s="59"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="63" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="61" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="78" t="s">
+      <c r="J16" s="70"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="72"/>
-    </row>
-    <row r="17" spans="1:14" s="60" customFormat="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="60" t="s">
+      <c r="M16" s="73"/>
+      <c r="N16" s="70"/>
+    </row>
+    <row r="17" spans="1:14" s="58" customFormat="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="62"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="73"/>
-    </row>
-    <row r="18" spans="1:14" s="60" customFormat="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="62"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="71"/>
+    </row>
+    <row r="18" spans="1:14" s="58" customFormat="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="73"/>
-    </row>
-    <row r="19" spans="1:14" s="60" customFormat="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="55" t="s">
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="71"/>
+    </row>
+    <row r="19" spans="1:14" s="58" customFormat="1">
+      <c r="A19" s="59"/>
+      <c r="B19" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="63" t="s">
+      <c r="G19" s="53"/>
+      <c r="H19" s="61" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="76" t="s">
+      <c r="J19" s="70"/>
+      <c r="K19" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="75"/>
-      <c r="N19" s="72"/>
-    </row>
-    <row r="20" spans="1:14" s="60" customFormat="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="62"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="70"/>
+    </row>
+    <row r="20" spans="1:14" s="58" customFormat="1">
+      <c r="A20" s="59"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="73"/>
-    </row>
-    <row r="21" spans="1:14" s="60" customFormat="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="60" t="s">
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="71"/>
+    </row>
+    <row r="21" spans="1:14" s="58" customFormat="1">
+      <c r="A21" s="59"/>
+      <c r="B21" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="65" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="63" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="72"/>
-    </row>
-    <row r="22" spans="1:14" s="60" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="C22" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="47" t="s">
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="70"/>
+    </row>
+    <row r="22" spans="1:14" s="58" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="59"/>
+      <c r="C22" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="65" t="s">
+      <c r="G22" s="45"/>
+      <c r="H22" s="63" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="72"/>
-    </row>
-    <row r="23" spans="1:14" s="60" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="61"/>
-      <c r="C23" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="47" t="s">
+      <c r="J22" s="70"/>
+      <c r="K22" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="70"/>
+    </row>
+    <row r="23" spans="1:14" s="58" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="C23" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="65" t="s">
+      <c r="G23" s="45"/>
+      <c r="H23" s="63" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="72"/>
-      <c r="N23" s="72"/>
+      <c r="J23" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="70"/>
+      <c r="N23" s="70"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3"/>
@@ -3356,11 +3780,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="N24" s="79"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
@@ -3368,11 +3792,11 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="N25" s="79"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="12" t="s">
@@ -3393,7 +3817,7 @@
       <c r="H26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="67" t="s">
+      <c r="I26" s="65" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="27" t="s">
@@ -3420,20 +3844,20 @@
       <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="N27" s="79"/>
+      <c r="I27" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="N27" s="77"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="N28" s="79"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="N28" s="77"/>
     </row>
     <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
@@ -3455,12 +3879,12 @@
       <c r="H29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="N29" s="80"/>
+      <c r="I29" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="N29" s="78"/>
     </row>
     <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
@@ -3479,12 +3903,12 @@
       <c r="H30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="N30" s="80" t="s">
+      <c r="I30" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="N30" s="78" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3492,10 +3916,10 @@
       <c r="A31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="N31" s="79"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
@@ -3503,10 +3927,10 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="N32" s="79"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="N32" s="77"/>
     </row>
     <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
@@ -3521,16 +3945,16 @@
       <c r="E33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="H33" s="68" t="s">
+      <c r="F33" s="39"/>
+      <c r="H33" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="N33" s="79"/>
+      <c r="I33" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="N33" s="77"/>
     </row>
     <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
@@ -3543,15 +3967,15 @@
       <c r="E34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="H34" s="68" t="s">
+      <c r="F34" s="39"/>
+      <c r="H34" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
+      <c r="I34" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
       <c r="N34" s="27" t="s">
         <v>87</v>
       </c>
@@ -3567,16 +3991,16 @@
       <c r="E35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="H35" s="68" t="s">
+      <c r="F35" s="39"/>
+      <c r="H35" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="N35" s="79"/>
+      <c r="I35" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="N35" s="77"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="13"/>
@@ -3587,16 +4011,16 @@
       <c r="E36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="H36" s="68" t="s">
+      <c r="F36" s="39"/>
+      <c r="H36" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="N36" s="79"/>
+      <c r="I36" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="N36" s="77"/>
     </row>
     <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
@@ -3609,16 +4033,16 @@
       <c r="E37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="H37" s="68" t="s">
+      <c r="F37" s="39"/>
+      <c r="H37" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="N37" s="79"/>
+      <c r="I37" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="N37" s="77"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11"/>
@@ -3631,16 +4055,16 @@
       <c r="E38" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="H38" s="69" t="s">
+      <c r="F38" s="39"/>
+      <c r="H38" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="N38" s="79"/>
+      <c r="I38" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="N38" s="77"/>
     </row>
     <row r="39" spans="1:14">
       <c r="C39" s="10" t="s">
@@ -3655,22 +4079,22 @@
       <c r="H39" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="N39" s="79"/>
+      <c r="I39" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="N39" s="77"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="N40" s="79"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="N40" s="77"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="11"/>
@@ -3692,7 +4116,7 @@
       <c r="H41" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="67" t="s">
+      <c r="I41" s="65" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="26"/>
@@ -3715,15 +4139,15 @@
       <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="80"/>
-      <c r="K42" s="79"/>
+      <c r="I42" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="78"/>
+      <c r="K42" s="77"/>
       <c r="M42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="79"/>
+      <c r="N42" s="77"/>
     </row>
     <row r="43" spans="1:14">
       <c r="C43" s="5" t="s">
@@ -3738,12 +4162,12 @@
       <c r="H43" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="67" t="s">
+      <c r="I43" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="N43" s="79"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="11"/>
@@ -3759,7 +4183,7 @@
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="67" t="s">
+      <c r="I44" s="65" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -3784,15 +4208,15 @@
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
+      <c r="I45" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
       <c r="L45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="80"/>
+      <c r="N45" s="78"/>
     </row>
     <row r="46" spans="1:14">
       <c r="C46" s="5" t="s">
@@ -3807,15 +4231,15 @@
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="67" t="s">
+      <c r="I46" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
       <c r="M46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="79"/>
+      <c r="N46" s="77"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11"/>
@@ -3832,30 +4256,30 @@
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
+      <c r="I47" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
       <c r="M47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N47" s="80"/>
+      <c r="N47" s="78"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="I48" s="67"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="N48" s="79"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="N48" s="77"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="67"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="N49" s="79"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="N49" s="77"/>
     </row>
     <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
@@ -3866,10 +4290,10 @@
         <v>120</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="N50" s="79"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="N50" s="77"/>
     </row>
     <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
@@ -3879,10 +4303,10 @@
         <v>120</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="N51" s="79"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="N51" s="77"/>
     </row>
     <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
@@ -3893,157 +4317,157 @@
         <v>120</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="N52" s="79"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="N52" s="77"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="26"/>
       <c r="F53" s="23"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="N53" s="79"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="N53" s="77"/>
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="N54" s="79"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="N54" s="77"/>
     </row>
     <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="N55" s="79"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="N55" s="77"/>
     </row>
     <row r="56" spans="1:14">
       <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="N56" s="79"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="N56" s="77"/>
     </row>
     <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="N57" s="79"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="N57" s="77"/>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" s="23"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="N58" s="79"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="N58" s="77"/>
     </row>
     <row r="59" spans="1:14">
       <c r="F59" s="23"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="N59" s="79"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="N59" s="77"/>
     </row>
     <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="N60" s="79"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="N60" s="77"/>
     </row>
     <row r="61" spans="1:14">
       <c r="F61" s="23"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="N61" s="79"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="N61" s="77"/>
     </row>
     <row r="62" spans="1:14">
       <c r="B62" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="N62" s="79"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="N62" s="77"/>
     </row>
     <row r="63" spans="1:14">
       <c r="F63" s="23"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="N63" s="79"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="N63" s="77"/>
     </row>
     <row r="64" spans="1:14">
       <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="N64" s="79"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="N64" s="77"/>
     </row>
     <row r="65" spans="2:14">
       <c r="F65" s="23"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="N65" s="79"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="N65" s="77"/>
     </row>
     <row r="66" spans="2:14">
       <c r="F66" s="23"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="N66" s="79"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="N66" s="77"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="23"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="N67" s="79"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="77"/>
+      <c r="N67" s="77"/>
     </row>
     <row r="68" spans="2:14">
       <c r="F68" s="23"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="N68" s="79"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="N68" s="77"/>
     </row>
     <row r="69" spans="2:14">
       <c r="F69" s="23"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="N69" s="79"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="N69" s="77"/>
     </row>
     <row r="70" spans="2:14">
       <c r="F70" s="23"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="N70" s="79"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="N70" s="77"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="5" t="s">
@@ -4051,17 +4475,17 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="28"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="N71" s="79"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="N71" s="77"/>
     </row>
     <row r="72" spans="2:14">
       <c r="F72" s="23"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="82"/>
-      <c r="K72" s="79"/>
-      <c r="N72" s="79"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="77"/>
+      <c r="N72" s="77"/>
     </row>
     <row r="73" spans="2:14" ht="32">
       <c r="B73" s="29" t="s">
@@ -4084,34 +4508,34 @@
         <v>135</v>
       </c>
       <c r="I73" s="30"/>
-      <c r="J73" s="83" t="s">
+      <c r="J73" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="K73" s="83" t="s">
+      <c r="K73" s="81" t="s">
         <v>137</v>
       </c>
       <c r="L73" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N73" s="79"/>
+      <c r="N73" s="77"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="43"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="44"/>
-      <c r="N74" s="79"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="82"/>
+      <c r="K74" s="82"/>
+      <c r="L74" s="42"/>
+      <c r="N74" s="77"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N74"/>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
@@ -4263,10 +4687,10 @@
       <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="23" t="s">
@@ -4288,10 +4712,10 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="53" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="34"/>
@@ -4303,8 +4727,8 @@
       <c r="A5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="53"/>
       <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:14">
@@ -4324,10 +4748,10 @@
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="6"/>
@@ -4349,10 +4773,10 @@
       <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="23" t="s">
@@ -4374,10 +4798,10 @@
       <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="23" t="s">
@@ -4389,8 +4813,8 @@
       <c r="A9" s="3"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="53"/>
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:14">
@@ -4410,10 +4834,10 @@
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="34"/>
@@ -4437,7 +4861,7 @@
       <c r="H11" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="23" t="s">
@@ -4461,7 +4885,7 @@
       <c r="H12" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4479,10 +4903,10 @@
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="34"/>
@@ -4503,10 +4927,10 @@
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="34"/>
@@ -4527,10 +4951,10 @@
       <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="23" t="s">
@@ -4554,10 +4978,10 @@
       <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="23" t="s">
@@ -4583,7 +5007,7 @@
       <c r="H17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4604,7 +5028,7 @@
       <c r="H18" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4625,7 +5049,7 @@
       <c r="H19" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4646,7 +5070,7 @@
       <c r="H20" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4666,7 +5090,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="53"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:14">
@@ -4768,7 +5192,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="54"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
@@ -4793,7 +5217,7 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="54"/>
+      <c r="A29" s="52"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
@@ -4815,7 +5239,7 @@
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -4823,7 +5247,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="F31" s="7"/>
@@ -4852,11 +5276,11 @@
         <v>83</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="23" t="s">
@@ -4875,11 +5299,11 @@
         <v>89</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56" t="s">
+      <c r="G34" s="53"/>
+      <c r="H34" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="I34" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="23" t="s">
@@ -4887,7 +5311,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="54"/>
+      <c r="A35" s="52"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
@@ -4898,16 +5322,16 @@
         <v>89</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="57" t="s">
+      <c r="G35" s="53"/>
+      <c r="H35" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="54"/>
+      <c r="A36" s="52"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -4918,11 +5342,11 @@
         <v>83</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56" t="s">
+      <c r="G36" s="53"/>
+      <c r="H36" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="I36" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K36" s="23" t="s">
@@ -4941,11 +5365,11 @@
         <v>97</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56" t="s">
+      <c r="G37" s="53"/>
+      <c r="H37" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="55" t="s">
+      <c r="I37" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4961,11 +5385,11 @@
         <v>92</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56" t="s">
+      <c r="G38" s="53"/>
+      <c r="H38" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="I38" s="55" t="s">
+      <c r="I38" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4981,11 +5405,11 @@
         <v>89</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56" t="s">
+      <c r="G39" s="53"/>
+      <c r="H39" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="55" t="s">
+      <c r="I39" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5172,7 +5596,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:14" s="50" customFormat="1">
+    <row r="49" spans="1:14" s="48" customFormat="1">
       <c r="A49" s="5"/>
       <c r="C49" s="5" t="s">
         <v>42</v>
@@ -5361,21 +5785,21 @@
       </c>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N69"/>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
@@ -5828,7 +6252,7 @@
       <c r="H11" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="7"/>
@@ -5856,7 +6280,7 @@
       <c r="H12" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="7"/>
@@ -5872,7 +6296,7 @@
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="45" t="s">
         <v>224</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -5882,7 +6306,7 @@
       <c r="H13" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="7"/>
@@ -5968,7 +6392,7 @@
       <c r="H17" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="7"/>
@@ -5999,7 +6423,7 @@
       <c r="H18" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="7"/>
@@ -6032,7 +6456,7 @@
       <c r="H19" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="7"/>
@@ -6063,14 +6487,14 @@
       <c r="H20" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="47" t="s">
+      <c r="N20" s="45" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="7"/>
@@ -6128,7 +6552,7 @@
       <c r="H23" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="7"/>
@@ -6146,7 +6570,7 @@
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="46" t="s">
         <v>239</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -6157,12 +6581,12 @@
       <c r="H24" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="M24" s="47" t="s">
+      <c r="M24" s="45" t="s">
         <v>19</v>
       </c>
       <c r="N24" s="7"/>
@@ -6185,14 +6609,14 @@
       <c r="H25" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="O25" s="7"/>
@@ -6214,11 +6638,11 @@
       <c r="H26" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="7"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="45" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7"/>
@@ -6243,14 +6667,14 @@
       <c r="H27" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="47" t="s">
+      <c r="N27" s="45" t="s">
         <v>19</v>
       </c>
       <c r="O27" s="7"/>
@@ -6310,7 +6734,7 @@
       <c r="H30" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="7"/>
@@ -6340,7 +6764,7 @@
       <c r="H31" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="7"/>
@@ -6371,7 +6795,7 @@
       <c r="H32" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="I32" s="49" t="s">
+      <c r="I32" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="7"/>
@@ -6400,7 +6824,7 @@
       <c r="H33" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="7"/>
@@ -6652,7 +7076,7 @@
       <c r="L57" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F15">
     <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
@@ -7064,8 +7488,8 @@
       <c r="I12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="46" t="s">
-        <v>396</v>
+      <c r="J12" s="44" t="s">
+        <v>395</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -7092,7 +7516,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>47</v>
@@ -7282,7 +7706,7 @@
       <c r="E23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="8" t="s">
         <v>291</v>
       </c>
@@ -7307,7 +7731,7 @@
       <c r="E24" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="39"/>
       <c r="H24" s="8" t="s">
         <v>294</v>
       </c>
@@ -7332,7 +7756,7 @@
       <c r="E25" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="39"/>
       <c r="H25" s="8" t="s">
         <v>296</v>
       </c>
@@ -7357,7 +7781,7 @@
       <c r="E26" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="39"/>
       <c r="H26" s="8" t="s">
         <v>296</v>
       </c>
@@ -7382,7 +7806,7 @@
       <c r="E27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="39"/>
       <c r="H27" s="8" t="s">
         <v>299</v>
       </c>
@@ -7405,7 +7829,7 @@
       <c r="E28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="39"/>
       <c r="H28" s="8" t="s">
         <v>301</v>
       </c>
@@ -7429,7 +7853,7 @@
       <c r="E29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="39"/>
       <c r="H29" s="8" t="s">
         <v>303</v>
       </c>
@@ -7453,7 +7877,7 @@
       <c r="E30" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="39"/>
       <c r="H30" s="8" t="s">
         <v>305</v>
       </c>
@@ -7477,7 +7901,7 @@
       <c r="E31" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="39"/>
       <c r="H31" s="8" t="s">
         <v>307</v>
       </c>
@@ -7501,7 +7925,7 @@
       <c r="E32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="39"/>
       <c r="H32" s="8" t="s">
         <v>309</v>
       </c>
@@ -7538,7 +7962,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="C34" s="10"/>
-      <c r="D34" s="42"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="20"/>
       <c r="I34" s="7"/>
       <c r="J34" s="34"/>
@@ -7606,7 +8030,7 @@
         <v>316</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
@@ -7853,20 +8277,20 @@
       </c>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
@@ -7913,26 +8337,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="C18" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="4"/>
-    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="4"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7948,32 +8369,32 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -7982,16 +8403,15 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="16">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>319</v>
@@ -8000,7 +8420,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>320</v>
@@ -8008,18 +8428,21 @@
       <c r="F3" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="16">
+      <c r="N3" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -8032,18 +8455,20 @@
       <c r="F4" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="16">
+      <c r="M4" s="34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
@@ -8056,145 +8481,163 @@
       <c r="F5" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
+      <c r="G5" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="34" t="s">
+        <v>485</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="16">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34" t="s">
+        <v>485</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="16">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="34"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="16">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="1:14" ht="16">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="34"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:14" ht="16">
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-      <c r="K10" s="34"/>
-      <c r="M10" s="34"/>
-    </row>
-    <row r="11" spans="1:14" ht="16">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="K11" s="34"/>
+      <c r="G11" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="J11" s="34"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:14" ht="16">
+    <row r="12" spans="1:14">
       <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
@@ -8205,830 +8648,908 @@
         <v>47</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="16">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="G13" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="16">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="64">
+      <c r="A15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="16">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="16">
+      <c r="G15" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="16">
+      <c r="G16" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3"/>
+      <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" ht="16">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="16">
-      <c r="A19" s="11" t="s">
+      <c r="G18" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="16">
-      <c r="B20" s="12" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="16">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E22" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="16">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="16">
+      <c r="G22" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
-      <c r="E23" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="E24" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="52"/>
+      <c r="B25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="M25" s="34"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="52"/>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="7"/>
-      <c r="N24" s="34"/>
-    </row>
-    <row r="25" spans="1:14" ht="16">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="7"/>
-      <c r="N25" s="34"/>
-    </row>
-    <row r="26" spans="1:14" ht="16">
-      <c r="A26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="16">
-      <c r="A27" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="52"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="16">
-      <c r="A28" s="11"/>
-      <c r="B28" s="5" t="s">
+      <c r="G27" s="34"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="16">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="G29" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="11"/>
+      <c r="C30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E30" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="16">
-      <c r="A30" s="11"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="40" t="s">
+      <c r="G30" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E31" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="16">
-      <c r="A31" s="11"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="40" t="s">
+      <c r="G31" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="11"/>
+      <c r="C32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="16">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="40" t="s">
+      <c r="G32" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="11"/>
+      <c r="C33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" ht="16">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="G33" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="16">
-      <c r="A34" s="11"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="11"/>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="16">
-      <c r="A35" s="11"/>
-      <c r="B35" s="5" t="s">
+      <c r="G35" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="32">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="40" t="s">
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" ht="16">
-      <c r="A36" s="11"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="40" t="s">
+      <c r="E36" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="11"/>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="16">
-      <c r="A37" s="11"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="G37" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="11"/>
+      <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="11"/>
+      <c r="C39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" ht="32">
+      <c r="A40" s="11"/>
+      <c r="B40" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="11"/>
+      <c r="C41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="11"/>
+      <c r="B42" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="E37" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="16">
-      <c r="A38" s="11"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" ht="16">
-      <c r="A39" s="11"/>
-      <c r="B39" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" ht="16">
-      <c r="A40" s="11"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" ht="16">
-      <c r="A41" s="11"/>
-      <c r="B41" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" ht="16">
-      <c r="A42" s="11"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="13"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" ht="16">
-      <c r="A43" s="11" t="s">
+      <c r="G42" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="11"/>
+      <c r="D43" s="13"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" ht="16">
-      <c r="A44" s="11"/>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="21"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="11"/>
+      <c r="B45" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="21" t="s">
+      <c r="C45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" spans="1:14" ht="16">
-      <c r="A45" s="11"/>
-      <c r="C45" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="21" t="s">
+      <c r="G45" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="11"/>
+      <c r="C46" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>202</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" ht="16">
-      <c r="A46" s="11"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>348</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="7"/>
-      <c r="L46" s="34"/>
-      <c r="N46" s="34"/>
-    </row>
-    <row r="47" spans="1:14" ht="16">
+      <c r="G46" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="J46" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="11"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="34"/>
+      <c r="H47" s="7"/>
+      <c r="K47" s="34"/>
+      <c r="M47" s="34"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="11"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="7"/>
-      <c r="L47" s="34"/>
-      <c r="N47" s="34"/>
-    </row>
-    <row r="48" spans="1:14" ht="16">
-      <c r="C48" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="21" t="s">
+      <c r="G48" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="K48" s="34"/>
+      <c r="M48" s="34"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="C49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>350</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="A49" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>352</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="1:14" s="5" customFormat="1" ht="32">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26" t="s">
+      <c r="G50" s="34"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="32">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="1:14" s="5" customFormat="1" ht="32">
-      <c r="B51" s="26" t="s">
-        <v>121</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="23"/>
-    </row>
-    <row r="52" spans="1:14" s="5" customFormat="1" ht="32">
-      <c r="A52" s="3"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" ht="32">
       <c r="B52" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="G52" s="23"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" ht="32">
       <c r="A53" s="3"/>
-      <c r="B53" s="26"/>
+      <c r="B53" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="B54" s="26" t="s">
+      <c r="G53" s="23"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="3"/>
+      <c r="B54" s="26"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="B55" s="26" t="s">
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="23"/>
-    </row>
-    <row r="56" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="23"/>
-    </row>
-    <row r="57" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="B57" s="26" t="s">
+      <c r="G56" s="23"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" s="26"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="23"/>
-    </row>
-    <row r="58" spans="1:14" s="5" customFormat="1" ht="16">
       <c r="F58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="B59" s="21" t="s">
+      <c r="G58" s="23"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="60" spans="1:14" s="5" customFormat="1" ht="16">
       <c r="F60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="B61" s="5" t="s">
+      <c r="G60" s="23"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="62" spans="1:14" s="5" customFormat="1" ht="16">
       <c r="F62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="G62" s="23"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="F63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="23"/>
-    </row>
-    <row r="64" spans="1:14" s="5" customFormat="1" ht="16">
-      <c r="B64" s="5" t="s">
+      <c r="G63" s="23"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="D66" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="D67" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="23"/>
-    </row>
-    <row r="65" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="D65" s="5" t="s">
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="D68" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="23"/>
-    </row>
-    <row r="66" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="D66" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="23"/>
-    </row>
-    <row r="67" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="D67" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="23"/>
-    </row>
-    <row r="68" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="D68" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="F68" s="23"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="23"/>
-    </row>
-    <row r="69" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="G68" s="23"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="D69" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="F69" s="23"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="23"/>
-    </row>
-    <row r="70" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="G69" s="27"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="23"/>
+    </row>
+    <row r="70" spans="2:11">
       <c r="F70" s="23"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="23"/>
-    </row>
-    <row r="71" spans="2:12" s="5" customFormat="1" ht="16">
-      <c r="B71" s="5" t="s">
+      <c r="G70" s="27"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="23"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="F71" s="23"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="36"/>
-    </row>
-    <row r="73" spans="2:12" s="5" customFormat="1" ht="32">
-      <c r="B73" s="29" t="s">
+      <c r="G72" s="23"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="23"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="36"/>
+    </row>
+    <row r="74" spans="2:11" ht="32">
+      <c r="B74" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C74" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D74" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30" t="s">
+      <c r="E74" s="29"/>
+      <c r="F74" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G73" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73" s="30" t="s">
+      <c r="G74" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="I73" s="37"/>
-      <c r="J73" s="38" t="s">
+      <c r="H74" s="37"/>
+      <c r="I74" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="J74" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="L73" s="29" t="s">
+      <c r="K74" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="2:12">
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
+    <row r="75" spans="2:11">
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -9039,31 +9560,31 @@
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B27 I27:I42 F39:F42 F27:F37 C27:C40</xm:sqref>
+          <xm:sqref>B28 H28:H43 C28:C41 F28:F38 F42:F43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C43:C48 C90:C1048576 C1:C26</xm:sqref>
+          <xm:sqref>C44:C49 C91:C1048576 C1:C27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$I$3:$I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>F43:F49 F1:F26 F38</xm:sqref>
+          <xm:sqref>F44:F50 F1:F27 F39:F41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$E$3:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B90:B1048576 B28:B48 B1:B26</xm:sqref>
+          <xm:sqref>B91:B1048576 B29:B49 B1:B27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I43:I48 I90:I1048576 I1:I26</xm:sqref>
+          <xm:sqref>H44:H49 H91:H1048576 H1:H27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9076,10 +9597,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D48" activeCellId="1" sqref="A45:XFD45 D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9089,12 +9610,10 @@
     <col min="3" max="3" width="10.1640625" style="4"/>
     <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="4"/>
-    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="4"/>
+    <col min="6" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9111,32 +9630,29 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -9145,16 +9661,15 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="16">
+    </row>
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
@@ -9165,12 +9680,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="16">
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
@@ -9179,14 +9693,13 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="16">
+    </row>
+    <row r="5" spans="1:13" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
@@ -9195,13 +9708,12 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
-      <c r="K5" s="34"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="16">
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="J5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -9210,13 +9722,12 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="K6" s="34"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="16">
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -9225,33 +9736,30 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="16">
+    </row>
+    <row r="8" spans="1:13" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="16">
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="16">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="16">
+    </row>
+    <row r="10" spans="1:13" ht="16">
       <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
@@ -9260,23 +9768,23 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="16">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="16">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="16">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="16">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="16">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>73</v>
@@ -9286,11 +9794,11 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="5"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="7"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="16">
+      <c r="G13" s="16"/>
+      <c r="H13" s="7"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="14"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -9298,11 +9806,11 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="5"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="7"/>
-      <c r="N14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" ht="16">
+      <c r="G14" s="16"/>
+      <c r="H14" s="7"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="16">
       <c r="A15" s="14"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -9310,31 +9818,31 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="5"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="16">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="16">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="16">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="16">
       <c r="A17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" ht="16">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="16">
       <c r="A18" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="16">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="16">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -9344,10 +9852,10 @@
       <c r="D19" s="5"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="16">
+      <c r="G19" s="18"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="16">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -9356,10 +9864,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="16">
+      <c r="G20" s="18"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="16">
       <c r="A21" s="14"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -9368,10 +9876,10 @@
       <c r="D21" s="5"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="16">
+      <c r="G21" s="19"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="16">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
@@ -9380,10 +9888,10 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="16">
+      <c r="G22" s="18"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="16">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
@@ -9392,16 +9900,16 @@
       <c r="D23" s="5"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
+      <c r="G23" s="18"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="16">
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="16">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="16">
       <c r="A25" s="11" t="s">
         <v>102</v>
       </c>
@@ -9410,11 +9918,10 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="16">
+      <c r="G25" s="23"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="16">
       <c r="A26" s="11"/>
       <c r="B26" s="21" t="s">
         <v>45</v>
@@ -9424,12 +9931,11 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" spans="1:14" ht="16">
+      <c r="G26" s="23"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:13" ht="16">
       <c r="A27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -9437,11 +9943,10 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="16">
+      <c r="G27" s="23"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="16">
       <c r="A28" s="11"/>
       <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
@@ -9451,12 +9956,11 @@
       <c r="E28" s="5"/>
       <c r="F28" s="22"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="7"/>
-      <c r="L28" s="34"/>
-      <c r="N28" s="34"/>
-    </row>
-    <row r="29" spans="1:14" ht="16">
+      <c r="H28" s="7"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" ht="16">
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
@@ -9465,19 +9969,18 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="7"/>
-      <c r="L29" s="34"/>
-      <c r="N29" s="34"/>
-    </row>
-    <row r="30" spans="1:14" ht="16">
+      <c r="G29" s="23"/>
+      <c r="H29" s="7"/>
+      <c r="K29" s="34"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" ht="16">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" ht="16">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="16">
       <c r="A31" s="24" t="s">
         <v>118</v>
       </c>
@@ -9486,15 +9989,14 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="35"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" s="5" customFormat="1" ht="32">
+    </row>
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="32">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>119</v>
@@ -9503,11 +10005,11 @@
         <v>120</v>
       </c>
       <c r="F32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="32">
+      <c r="G32" s="23"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="32">
       <c r="B33" s="26" t="s">
         <v>121</v>
       </c>
@@ -9515,151 +10017,1073 @@
         <v>120</v>
       </c>
       <c r="F33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="32">
+      <c r="G33" s="23"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="32">
       <c r="A34" s="3"/>
       <c r="B34" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="F34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G34" s="23"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="A35" s="3"/>
       <c r="B35" s="26"/>
       <c r="F35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G35" s="23"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="A36" s="3"/>
+      <c r="B36" s="26"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="A37" s="3"/>
+      <c r="B37" s="26"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B38" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B39" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B40" s="26"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B41" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B42" s="26"/>
+      <c r="D42" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B43" s="26"/>
+      <c r="D43" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B44" s="26"/>
+      <c r="D44" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B46" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D51" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D52" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D54" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D55" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D56" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D57" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D58" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D59" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D60" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D61" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D62" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D63" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D64" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D65" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D66" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D67" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D68" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D69" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="23"/>
+    </row>
+    <row r="70" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D70" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="23"/>
+    </row>
+    <row r="71" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D71" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F71" s="23"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D72" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F72" s="23"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="23"/>
+    </row>
+    <row r="73" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="F73" s="23"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="23"/>
+    </row>
+    <row r="74" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D74" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="23"/>
+    </row>
+    <row r="75" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D75" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F75" s="23"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="23"/>
+    </row>
+    <row r="76" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="F76" s="23"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="23"/>
+    </row>
+    <row r="77" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D77" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F77" s="23"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="23"/>
+    </row>
+    <row r="78" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D78" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F78" s="23"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="23"/>
+    </row>
+    <row r="79" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="D79" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F79" s="23"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="23"/>
+    </row>
+    <row r="80" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B80" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="23"/>
+    </row>
+    <row r="81" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="36"/>
+    </row>
+    <row r="82" spans="2:11" s="5" customFormat="1" ht="32">
+      <c r="B82" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" s="37"/>
+      <c r="I82" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K82" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H30 H99:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C30 C99:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B30 B99:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" ht="16">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" ht="16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="J5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" ht="16">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="16">
+      <c r="A9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="16">
+      <c r="B10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="16">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="5"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="16">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="16">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="7"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="16">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="7"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="16">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="16">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="5"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="16">
+      <c r="A17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="16">
+      <c r="A18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="16">
+      <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="16">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="16">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="16">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="16">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="16">
+      <c r="C24" s="10"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="16">
+      <c r="A25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="16">
+      <c r="A26" s="11"/>
+      <c r="B26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:13" ht="16">
+      <c r="A27" s="11"/>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="16">
+      <c r="A28" s="11"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" ht="16">
+      <c r="A29" s="11"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="7"/>
+      <c r="K29" s="34"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" ht="16">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="16">
+      <c r="A31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="32">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="32">
+      <c r="B33" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="32">
+      <c r="A34" s="3"/>
+      <c r="B34" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="A35" s="3"/>
+      <c r="B35" s="26"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B36" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G36" s="23"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B37" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G37" s="23"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B38" s="26"/>
       <c r="F38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G38" s="23"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B39" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="23"/>
-    </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G39" s="23"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G40" s="23"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B41" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="23"/>
-    </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G41" s="23"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G42" s="23"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B43" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G43" s="23"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G44" s="23"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="23"/>
-    </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G45" s="23"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B46" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G46" s="23"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F47" s="23"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="23"/>
-    </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" ht="16">
+      <c r="G47" s="27"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F48" s="23"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="23"/>
-    </row>
-    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="G48" s="27"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F49" s="23"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="23"/>
-    </row>
-    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="G49" s="27"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="B50" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
+      <c r="G50" s="23"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="36"/>
-    </row>
-    <row r="52" spans="2:12" s="5" customFormat="1" ht="32">
+      <c r="G51" s="23"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="36"/>
+    </row>
+    <row r="52" spans="2:11" s="5" customFormat="1" ht="32">
       <c r="B52" s="29" t="s">
         <v>130</v>
       </c>
@@ -9673,38 +11097,34 @@
       <c r="F52" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="30" t="s">
+      <c r="G52" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38" t="s">
+      <c r="H52" s="37"/>
+      <c r="I52" s="38" t="s">
         <v>136</v>
       </c>
+      <c r="J52" s="29" t="s">
+        <v>137</v>
+      </c>
       <c r="K52" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="L52" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:11">
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -9733,7 +11153,7 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I30 I69:I1048576</xm:sqref>
+          <xm:sqref>H1:H30 H69:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9744,12 +11164,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9938,7 +11358,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="2:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -9948,7 +11368,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="2:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -9956,7 +11376,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="2:9">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -9964,7 +11384,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="2:9">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -9972,7 +11392,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="2:9">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -9980,7 +11400,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="2:9">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -9988,7 +11408,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="2:9">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -9996,7 +11416,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="2:9">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -10004,57 +11424,19 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="2:9">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="2:9">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="16">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="16">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" ht="16">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="16">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="16">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <phoneticPr fontId="16" type="noConversion"/>
+  <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35560" windowHeight="19480" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,25 @@
     <sheet name="模板" sheetId="7" r:id="rId7"/>
     <sheet name="附录" sheetId="8" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$69</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="558">
   <si>
     <t>类别</t>
   </si>
@@ -1284,9 +1293,6 @@
     <t>游戏内容是否偏多？-本周计划游戏内容，计划讨论后进行决策</t>
   </si>
   <si>
-    <t>宠物数据确定</t>
-  </si>
-  <si>
     <t>zz 小智</t>
   </si>
   <si>
@@ -1311,9 +1317,6 @@
     <t>怪物挂点制作确认（max or prefab）</t>
   </si>
   <si>
-    <t>照妖镜功能，对局ui</t>
-  </si>
-  <si>
     <t>跑起现有服务器框架</t>
   </si>
   <si>
@@ -1326,9 +1329,6 @@
     <t>伤害公式文档修改</t>
   </si>
   <si>
-    <t>背包文档分析</t>
-  </si>
-  <si>
     <t>副本逻辑测试用例设计</t>
   </si>
   <si>
@@ -1341,9 +1341,6 @@
     <t>jekins与hockeyapp结合使用研究</t>
   </si>
   <si>
-    <t>美术量-ui-任务界面</t>
-  </si>
-  <si>
     <t>美术量-原画-天狗</t>
   </si>
   <si>
@@ -1353,15 +1350,9 @@
     <t>美术量-新原画草图*4</t>
   </si>
   <si>
-    <t>美术量-ui-背包界面</t>
-  </si>
-  <si>
     <t>jenkins是否可以集成hockeyapp，完成测试项目的发布？如果不集成，通过itunes安装？</t>
   </si>
   <si>
-    <t>需要做两个项目：</t>
-  </si>
-  <si>
     <t xml:space="preserve">    一个是随便可以放什么测试内容的，比如：测试场景、怪物性能的</t>
   </si>
   <si>
@@ -1534,19 +1525,256 @@
   </si>
   <si>
     <t>特效</t>
+  </si>
+  <si>
+    <t>宠物基础架构</t>
+  </si>
+  <si>
+    <t>核心战斗-伤害公式计算</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具文档</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo版本特效制作-耳鼠大招</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能通用规范广播</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化世界观，增补剧情（根据motra反馈）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛炜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星，辛</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua转c#</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑变更</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用模块迁移到cms（2个）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解核心对局文档</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文生</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day6</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天版本任务细化（根据motra反馈调整）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本规划玩法细化及广播（40左右）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术需求模板更新（导入待与zz确认）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪美术需求？</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI制作流程确认，规范，命名规范确认</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局配置跟进</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛炜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物基础架构-升星、进化、抓宠</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-弱点逻辑回归</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo对局-AI确认</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D-主角-女修改</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数据确定，用csv导入</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局ui摆放（无功能）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜功能</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数据结构文档分析</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑用例修改，测试</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术描边需求</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包测试-描边对性能影响-安卓</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要做两个项目*双平台：</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>已制作功能功能点拆分，完成度标示，策划跟进验收-技能系统</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星，kz，ts</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1558,94 +1786,106 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color indexed="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1674,46 +1914,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1725,14 +1950,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1746,27 +2025,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="11" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1807,14 +2086,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1827,8 +2103,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1845,10 +2121,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1860,16 +2136,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1901,23 +2177,87 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规 10 2 2 2" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="常规 12" xfId="6"/>
-    <cellStyle name="常规 25" xfId="7"/>
-    <cellStyle name="货币[0]" xfId="8" builtinId="7"/>
-    <cellStyle name="常规 2" xfId="9"/>
-    <cellStyle name="常规 8" xfId="10"/>
-    <cellStyle name="常规_2-4周版本输出" xfId="11"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+  <cellStyles count="27">
+    <cellStyle name="常规 10 2 2 2" xfId="1"/>
+    <cellStyle name="常规 12" xfId="2"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 25" xfId="3"/>
+    <cellStyle name="常规 8" xfId="5"/>
+    <cellStyle name="常规_2-4周版本输出" xfId="6"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2170,59 +2510,35 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="附录"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="附录"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2520,6 +2836,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2559,35 +2876,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="10.125" style="23"/>
-    <col min="10" max="11" width="10.125" style="27"/>
-    <col min="12" max="13" width="10.125" style="5"/>
-    <col min="14" max="14" width="10.125" style="27"/>
-    <col min="15" max="16384" width="10.125" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="10.1640625" style="23"/>
+    <col min="10" max="11" width="10.1640625" style="27"/>
+    <col min="12" max="13" width="10.1640625" style="5"/>
+    <col min="14" max="14" width="10.1640625" style="27"/>
+    <col min="15" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2621,14 +2936,14 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2640,13 +2955,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:14">
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -2670,17 +2985,14 @@
       <c r="I3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
       <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:14">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
@@ -2702,15 +3014,15 @@
       <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="69"/>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:15">
+      <c r="M4" s="70"/>
+      <c r="N4" s="68"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
@@ -2732,15 +3044,14 @@
       <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="27"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="M5" s="70"/>
       <c r="O5" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
@@ -2760,15 +3071,13 @@
       <c r="I6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="27"/>
       <c r="K6" s="26"/>
       <c r="L6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" s="5" customFormat="1" spans="1:14">
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="E7" s="9"/>
@@ -2776,12 +3085,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="69"/>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:14">
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="68"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>30</v>
@@ -2805,15 +3114,13 @@
       <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="27"/>
       <c r="K8" s="26"/>
       <c r="L8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:14">
+      <c r="M8" s="70"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
@@ -2835,14 +3142,12 @@
       <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="27"/>
       <c r="K9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="71"/>
-      <c r="N9" s="27"/>
-    </row>
-    <row r="10" s="5" customFormat="1" spans="1:14">
+      <c r="M9" s="70"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
@@ -2862,15 +3167,13 @@
         <v>35</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="27"/>
       <c r="K10" s="26"/>
       <c r="L10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="27"/>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:15">
+      <c r="M10" s="70"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
@@ -2886,24 +3189,22 @@
         <v>10</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="61" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="27"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="71"/>
-      <c r="N11" s="27"/>
+      <c r="M11" s="70"/>
       <c r="O11" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:15">
+    <row r="12" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
@@ -2923,15 +3224,15 @@
       <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="69"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="68"/>
       <c r="O12" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="D13" s="9"/>
@@ -2940,12 +3241,12 @@
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="69"/>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="1:14">
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
@@ -2967,12 +3268,12 @@
       <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="69"/>
-    </row>
-    <row r="15" s="5" customFormat="1" spans="1:14">
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="68"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
@@ -2994,12 +3295,12 @@
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="69"/>
-    </row>
-    <row r="16" s="5" customFormat="1" spans="1:14">
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="68"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
@@ -3015,21 +3316,19 @@
         <v>10</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="61" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="27"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="72" t="s">
+      <c r="L16" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" s="5" customFormat="1" spans="1:14">
+      <c r="M16" s="70"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
@@ -3045,12 +3344,12 @@
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="69"/>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="1:14">
+      <c r="J17" s="68"/>
+      <c r="K17" s="69"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="68"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -3060,12 +3359,12 @@
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="69"/>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="1:14">
+      <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="68"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3"/>
       <c r="B19" s="9" t="s">
         <v>54</v>
@@ -3083,20 +3382,18 @@
         <v>8</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="27"/>
       <c r="K19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="71"/>
-      <c r="N19" s="27"/>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="1:14">
+      <c r="M19" s="70"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -3106,12 +3403,12 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="69"/>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="1:14">
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="68"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
         <v>58</v>
@@ -3129,20 +3426,17 @@
         <v>10</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="62" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
       <c r="L21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="27"/>
-    </row>
-    <row r="22" s="5" customFormat="1" ht="18" customHeight="1" spans="1:14">
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="3"/>
       <c r="C22" s="5" t="s">
         <v>15</v>
@@ -3157,19 +3451,17 @@
         <v>8</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="63" t="s">
+      <c r="H22" s="62" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="27"/>
       <c r="K22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="18" customHeight="1" spans="1:14">
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1">
       <c r="A23" s="3"/>
       <c r="C23" s="5" t="s">
         <v>15</v>
@@ -3184,7 +3476,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="62" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="34" t="s">
@@ -3193,8 +3485,6 @@
       <c r="J23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3"/>
@@ -3203,11 +3493,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="N24" s="69"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="N24" s="68"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
@@ -3215,13 +3505,13 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="N25" s="69"/>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="N25" s="68"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="B26" s="12" t="s">
         <v>66</v>
       </c>
@@ -3240,7 +3530,7 @@
       <c r="H26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="I26" s="63" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="27" t="s">
@@ -3250,7 +3540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="1:14">
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>42</v>
@@ -3267,22 +3557,22 @@
       <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="N27" s="69"/>
+      <c r="I27" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="N27" s="68"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="N28" s="69"/>
-    </row>
-    <row r="29" ht="33" spans="1:14">
+      <c r="I28" s="63"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="N28" s="68"/>
+    </row>
+    <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
         <v>73</v>
@@ -3302,14 +3592,14 @@
       <c r="H29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="N29" s="70"/>
-    </row>
-    <row r="30" ht="99" spans="1:14">
+      <c r="I29" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="N29" s="69"/>
+    </row>
+    <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
       <c r="C30" s="13" t="s">
         <v>15</v>
@@ -3326,12 +3616,12 @@
       <c r="H30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="N30" s="70" t="s">
+      <c r="I30" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="N30" s="69" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3339,10 +3629,10 @@
       <c r="A31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="N31" s="69"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="N31" s="68"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
@@ -3350,12 +3640,12 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="N32" s="69"/>
-    </row>
-    <row r="33" ht="33" spans="2:14">
+      <c r="I32" s="63"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="N32" s="68"/>
+    </row>
+    <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -3368,18 +3658,18 @@
       <c r="E33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="50"/>
-      <c r="H33" s="65" t="s">
+      <c r="F33" s="49"/>
+      <c r="H33" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="N33" s="69"/>
-    </row>
-    <row r="34" ht="33" spans="1:14">
+      <c r="I33" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="N33" s="68"/>
+    </row>
+    <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -3390,20 +3680,20 @@
       <c r="E34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="H34" s="65" t="s">
+      <c r="F34" s="49"/>
+      <c r="H34" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
+      <c r="I34" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
       <c r="N34" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" ht="33" spans="1:14">
+    <row r="35" spans="1:14" ht="32">
       <c r="A35" s="13"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
@@ -3414,16 +3704,16 @@
       <c r="E35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="H35" s="65" t="s">
+      <c r="F35" s="49"/>
+      <c r="H35" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="N35" s="69"/>
+      <c r="I35" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="N35" s="68"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="13"/>
@@ -3434,18 +3724,18 @@
       <c r="E36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="H36" s="65" t="s">
+      <c r="F36" s="49"/>
+      <c r="H36" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="N36" s="69"/>
-    </row>
-    <row r="37" ht="33" spans="1:14">
+      <c r="I36" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="N36" s="68"/>
+    </row>
+    <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
@@ -3456,16 +3746,16 @@
       <c r="E37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="H37" s="65" t="s">
+      <c r="F37" s="49"/>
+      <c r="H37" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="N37" s="69"/>
+      <c r="I37" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="N37" s="68"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11"/>
@@ -3478,18 +3768,18 @@
       <c r="E38" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="H38" s="66" t="s">
+      <c r="F38" s="49"/>
+      <c r="H38" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="N38" s="69"/>
-    </row>
-    <row r="39" spans="3:14">
+      <c r="I38" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="N38" s="68"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="C39" s="10" t="s">
         <v>99</v>
       </c>
@@ -3502,24 +3792,24 @@
       <c r="H39" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="N39" s="69"/>
+      <c r="I39" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="N39" s="68"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="N40" s="69"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="I40" s="63"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="N40" s="68"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="11"/>
       <c r="B41" s="21" t="s">
         <v>45</v>
@@ -3539,7 +3829,7 @@
       <c r="H41" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="64" t="s">
+      <c r="I41" s="63" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="26"/>
@@ -3562,17 +3852,17 @@
       <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="70"/>
-      <c r="K42" s="69"/>
+      <c r="I42" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="69"/>
+      <c r="K42" s="68"/>
       <c r="M42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="69"/>
-    </row>
-    <row r="43" spans="3:14">
+      <c r="N42" s="68"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
@@ -3585,14 +3875,14 @@
       <c r="H43" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="64" t="s">
+      <c r="I43" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="N43" s="69"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="N43" s="68"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="11"/>
       <c r="C44" s="5" t="s">
         <v>15</v>
@@ -3606,7 +3896,7 @@
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="64" t="s">
+      <c r="I44" s="63" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -3631,17 +3921,17 @@
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
+      <c r="I45" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
       <c r="L45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="70"/>
-    </row>
-    <row r="46" spans="3:14">
+      <c r="N45" s="69"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
@@ -3654,15 +3944,15 @@
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="64" t="s">
+      <c r="I46" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
       <c r="M46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="69"/>
+      <c r="N46" s="68"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11"/>
@@ -3679,32 +3969,32 @@
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
+      <c r="I47" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
       <c r="M47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N47" s="70"/>
-    </row>
-    <row r="48" spans="9:14">
-      <c r="I48" s="64"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="N48" s="69"/>
+      <c r="N47" s="69"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="I48" s="63"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="N48" s="68"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="64"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="N49" s="69"/>
-    </row>
-    <row r="50" ht="33" spans="1:14">
+      <c r="I49" s="63"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="N49" s="68"/>
+    </row>
+    <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
         <v>119</v>
@@ -3713,12 +4003,12 @@
         <v>120</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="N50" s="69"/>
-    </row>
-    <row r="51" ht="33" spans="2:14">
+      <c r="I50" s="63"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="N50" s="68"/>
+    </row>
+    <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
         <v>121</v>
       </c>
@@ -3726,12 +4016,12 @@
         <v>120</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="N51" s="69"/>
-    </row>
-    <row r="52" ht="33" spans="1:14">
+      <c r="I51" s="63"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="N51" s="68"/>
+    </row>
+    <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
       <c r="B52" s="26" t="s">
         <v>122</v>
@@ -3740,177 +4030,177 @@
         <v>120</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="N52" s="69"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="N52" s="68"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="26"/>
       <c r="F53" s="23"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="N53" s="69"/>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="I53" s="63"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="N53" s="68"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="B54" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="N54" s="69"/>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="I54" s="63"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="N54" s="68"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="N55" s="69"/>
-    </row>
-    <row r="56" spans="2:14">
+      <c r="I55" s="63"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="N55" s="68"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="N56" s="69"/>
-    </row>
-    <row r="57" spans="2:14">
+      <c r="I56" s="63"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="N56" s="68"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="N57" s="69"/>
-    </row>
-    <row r="58" spans="6:14">
+      <c r="I57" s="63"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="N57" s="68"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="F58" s="23"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="N58" s="69"/>
-    </row>
-    <row r="59" spans="6:14">
+      <c r="I58" s="63"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="N58" s="68"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="F59" s="23"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="N59" s="69"/>
-    </row>
-    <row r="60" spans="6:14">
+      <c r="I59" s="63"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="N59" s="68"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="N60" s="69"/>
-    </row>
-    <row r="61" spans="6:14">
+      <c r="I60" s="63"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="N60" s="68"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="F61" s="23"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="N61" s="69"/>
-    </row>
-    <row r="62" spans="2:14">
+      <c r="I61" s="63"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="N61" s="68"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="B62" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="N62" s="69"/>
-    </row>
-    <row r="63" spans="6:14">
+      <c r="I62" s="63"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="N62" s="68"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="F63" s="23"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="N63" s="69"/>
-    </row>
-    <row r="64" spans="2:14">
+      <c r="I63" s="63"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="N63" s="68"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="N64" s="69"/>
-    </row>
-    <row r="65" spans="6:14">
+      <c r="I64" s="63"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="N64" s="68"/>
+    </row>
+    <row r="65" spans="2:14">
       <c r="F65" s="23"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="N65" s="69"/>
-    </row>
-    <row r="66" spans="6:14">
+      <c r="I65" s="63"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="N65" s="68"/>
+    </row>
+    <row r="66" spans="2:14">
       <c r="F66" s="23"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="N66" s="69"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="N66" s="68"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="23"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="N67" s="69"/>
-    </row>
-    <row r="68" spans="6:14">
+      <c r="I67" s="63"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="N67" s="68"/>
+    </row>
+    <row r="68" spans="2:14">
       <c r="F68" s="23"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="N68" s="69"/>
-    </row>
-    <row r="69" spans="6:14">
+      <c r="I68" s="63"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="N68" s="68"/>
+    </row>
+    <row r="69" spans="2:14">
       <c r="F69" s="23"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="N69" s="69"/>
-    </row>
-    <row r="70" spans="6:14">
+      <c r="I69" s="63"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="N69" s="68"/>
+    </row>
+    <row r="70" spans="2:14">
       <c r="F70" s="23"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="N70" s="69"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="68"/>
+      <c r="N70" s="68"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="52"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="69"/>
-      <c r="N71" s="69"/>
-    </row>
-    <row r="72" spans="6:14">
+      <c r="G71" s="51"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
+      <c r="N71" s="68"/>
+    </row>
+    <row r="72" spans="2:14">
       <c r="F72" s="23"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="69"/>
-      <c r="N72" s="69"/>
-    </row>
-    <row r="73" ht="33" spans="2:14">
+      <c r="I72" s="63"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="68"/>
+      <c r="N72" s="68"/>
+    </row>
+    <row r="73" spans="2:14" ht="32">
       <c r="B73" s="28" t="s">
         <v>130</v>
       </c>
@@ -3931,92 +4221,109 @@
         <v>135</v>
       </c>
       <c r="I73" s="29"/>
-      <c r="J73" s="75" t="s">
+      <c r="J73" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="K73" s="75" t="s">
+      <c r="K73" s="74" t="s">
         <v>137</v>
       </c>
       <c r="L73" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="N73" s="69"/>
+      <c r="N73" s="68"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="48"/>
-      <c r="N74" s="69"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="75"/>
+      <c r="K74" s="75"/>
+      <c r="L74" s="47"/>
+      <c r="N74" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N74"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B23 D2:F8 C8 C2:C6 C13:F23 C9:E12 D44:F45 D47 F47 D41:F41 E42:F42 E43 D42:D43">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B48 B90:B1048576">
-      <formula1>附录!$E$3:$E$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F48">
-      <formula1>附录!$I$3:$I$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C48 C90:C1048576">
-      <formula1>附录!$A$3:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I48 I90:I1048576">
-      <formula1>附录!$G$3:$G$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B48 B90:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F48</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C48 C90:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I48 I90:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="5"/>
-    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="27"/>
-    <col min="9" max="9" width="10.125" style="5"/>
-    <col min="10" max="14" width="10.125" style="23"/>
-    <col min="15" max="16384" width="10.125" style="5"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="27"/>
+    <col min="9" max="9" width="10.1640625" style="5"/>
+    <col min="10" max="14" width="10.1640625" style="23"/>
+    <col min="15" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4075,7 +4382,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -4092,7 +4399,7 @@
       <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -4103,7 +4410,7 @@
       </c>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="3"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
@@ -4117,7 +4424,7 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="54" t="s">
         <v>139</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -4128,15 +4435,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="55"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="9"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>30</v>
@@ -4153,7 +4460,7 @@
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="55" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -4164,7 +4471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -4178,7 +4485,7 @@
       <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>142</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -4189,7 +4496,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -4203,7 +4510,7 @@
       <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="54" t="s">
         <v>144</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -4214,15 +4521,15 @@
       </c>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="55"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="9"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>45</v>
@@ -4239,7 +4546,7 @@
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="54" t="s">
         <v>146</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -4249,7 +4556,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:14">
       <c r="A11" s="3"/>
       <c r="C11" s="10" t="s">
         <v>15</v>
@@ -4273,7 +4580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="C12" s="10" t="s">
         <v>15</v>
@@ -4294,7 +4601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -4308,7 +4615,7 @@
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="54" t="s">
         <v>152</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -4317,7 +4624,7 @@
       <c r="K13" s="34"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
@@ -4332,7 +4639,7 @@
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="54" t="s">
         <v>154</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -4341,7 +4648,7 @@
       <c r="K14" s="34"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="3"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
@@ -4356,7 +4663,7 @@
       <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="54" t="s">
         <v>156</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -4368,7 +4675,7 @@
       <c r="K15" s="34"/>
       <c r="M15" s="34"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
@@ -4383,7 +4690,7 @@
       <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="54" t="s">
         <v>158</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -4395,7 +4702,7 @@
       <c r="K16" s="34"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:14">
       <c r="A17" s="3"/>
       <c r="C17" s="10" t="s">
         <v>15</v>
@@ -4416,7 +4723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:14">
       <c r="A18" s="3"/>
       <c r="C18" s="10" t="s">
         <v>15</v>
@@ -4437,7 +4744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:14">
       <c r="A19" s="3"/>
       <c r="C19" s="10" t="s">
         <v>15</v>
@@ -4458,7 +4765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:14">
       <c r="A20" s="3"/>
       <c r="C20" s="10" t="s">
         <v>15</v>
@@ -4479,7 +4786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:14">
       <c r="A21" s="3"/>
       <c r="C21" s="10"/>
       <c r="D21" s="7"/>
@@ -4489,16 +4796,16 @@
       <c r="H21" s="10"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:14">
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="57"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="1:14">
       <c r="B23" s="12" t="s">
         <v>66</v>
       </c>
@@ -4524,7 +4831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="1:14">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
         <v>42</v>
@@ -4548,7 +4855,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="1:14">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
         <v>15</v>
@@ -4572,7 +4879,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="1:14">
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
         <v>15</v>
@@ -4590,14 +4897,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:14">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="F27" s="7"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="43"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
@@ -4622,7 +4929,7 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="43"/>
+      <c r="A29" s="42"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
@@ -4643,22 +4950,22 @@
       </c>
       <c r="N29" s="34"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="43"/>
+    <row r="30" spans="1:14">
+      <c r="A30" s="42"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="F30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:14">
+      <c r="A31" s="42"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="F31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
         <v>81</v>
       </c>
@@ -4667,7 +4974,7 @@
       <c r="F32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="1:14">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -4682,7 +4989,7 @@
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="57" t="s">
         <v>181</v>
       </c>
       <c r="I33" s="9" t="s">
@@ -4692,7 +4999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:14">
       <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -4705,7 +5012,7 @@
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="57" t="s">
         <v>183</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -4715,8 +5022,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="43"/>
+    <row r="35" spans="1:14">
+      <c r="A35" s="42"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
@@ -4728,15 +5035,15 @@
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="58" t="s">
         <v>185</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:14">
+      <c r="A36" s="42"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -4748,7 +5055,7 @@
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="58" t="s">
+      <c r="H36" s="57" t="s">
         <v>187</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -4758,7 +5065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:14">
       <c r="A37" s="11"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
@@ -4771,14 +5078,14 @@
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="58" t="s">
+      <c r="H37" s="57" t="s">
         <v>189</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:14">
       <c r="A38" s="11"/>
       <c r="C38" s="10" t="s">
         <v>15</v>
@@ -4791,14 +5098,14 @@
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="57" t="s">
         <v>191</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:14">
       <c r="A39" s="11"/>
       <c r="C39" s="10" t="s">
         <v>42</v>
@@ -4811,21 +5118,21 @@
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="57" t="s">
         <v>193</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="3:9">
+    <row r="40" spans="1:14">
       <c r="C40" s="10"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:14">
       <c r="A41" s="11" t="s">
         <v>102</v>
       </c>
@@ -4833,7 +5140,7 @@
       <c r="F41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:14">
       <c r="A42" s="11"/>
       <c r="B42" s="21" t="s">
         <v>45</v>
@@ -4858,7 +5165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:14">
       <c r="A43" s="11"/>
       <c r="C43" s="5" t="s">
         <v>15</v>
@@ -4986,7 +5293,7 @@
       <c r="L47" s="34"/>
       <c r="N47" s="34"/>
     </row>
-    <row r="48" spans="3:9">
+    <row r="48" spans="1:14">
       <c r="C48" s="5" t="s">
         <v>42</v>
       </c>
@@ -5001,7 +5308,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" s="54" customFormat="1" spans="1:14">
+    <row r="49" spans="1:14" s="53" customFormat="1">
       <c r="A49" s="5"/>
       <c r="C49" s="5" t="s">
         <v>42</v>
@@ -5024,13 +5331,13 @@
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:14">
       <c r="A50" s="24" t="s">
         <v>118</v>
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" ht="33" spans="1:9">
+    <row r="51" spans="1:14" ht="32">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>119</v>
@@ -5041,7 +5348,7 @@
       <c r="F51" s="23"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" ht="33" spans="2:9">
+    <row r="52" spans="1:14" ht="32">
       <c r="B52" s="26" t="s">
         <v>121</v>
       </c>
@@ -5051,7 +5358,7 @@
       <c r="F52" s="23"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" ht="33" spans="1:9">
+    <row r="53" spans="1:14" ht="32">
       <c r="A53" s="3"/>
       <c r="B53" s="26" t="s">
         <v>122</v>
@@ -5062,52 +5369,52 @@
       <c r="F53" s="23"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:14">
       <c r="A54" s="3"/>
       <c r="B54" s="26"/>
       <c r="F54" s="23"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F55" s="23"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="1:14">
       <c r="B56" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F56" s="23"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="23"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="1:14">
       <c r="B58" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F58" s="23"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="1:14">
       <c r="B59" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F59" s="23"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="6:9">
+    <row r="60" spans="1:14">
       <c r="F60" s="23"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="1:14">
       <c r="B61" s="5" t="s">
         <v>128</v>
       </c>
@@ -5117,48 +5424,48 @@
       <c r="F61" s="23"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="4:9">
+    <row r="62" spans="1:14">
       <c r="D62" s="5" t="s">
         <v>205</v>
       </c>
       <c r="F62" s="23"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="4:9">
+    <row r="63" spans="1:14">
       <c r="D63" s="5" t="s">
         <v>206</v>
       </c>
       <c r="F63" s="23"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="4:9">
+    <row r="64" spans="1:14">
       <c r="D64" s="5" t="s">
         <v>207</v>
       </c>
       <c r="F64" s="23"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="4:9">
+    <row r="65" spans="2:12">
       <c r="D65" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F65" s="23"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:12">
       <c r="B66" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F66" s="23"/>
-      <c r="G66" s="52"/>
+      <c r="G66" s="51"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="6:10">
+    <row r="67" spans="2:12">
       <c r="F67" s="23"/>
       <c r="I67" s="7"/>
       <c r="J67" s="36"/>
     </row>
-    <row r="68" ht="33" spans="2:12">
+    <row r="68" spans="2:12" ht="32">
       <c r="B68" s="28" t="s">
         <v>130</v>
       </c>
@@ -5190,162 +5497,180 @@
       </c>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N69"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F46">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I18">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B49 B85:B1048576">
-      <formula1>附录!$E$3:$E$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F49">
-      <formula1>附录!$I$3:$I$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C49 C85:C1048576">
-      <formula1>附录!$A$3:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2 I21:I32 I40:I49 I85:I1048576">
-      <formula1>附录!$G$3:$G$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B49 B85:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F49</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C49 C85:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I2 I21:I32 I40:I49 I85:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="4"/>
-    <col min="7" max="7" width="13.375" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5387,7 +5712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -5406,7 +5731,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -5439,7 +5764,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -5456,7 +5781,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>30</v>
@@ -5489,7 +5814,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
@@ -5517,7 +5842,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
@@ -5532,7 +5857,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>45</v>
@@ -5562,7 +5887,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="16">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -5590,7 +5915,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="16">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
@@ -5620,7 +5945,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="16">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
@@ -5648,7 +5973,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="16">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
@@ -5676,7 +6001,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="16">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -5702,7 +6027,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="16">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="10"/>
@@ -5716,7 +6041,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="16">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
@@ -5728,7 +6053,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="1:15" ht="16">
       <c r="B16" s="12" t="s">
         <v>66</v>
       </c>
@@ -5760,7 +6085,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="1:15" ht="16">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
         <v>15</v>
@@ -5790,7 +6115,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="16">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
@@ -5821,7 +6146,7 @@
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="16">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
         <v>73</v>
@@ -5854,7 +6179,7 @@
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="16">
       <c r="A20" s="14"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -5885,7 +6210,7 @@
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="16">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
@@ -5902,7 +6227,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="16">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
@@ -5920,7 +6245,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="1:15" ht="16">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -5950,7 +6275,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="16">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
@@ -5978,7 +6303,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="16">
       <c r="A25" s="14"/>
       <c r="B25" s="5"/>
       <c r="C25" s="10" t="s">
@@ -6007,7 +6332,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="16">
       <c r="A26" s="14"/>
       <c r="B26" s="5"/>
       <c r="C26" s="10" t="s">
@@ -6036,7 +6361,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="16">
       <c r="A27" s="11"/>
       <c r="B27" s="5"/>
       <c r="C27" s="10" t="s">
@@ -6065,7 +6390,7 @@
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="1:15" ht="16">
       <c r="C28" s="10"/>
       <c r="D28" s="20"/>
       <c r="E28" s="13"/>
@@ -6080,7 +6405,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="16">
       <c r="A29" s="11" t="s">
         <v>102</v>
       </c>
@@ -6099,7 +6424,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="16">
       <c r="A30" s="11"/>
       <c r="B30" s="21" t="s">
         <v>45</v>
@@ -6132,7 +6457,7 @@
       </c>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="16">
       <c r="A31" s="11"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
@@ -6162,7 +6487,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="16">
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="5" t="s">
@@ -6193,7 +6518,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="16">
       <c r="A33" s="11"/>
       <c r="B33" s="21"/>
       <c r="C33" s="5" t="s">
@@ -6222,7 +6547,7 @@
       </c>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="1:15" ht="16">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -6235,7 +6560,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" s="5" customFormat="1" spans="1:14">
+    <row r="35" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="A35" s="24" t="s">
         <v>118</v>
       </c>
@@ -6252,7 +6577,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" s="5" customFormat="1" ht="33" spans="1:10">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>119</v>
@@ -6265,7 +6590,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" s="5" customFormat="1" ht="33" spans="2:10">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="B37" s="26" t="s">
         <v>121</v>
       </c>
@@ -6277,7 +6602,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" s="5" customFormat="1" ht="33" spans="1:10">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="A38" s="3"/>
       <c r="B38" s="26" t="s">
         <v>122</v>
@@ -6290,7 +6615,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" s="5" customFormat="1" spans="1:10">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="A39" s="3"/>
       <c r="B39" s="26"/>
       <c r="F39" s="23"/>
@@ -6298,7 +6623,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" s="5" customFormat="1" spans="2:10">
+    <row r="40" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B40" s="26" t="s">
         <v>123</v>
       </c>
@@ -6307,7 +6632,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" s="5" customFormat="1" spans="2:10">
+    <row r="41" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B41" s="26" t="s">
         <v>124</v>
       </c>
@@ -6316,14 +6641,14 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" s="5" customFormat="1" spans="2:10">
+    <row r="42" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B42" s="26"/>
       <c r="F42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" s="5" customFormat="1" spans="2:10">
+    <row r="43" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B43" s="26" t="s">
         <v>125</v>
       </c>
@@ -6332,13 +6657,13 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" s="5" customFormat="1" spans="6:10">
+    <row r="44" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" s="5" customFormat="1" spans="2:10">
+    <row r="45" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B45" s="21" t="s">
         <v>126</v>
       </c>
@@ -6347,13 +6672,13 @@
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" s="5" customFormat="1" spans="6:10">
+    <row r="46" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" s="5" customFormat="1" spans="2:10">
+    <row r="47" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B47" s="5" t="s">
         <v>127</v>
       </c>
@@ -6362,19 +6687,19 @@
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" s="5" customFormat="1" spans="6:10">
+    <row r="48" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" s="5" customFormat="1" spans="6:10">
+    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" s="5" customFormat="1" spans="2:10">
+    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="B50" s="5" t="s">
         <v>128</v>
       </c>
@@ -6383,41 +6708,41 @@
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" s="5" customFormat="1" spans="6:10">
+    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F51" s="23"/>
       <c r="H51" s="27"/>
       <c r="I51" s="7"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" s="5" customFormat="1" spans="6:10">
+    <row r="52" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F52" s="23"/>
       <c r="H52" s="27"/>
       <c r="I52" s="7"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" s="5" customFormat="1" spans="6:10">
+    <row r="53" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F53" s="23"/>
       <c r="H53" s="27"/>
       <c r="I53" s="7"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" s="5" customFormat="1" spans="2:10">
+    <row r="54" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="B54" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="G54" s="52"/>
+      <c r="G54" s="51"/>
       <c r="H54" s="23"/>
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" s="5" customFormat="1" spans="6:10">
+    <row r="55" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="7"/>
       <c r="J55" s="36"/>
     </row>
-    <row r="56" s="5" customFormat="1" ht="33" spans="2:12">
+    <row r="56" spans="2:12" s="5" customFormat="1" ht="32">
       <c r="B56" s="28" t="s">
         <v>130</v>
       </c>
@@ -6462,76 +6787,93 @@
       <c r="L57" s="32"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F15">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:O19 J20:M20 O20 J21:O23 J24:K24 N24:O24 J25:M25 O25 J26 J28:O34 J27:M27 O27 L26:O26">
-    <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I34 D3:D12 I1:I6 I8:I9 I21:I22 I28:I29 I73:I1048576">
-      <formula1>附录!$G$3:$G$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B14:B34 B73:B1048576">
-      <formula1>附录!$E$3:$E$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2 F14:F34">
-      <formula1>附录!$I$3:$I$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C14:C34 C73:C1048576">
-      <formula1>附录!$A$3:$A$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I34 D3:D12 I1:I6 I8:I9 I21:I22 I28:I29 I73:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B2 B14:B34 B73:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F2 F14:F34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C2 C14:C34 C73:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="5"/>
-    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.125" style="5"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6590,7 +6932,7 @@
       <c r="M2" s="34"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="1:14">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -6633,7 +6975,7 @@
       <c r="M4" s="34"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>45</v>
@@ -6664,7 +7006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -6692,7 +7034,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
@@ -6719,7 +7061,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
@@ -6748,7 +7090,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -6777,7 +7119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
@@ -6834,7 +7176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" ht="82.5" spans="1:13">
+    <row r="12" spans="1:14" ht="80">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
@@ -6856,14 +7198,14 @@
       <c r="I12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="52" t="s">
         <v>278</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -6875,7 +7217,7 @@
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>58</v>
@@ -6901,7 +7243,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="3"/>
       <c r="C15" s="10"/>
       <c r="D15" s="7"/>
@@ -6915,7 +7257,7 @@
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
         <v>65</v>
       </c>
@@ -6928,7 +7270,7 @@
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="1:14">
       <c r="B17" s="12" t="s">
         <v>66</v>
       </c>
@@ -6957,7 +7299,7 @@
       </c>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="1:14">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
         <v>42</v>
@@ -6982,7 +7324,7 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
@@ -7008,7 +7350,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" ht="33" spans="1:14">
+    <row r="20" spans="1:14" ht="32">
       <c r="A20" s="13"/>
       <c r="B20" s="15" t="s">
         <v>73</v>
@@ -7037,7 +7379,7 @@
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -7048,7 +7390,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
@@ -7061,7 +7403,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" ht="33" spans="2:13">
+    <row r="23" spans="1:14" ht="32">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -7074,7 +7416,7 @@
       <c r="E23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="49"/>
       <c r="H23" s="8" t="s">
         <v>293</v>
       </c>
@@ -7088,7 +7430,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="11"/>
       <c r="C24" s="10" t="s">
         <v>15</v>
@@ -7099,7 +7441,7 @@
       <c r="E24" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="50"/>
+      <c r="F24" s="49"/>
       <c r="H24" s="8" t="s">
         <v>296</v>
       </c>
@@ -7113,7 +7455,7 @@
       </c>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="13"/>
       <c r="C25" s="10" t="s">
         <v>15</v>
@@ -7124,7 +7466,7 @@
       <c r="E25" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="50"/>
+      <c r="F25" s="49"/>
       <c r="H25" s="8" t="s">
         <v>298</v>
       </c>
@@ -7138,7 +7480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="13"/>
       <c r="C26" s="10" t="s">
         <v>15</v>
@@ -7149,7 +7491,7 @@
       <c r="E26" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="50"/>
+      <c r="F26" s="49"/>
       <c r="H26" s="8" t="s">
         <v>298</v>
       </c>
@@ -7163,7 +7505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" ht="33" spans="1:13">
+    <row r="27" spans="1:14" ht="32">
       <c r="A27" s="13"/>
       <c r="C27" s="10" t="s">
         <v>15</v>
@@ -7174,7 +7516,7 @@
       <c r="E27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="49"/>
       <c r="H27" s="8" t="s">
         <v>301</v>
       </c>
@@ -7186,7 +7528,7 @@
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
     </row>
-    <row r="28" ht="33" spans="1:13">
+    <row r="28" spans="1:14" ht="32">
       <c r="A28" s="13"/>
       <c r="C28" s="10" t="s">
         <v>15</v>
@@ -7197,7 +7539,7 @@
       <c r="E28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="50"/>
+      <c r="F28" s="49"/>
       <c r="H28" s="8" t="s">
         <v>303</v>
       </c>
@@ -7210,7 +7552,7 @@
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" ht="33" spans="1:13">
+    <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
       <c r="C29" s="10" t="s">
         <v>15</v>
@@ -7221,7 +7563,7 @@
       <c r="E29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="50"/>
+      <c r="F29" s="49"/>
       <c r="H29" s="8" t="s">
         <v>305</v>
       </c>
@@ -7234,7 +7576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" ht="33" spans="1:13">
+    <row r="30" spans="1:14" ht="32">
       <c r="A30" s="13"/>
       <c r="C30" s="10" t="s">
         <v>15</v>
@@ -7245,7 +7587,7 @@
       <c r="E30" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="50"/>
+      <c r="F30" s="49"/>
       <c r="H30" s="8" t="s">
         <v>307</v>
       </c>
@@ -7258,7 +7600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" ht="33" spans="1:13">
+    <row r="31" spans="1:14" ht="32">
       <c r="A31" s="13"/>
       <c r="C31" s="10" t="s">
         <v>15</v>
@@ -7269,7 +7611,7 @@
       <c r="E31" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="49"/>
       <c r="H31" s="8" t="s">
         <v>309</v>
       </c>
@@ -7282,7 +7624,7 @@
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="11"/>
       <c r="C32" s="10" t="s">
         <v>42</v>
@@ -7293,7 +7635,7 @@
       <c r="E32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="50"/>
+      <c r="F32" s="49"/>
       <c r="H32" s="8" t="s">
         <v>311</v>
       </c>
@@ -7307,7 +7649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" ht="33" spans="3:13">
+    <row r="33" spans="1:14" ht="32">
       <c r="C33" s="10" t="s">
         <v>42</v>
       </c>
@@ -7328,9 +7670,9 @@
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="1:14">
       <c r="C34" s="10"/>
-      <c r="D34" s="51"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="20"/>
       <c r="I34" s="7"/>
       <c r="J34" s="34"/>
@@ -7338,7 +7680,7 @@
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="11" t="s">
         <v>102</v>
       </c>
@@ -7350,7 +7692,7 @@
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" ht="33" spans="1:13">
+    <row r="36" spans="1:14" ht="32">
       <c r="A36" s="11"/>
       <c r="B36" s="21" t="s">
         <v>45</v>
@@ -7380,7 +7722,7 @@
       </c>
       <c r="M36" s="34"/>
     </row>
-    <row r="37" ht="33" spans="1:13">
+    <row r="37" spans="1:14" ht="32">
       <c r="A37" s="11"/>
       <c r="C37" s="5" t="s">
         <v>15</v>
@@ -7432,18 +7774,18 @@
       <c r="M38" s="34"/>
       <c r="N38" s="34"/>
     </row>
-    <row r="39" spans="8:9">
+    <row r="39" spans="1:14">
       <c r="H39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:14">
       <c r="A40" s="24" t="s">
         <v>118</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" ht="33" spans="1:10">
+    <row r="41" spans="1:14" ht="32">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>119</v>
@@ -7456,7 +7798,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" ht="33" spans="2:10">
+    <row r="42" spans="1:14" ht="32">
       <c r="B42" s="26" t="s">
         <v>121</v>
       </c>
@@ -7468,7 +7810,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" ht="33" spans="1:10">
+    <row r="43" spans="1:14" ht="32">
       <c r="A43" s="3"/>
       <c r="B43" s="26" t="s">
         <v>122</v>
@@ -7481,7 +7823,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:14">
       <c r="A44" s="3"/>
       <c r="B44" s="26"/>
       <c r="F44" s="23"/>
@@ -7489,7 +7831,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="1:14">
       <c r="B45" s="26" t="s">
         <v>123</v>
       </c>
@@ -7498,7 +7840,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="1:14">
       <c r="B46" s="26" t="s">
         <v>124</v>
       </c>
@@ -7512,14 +7854,14 @@
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="1:14">
       <c r="B47" s="26"/>
       <c r="F47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="1:14">
       <c r="B48" s="26" t="s">
         <v>125</v>
       </c>
@@ -7528,13 +7870,13 @@
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="6:10">
+    <row r="49" spans="2:12">
       <c r="F49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:12">
       <c r="B50" s="21" t="s">
         <v>126</v>
       </c>
@@ -7543,13 +7885,13 @@
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="6:10">
+    <row r="51" spans="2:12">
       <c r="F51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="7"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:12">
       <c r="B52" s="5" t="s">
         <v>127</v>
       </c>
@@ -7558,19 +7900,19 @@
       <c r="I52" s="7"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="6:10">
+    <row r="53" spans="2:12">
       <c r="F53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="7"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="6:10">
+    <row r="54" spans="2:12">
       <c r="F54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:12">
       <c r="B55" s="5" t="s">
         <v>128</v>
       </c>
@@ -7579,41 +7921,41 @@
       <c r="I55" s="7"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="6:10">
+    <row r="56" spans="2:12">
       <c r="F56" s="23"/>
       <c r="H56" s="27"/>
       <c r="I56" s="7"/>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="6:10">
+    <row r="57" spans="2:12">
       <c r="F57" s="23"/>
       <c r="H57" s="27"/>
       <c r="I57" s="7"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="6:10">
+    <row r="58" spans="2:12">
       <c r="F58" s="23"/>
       <c r="H58" s="27"/>
       <c r="I58" s="7"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:12">
       <c r="B59" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F59" s="23"/>
-      <c r="G59" s="52"/>
+      <c r="G59" s="51"/>
       <c r="H59" s="23"/>
       <c r="I59" s="7"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="6:10">
+    <row r="60" spans="2:12">
       <c r="F60" s="23"/>
       <c r="H60" s="23"/>
       <c r="I60" s="7"/>
       <c r="J60" s="36"/>
     </row>
-    <row r="61" ht="33" spans="2:12">
+    <row r="61" spans="2:12" ht="32">
       <c r="B61" s="28" t="s">
         <v>130</v>
       </c>
@@ -7645,64 +7987,82 @@
       </c>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C39 C78:C1048576">
-      <formula1>附录!$A$3:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F46 F1:F39">
-      <formula1>附录!$I$3:$I$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B39 B78:B1048576">
-      <formula1>附录!$E$3:$E$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I39 I78:I1048576">
-      <formula1>附录!$G$3:$G$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C39 C78:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F46 F1:F39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B39 B78:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I39 I78:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="5"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7743,7 +8103,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -7780,7 +8140,9 @@
       <c r="G3" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -7790,7 +8152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="3"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
@@ -7807,7 +8169,9 @@
       <c r="G4" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -7816,7 +8180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -7844,7 +8208,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -7872,7 +8236,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="C7" s="5" t="s">
         <v>15</v>
@@ -7900,7 +8264,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="G8" s="34"/>
       <c r="H8" s="7"/>
@@ -7910,7 +8274,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>335</v>
@@ -7930,12 +8294,14 @@
       <c r="G9" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="3"/>
       <c r="C10" s="5" t="s">
         <v>15</v>
@@ -7964,7 +8330,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="3"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
@@ -7981,11 +8347,13 @@
       <c r="G11" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J11" s="34"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -8011,7 +8379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -8028,9 +8396,11 @@
       <c r="G13" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="C14" s="5" t="s">
         <v>15</v>
@@ -8054,7 +8424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" ht="66" spans="1:8">
+    <row r="15" spans="1:14" ht="64">
       <c r="A15" s="3"/>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -8071,9 +8441,11 @@
       <c r="G15" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3"/>
       <c r="C16" s="5" t="s">
         <v>15</v>
@@ -8090,9 +8462,11 @@
       <c r="G16" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3"/>
       <c r="C17" s="5" t="s">
         <v>15</v>
@@ -8109,9 +8483,11 @@
       <c r="G17" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3"/>
       <c r="C18" s="5" t="s">
         <v>42</v>
@@ -8125,14 +8501,16 @@
       <c r="G18" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3"/>
       <c r="G19" s="10"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
@@ -8140,7 +8518,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="1:13">
       <c r="B21" s="12" t="s">
         <v>66</v>
       </c>
@@ -8166,7 +8544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="1:13">
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
         <v>42</v>
@@ -8185,7 +8563,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="5" t="s">
@@ -8207,180 +8585,199 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:13">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
+      <c r="C24" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>516</v>
+      </c>
       <c r="E24" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="43"/>
-      <c r="B25" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="34"/>
+      <c r="H25" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="42"/>
+      <c r="B27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="M25" s="34"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="43"/>
-      <c r="C26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="H27" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="42"/>
+      <c r="C28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G28" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="43"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="11" t="s">
+      <c r="H28" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="42"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="11"/>
-      <c r="C30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="11"/>
-      <c r="C31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:13">
       <c r="A32" s="11"/>
       <c r="C32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="11"/>
       <c r="C33" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E33" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>97</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>19</v>
@@ -8392,40 +8789,34 @@
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" ht="33" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="11"/>
-      <c r="B36" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -8434,317 +8825,329 @@
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="32">
       <c r="A38" s="11"/>
+      <c r="B38" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="11"/>
       <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" ht="33" spans="1:8">
+      <c r="I39" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="11"/>
-      <c r="B40" s="5" t="s">
-        <v>397</v>
-      </c>
       <c r="C40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="11"/>
       <c r="C41" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9" ht="32">
       <c r="A42" s="11"/>
       <c r="B42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="F42" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G42" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="11"/>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="D43" s="13"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="11" t="s">
+      <c r="H44" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="11"/>
+      <c r="D45" s="13"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="11"/>
-      <c r="B45" s="38" t="s">
+      <c r="B46" s="21"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="11"/>
+      <c r="B47" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="38" t="s">
+      <c r="C47" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E47" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="H45" s="45"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="11"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="H46" s="45"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="11"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>104</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="34"/>
-      <c r="M47" s="34"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="G47" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="43"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="11"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="38" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>408</v>
+        <v>202</v>
       </c>
       <c r="E48" s="39" t="s">
         <v>104</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="H48" s="45"/>
+        <v>9</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>19</v>
+      </c>
       <c r="I48" s="39"/>
-      <c r="J48" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="34"/>
-      <c r="M48" s="34"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="39"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="11"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="F49" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="H49" s="45"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="39" t="s">
+        <v>19</v>
+      </c>
       <c r="I49" s="39"/>
-      <c r="J49" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="39"/>
+      <c r="K49" s="34"/>
+      <c r="M49" s="34"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="11"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="38" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="39"/>
+      <c r="K50" s="34"/>
+      <c r="M50" s="34"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="B51" s="39"/>
+      <c r="C51" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="39"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E52" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F52" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="39"/>
-    </row>
-    <row r="51" ht="33" spans="1:9">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
+      <c r="G52" s="43"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="39"/>
+    </row>
+    <row r="53" spans="1:13" ht="32">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="23"/>
-    </row>
-    <row r="52" ht="33" spans="2:9">
-      <c r="B52" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" ht="33" spans="1:9">
-      <c r="A53" s="3"/>
-      <c r="B53" s="26" t="s">
-        <v>122</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>120</v>
@@ -8754,252 +9157,301 @@
       <c r="H53" s="7"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="3"/>
-      <c r="B54" s="26"/>
+    <row r="54" spans="1:13" ht="32">
+      <c r="B54" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="7"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:13" ht="32">
+      <c r="A55" s="3"/>
       <c r="B55" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="7"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="26" t="s">
-        <v>124</v>
-      </c>
+    <row r="56" spans="1:13">
+      <c r="A56" s="3"/>
+      <c r="B56" s="26"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="7"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="26"/>
+    <row r="57" spans="1:13">
+      <c r="B57" s="26" t="s">
+        <v>123</v>
+      </c>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="7"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="1:13">
       <c r="B58" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="7"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="6:9">
+    <row r="59" spans="1:13">
+      <c r="B59" s="26"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="7"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="21" t="s">
-        <v>126</v>
+    <row r="60" spans="1:13">
+      <c r="B60" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="7"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="6:9">
+    <row r="61" spans="1:13">
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="7"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="5" t="s">
-        <v>127</v>
+    <row r="62" spans="1:13">
+      <c r="B62" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="7"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="6:9">
+    <row r="63" spans="1:13">
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="7"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="6:9">
+    <row r="64" spans="1:13">
+      <c r="B64" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="7"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>414</v>
-      </c>
+    <row r="65" spans="2:11">
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="7"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="4:9">
-      <c r="D66" s="5" t="s">
-        <v>415</v>
-      </c>
+    <row r="66" spans="2:11">
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="7"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="4:9">
+    <row r="67" spans="2:11">
+      <c r="B67" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="D67" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="7"/>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="4:9">
+    <row r="68" spans="2:11">
       <c r="D68" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="7"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="4:9">
+    <row r="69" spans="2:11">
       <c r="D69" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F69" s="23"/>
-      <c r="G69" s="27"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="7"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="6:9">
+    <row r="70" spans="2:11">
+      <c r="D70" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="F70" s="23"/>
-      <c r="G70" s="27"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="7"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="6:9">
+    <row r="71" spans="2:11">
+      <c r="D71" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="F71" s="23"/>
       <c r="G71" s="27"/>
       <c r="H71" s="7"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="5" t="s">
-        <v>129</v>
-      </c>
+    <row r="72" spans="2:11">
       <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="7"/>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="6:9">
+    <row r="73" spans="2:11">
       <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="36"/>
-    </row>
-    <row r="74" ht="33" spans="2:11">
-      <c r="B74" s="28" t="s">
+      <c r="I73" s="23"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="23"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="36"/>
+    </row>
+    <row r="76" spans="2:11" ht="32">
+      <c r="B76" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C76" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D76" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29" t="s">
+      <c r="E76" s="28"/>
+      <c r="F76" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G76" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H74" s="30"/>
-      <c r="I74" s="37" t="s">
+      <c r="H76" s="30"/>
+      <c r="I76" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J74" s="28" t="s">
+      <c r="J76" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K74" s="28" t="s">
+      <c r="K76" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
+    <row r="77" spans="2:11">
+      <c r="B77" s="46"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 H28 H43 C28:C41 F28:F38 F42:F43">
-      <formula1>'D:\项目管理\进度计划\Demo-里程碑1\[1]附录'!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44 F1:F27 F39:F41">
-      <formula1>附录!$I$3:$I$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C1:C27 C91:C1048576">
-      <formula1>附录!$A$3:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H44 H1:H27 H29:H42 H91:H1048576">
-      <formula1>附录!$G$3:$G$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B27 B29:B44 B91:B1048576">
-      <formula1>附录!$E$3:$E$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:B49 C45:C49 F45:F50 H45:H49">
-      <formula1>'[Demo-里程碑1-周版本 旧.xlsx]附录'!#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]附录!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30 H30 H45 C30:C43 F30:F40 F44:F45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F46 F1:F29 F41:F43</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C46 C1:C29 C93:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H46 H93:H1048576 H31:H44 H1:H29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B29 B31:B46 B93:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]附录!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B47:C51 F47:F52</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:M94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9038,7 +9490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -9055,1123 +9507,1523 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:13" ht="16">
+      <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="34"/>
       <c r="H3" s="7"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" ht="16">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+        <v>518</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="7"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" ht="16">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+        <v>518</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="34"/>
       <c r="H5" s="7"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="16">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="34"/>
       <c r="H6" s="7"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="16">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="7"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" ht="16">
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="34"/>
       <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="11" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:13" ht="16">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="16">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" ht="16">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" ht="16">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" ht="16">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="16">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="16">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>509</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="J16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="J17" s="34"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="34"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" ht="16">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="34"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="16">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" ht="16">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" ht="16">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" ht="16">
+      <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="12" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="16">
+      <c r="B25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="16">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E26" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" ht="16">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="16">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="16">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="16">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="16">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" ht="16">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="16">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="16">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="16">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="4" t="s">
+      <c r="E35" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="7"/>
+      <c r="M35" s="34"/>
+    </row>
+    <row r="36" spans="1:13" ht="16">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="5"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" ht="16">
+      <c r="A37" s="14"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" ht="16">
+      <c r="A38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="16">
+      <c r="B39" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" ht="16">
+      <c r="A40" s="11"/>
+      <c r="B40" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" ht="16">
+      <c r="A41" s="14"/>
+      <c r="B41" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" ht="16">
+      <c r="A42" s="14"/>
+      <c r="B42" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="7"/>
-      <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="14"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="7"/>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="5"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="5"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="D42" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" ht="16">
+      <c r="A43" s="14"/>
+      <c r="B43" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" ht="16">
+      <c r="A44" s="14"/>
+      <c r="B44" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="11"/>
-      <c r="B25" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="F44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" ht="16">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="14"/>
-      <c r="B26" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="F45" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" ht="16">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="E46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" ht="16">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="14"/>
-      <c r="B30" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="14"/>
-      <c r="B32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="18" t="s">
+      <c r="F47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="14"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="11"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="10"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="11" t="s">
+      <c r="G47" s="18"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" ht="16">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" ht="16">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" ht="16">
+      <c r="C50" s="10"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" ht="16">
+      <c r="A51" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="11"/>
-      <c r="B37" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="11"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="11"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
-      <c r="K39" s="34"/>
-      <c r="M39" s="34"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="11"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="7"/>
-      <c r="K40" s="34"/>
-      <c r="M40" s="34"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="38"/>
-      <c r="C41" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" s="5" customFormat="1" spans="1:13">
-      <c r="A42" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" s="5" customFormat="1" ht="33" spans="1:9">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" s="5" customFormat="1" ht="33" spans="2:9">
-      <c r="B44" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" s="5" customFormat="1" ht="33" spans="1:9">
-      <c r="A45" s="3"/>
-      <c r="B45" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="1:9">
-      <c r="A46" s="3"/>
-      <c r="B46" s="26"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="1:9">
-      <c r="A47" s="3"/>
-      <c r="B47" s="26"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="1:9">
-      <c r="A48" s="3"/>
-      <c r="B48" s="26"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="2:9">
-      <c r="B49" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="2:9">
-      <c r="B50" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="2:9">
-      <c r="B51" s="26"/>
-      <c r="F51" s="23"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="23"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="2:9">
-      <c r="B52" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F52" s="23"/>
+    </row>
+    <row r="52" spans="1:13" ht="16">
+      <c r="A52" s="11"/>
+      <c r="B52" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="G52" s="23"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="2:9">
-      <c r="B53" s="26"/>
-      <c r="D53" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F53" s="23"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:13" ht="16">
+      <c r="A53" s="11"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="G53" s="23"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" s="5" customFormat="1" spans="2:9">
-      <c r="B54" s="26"/>
-      <c r="D54" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+    </row>
+    <row r="54" spans="1:13" ht="16">
+      <c r="A54" s="11"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="2:9">
-      <c r="B55" s="26"/>
+      <c r="K54" s="34"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" spans="1:13" ht="16">
+      <c r="A55" s="11"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="D55" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="F55" s="23"/>
+        <v>543</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="F55" s="40"/>
       <c r="G55" s="23"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="23"/>
-    </row>
-    <row r="56" s="5" customFormat="1" spans="6:9">
-      <c r="F56" s="23"/>
+      <c r="K55" s="34"/>
+      <c r="M55" s="34"/>
+    </row>
+    <row r="56" spans="1:13" ht="16">
+      <c r="A56" s="11"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="G56" s="23"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" s="5" customFormat="1" spans="2:9">
-      <c r="B57" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+      <c r="K56" s="34"/>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" spans="1:13" ht="16">
+      <c r="B57" s="38"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="58" s="5" customFormat="1" spans="6:9">
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+    </row>
+    <row r="58" spans="1:13" s="5" customFormat="1" ht="16">
+      <c r="A58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="23"/>
-    </row>
-    <row r="59" s="5" customFormat="1" spans="2:9">
-      <c r="B59" s="5" t="s">
-        <v>127</v>
+      <c r="I58" s="35"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" s="5" customFormat="1" ht="32">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="7"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" s="5" customFormat="1" spans="6:9">
+    <row r="60" spans="1:13" s="5" customFormat="1" ht="32">
+      <c r="B60" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="7"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" s="5" customFormat="1" spans="2:9">
-      <c r="B61" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>447</v>
+    <row r="61" spans="1:13" s="5" customFormat="1" ht="32">
+      <c r="A61" s="3"/>
+      <c r="B61" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="7"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" s="5" customFormat="1" spans="4:9">
-      <c r="D62" s="5" t="s">
-        <v>448</v>
-      </c>
+    <row r="62" spans="1:13" s="5" customFormat="1" ht="16">
+      <c r="A62" s="3"/>
+      <c r="B62" s="26"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="7"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" s="5" customFormat="1" spans="4:9">
-      <c r="D63" s="5" t="s">
-        <v>449</v>
-      </c>
+    <row r="63" spans="1:13" s="5" customFormat="1" ht="16">
+      <c r="A63" s="3"/>
+      <c r="B63" s="26"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="7"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" s="5" customFormat="1" spans="6:9">
+    <row r="64" spans="1:13" s="5" customFormat="1" ht="16">
+      <c r="A64" s="3"/>
+      <c r="B64" s="26"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="7"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" s="5" customFormat="1" spans="4:9">
-      <c r="D65" s="5" t="s">
-        <v>450</v>
+    <row r="65" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B65" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="7"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" s="5" customFormat="1" spans="4:9">
-      <c r="D66" s="5" t="s">
-        <v>451</v>
+    <row r="66" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B66" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="7"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" s="5" customFormat="1" spans="4:9">
-      <c r="D67" s="5" t="s">
-        <v>452</v>
-      </c>
+    <row r="67" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B67" s="26"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="27"/>
+      <c r="G67" s="23"/>
       <c r="H67" s="7"/>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" s="5" customFormat="1" spans="4:9">
+    <row r="68" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B68" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="D68" s="5" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F68" s="23"/>
-      <c r="G68" s="27"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="7"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" s="5" customFormat="1" spans="4:9">
+    <row r="69" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B69" s="26"/>
       <c r="D69" s="5" t="s">
-        <v>454</v>
+        <v>555</v>
       </c>
       <c r="F69" s="23"/>
-      <c r="G69" s="27"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="7"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" s="5" customFormat="1" spans="4:9">
+    <row r="70" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B70" s="26"/>
       <c r="D70" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F70" s="23"/>
-      <c r="G70" s="27"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="7"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" s="5" customFormat="1" spans="4:9">
+    <row r="71" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B71" s="26"/>
       <c r="D71" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="27"/>
+      <c r="G71" s="23"/>
       <c r="H71" s="7"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" s="5" customFormat="1" spans="4:9">
-      <c r="D72" s="5" t="s">
-        <v>457</v>
-      </c>
+    <row r="72" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="F72" s="23"/>
-      <c r="G72" s="27"/>
+      <c r="G72" s="23"/>
       <c r="H72" s="7"/>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" s="5" customFormat="1" spans="4:9">
-      <c r="D73" s="5" t="s">
-        <v>458</v>
+    <row r="73" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B73" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="F73" s="23"/>
-      <c r="G73" s="27"/>
+      <c r="G73" s="23"/>
       <c r="H73" s="7"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" s="5" customFormat="1" spans="4:9">
-      <c r="D74" s="5" t="s">
-        <v>459</v>
-      </c>
+    <row r="74" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="F74" s="23"/>
-      <c r="G74" s="27"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="7"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" s="5" customFormat="1" spans="4:9">
-      <c r="D75" s="5" t="s">
-        <v>460</v>
+    <row r="75" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B75" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="F75" s="23"/>
-      <c r="G75" s="27"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="7"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" s="5" customFormat="1" spans="4:9">
-      <c r="D76" s="5" t="s">
-        <v>461</v>
-      </c>
+    <row r="76" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="F76" s="23"/>
-      <c r="G76" s="27"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="7"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" s="5" customFormat="1" spans="4:9">
+    <row r="77" spans="2:9" s="5" customFormat="1" ht="16">
+      <c r="B77" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="D77" s="5" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="27"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="7"/>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" s="5" customFormat="1" spans="4:9">
+    <row r="78" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="D78" s="5" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="F78" s="23"/>
-      <c r="G78" s="27"/>
+      <c r="G78" s="23"/>
       <c r="H78" s="7"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" s="5" customFormat="1" spans="4:9">
+    <row r="79" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="D79" s="5" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="F79" s="23"/>
-      <c r="G79" s="27"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="7"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" s="5" customFormat="1" spans="4:9">
-      <c r="D80" s="5" t="s">
-        <v>465</v>
-      </c>
+    <row r="80" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="F80" s="23"/>
-      <c r="G80" s="27"/>
+      <c r="G80" s="23"/>
       <c r="H80" s="7"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" s="5" customFormat="1" spans="4:9">
+    <row r="81" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D81" s="5" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="F81" s="23"/>
-      <c r="G81" s="27"/>
+      <c r="G81" s="23"/>
       <c r="H81" s="7"/>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" s="5" customFormat="1" spans="4:9">
+    <row r="82" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D82" s="5" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="F82" s="23"/>
-      <c r="G82" s="27"/>
+      <c r="G82" s="23"/>
       <c r="H82" s="7"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" s="5" customFormat="1" spans="4:9">
+    <row r="83" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D83" s="5" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="27"/>
       <c r="H83" s="7"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" s="5" customFormat="1" spans="6:9">
+    <row r="84" spans="4:9" s="5" customFormat="1" ht="16">
+      <c r="D84" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="F84" s="23"/>
       <c r="G84" s="27"/>
       <c r="H84" s="7"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" s="5" customFormat="1" spans="4:9">
+    <row r="85" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D85" s="5" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="27"/>
       <c r="H85" s="7"/>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" s="5" customFormat="1" spans="4:9">
+    <row r="86" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D86" s="5" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="27"/>
       <c r="H86" s="7"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" s="5" customFormat="1" spans="6:9">
+    <row r="87" spans="4:9" s="5" customFormat="1" ht="16">
+      <c r="D87" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="F87" s="23"/>
       <c r="G87" s="27"/>
       <c r="H87" s="7"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" s="5" customFormat="1" spans="4:9">
+    <row r="88" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D88" s="5" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="27"/>
       <c r="H88" s="7"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" s="5" customFormat="1" spans="4:9">
+    <row r="89" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D89" s="5" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="27"/>
       <c r="H89" s="7"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" s="5" customFormat="1" spans="4:9">
+    <row r="90" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D90" s="5" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="27"/>
       <c r="H90" s="7"/>
       <c r="I90" s="23"/>
     </row>
-    <row r="91" s="5" customFormat="1" spans="2:9">
-      <c r="B91" s="5" t="s">
-        <v>129</v>
+    <row r="91" spans="4:9" s="5" customFormat="1" ht="16">
+      <c r="D91" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
+      <c r="G91" s="27"/>
       <c r="H91" s="7"/>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" s="5" customFormat="1" spans="6:9">
+    <row r="92" spans="4:9" s="5" customFormat="1" ht="16">
+      <c r="D92" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
+      <c r="G92" s="27"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="36"/>
-    </row>
-    <row r="93" s="5" customFormat="1" ht="33" spans="2:11">
-      <c r="B93" s="28" t="s">
+      <c r="I92" s="23"/>
+    </row>
+    <row r="93" spans="4:9" s="5" customFormat="1" ht="16">
+      <c r="D93" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="23"/>
+    </row>
+    <row r="94" spans="4:9" s="5" customFormat="1" ht="16">
+      <c r="D94" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F94" s="23"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="23"/>
+    </row>
+    <row r="95" spans="4:9" s="5" customFormat="1" ht="16">
+      <c r="D95" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="23"/>
+    </row>
+    <row r="96" spans="4:9" s="5" customFormat="1" ht="16">
+      <c r="D96" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F96" s="23"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="23"/>
+    </row>
+    <row r="97" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D97" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F97" s="23"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="23"/>
+    </row>
+    <row r="98" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D98" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F98" s="23"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="23"/>
+    </row>
+    <row r="99" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D99" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F99" s="23"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="23"/>
+    </row>
+    <row r="100" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="F100" s="23"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="23"/>
+    </row>
+    <row r="101" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D101" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F101" s="23"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="23"/>
+    </row>
+    <row r="102" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D102" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F102" s="23"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="23"/>
+    </row>
+    <row r="103" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="F103" s="23"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="23"/>
+    </row>
+    <row r="104" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D104" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F104" s="23"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="23"/>
+    </row>
+    <row r="105" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D105" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F105" s="23"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="23"/>
+    </row>
+    <row r="106" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D106" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="23"/>
+    </row>
+    <row r="107" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="B107" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="23"/>
+    </row>
+    <row r="108" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="36"/>
+    </row>
+    <row r="109" spans="2:11" s="5" customFormat="1" ht="32">
+      <c r="B109" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C109" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D93" s="28" t="s">
+      <c r="D109" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="29" t="s">
+      <c r="E109" s="28"/>
+      <c r="F109" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G109" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H93" s="30"/>
-      <c r="I93" s="37" t="s">
+      <c r="H109" s="30"/>
+      <c r="I109" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J93" s="28" t="s">
+      <c r="J109" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K93" s="28" t="s">
+      <c r="K109" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="31"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
+    <row r="110" spans="2:11">
+      <c r="B110" s="31"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41 F37:F41">
-      <formula1>'[Demo-里程碑1-周版本 旧.xlsx]附录'!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B36 B105:B1048576">
-      <formula1>附录!$E$3:$E$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F36">
-      <formula1>附录!$I$3:$I$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C36 C105:C1048576">
-      <formula1>附录!$A$3:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H36 H105:H1048576">
-      <formula1>附录!$G$3:$G$5</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B121:B1048576 B1:B51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C121:C1048576 C1:C51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H121:H1048576 H1:H51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]附录!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F53:F56</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F52</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -10210,7 +11062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -10227,7 +11079,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
@@ -10242,7 +11094,7 @@
       <c r="H3" s="7"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
@@ -10257,7 +11109,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
@@ -10271,7 +11123,7 @@
       <c r="J5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -10285,7 +11137,7 @@
       <c r="J6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -10299,7 +11151,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:13" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
@@ -10309,7 +11161,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:13" ht="16">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -10317,7 +11169,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="1:13" ht="16">
       <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
@@ -10328,7 +11180,7 @@
       <c r="E10" s="5"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="1:13" ht="16">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>42</v>
@@ -10337,12 +11189,12 @@
       <c r="E11" s="5"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="16">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>73</v>
@@ -10356,7 +11208,7 @@
       <c r="H13" s="7"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="14"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -10368,7 +11220,7 @@
       <c r="H14" s="7"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:13" ht="16">
       <c r="A15" s="14"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -10378,7 +11230,7 @@
       <c r="E15" s="5"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:13" ht="16">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
@@ -10386,13 +11238,13 @@
       <c r="E16" s="5"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13" ht="16">
       <c r="A17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13" ht="16">
       <c r="A18" s="11" t="s">
         <v>81</v>
       </c>
@@ -10400,7 +11252,7 @@
       <c r="D18" s="13"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="1:13" ht="16">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -10413,7 +11265,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13" ht="16">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -10425,7 +11277,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13" ht="16">
       <c r="A21" s="14"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -10437,7 +11289,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13" ht="16">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
@@ -10449,7 +11301,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13" ht="16">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
@@ -10461,13 +11313,13 @@
       <c r="G23" s="18"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="1:13" ht="16">
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:13" ht="16">
       <c r="A25" s="11" t="s">
         <v>102</v>
       </c>
@@ -10479,7 +11331,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:13" ht="16">
       <c r="A26" s="11"/>
       <c r="B26" s="21" t="s">
         <v>45</v>
@@ -10493,7 +11345,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:13" ht="16">
       <c r="A27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -10504,7 +11356,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="16">
       <c r="A28" s="11"/>
       <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
@@ -10518,7 +11370,7 @@
       <c r="K28" s="34"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="16">
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
@@ -10532,13 +11384,13 @@
       <c r="K29" s="34"/>
       <c r="M29" s="34"/>
     </row>
-    <row r="30" spans="3:8">
+    <row r="30" spans="1:13" ht="16">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:13">
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="16">
       <c r="A31" s="24" t="s">
         <v>118</v>
       </c>
@@ -10554,7 +11406,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" s="5" customFormat="1" ht="33" spans="1:9">
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="32">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>119</v>
@@ -10567,7 +11419,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" s="5" customFormat="1" ht="33" spans="2:9">
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="32">
       <c r="B33" s="26" t="s">
         <v>121</v>
       </c>
@@ -10579,7 +11431,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" s="5" customFormat="1" ht="33" spans="1:9">
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="32">
       <c r="A34" s="3"/>
       <c r="B34" s="26" t="s">
         <v>122</v>
@@ -10592,7 +11444,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" s="5" customFormat="1" spans="1:9">
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="A35" s="3"/>
       <c r="B35" s="26"/>
       <c r="F35" s="23"/>
@@ -10600,7 +11452,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" s="5" customFormat="1" spans="2:9">
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B36" s="26" t="s">
         <v>123</v>
       </c>
@@ -10609,7 +11461,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" s="5" customFormat="1" spans="2:9">
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B37" s="26" t="s">
         <v>124</v>
       </c>
@@ -10618,14 +11470,14 @@
       <c r="H37" s="7"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" s="5" customFormat="1" spans="2:9">
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B38" s="26"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="7"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" s="5" customFormat="1" spans="2:9">
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B39" s="26" t="s">
         <v>125</v>
       </c>
@@ -10634,13 +11486,13 @@
       <c r="H39" s="7"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" s="5" customFormat="1" spans="6:9">
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="7"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" s="5" customFormat="1" spans="2:9">
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B41" s="21" t="s">
         <v>126</v>
       </c>
@@ -10649,13 +11501,13 @@
       <c r="H41" s="7"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" s="5" customFormat="1" spans="6:9">
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="7"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" s="5" customFormat="1" spans="2:9">
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B43" s="5" t="s">
         <v>127</v>
       </c>
@@ -10664,19 +11516,19 @@
       <c r="H43" s="7"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" s="5" customFormat="1" spans="6:9">
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="7"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" s="5" customFormat="1" spans="6:9">
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="7"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" s="5" customFormat="1" spans="2:9">
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B46" s="5" t="s">
         <v>128</v>
       </c>
@@ -10685,25 +11537,25 @@
       <c r="H46" s="7"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" s="5" customFormat="1" spans="6:9">
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F47" s="23"/>
       <c r="G47" s="27"/>
       <c r="H47" s="7"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" s="5" customFormat="1" spans="6:9">
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F48" s="23"/>
       <c r="G48" s="27"/>
       <c r="H48" s="7"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" s="5" customFormat="1" spans="6:9">
+    <row r="49" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F49" s="23"/>
       <c r="G49" s="27"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" s="5" customFormat="1" spans="2:9">
+    <row r="50" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="B50" s="5" t="s">
         <v>129</v>
       </c>
@@ -10712,13 +11564,13 @@
       <c r="H50" s="7"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" s="5" customFormat="1" spans="6:9">
+    <row r="51" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" s="5" customFormat="1" ht="33" spans="2:11">
+    <row r="52" spans="2:11" s="5" customFormat="1" ht="32">
       <c r="B52" s="28" t="s">
         <v>130</v>
       </c>
@@ -10759,62 +11611,80 @@
       <c r="K53" s="32"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B30 B69:B1048576">
-      <formula1>附录!$E$3:$E$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F30">
-      <formula1>附录!$I$3:$I$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C30 C69:C1048576">
-      <formula1>附录!$A$3:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H30 H69:H1048576">
-      <formula1>附录!$G$3:$G$5</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H30 H69:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A5" zoomScale="265" zoomScaleNormal="265" zoomScalePageLayoutView="265" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:9">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -10827,12 +11697,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -10845,12 +11715,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -10863,28 +11733,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:9">
+    <row r="7" spans="1:9">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:9">
+    <row r="8" spans="1:9">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -10894,169 +11764,174 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="2:9">
+    <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="2:9">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="2:9">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="2:9">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="2:9">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="2:9">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>397</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:9">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>372</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="2:9">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>388</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="2:9">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:9">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="2:9">
+    <row r="19" spans="2:9">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="2:9">
+    <row r="20" spans="2:9">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" ht="16.5" spans="2:9">
+    <row r="21" spans="2:9">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" ht="16.5" spans="2:9">
+    <row r="22" spans="2:9">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" ht="16.5" spans="2:9">
+    <row r="23" spans="2:9">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" ht="16.5" spans="2:9">
+    <row r="24" spans="2:9">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="2:9">
+    <row r="25" spans="2:9">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="2:3">
+    <row r="26" spans="2:9">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35560" windowHeight="19480" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-900" windowWidth="35565" windowHeight="16440" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -13,28 +13,24 @@
     <sheet name="4-22周输出" sheetId="4" r:id="rId4"/>
     <sheet name="4-29周输出" sheetId="5" r:id="rId5"/>
     <sheet name="5-6周输出" sheetId="6" r:id="rId6"/>
-    <sheet name="模板" sheetId="7" r:id="rId7"/>
-    <sheet name="附录" sheetId="8" r:id="rId8"/>
+    <sheet name="5-13周输出" sheetId="9" r:id="rId7"/>
+    <sheet name="模板" sheetId="7" r:id="rId8"/>
+    <sheet name="附录" sheetId="8" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$69</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="575">
   <si>
     <t>类别</t>
   </si>
@@ -1768,13 +1764,68 @@
   <si>
     <t>小星，kz，ts</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序拆分任务后需要确认时间并发布任务到Jira，策划负责回归任务拆分到对应文档，表明优先级和时间</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家注意任务自主和非自主的区别，非自主任务由测试负责验收关闭</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo副本制作依赖的内容还剩哪些？剩余内容什么时候完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认游戏规划计划一简化讨论时间</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交QC</t>
+  </si>
+  <si>
+    <t>IM系统文档提交QC</t>
+  </si>
+  <si>
+    <t>项目转方向方案</t>
+  </si>
+  <si>
+    <t>xw</t>
+  </si>
+  <si>
+    <t>对局配置跟进</t>
+  </si>
+  <si>
+    <t>雪，xw</t>
+  </si>
+  <si>
+    <t>IM系统文档初版</t>
+  </si>
+  <si>
+    <t>玩法特点归类</t>
+  </si>
+  <si>
+    <t>数值时间模板学习-应用到玩法体现</t>
+  </si>
+  <si>
+    <t>技能数值计算工具（用于其他策划配置）</t>
+  </si>
+  <si>
+    <t>时间价值基础模型构架</t>
+  </si>
+  <si>
+    <t>疲劳值初版</t>
+  </si>
+  <si>
+    <t>副本星级评价预研</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1880,6 +1931,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1887,6 +1939,21 @@
       <sz val="12"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1928,7 +1995,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2010,8 +2077,29 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2176,25 +2264,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="34">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 25" xfId="3"/>
+    <cellStyle name="常规 3" xfId="33"/>
     <cellStyle name="常规 8" xfId="5"/>
     <cellStyle name="常规_2-4周版本输出" xfId="6"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
@@ -2205,6 +2299,22 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -2876,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
@@ -2886,20 +2996,20 @@
       <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="5"/>
-    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="5"/>
+    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="10.1640625" style="23"/>
-    <col min="10" max="11" width="10.1640625" style="27"/>
-    <col min="12" max="13" width="10.1640625" style="5"/>
-    <col min="14" max="14" width="10.1640625" style="27"/>
-    <col min="15" max="16384" width="10.1640625" style="5"/>
+    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="10.125" style="23"/>
+    <col min="10" max="11" width="10.125" style="27"/>
+    <col min="12" max="13" width="10.125" style="5"/>
+    <col min="14" max="14" width="10.125" style="27"/>
+    <col min="15" max="16384" width="10.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3572,7 +3682,7 @@
       <c r="K28" s="68"/>
       <c r="N28" s="68"/>
     </row>
-    <row r="29" spans="1:14" ht="32">
+    <row r="29" spans="1:14" ht="33">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
         <v>73</v>
@@ -3599,7 +3709,7 @@
       <c r="K29" s="68"/>
       <c r="N29" s="69"/>
     </row>
-    <row r="30" spans="1:14" ht="96">
+    <row r="30" spans="1:14" ht="115.5">
       <c r="A30" s="13"/>
       <c r="C30" s="13" t="s">
         <v>15</v>
@@ -3645,7 +3755,7 @@
       <c r="K32" s="68"/>
       <c r="N32" s="68"/>
     </row>
-    <row r="33" spans="1:14" ht="32">
+    <row r="33" spans="1:14" ht="33">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -3669,7 +3779,7 @@
       <c r="K33" s="68"/>
       <c r="N33" s="68"/>
     </row>
-    <row r="34" spans="1:14" ht="32">
+    <row r="34" spans="1:14" ht="33">
       <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -3693,7 +3803,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="32">
+    <row r="35" spans="1:14" ht="33">
       <c r="A35" s="13"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
@@ -3735,7 +3845,7 @@
       <c r="K36" s="68"/>
       <c r="N36" s="68"/>
     </row>
-    <row r="37" spans="1:14" ht="32">
+    <row r="37" spans="1:14" ht="33">
       <c r="A37" s="13"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
@@ -3994,7 +4104,7 @@
       <c r="K49" s="68"/>
       <c r="N49" s="68"/>
     </row>
-    <row r="50" spans="1:14" ht="32">
+    <row r="50" spans="1:14" ht="33">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
         <v>119</v>
@@ -4008,7 +4118,7 @@
       <c r="K50" s="68"/>
       <c r="N50" s="68"/>
     </row>
-    <row r="51" spans="1:14" ht="32">
+    <row r="51" spans="1:14" ht="33">
       <c r="B51" s="26" t="s">
         <v>121</v>
       </c>
@@ -4021,7 +4131,7 @@
       <c r="K51" s="68"/>
       <c r="N51" s="68"/>
     </row>
-    <row r="52" spans="1:14" ht="32">
+    <row r="52" spans="1:14" ht="33">
       <c r="A52" s="3"/>
       <c r="B52" s="26" t="s">
         <v>122</v>
@@ -4200,7 +4310,7 @@
       <c r="K72" s="68"/>
       <c r="N72" s="68"/>
     </row>
-    <row r="73" spans="2:14" ht="32">
+    <row r="73" spans="2:14" ht="33">
       <c r="B73" s="28" t="s">
         <v>130</v>
       </c>
@@ -4298,7 +4408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -4308,19 +4418,19 @@
       <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="5"/>
-    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="5"/>
-    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="27"/>
-    <col min="9" max="9" width="10.1640625" style="5"/>
-    <col min="10" max="14" width="10.1640625" style="23"/>
-    <col min="15" max="16384" width="10.1640625" style="5"/>
+    <col min="3" max="3" width="10.125" style="5"/>
+    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="5"/>
+    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27"/>
+    <col min="9" max="9" width="10.125" style="5"/>
+    <col min="10" max="14" width="10.125" style="23"/>
+    <col min="15" max="16384" width="10.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5337,7 +5447,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="32">
+    <row r="51" spans="1:14" ht="33">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>119</v>
@@ -5348,7 +5458,7 @@
       <c r="F51" s="23"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="32">
+    <row r="52" spans="1:14" ht="33">
       <c r="B52" s="26" t="s">
         <v>121</v>
       </c>
@@ -5358,7 +5468,7 @@
       <c r="F52" s="23"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="32">
+    <row r="53" spans="1:14" ht="33">
       <c r="A53" s="3"/>
       <c r="B53" s="26" t="s">
         <v>122</v>
@@ -5465,7 +5575,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="36"/>
     </row>
-    <row r="68" spans="2:12" ht="32">
+    <row r="68" spans="2:12" ht="33">
       <c r="B68" s="28" t="s">
         <v>130</v>
       </c>
@@ -5651,26 +5761,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="4"/>
-    <col min="7" max="7" width="13.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="4"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="4"/>
+    <col min="7" max="7" width="13.375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16">
+    <row r="1" spans="1:15" ht="17.25">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5712,7 +5822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16">
+    <row r="2" spans="1:15" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -5731,7 +5841,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="16">
+    <row r="3" spans="1:15" ht="17.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -5764,7 +5874,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="16">
+    <row r="4" spans="1:15" ht="17.25">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -5781,7 +5891,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="16">
+    <row r="5" spans="1:15" ht="17.25">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>30</v>
@@ -5814,7 +5924,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="16">
+    <row r="6" spans="1:15" ht="17.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
@@ -5842,7 +5952,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="16">
+    <row r="7" spans="1:15" ht="17.25">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
@@ -5857,7 +5967,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="16">
+    <row r="8" spans="1:15" ht="17.25">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>45</v>
@@ -5887,7 +5997,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="16">
+    <row r="9" spans="1:15" ht="17.25">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -5915,7 +6025,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="16">
+    <row r="10" spans="1:15" ht="17.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
@@ -5945,7 +6055,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="16">
+    <row r="11" spans="1:15" ht="17.25">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
@@ -5973,7 +6083,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="16">
+    <row r="12" spans="1:15" ht="17.25">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
@@ -6001,7 +6111,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="16">
+    <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -6027,7 +6137,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="16">
+    <row r="14" spans="1:15" ht="17.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="10"/>
@@ -6041,7 +6151,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="16">
+    <row r="15" spans="1:15" ht="17.25">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
@@ -6053,7 +6163,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="16">
+    <row r="16" spans="1:15" ht="17.25">
       <c r="B16" s="12" t="s">
         <v>66</v>
       </c>
@@ -6085,7 +6195,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="16">
+    <row r="17" spans="1:15" ht="17.25">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
         <v>15</v>
@@ -6115,7 +6225,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" ht="16">
+    <row r="18" spans="1:15" ht="17.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
@@ -6146,7 +6256,7 @@
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="16">
+    <row r="19" spans="1:15" ht="17.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
         <v>73</v>
@@ -6179,7 +6289,7 @@
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="16">
+    <row r="20" spans="1:15" ht="17.25">
       <c r="A20" s="14"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -6210,7 +6320,7 @@
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="16">
+    <row r="21" spans="1:15" ht="17.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
@@ -6227,7 +6337,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="16">
+    <row r="22" spans="1:15" ht="17.25">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
@@ -6245,7 +6355,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="16">
+    <row r="23" spans="1:15" ht="17.25">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -6275,7 +6385,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="16">
+    <row r="24" spans="1:15" ht="17.25">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
@@ -6303,7 +6413,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="16">
+    <row r="25" spans="1:15" ht="17.25">
       <c r="A25" s="14"/>
       <c r="B25" s="5"/>
       <c r="C25" s="10" t="s">
@@ -6332,7 +6442,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="16">
+    <row r="26" spans="1:15" ht="17.25">
       <c r="A26" s="14"/>
       <c r="B26" s="5"/>
       <c r="C26" s="10" t="s">
@@ -6361,7 +6471,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="16">
+    <row r="27" spans="1:15" ht="17.25">
       <c r="A27" s="11"/>
       <c r="B27" s="5"/>
       <c r="C27" s="10" t="s">
@@ -6390,7 +6500,7 @@
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="16">
+    <row r="28" spans="1:15" ht="17.25">
       <c r="C28" s="10"/>
       <c r="D28" s="20"/>
       <c r="E28" s="13"/>
@@ -6405,7 +6515,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="16">
+    <row r="29" spans="1:15" ht="17.25">
       <c r="A29" s="11" t="s">
         <v>102</v>
       </c>
@@ -6424,7 +6534,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="16">
+    <row r="30" spans="1:15" ht="17.25">
       <c r="A30" s="11"/>
       <c r="B30" s="21" t="s">
         <v>45</v>
@@ -6457,7 +6567,7 @@
       </c>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="16">
+    <row r="31" spans="1:15" ht="17.25">
       <c r="A31" s="11"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
@@ -6487,7 +6597,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="16">
+    <row r="32" spans="1:15" ht="17.25">
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="5" t="s">
@@ -6518,7 +6628,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="16">
+    <row r="33" spans="1:15" ht="17.25">
       <c r="A33" s="11"/>
       <c r="B33" s="21"/>
       <c r="C33" s="5" t="s">
@@ -6547,7 +6657,7 @@
       </c>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:15" ht="16">
+    <row r="34" spans="1:15" ht="17.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -6560,7 +6670,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="35" spans="1:15" s="5" customFormat="1" ht="17.25">
       <c r="A35" s="24" t="s">
         <v>118</v>
       </c>
@@ -6577,7 +6687,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="32">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="33">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>119</v>
@@ -6590,7 +6700,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="32">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="33">
       <c r="B37" s="26" t="s">
         <v>121</v>
       </c>
@@ -6602,7 +6712,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="32">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="33">
       <c r="A38" s="3"/>
       <c r="B38" s="26" t="s">
         <v>122</v>
@@ -6615,7 +6725,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="39" spans="1:15" s="5" customFormat="1">
       <c r="A39" s="3"/>
       <c r="B39" s="26"/>
       <c r="F39" s="23"/>
@@ -6623,7 +6733,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="40" spans="1:15" s="5" customFormat="1">
       <c r="B40" s="26" t="s">
         <v>123</v>
       </c>
@@ -6632,7 +6742,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="41" spans="1:15" s="5" customFormat="1">
       <c r="B41" s="26" t="s">
         <v>124</v>
       </c>
@@ -6641,14 +6751,14 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="42" spans="1:15" s="5" customFormat="1">
       <c r="B42" s="26"/>
       <c r="F42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="43" spans="1:15" s="5" customFormat="1">
       <c r="B43" s="26" t="s">
         <v>125</v>
       </c>
@@ -6657,13 +6767,13 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="44" spans="1:15" s="5" customFormat="1">
       <c r="F44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="45" spans="1:15" s="5" customFormat="1">
       <c r="B45" s="21" t="s">
         <v>126</v>
       </c>
@@ -6672,13 +6782,13 @@
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="46" spans="1:15" s="5" customFormat="1">
       <c r="F46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="47" spans="1:15" s="5" customFormat="1">
       <c r="B47" s="5" t="s">
         <v>127</v>
       </c>
@@ -6687,19 +6797,19 @@
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:15" s="5" customFormat="1" ht="16">
+    <row r="48" spans="1:15" s="5" customFormat="1">
       <c r="F48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="49" spans="2:12" s="5" customFormat="1">
       <c r="F49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="50" spans="2:12" s="5" customFormat="1">
       <c r="B50" s="5" t="s">
         <v>128</v>
       </c>
@@ -6708,25 +6818,25 @@
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="51" spans="2:12" s="5" customFormat="1">
       <c r="F51" s="23"/>
       <c r="H51" s="27"/>
       <c r="I51" s="7"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="52" spans="2:12" s="5" customFormat="1">
       <c r="F52" s="23"/>
       <c r="H52" s="27"/>
       <c r="I52" s="7"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="53" spans="2:12" s="5" customFormat="1">
       <c r="F53" s="23"/>
       <c r="H53" s="27"/>
       <c r="I53" s="7"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="54" spans="2:12" s="5" customFormat="1">
       <c r="B54" s="5" t="s">
         <v>129</v>
       </c>
@@ -6736,13 +6846,13 @@
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="2:12" s="5" customFormat="1" ht="16">
+    <row r="55" spans="2:12" s="5" customFormat="1">
       <c r="F55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="7"/>
       <c r="J55" s="36"/>
     </row>
-    <row r="56" spans="2:12" s="5" customFormat="1" ht="32">
+    <row r="56" spans="2:12" s="5" customFormat="1" ht="33">
       <c r="B56" s="28" t="s">
         <v>130</v>
       </c>
@@ -6851,7 +6961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
@@ -6861,16 +6971,16 @@
       <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="5"/>
-    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="5"/>
-    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="5"/>
+    <col min="3" max="3" width="10.125" style="5"/>
+    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="5"/>
+    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7176,7 +7286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="80">
+    <row r="12" spans="1:14" ht="99">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
@@ -7350,7 +7460,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:14" ht="32">
+    <row r="20" spans="1:14" ht="33">
       <c r="A20" s="13"/>
       <c r="B20" s="15" t="s">
         <v>73</v>
@@ -7403,7 +7513,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:14" ht="32">
+    <row r="23" spans="1:14" ht="49.5">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -7505,7 +7615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="32">
+    <row r="27" spans="1:14" ht="33">
       <c r="A27" s="13"/>
       <c r="C27" s="10" t="s">
         <v>15</v>
@@ -7528,7 +7638,7 @@
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
     </row>
-    <row r="28" spans="1:14" ht="32">
+    <row r="28" spans="1:14" ht="33">
       <c r="A28" s="13"/>
       <c r="C28" s="10" t="s">
         <v>15</v>
@@ -7552,7 +7662,7 @@
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:14" ht="32">
+    <row r="29" spans="1:14" ht="33">
       <c r="A29" s="13"/>
       <c r="C29" s="10" t="s">
         <v>15</v>
@@ -7576,7 +7686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="32">
+    <row r="30" spans="1:14" ht="33">
       <c r="A30" s="13"/>
       <c r="C30" s="10" t="s">
         <v>15</v>
@@ -7600,7 +7710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="32">
+    <row r="31" spans="1:14" ht="33">
       <c r="A31" s="13"/>
       <c r="C31" s="10" t="s">
         <v>15</v>
@@ -7649,7 +7759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="32">
+    <row r="33" spans="1:14" ht="33">
       <c r="C33" s="10" t="s">
         <v>42</v>
       </c>
@@ -7692,7 +7802,7 @@
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:14" ht="32">
+    <row r="36" spans="1:14" ht="33">
       <c r="A36" s="11"/>
       <c r="B36" s="21" t="s">
         <v>45</v>
@@ -7722,7 +7832,7 @@
       </c>
       <c r="M36" s="34"/>
     </row>
-    <row r="37" spans="1:14" ht="32">
+    <row r="37" spans="1:14" ht="33">
       <c r="A37" s="11"/>
       <c r="C37" s="5" t="s">
         <v>15</v>
@@ -7785,7 +7895,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:14" ht="32">
+    <row r="41" spans="1:14" ht="33">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>119</v>
@@ -7798,7 +7908,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:14" ht="32">
+    <row r="42" spans="1:14" ht="33">
       <c r="B42" s="26" t="s">
         <v>121</v>
       </c>
@@ -7810,7 +7920,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:14" ht="32">
+    <row r="43" spans="1:14" ht="33">
       <c r="A43" s="3"/>
       <c r="B43" s="26" t="s">
         <v>122</v>
@@ -7955,7 +8065,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="36"/>
     </row>
-    <row r="61" spans="2:12" ht="32">
+    <row r="61" spans="2:12" ht="33">
       <c r="B61" s="28" t="s">
         <v>130</v>
       </c>
@@ -8045,21 +8155,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="5"/>
-    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.1640625" style="5"/>
+    <col min="3" max="3" width="10.125" style="5"/>
+    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -8424,7 +8534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="64">
+    <row r="15" spans="1:14" ht="66">
       <c r="A15" s="3"/>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -8840,7 +8950,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="32">
+    <row r="38" spans="1:9" ht="33">
       <c r="A38" s="11"/>
       <c r="B38" s="5" t="s">
         <v>388</v>
@@ -8924,7 +9034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="32">
+    <row r="42" spans="1:9" ht="33">
       <c r="A42" s="11"/>
       <c r="B42" s="5" t="s">
         <v>397</v>
@@ -9144,7 +9254,7 @@
       <c r="I52" s="45"/>
       <c r="J52" s="39"/>
     </row>
-    <row r="53" spans="1:13" ht="32">
+    <row r="53" spans="1:13" ht="33">
       <c r="A53" s="25"/>
       <c r="B53" s="26" t="s">
         <v>119</v>
@@ -9157,7 +9267,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:13" ht="32">
+    <row r="54" spans="1:13" ht="33">
       <c r="B54" s="26" t="s">
         <v>121</v>
       </c>
@@ -9169,7 +9279,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:13" ht="32">
+    <row r="55" spans="1:13" ht="33">
       <c r="A55" s="3"/>
       <c r="B55" s="26" t="s">
         <v>122</v>
@@ -9341,7 +9451,7 @@
       <c r="H75" s="7"/>
       <c r="I75" s="36"/>
     </row>
-    <row r="76" spans="2:11" ht="32">
+    <row r="76" spans="2:11" ht="33">
       <c r="B76" s="28" t="s">
         <v>130</v>
       </c>
@@ -9434,24 +9544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.1640625" style="4"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16">
+    <row r="1" spans="1:13" ht="17.25">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9490,7 +9600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -9507,7 +9617,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="16">
+    <row r="3" spans="1:13" ht="17.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -9532,7 +9642,7 @@
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" ht="17.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -9553,7 +9663,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="16">
+    <row r="5" spans="1:13" ht="17.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -9576,7 +9686,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="16">
+    <row r="6" spans="1:13" ht="17.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -9599,7 +9709,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
     </row>
-    <row r="7" spans="1:13" ht="16">
+    <row r="7" spans="1:13" ht="17.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -9622,7 +9732,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="1:13" ht="16">
+    <row r="8" spans="1:13" ht="17.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -9645,7 +9755,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="1:13" ht="16">
+    <row r="9" spans="1:13" ht="17.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -9660,7 +9770,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="16">
+    <row r="10" spans="1:13" ht="17.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>30</v>
@@ -9685,7 +9795,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:13" ht="16">
+    <row r="11" spans="1:13" ht="17.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -9708,7 +9818,7 @@
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:13" ht="16">
+    <row r="12" spans="1:13" ht="17.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -9731,7 +9841,7 @@
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="16">
+    <row r="13" spans="1:13" ht="17.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9746,7 +9856,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row r="14" spans="1:13" ht="17.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>504</v>
@@ -9767,7 +9877,7 @@
       <c r="H14" s="7"/>
       <c r="K14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="16">
+    <row r="15" spans="1:13" ht="17.25">
       <c r="A15" s="3"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
@@ -9788,7 +9898,7 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:13" ht="16">
+    <row r="16" spans="1:13" ht="17.25">
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
@@ -9808,7 +9918,7 @@
       <c r="J16" s="34"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:12" ht="16">
+    <row r="17" spans="1:12" ht="17.25">
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
@@ -9828,7 +9938,7 @@
       <c r="J17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
+    <row r="18" spans="1:12" ht="17.25">
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
@@ -9848,7 +9958,7 @@
       <c r="J18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
+    <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="3"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
@@ -9868,7 +9978,7 @@
       <c r="J19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="17.25">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -9886,7 +9996,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="21" spans="1:12" ht="17.25">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -9902,7 +10012,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="16">
+    <row r="22" spans="1:12" ht="17.25">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
@@ -9914,7 +10024,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="16">
+    <row r="23" spans="1:12" ht="17.25">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10"/>
@@ -9924,7 +10034,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="16">
+    <row r="24" spans="1:12" ht="17.25">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
@@ -9932,7 +10042,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="16">
+    <row r="25" spans="1:12" ht="17.25">
       <c r="B25" s="12" t="s">
         <v>66</v>
       </c>
@@ -9950,7 +10060,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="16">
+    <row r="26" spans="1:12" ht="17.25">
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
         <v>15</v>
@@ -9966,7 +10076,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="16">
+    <row r="27" spans="1:12" ht="17.25">
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>42</v>
@@ -9979,7 +10089,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="16">
+    <row r="28" spans="1:12" ht="17.25">
       <c r="B28" s="12"/>
       <c r="C28" s="13" t="s">
         <v>518</v>
@@ -9992,7 +10102,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="16">
+    <row r="29" spans="1:12" ht="17.25">
       <c r="B29" s="12"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
@@ -10008,7 +10118,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="16">
+    <row r="30" spans="1:12" ht="17.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
@@ -10025,7 +10135,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="16">
+    <row r="31" spans="1:12" ht="17.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
@@ -10042,7 +10152,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="16">
+    <row r="32" spans="1:12" ht="17.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
@@ -10059,7 +10169,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:13" ht="16">
+    <row r="33" spans="1:13" ht="17.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
@@ -10076,7 +10186,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:13" ht="16">
+    <row r="34" spans="1:13" ht="17.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
@@ -10090,7 +10200,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:13" ht="16">
+    <row r="35" spans="1:13" ht="17.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>73</v>
@@ -10108,7 +10218,7 @@
       <c r="H35" s="7"/>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:13" ht="16">
+    <row r="36" spans="1:13" ht="17.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="13"/>
@@ -10116,13 +10226,13 @@
       <c r="E36" s="5"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:13" ht="16">
+    <row r="37" spans="1:13" ht="17.25">
       <c r="A37" s="14"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:13" ht="16">
+    <row r="38" spans="1:13" ht="17.25">
       <c r="A38" s="11" t="s">
         <v>81</v>
       </c>
@@ -10130,7 +10240,7 @@
       <c r="D38" s="13"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:13" ht="16">
+    <row r="39" spans="1:13" ht="17.25">
       <c r="B39" s="5" t="s">
         <v>397</v>
       </c>
@@ -10149,7 +10259,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:13" ht="16">
+    <row r="40" spans="1:13" ht="17.25">
       <c r="A40" s="11"/>
       <c r="B40" s="5" t="s">
         <v>397</v>
@@ -10169,7 +10279,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:13" ht="16">
+    <row r="41" spans="1:13" ht="17.25">
       <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>397</v>
@@ -10189,7 +10299,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:13" ht="16">
+    <row r="42" spans="1:13" ht="17.25">
       <c r="A42" s="14"/>
       <c r="B42" s="5" t="s">
         <v>397</v>
@@ -10209,7 +10319,7 @@
       <c r="G42" s="18"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:13" ht="16">
+    <row r="43" spans="1:13" ht="17.25">
       <c r="A43" s="14"/>
       <c r="B43" s="5" t="s">
         <v>388</v>
@@ -10229,7 +10339,7 @@
       <c r="G43" s="18"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:13" ht="16">
+    <row r="44" spans="1:13" ht="17.25">
       <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>372</v>
@@ -10249,7 +10359,7 @@
       <c r="G44" s="18"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:13" ht="16">
+    <row r="45" spans="1:13" ht="17.25">
       <c r="A45" s="14"/>
       <c r="B45" s="5" t="s">
         <v>372</v>
@@ -10269,7 +10379,7 @@
       <c r="G45" s="18"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:13" ht="16">
+    <row r="46" spans="1:13" ht="17.25">
       <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>372</v>
@@ -10289,7 +10399,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:13" ht="16">
+    <row r="47" spans="1:13" ht="17.25">
       <c r="A47" s="14"/>
       <c r="B47" s="5" t="s">
         <v>45</v>
@@ -10309,7 +10419,7 @@
       <c r="G47" s="18"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:13" ht="16">
+    <row r="48" spans="1:13" ht="17.25">
       <c r="A48" s="14"/>
       <c r="B48" s="5" t="s">
         <v>553</v>
@@ -10329,7 +10439,7 @@
       <c r="G48" s="18"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:13" ht="16">
+    <row r="49" spans="1:13" ht="17.25">
       <c r="A49" s="14"/>
       <c r="B49" s="5"/>
       <c r="C49" s="10"/>
@@ -10339,13 +10449,13 @@
       <c r="G49" s="18"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:13" ht="16">
+    <row r="50" spans="1:13" ht="17.25">
       <c r="C50" s="10"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:13" ht="16">
+    <row r="51" spans="1:13" ht="17.25">
       <c r="A51" s="11" t="s">
         <v>102</v>
       </c>
@@ -10357,7 +10467,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:13" ht="16">
+    <row r="52" spans="1:13" ht="17.25">
       <c r="A52" s="11"/>
       <c r="B52" s="38" t="s">
         <v>45</v>
@@ -10378,7 +10488,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="34"/>
     </row>
-    <row r="53" spans="1:13" ht="16">
+    <row r="53" spans="1:13" ht="17.25">
       <c r="A53" s="11"/>
       <c r="B53" s="41"/>
       <c r="C53" s="39" t="s">
@@ -10396,7 +10506,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:13" ht="16">
+    <row r="54" spans="1:13" ht="17.25">
       <c r="A54" s="11"/>
       <c r="B54" s="38"/>
       <c r="C54" s="39" t="s">
@@ -10416,7 +10526,7 @@
       <c r="K54" s="34"/>
       <c r="M54" s="34"/>
     </row>
-    <row r="55" spans="1:13" ht="16">
+    <row r="55" spans="1:13" ht="17.25">
       <c r="A55" s="11"/>
       <c r="B55" s="38"/>
       <c r="C55" s="5" t="s">
@@ -10434,7 +10544,7 @@
       <c r="K55" s="34"/>
       <c r="M55" s="34"/>
     </row>
-    <row r="56" spans="1:13" ht="16">
+    <row r="56" spans="1:13" ht="17.25">
       <c r="A56" s="11"/>
       <c r="B56" s="38"/>
       <c r="C56" s="39" t="s">
@@ -10454,11 +10564,11 @@
       <c r="K56" s="34"/>
       <c r="M56" s="34"/>
     </row>
-    <row r="57" spans="1:13" ht="16">
+    <row r="57" spans="1:13" ht="17.25">
       <c r="B57" s="38"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:13" s="5" customFormat="1" ht="16">
+    <row r="58" spans="1:13" s="5" customFormat="1" ht="17.25">
       <c r="A58" s="24" t="s">
         <v>118</v>
       </c>
@@ -10474,7 +10584,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" s="5" customFormat="1" ht="32">
+    <row r="59" spans="1:13" s="5" customFormat="1" ht="33">
       <c r="A59" s="25"/>
       <c r="B59" s="26" t="s">
         <v>119</v>
@@ -10487,7 +10597,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:13" s="5" customFormat="1" ht="32">
+    <row r="60" spans="1:13" s="5" customFormat="1" ht="33">
       <c r="B60" s="26" t="s">
         <v>121</v>
       </c>
@@ -10499,7 +10609,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:13" s="5" customFormat="1" ht="32">
+    <row r="61" spans="1:13" s="5" customFormat="1" ht="33">
       <c r="A61" s="3"/>
       <c r="B61" s="26" t="s">
         <v>122</v>
@@ -10509,7 +10619,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:13" s="5" customFormat="1" ht="16">
+    <row r="62" spans="1:13" s="5" customFormat="1">
       <c r="A62" s="3"/>
       <c r="B62" s="26"/>
       <c r="F62" s="23"/>
@@ -10517,7 +10627,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:13" s="5" customFormat="1" ht="16">
+    <row r="63" spans="1:13" s="5" customFormat="1">
       <c r="A63" s="3"/>
       <c r="B63" s="26"/>
       <c r="F63" s="23"/>
@@ -10525,7 +10635,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:13" s="5" customFormat="1" ht="16">
+    <row r="64" spans="1:13" s="5" customFormat="1">
       <c r="A64" s="3"/>
       <c r="B64" s="26"/>
       <c r="F64" s="23"/>
@@ -10533,7 +10643,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="65" spans="2:9" s="5" customFormat="1">
       <c r="B65" s="26" t="s">
         <v>123</v>
       </c>
@@ -10542,7 +10652,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="66" spans="2:9" s="5" customFormat="1">
       <c r="B66" s="26" t="s">
         <v>124</v>
       </c>
@@ -10551,14 +10661,14 @@
       <c r="H66" s="7"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="67" spans="2:9" s="5" customFormat="1">
       <c r="B67" s="26"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="7"/>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="68" spans="2:9" s="5" customFormat="1">
       <c r="B68" s="26" t="s">
         <v>125</v>
       </c>
@@ -10570,7 +10680,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="69" spans="2:9" s="5" customFormat="1">
       <c r="B69" s="26"/>
       <c r="D69" s="5" t="s">
         <v>555</v>
@@ -10580,7 +10690,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="70" spans="2:9" s="5" customFormat="1">
       <c r="B70" s="26"/>
       <c r="D70" s="5" t="s">
         <v>439</v>
@@ -10590,7 +10700,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="71" spans="2:9" s="5" customFormat="1">
       <c r="B71" s="26"/>
       <c r="D71" s="5" t="s">
         <v>440</v>
@@ -10600,13 +10710,13 @@
       <c r="H71" s="7"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="72" spans="2:9" s="5" customFormat="1">
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="7"/>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="73" spans="2:9" s="5" customFormat="1">
       <c r="B73" s="21" t="s">
         <v>126</v>
       </c>
@@ -10615,13 +10725,13 @@
       <c r="H73" s="7"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="74" spans="2:9" s="5" customFormat="1">
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="7"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="75" spans="2:9" s="5" customFormat="1">
       <c r="B75" s="5" t="s">
         <v>127</v>
       </c>
@@ -10630,13 +10740,13 @@
       <c r="H75" s="7"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="76" spans="2:9" s="5" customFormat="1">
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="7"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="77" spans="2:9" s="5" customFormat="1">
       <c r="B77" s="5" t="s">
         <v>128</v>
       </c>
@@ -10648,7 +10758,7 @@
       <c r="H77" s="7"/>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="78" spans="2:9" s="5" customFormat="1">
       <c r="D78" s="5" t="s">
         <v>442</v>
       </c>
@@ -10657,7 +10767,7 @@
       <c r="H78" s="7"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="79" spans="2:9" s="5" customFormat="1">
       <c r="D79" s="5" t="s">
         <v>443</v>
       </c>
@@ -10666,13 +10776,13 @@
       <c r="H79" s="7"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="80" spans="2:9" s="5" customFormat="1">
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
       <c r="H80" s="7"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="81" spans="4:9" s="5" customFormat="1">
       <c r="D81" s="5" t="s">
         <v>444</v>
       </c>
@@ -10681,7 +10791,7 @@
       <c r="H81" s="7"/>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="82" spans="4:9" s="5" customFormat="1">
       <c r="D82" s="5" t="s">
         <v>445</v>
       </c>
@@ -10690,7 +10800,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="83" spans="4:9" s="5" customFormat="1">
       <c r="D83" s="5" t="s">
         <v>446</v>
       </c>
@@ -10699,7 +10809,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="84" spans="4:9" s="5" customFormat="1">
       <c r="D84" s="5" t="s">
         <v>447</v>
       </c>
@@ -10708,7 +10818,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="85" spans="4:9" s="5" customFormat="1">
       <c r="D85" s="5" t="s">
         <v>448</v>
       </c>
@@ -10717,7 +10827,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="86" spans="4:9" s="5" customFormat="1">
       <c r="D86" s="5" t="s">
         <v>449</v>
       </c>
@@ -10726,7 +10836,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="87" spans="4:9" s="5" customFormat="1">
       <c r="D87" s="5" t="s">
         <v>450</v>
       </c>
@@ -10735,7 +10845,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="88" spans="4:9" s="5" customFormat="1">
       <c r="D88" s="5" t="s">
         <v>451</v>
       </c>
@@ -10744,7 +10854,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="89" spans="4:9" s="5" customFormat="1">
       <c r="D89" s="5" t="s">
         <v>452</v>
       </c>
@@ -10753,7 +10863,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="90" spans="4:9" s="5" customFormat="1">
       <c r="D90" s="5" t="s">
         <v>453</v>
       </c>
@@ -10762,7 +10872,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="23"/>
     </row>
-    <row r="91" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="91" spans="4:9" s="5" customFormat="1">
       <c r="D91" s="5" t="s">
         <v>454</v>
       </c>
@@ -10771,7 +10881,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="92" spans="4:9" s="5" customFormat="1">
       <c r="D92" s="5" t="s">
         <v>455</v>
       </c>
@@ -10780,7 +10890,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="93" spans="4:9" s="5" customFormat="1">
       <c r="D93" s="5" t="s">
         <v>456</v>
       </c>
@@ -10789,7 +10899,7 @@
       <c r="H93" s="7"/>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="94" spans="4:9" s="5" customFormat="1">
       <c r="D94" s="5" t="s">
         <v>457</v>
       </c>
@@ -10798,7 +10908,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="95" spans="4:9" s="5" customFormat="1">
       <c r="D95" s="5" t="s">
         <v>458</v>
       </c>
@@ -10807,7 +10917,7 @@
       <c r="H95" s="7"/>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="96" spans="4:9" s="5" customFormat="1">
       <c r="D96" s="5" t="s">
         <v>459</v>
       </c>
@@ -10816,7 +10926,7 @@
       <c r="H96" s="7"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="97" spans="2:11" s="5" customFormat="1">
       <c r="D97" s="5" t="s">
         <v>460</v>
       </c>
@@ -10825,7 +10935,7 @@
       <c r="H97" s="7"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="98" spans="2:11" s="5" customFormat="1">
       <c r="D98" s="5" t="s">
         <v>461</v>
       </c>
@@ -10834,7 +10944,7 @@
       <c r="H98" s="7"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="99" spans="2:11" s="5" customFormat="1">
       <c r="D99" s="5" t="s">
         <v>462</v>
       </c>
@@ -10843,13 +10953,13 @@
       <c r="H99" s="7"/>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="100" spans="2:11" s="5" customFormat="1">
       <c r="F100" s="23"/>
       <c r="G100" s="27"/>
       <c r="H100" s="7"/>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="101" spans="2:11" s="5" customFormat="1">
       <c r="D101" s="5" t="s">
         <v>463</v>
       </c>
@@ -10858,7 +10968,7 @@
       <c r="H101" s="7"/>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="102" spans="2:11" s="5" customFormat="1">
       <c r="D102" s="5" t="s">
         <v>464</v>
       </c>
@@ -10867,13 +10977,13 @@
       <c r="H102" s="7"/>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="103" spans="2:11" s="5" customFormat="1">
       <c r="F103" s="23"/>
       <c r="G103" s="27"/>
       <c r="H103" s="7"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="104" spans="2:11" s="5" customFormat="1">
       <c r="D104" s="5" t="s">
         <v>465</v>
       </c>
@@ -10882,7 +10992,7 @@
       <c r="H104" s="7"/>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="105" spans="2:11" s="5" customFormat="1">
       <c r="D105" s="5" t="s">
         <v>466</v>
       </c>
@@ -10891,7 +11001,7 @@
       <c r="H105" s="7"/>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="106" spans="2:11" s="5" customFormat="1">
       <c r="D106" s="5" t="s">
         <v>467</v>
       </c>
@@ -10900,7 +11010,7 @@
       <c r="H106" s="7"/>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="107" spans="2:11" s="5" customFormat="1">
       <c r="B107" s="5" t="s">
         <v>129</v>
       </c>
@@ -10909,13 +11019,13 @@
       <c r="H107" s="7"/>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="108" spans="2:11" s="5" customFormat="1">
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
       <c r="H108" s="7"/>
       <c r="I108" s="36"/>
     </row>
-    <row r="109" spans="2:11" s="5" customFormat="1" ht="32">
+    <row r="109" spans="2:11" s="5" customFormat="1" ht="33">
       <c r="B109" s="28" t="s">
         <v>130</v>
       </c>
@@ -11006,24 +11116,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.1640625" style="4"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16">
+    <row r="1" spans="1:13" ht="17.25">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -11062,7 +11172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -11079,7 +11189,773 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="16">
+    <row r="3" spans="1:13" ht="17.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="76" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" ht="18">
+      <c r="A5" s="3"/>
+      <c r="B5" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="J5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="18">
+      <c r="A6" s="3"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="18">
+      <c r="A7" s="3"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" ht="18">
+      <c r="A8" s="3"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>569</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:13" ht="18">
+      <c r="A9" s="3"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:13" ht="18">
+      <c r="A10" s="3"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" ht="18">
+      <c r="A11" s="3"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" ht="18">
+      <c r="A12" s="3"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" ht="18">
+      <c r="A13" s="3"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>574</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="18">
+      <c r="A14" s="3"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25">
+      <c r="A15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25">
+      <c r="B16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="5"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="7"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="7"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="5"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="5"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.25">
+      <c r="A23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25">
+      <c r="A24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25">
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25">
+      <c r="C30" s="10"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.25">
+      <c r="A31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.25">
+      <c r="A33" s="11"/>
+      <c r="C33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="K34" s="34"/>
+      <c r="M34" s="34"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="7"/>
+      <c r="K35" s="34"/>
+      <c r="M35" s="34"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" s="5" customFormat="1" ht="17.25">
+      <c r="A37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="B39" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:13" s="5" customFormat="1" ht="33">
+      <c r="A40" s="3"/>
+      <c r="B40" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:13" s="5" customFormat="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="26"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:13" s="5" customFormat="1">
+      <c r="B42" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:13" s="5" customFormat="1">
+      <c r="B43" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:13" s="5" customFormat="1">
+      <c r="B44" s="26"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:13" s="5" customFormat="1">
+      <c r="B45" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:13" s="5" customFormat="1">
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:13" s="5" customFormat="1">
+      <c r="B47" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:13" s="5" customFormat="1">
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:11" s="5" customFormat="1">
+      <c r="B49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="2:11" s="5" customFormat="1">
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:11" s="5" customFormat="1">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="2:11" s="5" customFormat="1">
+      <c r="B52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="2:11" s="5" customFormat="1">
+      <c r="D53" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="2:11" s="5" customFormat="1">
+      <c r="D54" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="2:11" s="5" customFormat="1">
+      <c r="D55" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="2:11" s="5" customFormat="1">
+      <c r="B56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="2:11" s="5" customFormat="1">
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="36"/>
+    </row>
+    <row r="58" spans="2:11" s="5" customFormat="1" ht="33">
+      <c r="B58" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="30"/>
+      <c r="I58" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="4"/>
+    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
@@ -11094,7 +11970,7 @@
       <c r="H3" s="7"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" ht="17.25">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
@@ -11109,7 +11985,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="16">
+    <row r="5" spans="1:13" ht="17.25">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
@@ -11123,7 +11999,7 @@
       <c r="J5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="16">
+    <row r="6" spans="1:13" ht="17.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -11137,7 +12013,7 @@
       <c r="J6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:13" ht="16">
+    <row r="7" spans="1:13" ht="17.25">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -11151,7 +12027,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:13" ht="16">
+    <row r="8" spans="1:13" ht="17.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
@@ -11161,7 +12037,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="16">
+    <row r="9" spans="1:13" ht="17.25">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -11169,7 +12045,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:13" ht="16">
+    <row r="10" spans="1:13" ht="17.25">
       <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
@@ -11180,7 +12056,7 @@
       <c r="E10" s="5"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="16">
+    <row r="11" spans="1:13" ht="17.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>42</v>
@@ -11189,12 +12065,12 @@
       <c r="E11" s="5"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="16">
+    <row r="12" spans="1:13" ht="17.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="16">
+    <row r="13" spans="1:13" ht="17.25">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>73</v>
@@ -11208,7 +12084,7 @@
       <c r="H13" s="7"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row r="14" spans="1:13" ht="17.25">
       <c r="A14" s="14"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -11220,7 +12096,7 @@
       <c r="H14" s="7"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="16">
+    <row r="15" spans="1:13" ht="17.25">
       <c r="A15" s="14"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -11230,7 +12106,7 @@
       <c r="E15" s="5"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="16">
+    <row r="16" spans="1:13" ht="17.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
@@ -11238,13 +12114,13 @@
       <c r="E16" s="5"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="16">
+    <row r="17" spans="1:13" ht="17.25">
       <c r="A17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="16">
+    <row r="18" spans="1:13" ht="17.25">
       <c r="A18" s="11" t="s">
         <v>81</v>
       </c>
@@ -11252,7 +12128,7 @@
       <c r="D18" s="13"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="16">
+    <row r="19" spans="1:13" ht="17.25">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -11265,7 +12141,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="16">
+    <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -11277,7 +12153,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="16">
+    <row r="21" spans="1:13" ht="17.25">
       <c r="A21" s="14"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -11289,7 +12165,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="16">
+    <row r="22" spans="1:13" ht="17.25">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
@@ -11301,7 +12177,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="16">
+    <row r="23" spans="1:13" ht="17.25">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
@@ -11313,13 +12189,13 @@
       <c r="G23" s="18"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="16">
+    <row r="24" spans="1:13" ht="17.25">
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="16">
+    <row r="25" spans="1:13" ht="17.25">
       <c r="A25" s="11" t="s">
         <v>102</v>
       </c>
@@ -11331,7 +12207,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="16">
+    <row r="26" spans="1:13" ht="17.25">
       <c r="A26" s="11"/>
       <c r="B26" s="21" t="s">
         <v>45</v>
@@ -11345,7 +12221,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:13" ht="16">
+    <row r="27" spans="1:13" ht="17.25">
       <c r="A27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -11356,7 +12232,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:13" ht="16">
+    <row r="28" spans="1:13" ht="17.25">
       <c r="A28" s="11"/>
       <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
@@ -11370,7 +12246,7 @@
       <c r="K28" s="34"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:13" ht="16">
+    <row r="29" spans="1:13" ht="17.25">
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
@@ -11384,13 +12260,13 @@
       <c r="K29" s="34"/>
       <c r="M29" s="34"/>
     </row>
-    <row r="30" spans="1:13" ht="16">
+    <row r="30" spans="1:13" ht="17.25">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" ht="16">
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="17.25">
       <c r="A31" s="24" t="s">
         <v>118</v>
       </c>
@@ -11406,7 +12282,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="32">
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="33">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>119</v>
@@ -11419,7 +12295,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="32">
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="33">
       <c r="B33" s="26" t="s">
         <v>121</v>
       </c>
@@ -11431,7 +12307,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="32">
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="33">
       <c r="A34" s="3"/>
       <c r="B34" s="26" t="s">
         <v>122</v>
@@ -11444,7 +12320,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="35" spans="1:9" s="5" customFormat="1">
       <c r="A35" s="3"/>
       <c r="B35" s="26"/>
       <c r="F35" s="23"/>
@@ -11452,7 +12328,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="36" spans="1:9" s="5" customFormat="1">
       <c r="B36" s="26" t="s">
         <v>123</v>
       </c>
@@ -11461,7 +12337,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="37" spans="1:9" s="5" customFormat="1">
       <c r="B37" s="26" t="s">
         <v>124</v>
       </c>
@@ -11470,14 +12346,14 @@
       <c r="H37" s="7"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="38" spans="1:9" s="5" customFormat="1">
       <c r="B38" s="26"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="7"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="39" spans="1:9" s="5" customFormat="1">
       <c r="B39" s="26" t="s">
         <v>125</v>
       </c>
@@ -11486,13 +12362,13 @@
       <c r="H39" s="7"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="40" spans="1:9" s="5" customFormat="1">
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="7"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="41" spans="1:9" s="5" customFormat="1">
       <c r="B41" s="21" t="s">
         <v>126</v>
       </c>
@@ -11501,13 +12377,13 @@
       <c r="H41" s="7"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="42" spans="1:9" s="5" customFormat="1">
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="7"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="43" spans="1:9" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
         <v>127</v>
       </c>
@@ -11516,19 +12392,19 @@
       <c r="H43" s="7"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="44" spans="1:9" s="5" customFormat="1">
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="7"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="45" spans="1:9" s="5" customFormat="1">
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="7"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="46" spans="1:9" s="5" customFormat="1">
       <c r="B46" s="5" t="s">
         <v>128</v>
       </c>
@@ -11537,25 +12413,25 @@
       <c r="H46" s="7"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="47" spans="1:9" s="5" customFormat="1">
       <c r="F47" s="23"/>
       <c r="G47" s="27"/>
       <c r="H47" s="7"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="48" spans="1:9" s="5" customFormat="1">
       <c r="F48" s="23"/>
       <c r="G48" s="27"/>
       <c r="H48" s="7"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="49" spans="2:11" s="5" customFormat="1">
       <c r="F49" s="23"/>
       <c r="G49" s="27"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="50" spans="2:11" s="5" customFormat="1">
       <c r="B50" s="5" t="s">
         <v>129</v>
       </c>
@@ -11564,13 +12440,13 @@
       <c r="H50" s="7"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="51" spans="2:11" s="5" customFormat="1">
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="32">
+    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
       <c r="B52" s="28" t="s">
         <v>130</v>
       </c>
@@ -11650,20 +12526,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="265" zoomScaleNormal="265" zoomScalePageLayoutView="265" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17.25">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>468</v>
       </c>
@@ -11679,7 +12555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11697,7 +12573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16">
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -11715,7 +12591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:9" ht="17.25">
       <c r="A5" s="4" t="s">
         <v>99</v>
       </c>
@@ -11733,7 +12609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -11744,7 +12620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="17.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -11754,7 +12630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="17.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -11764,7 +12640,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -11774,7 +12650,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="17.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
@@ -11784,7 +12660,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="17.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
@@ -11794,7 +12670,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="17.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
@@ -11804,7 +12680,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="17.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -11814,7 +12690,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="17.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
@@ -11824,7 +12700,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="17.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -11834,7 +12710,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="17.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -11844,7 +12720,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="17.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -11854,7 +12730,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="17.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -11862,7 +12738,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="17.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -11870,7 +12746,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="17.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -11878,7 +12754,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="17.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -11886,7 +12762,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="17.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -11894,7 +12770,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" ht="17.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -11902,7 +12778,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="17.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -11910,12 +12786,12 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="17.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" ht="17.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-900" windowWidth="35565" windowHeight="16440" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35100" windowHeight="19200" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -13,24 +13,26 @@
     <sheet name="4-22周输出" sheetId="4" r:id="rId4"/>
     <sheet name="4-29周输出" sheetId="5" r:id="rId5"/>
     <sheet name="5-6周输出" sheetId="6" r:id="rId6"/>
-    <sheet name="5-13周输出" sheetId="9" r:id="rId7"/>
-    <sheet name="模板" sheetId="7" r:id="rId8"/>
-    <sheet name="附录" sheetId="8" r:id="rId9"/>
+    <sheet name="5-13周输出" sheetId="7" r:id="rId7"/>
+    <sheet name="模板" sheetId="8" r:id="rId8"/>
+    <sheet name="附录" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$69</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="591">
   <si>
     <t>类别</t>
   </si>
@@ -1130,9 +1132,18 @@
     <t>MG-200</t>
   </si>
   <si>
+    <t>Lua转c#</t>
+  </si>
+  <si>
+    <t>通用模块迁移到cms（2个）</t>
+  </si>
+  <si>
     <t>李文生</t>
   </si>
   <si>
+    <t>了解核心对局文档</t>
+  </si>
+  <si>
     <t>服务器新框架代码学习-逻辑层</t>
   </si>
   <si>
@@ -1289,6 +1300,63 @@
     <t>游戏内容是否偏多？-本周计划游戏内容，计划讨论后进行决策</t>
   </si>
   <si>
+    <t>宠物基础架构-升星、进化、抓宠</t>
+  </si>
+  <si>
+    <t>小星，辛</t>
+  </si>
+  <si>
+    <t>对局-弱点逻辑回归</t>
+  </si>
+  <si>
+    <t>Demo对局-AI确认</t>
+  </si>
+  <si>
+    <t>核心战斗-伤害公式计算</t>
+  </si>
+  <si>
+    <t>技能逻辑变更</t>
+  </si>
+  <si>
+    <t>道具文档</t>
+  </si>
+  <si>
+    <t>宠物基础架构</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>demo版本特效制作-耳鼠大招</t>
+  </si>
+  <si>
+    <t>技能通用规范广播</t>
+  </si>
+  <si>
+    <t>细化世界观，增补剧情（根据motra反馈）</t>
+  </si>
+  <si>
+    <t>7天版本任务细化（根据motra反馈调整）</t>
+  </si>
+  <si>
+    <t>副本规划玩法细化及广播（40左右）</t>
+  </si>
+  <si>
+    <t>美术需求模板更新（导入待与zz确认）</t>
+  </si>
+  <si>
+    <t>UI制作流程确认，规范，命名规范确认</t>
+  </si>
+  <si>
+    <t>对局配置跟进</t>
+  </si>
+  <si>
+    <t>小怪美术需求？</t>
+  </si>
+  <si>
+    <t>宠物数据确定，用csv导入</t>
+  </si>
+  <si>
     <t>zz 小智</t>
   </si>
   <si>
@@ -1298,6 +1366,12 @@
     <t>动画模块</t>
   </si>
   <si>
+    <t>延期</t>
+  </si>
+  <si>
+    <t>美术描边需求</t>
+  </si>
+  <si>
     <t>副本相关配置数据确定</t>
   </si>
   <si>
@@ -1313,6 +1387,12 @@
     <t>怪物挂点制作确认（max or prefab）</t>
   </si>
   <si>
+    <t>对局ui摆放（无功能）</t>
+  </si>
+  <si>
+    <t>照妖镜功能</t>
+  </si>
+  <si>
     <t>跑起现有服务器框架</t>
   </si>
   <si>
@@ -1325,6 +1405,15 @@
     <t>伤害公式文档修改</t>
   </si>
   <si>
+    <t>宠物数据结构文档分析</t>
+  </si>
+  <si>
+    <t>技能逻辑用例修改，测试</t>
+  </si>
+  <si>
+    <t>用例已改完，未测试</t>
+  </si>
+  <si>
     <t>副本逻辑测试用例设计</t>
   </si>
   <si>
@@ -1334,9 +1423,15 @@
     <t>封妖功能测试用例设计</t>
   </si>
   <si>
+    <t>开始写，未完成</t>
+  </si>
+  <si>
     <t>jekins与hockeyapp结合使用研究</t>
   </si>
   <si>
+    <t>打包测试-描边对性能影响-安卓</t>
+  </si>
+  <si>
     <t>美术量-原画-天狗</t>
   </si>
   <si>
@@ -1346,9 +1441,18 @@
     <t>美术量-新原画草图*4</t>
   </si>
   <si>
+    <t>照妖镜</t>
+  </si>
+  <si>
+    <t>3D-主角-女修改</t>
+  </si>
+  <si>
     <t>jenkins是否可以集成hockeyapp，完成测试项目的发布？如果不集成，通过itunes安装？</t>
   </si>
   <si>
+    <t>需要做两个项目*双平台：</t>
+  </si>
+  <si>
     <t xml:space="preserve">    一个是随便可以放什么测试内容的，比如：测试场景、怪物性能的</t>
   </si>
   <si>
@@ -1436,6 +1540,111 @@
     <t>郑帅是否可以做客户端内容</t>
   </si>
   <si>
+    <t>已制作功能功能点拆分，完成度标示，策划跟进验收-技能系统</t>
+  </si>
+  <si>
+    <t>小星，kz，ts</t>
+  </si>
+  <si>
+    <t>提交QC</t>
+  </si>
+  <si>
+    <t>IM系统文档提交QC</t>
+  </si>
+  <si>
+    <t>项目转方向方案</t>
+  </si>
+  <si>
+    <t>xw</t>
+  </si>
+  <si>
+    <t>雪，xw</t>
+  </si>
+  <si>
+    <t>IM系统文档初版</t>
+  </si>
+  <si>
+    <t>玩法特点归类</t>
+  </si>
+  <si>
+    <t>数值时间模板学习-应用到玩法体现</t>
+  </si>
+  <si>
+    <t>技能数值计算工具（用于其他策划配置）</t>
+  </si>
+  <si>
+    <t>时间价值基础模型构架</t>
+  </si>
+  <si>
+    <t>疲劳值初版</t>
+  </si>
+  <si>
+    <t>副本星级评价预研</t>
+  </si>
+  <si>
+    <t>客户端任务</t>
+  </si>
+  <si>
+    <t>怪物弱点数据确定</t>
+  </si>
+  <si>
+    <t>zz 文生</t>
+  </si>
+  <si>
+    <t>弱点模块</t>
+  </si>
+  <si>
+    <t>照妖镜功能完善</t>
+  </si>
+  <si>
+    <t>大招功能实现</t>
+  </si>
+  <si>
+    <t>用户帐号角色</t>
+  </si>
+  <si>
+    <t>csv配置解析java版</t>
+  </si>
+  <si>
+    <t>宠物数据</t>
+  </si>
+  <si>
+    <t>技能逻辑用例走读</t>
+  </si>
+  <si>
+    <t>技能逻辑用例修改</t>
+  </si>
+  <si>
+    <t>伤害公式用例走读</t>
+  </si>
+  <si>
+    <t>伤害公式用例修改</t>
+  </si>
+  <si>
+    <t>伤害公式计算表格修改</t>
+  </si>
+  <si>
+    <t>对局测试-流程、换宠、UI</t>
+  </si>
+  <si>
+    <t>封妖测试用例设计</t>
+  </si>
+  <si>
+    <t>美术风格-男性角色 5张脸</t>
+  </si>
+  <si>
+    <t>美术风格-ui大板按钮 颜色调整</t>
+  </si>
+  <si>
+    <t>孙帆  豆豆</t>
+  </si>
+  <si>
+    <t>美术风格-ui全屏板 版式按钮设计</t>
+  </si>
+  <si>
+    <t>大家注意任务自主和非自主的区别，非自主任务由测试负责验收关闭</t>
+  </si>
+  <si>
     <t>任务时限</t>
   </si>
   <si>
@@ -1523,309 +1732,111 @@
     <t>特效</t>
   </si>
   <si>
-    <t>宠物基础架构</t>
-  </si>
-  <si>
-    <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具文档</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <t>完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划验收</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能，伤害公式</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数据</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局流程</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>换宠</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>星，xw</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>自主任务</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo版本特效制作-耳鼠大招</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔老师</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能通用规范广播</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>细化世界观，增补剧情（根据motra反馈）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目转方向时间预估</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Day4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖子</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛炜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星，辛</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua转c#</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能逻辑变更</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用模块迁移到cms（2个）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解核心对局文档</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>李文生</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day6</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>7天版本任务细化（根据motra反馈调整）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本规划玩法细化及广播（40左右）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目转方向时间讨论—Day5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>超额</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术需求模板更新（导入待与zz确认）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪美术需求？</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI制作流程确认，规范，命名规范确认</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖子</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局配置跟进</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛炜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物基础架构-升星、进化、抓宠</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局-弱点逻辑回归</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo对局-AI确认</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D-主角-女修改</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术量-怪物头像-青鸟，朱厌，耳鼠</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-照妖镜</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物数据确定，用csv导入</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局ui摆放（无功能）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜功能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物数据结构文档分析</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能逻辑用例修改，测试</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术描边需求</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>自主任务</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>打包测试-描边对性能影响-安卓</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要做两个项目*双平台：</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>已制作功能功能点拆分，完成度标示，策划跟进验收-技能系统</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星，kz，ts</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序拆分任务后需要确认时间并发布任务到Jira，策划负责回归任务拆分到对应文档，表明优先级和时间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大家注意任务自主和非自主的区别，非自主任务由测试负责验收关闭</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo副本制作依赖的内容还剩哪些？剩余内容什么时候完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认游戏规划计划一简化讨论时间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交QC</t>
-  </si>
-  <si>
-    <t>IM系统文档提交QC</t>
-  </si>
-  <si>
-    <t>项目转方向方案</t>
-  </si>
-  <si>
-    <t>xw</t>
-  </si>
-  <si>
-    <t>对局配置跟进</t>
-  </si>
-  <si>
-    <t>雪，xw</t>
-  </si>
-  <si>
-    <t>IM系统文档初版</t>
-  </si>
-  <si>
-    <t>玩法特点归类</t>
-  </si>
-  <si>
-    <t>数值时间模板学习-应用到玩法体现</t>
-  </si>
-  <si>
-    <t>技能数值计算工具（用于其他策划配置）</t>
-  </si>
-  <si>
-    <t>时间价值基础模型构架</t>
-  </si>
-  <si>
-    <t>疲劳值初版</t>
-  </si>
-  <si>
-    <t>副本星级评价预研</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo对局制作依赖的内容还剩哪些？剩余内容什么时候完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   本周程序内容全部制作完成，配置大概一天完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序拆分任务后需要确认时间并发布任务到Jira，策划负责回归任务拆分到对应文档，标明优先级和时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认游戏规划计划一简化讨论时间-Day'5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1837,123 +1848,72 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1995,7 +1955,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,10 +1965,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -2017,89 +1980,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2125,14 +2007,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2174,18 +2056,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2199,7 +2083,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2209,7 +2093,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2225,9 +2109,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2264,57 +2145,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="34">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 25" xfId="3"/>
-    <cellStyle name="常规 3" xfId="33"/>
-    <cellStyle name="常规 8" xfId="5"/>
-    <cellStyle name="常规_2-4周版本输出" xfId="6"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 8" xfId="6"/>
+    <cellStyle name="常规_2-4周版本输出" xfId="7"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -2621,34 +2461,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="附录"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="附录"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2986,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
@@ -2996,20 +2810,20 @@
       <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="10.125" style="23"/>
-    <col min="10" max="11" width="10.125" style="27"/>
-    <col min="12" max="13" width="10.125" style="5"/>
-    <col min="14" max="14" width="10.125" style="27"/>
-    <col min="15" max="16384" width="10.125" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="10.1640625" style="23"/>
+    <col min="10" max="11" width="10.1640625" style="27"/>
+    <col min="12" max="13" width="10.1640625" style="5"/>
+    <col min="14" max="14" width="10.1640625" style="27"/>
+    <col min="15" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3046,7 +2860,7 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="24" t="s">
@@ -3065,11 +2879,11 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
@@ -3124,13 +2938,13 @@
       <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="68"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
@@ -3154,9 +2968,9 @@
       <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="M5" s="70"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+      <c r="M5" s="69"/>
       <c r="O5" s="27" t="s">
         <v>28</v>
       </c>
@@ -3185,7 +2999,7 @@
       <c r="L6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="70"/>
+      <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
@@ -3195,10 +3009,10 @@
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="68"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="67"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
@@ -3228,7 +3042,7 @@
       <c r="L8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3"/>
@@ -3255,7 +3069,7 @@
       <c r="K9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3"/>
@@ -3281,7 +3095,7 @@
       <c r="L10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3"/>
@@ -3306,10 +3120,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="69"/>
       <c r="O11" s="27" t="s">
         <v>41</v>
       </c>
@@ -3334,10 +3148,10 @@
       <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="68"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="5" t="s">
         <v>44</v>
       </c>
@@ -3351,10 +3165,10 @@
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="68"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="67"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3"/>
@@ -3378,10 +3192,10 @@
       <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="68"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="67"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3"/>
@@ -3405,10 +3219,10 @@
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="68"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="67"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3"/>
@@ -3433,10 +3247,10 @@
         <v>19</v>
       </c>
       <c r="K16" s="26"/>
-      <c r="L16" s="71" t="s">
+      <c r="L16" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3"/>
@@ -3454,10 +3268,10 @@
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="68"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3"/>
@@ -3469,10 +3283,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="68"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3"/>
@@ -3501,7 +3315,7 @@
       <c r="K19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="70"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3"/>
@@ -3513,10 +3327,10 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="68"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3"/>
@@ -3604,10 +3418,10 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="N24" s="68"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="N24" s="67"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
@@ -3615,11 +3429,11 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="N25" s="68"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="N25" s="67"/>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="12" t="s">
@@ -3640,7 +3454,7 @@
       <c r="H26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="43" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="27" t="s">
@@ -3667,22 +3481,22 @@
       <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="N27" s="68"/>
+      <c r="I27" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="N27" s="67"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="N28" s="68"/>
-    </row>
-    <row r="29" spans="1:14" ht="33">
+      <c r="I28" s="43"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="N28" s="67"/>
+    </row>
+    <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
         <v>73</v>
@@ -3702,14 +3516,14 @@
       <c r="H29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="N29" s="69"/>
-    </row>
-    <row r="30" spans="1:14" ht="115.5">
+      <c r="I29" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="N29" s="68"/>
+    </row>
+    <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
       <c r="C30" s="13" t="s">
         <v>15</v>
@@ -3726,12 +3540,12 @@
       <c r="H30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="N30" s="69" t="s">
+      <c r="I30" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="N30" s="68" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3739,10 +3553,10 @@
       <c r="A31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="N31" s="68"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="N31" s="67"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
@@ -3750,12 +3564,12 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="N32" s="68"/>
-    </row>
-    <row r="33" spans="1:14" ht="33">
+      <c r="I32" s="43"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="N32" s="67"/>
+    </row>
+    <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -3769,17 +3583,17 @@
         <v>83</v>
       </c>
       <c r="F33" s="49"/>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="N33" s="68"/>
-    </row>
-    <row r="34" spans="1:14" ht="33">
+      <c r="I33" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="N33" s="67"/>
+    </row>
+    <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -3791,19 +3605,19 @@
         <v>83</v>
       </c>
       <c r="F34" s="49"/>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
+      <c r="I34" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
       <c r="N34" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="33">
+    <row r="35" spans="1:14" ht="32">
       <c r="A35" s="13"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
@@ -3815,15 +3629,15 @@
         <v>89</v>
       </c>
       <c r="F35" s="49"/>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="N35" s="68"/>
+      <c r="I35" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="N35" s="67"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="13"/>
@@ -3835,17 +3649,17 @@
         <v>92</v>
       </c>
       <c r="F36" s="49"/>
-      <c r="H36" s="64" t="s">
+      <c r="H36" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="N36" s="68"/>
-    </row>
-    <row r="37" spans="1:14" ht="33">
+      <c r="I36" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="N36" s="67"/>
+    </row>
+    <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
@@ -3857,15 +3671,15 @@
         <v>89</v>
       </c>
       <c r="F37" s="49"/>
-      <c r="H37" s="64" t="s">
+      <c r="H37" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="N37" s="68"/>
+      <c r="I37" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="N37" s="67"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11"/>
@@ -3879,15 +3693,15 @@
         <v>97</v>
       </c>
       <c r="F38" s="49"/>
-      <c r="H38" s="65" t="s">
+      <c r="H38" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="N38" s="68"/>
+      <c r="I38" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="N38" s="67"/>
     </row>
     <row r="39" spans="1:14">
       <c r="C39" s="10" t="s">
@@ -3902,22 +3716,22 @@
       <c r="H39" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="N39" s="68"/>
+      <c r="I39" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="N39" s="67"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="N40" s="68"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="N40" s="67"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="11"/>
@@ -3939,7 +3753,7 @@
       <c r="H41" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="63" t="s">
+      <c r="I41" s="43" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="26"/>
@@ -3962,15 +3776,15 @@
       <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="69"/>
-      <c r="K42" s="68"/>
+      <c r="I42" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="68"/>
+      <c r="K42" s="67"/>
       <c r="M42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="68"/>
+      <c r="N42" s="67"/>
     </row>
     <row r="43" spans="1:14">
       <c r="C43" s="5" t="s">
@@ -3985,12 +3799,12 @@
       <c r="H43" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="63" t="s">
+      <c r="I43" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="N43" s="68"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="N43" s="67"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="11"/>
@@ -4006,7 +3820,7 @@
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="63" t="s">
+      <c r="I44" s="43" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -4031,15 +3845,15 @@
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
+      <c r="I45" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
       <c r="L45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="69"/>
+      <c r="N45" s="68"/>
     </row>
     <row r="46" spans="1:14">
       <c r="C46" s="5" t="s">
@@ -4054,15 +3868,15 @@
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="63" t="s">
+      <c r="I46" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
       <c r="M46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="68"/>
+      <c r="N46" s="67"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11"/>
@@ -4079,32 +3893,32 @@
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
+      <c r="I47" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
       <c r="M47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N47" s="69"/>
+      <c r="N47" s="68"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="I48" s="63"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="N48" s="68"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="N48" s="67"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="63"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="N49" s="68"/>
-    </row>
-    <row r="50" spans="1:14" ht="33">
+      <c r="I49" s="43"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="N49" s="67"/>
+    </row>
+    <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
         <v>119</v>
@@ -4113,12 +3927,12 @@
         <v>120</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="N50" s="68"/>
-    </row>
-    <row r="51" spans="1:14" ht="33">
+      <c r="I50" s="43"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="N50" s="67"/>
+    </row>
+    <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
         <v>121</v>
       </c>
@@ -4126,12 +3940,12 @@
         <v>120</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="N51" s="68"/>
-    </row>
-    <row r="52" spans="1:14" ht="33">
+      <c r="I51" s="43"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="N51" s="67"/>
+    </row>
+    <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
       <c r="B52" s="26" t="s">
         <v>122</v>
@@ -4140,157 +3954,157 @@
         <v>120</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="N52" s="68"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="N52" s="67"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="26"/>
       <c r="F53" s="23"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="N53" s="68"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="N53" s="67"/>
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="N54" s="68"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="N54" s="67"/>
     </row>
     <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="N55" s="68"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="N55" s="67"/>
     </row>
     <row r="56" spans="1:14">
       <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="N56" s="68"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="N56" s="67"/>
     </row>
     <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="N57" s="68"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="N57" s="67"/>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" s="23"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="N58" s="68"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="N58" s="67"/>
     </row>
     <row r="59" spans="1:14">
       <c r="F59" s="23"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="N59" s="68"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="N59" s="67"/>
     </row>
     <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="N60" s="68"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="N60" s="67"/>
     </row>
     <row r="61" spans="1:14">
       <c r="F61" s="23"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="N61" s="68"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="N61" s="67"/>
     </row>
     <row r="62" spans="1:14">
       <c r="B62" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="N62" s="68"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="N62" s="67"/>
     </row>
     <row r="63" spans="1:14">
       <c r="F63" s="23"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="N63" s="68"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="N63" s="67"/>
     </row>
     <row r="64" spans="1:14">
       <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="N64" s="68"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="N64" s="67"/>
     </row>
     <row r="65" spans="2:14">
       <c r="F65" s="23"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="N65" s="68"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="N65" s="67"/>
     </row>
     <row r="66" spans="2:14">
       <c r="F66" s="23"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="N66" s="68"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="N66" s="67"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="23"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="N67" s="68"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="N67" s="67"/>
     </row>
     <row r="68" spans="2:14">
       <c r="F68" s="23"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="N68" s="68"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="N68" s="67"/>
     </row>
     <row r="69" spans="2:14">
       <c r="F69" s="23"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="N69" s="68"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="N69" s="67"/>
     </row>
     <row r="70" spans="2:14">
       <c r="F70" s="23"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="N70" s="68"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="N70" s="67"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="5" t="s">
@@ -4298,19 +4112,19 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="51"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="N71" s="68"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="N71" s="67"/>
     </row>
     <row r="72" spans="2:14">
       <c r="F72" s="23"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="68"/>
-      <c r="N72" s="68"/>
-    </row>
-    <row r="73" spans="2:14" ht="33">
+      <c r="I72" s="43"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="67"/>
+      <c r="N72" s="67"/>
+    </row>
+    <row r="73" spans="2:14" ht="32">
       <c r="B73" s="28" t="s">
         <v>130</v>
       </c>
@@ -4331,16 +4145,16 @@
         <v>135</v>
       </c>
       <c r="I73" s="29"/>
-      <c r="J73" s="74" t="s">
+      <c r="J73" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="K73" s="74" t="s">
+      <c r="K73" s="73" t="s">
         <v>137</v>
       </c>
       <c r="L73" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="N73" s="68"/>
+      <c r="N73" s="67"/>
     </row>
     <row r="74" spans="2:14">
       <c r="B74" s="46"/>
@@ -4349,16 +4163,16 @@
       <c r="E74" s="47"/>
       <c r="F74" s="47"/>
       <c r="G74" s="47"/>
-      <c r="H74" s="72"/>
+      <c r="H74" s="71"/>
       <c r="I74" s="60"/>
-      <c r="J74" s="75"/>
-      <c r="K74" s="75"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
       <c r="L74" s="47"/>
-      <c r="N74" s="68"/>
+      <c r="N74" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N74"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
@@ -4408,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -4418,19 +4232,19 @@
       <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="5"/>
-    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="27"/>
-    <col min="9" max="9" width="10.125" style="5"/>
-    <col min="10" max="14" width="10.125" style="23"/>
-    <col min="15" max="16384" width="10.125" style="5"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="27"/>
+    <col min="9" max="9" width="10.1640625" style="5"/>
+    <col min="10" max="14" width="10.1640625" style="23"/>
+    <col min="15" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5014,7 +4828,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="42"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
@@ -5039,7 +4853,7 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
@@ -5061,7 +4875,7 @@
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -5069,7 +4883,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="F31" s="7"/>
@@ -5133,7 +4947,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="42"/>
+      <c r="A35" s="45"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
@@ -5153,7 +4967,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="42"/>
+      <c r="A36" s="45"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -5447,7 +5261,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="33">
+    <row r="51" spans="1:14" ht="32">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>119</v>
@@ -5458,7 +5272,7 @@
       <c r="F51" s="23"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="33">
+    <row r="52" spans="1:14" ht="32">
       <c r="B52" s="26" t="s">
         <v>121</v>
       </c>
@@ -5468,7 +5282,7 @@
       <c r="F52" s="23"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="33">
+    <row r="53" spans="1:14" ht="32">
       <c r="A53" s="3"/>
       <c r="B53" s="26" t="s">
         <v>122</v>
@@ -5575,7 +5389,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="36"/>
     </row>
-    <row r="68" spans="2:12" ht="33">
+    <row r="68" spans="2:12" ht="32">
       <c r="B68" s="28" t="s">
         <v>130</v>
       </c>
@@ -5621,7 +5435,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N69"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
@@ -5761,26 +5575,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="4"/>
-    <col min="7" max="7" width="13.375" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4"/>
+    <col min="7" max="7" width="13.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25">
+    <row r="1" spans="1:15" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5822,7 +5636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25">
+    <row r="2" spans="1:15" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -5841,7 +5655,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="17.25">
+    <row r="3" spans="1:15" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -5874,7 +5688,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25">
+    <row r="4" spans="1:15" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -5891,7 +5705,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="17.25">
+    <row r="5" spans="1:15" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>30</v>
@@ -5924,7 +5738,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25">
+    <row r="6" spans="1:15" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
@@ -5952,7 +5766,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="17.25">
+    <row r="7" spans="1:15" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5"/>
@@ -5967,7 +5781,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="17.25">
+    <row r="8" spans="1:15" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>45</v>
@@ -5997,7 +5811,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="17.25">
+    <row r="9" spans="1:15" ht="16">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -6025,7 +5839,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="17.25">
+    <row r="10" spans="1:15" ht="16">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
@@ -6055,7 +5869,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="17.25">
+    <row r="11" spans="1:15" ht="16">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
@@ -6083,7 +5897,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="17.25">
+    <row r="12" spans="1:15" ht="16">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
@@ -6111,7 +5925,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="17.25">
+    <row r="13" spans="1:15" ht="16">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -6137,7 +5951,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="17.25">
+    <row r="14" spans="1:15" ht="16">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="10"/>
@@ -6151,7 +5965,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25">
+    <row r="15" spans="1:15" ht="16">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
@@ -6163,7 +5977,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="17.25">
+    <row r="16" spans="1:15" ht="16">
       <c r="B16" s="12" t="s">
         <v>66</v>
       </c>
@@ -6195,7 +6009,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="17.25">
+    <row r="17" spans="1:15" ht="16">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
         <v>15</v>
@@ -6225,7 +6039,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" ht="17.25">
+    <row r="18" spans="1:15" ht="16">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
@@ -6256,7 +6070,7 @@
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="17.25">
+    <row r="19" spans="1:15" ht="16">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
         <v>73</v>
@@ -6289,7 +6103,7 @@
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="17.25">
+    <row r="20" spans="1:15" ht="16">
       <c r="A20" s="14"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -6320,7 +6134,7 @@
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="17.25">
+    <row r="21" spans="1:15" ht="16">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
@@ -6337,7 +6151,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="17.25">
+    <row r="22" spans="1:15" ht="16">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
@@ -6355,7 +6169,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="17.25">
+    <row r="23" spans="1:15" ht="16">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -6385,7 +6199,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="17.25">
+    <row r="24" spans="1:15" ht="16">
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
@@ -6413,7 +6227,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="17.25">
+    <row r="25" spans="1:15" ht="16">
       <c r="A25" s="14"/>
       <c r="B25" s="5"/>
       <c r="C25" s="10" t="s">
@@ -6442,7 +6256,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="17.25">
+    <row r="26" spans="1:15" ht="16">
       <c r="A26" s="14"/>
       <c r="B26" s="5"/>
       <c r="C26" s="10" t="s">
@@ -6471,7 +6285,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="17.25">
+    <row r="27" spans="1:15" ht="16">
       <c r="A27" s="11"/>
       <c r="B27" s="5"/>
       <c r="C27" s="10" t="s">
@@ -6500,7 +6314,7 @@
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="17.25">
+    <row r="28" spans="1:15" ht="16">
       <c r="C28" s="10"/>
       <c r="D28" s="20"/>
       <c r="E28" s="13"/>
@@ -6515,7 +6329,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="17.25">
+    <row r="29" spans="1:15" ht="16">
       <c r="A29" s="11" t="s">
         <v>102</v>
       </c>
@@ -6534,7 +6348,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="17.25">
+    <row r="30" spans="1:15" ht="16">
       <c r="A30" s="11"/>
       <c r="B30" s="21" t="s">
         <v>45</v>
@@ -6567,7 +6381,7 @@
       </c>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="17.25">
+    <row r="31" spans="1:15" ht="16">
       <c r="A31" s="11"/>
       <c r="C31" s="5" t="s">
         <v>15</v>
@@ -6597,7 +6411,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="17.25">
+    <row r="32" spans="1:15" ht="16">
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="5" t="s">
@@ -6628,7 +6442,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="17.25">
+    <row r="33" spans="1:15" ht="16">
       <c r="A33" s="11"/>
       <c r="B33" s="21"/>
       <c r="C33" s="5" t="s">
@@ -6657,7 +6471,7 @@
       </c>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:15" ht="17.25">
+    <row r="34" spans="1:15" ht="16">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -6670,7 +6484,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" ht="17.25">
+    <row r="35" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="A35" s="24" t="s">
         <v>118</v>
       </c>
@@ -6687,7 +6501,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="33">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>119</v>
@@ -6700,7 +6514,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="33">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="B37" s="26" t="s">
         <v>121</v>
       </c>
@@ -6712,7 +6526,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="33">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="32">
       <c r="A38" s="3"/>
       <c r="B38" s="26" t="s">
         <v>122</v>
@@ -6725,7 +6539,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="A39" s="3"/>
       <c r="B39" s="26"/>
       <c r="F39" s="23"/>
@@ -6733,7 +6547,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1">
+    <row r="40" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B40" s="26" t="s">
         <v>123</v>
       </c>
@@ -6742,7 +6556,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:15" s="5" customFormat="1">
+    <row r="41" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B41" s="26" t="s">
         <v>124</v>
       </c>
@@ -6751,14 +6565,14 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:15" s="5" customFormat="1">
+    <row r="42" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B42" s="26"/>
       <c r="F42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:15" s="5" customFormat="1">
+    <row r="43" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B43" s="26" t="s">
         <v>125</v>
       </c>
@@ -6767,13 +6581,13 @@
       <c r="I43" s="7"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:15" s="5" customFormat="1">
+    <row r="44" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="7"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:15" s="5" customFormat="1">
+    <row r="45" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B45" s="21" t="s">
         <v>126</v>
       </c>
@@ -6782,13 +6596,13 @@
       <c r="I45" s="7"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:15" s="5" customFormat="1">
+    <row r="46" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="7"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:15" s="5" customFormat="1">
+    <row r="47" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="B47" s="5" t="s">
         <v>127</v>
       </c>
@@ -6797,19 +6611,19 @@
       <c r="I47" s="7"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:15" s="5" customFormat="1">
+    <row r="48" spans="1:15" s="5" customFormat="1" ht="16">
       <c r="F48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="7"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="5" customFormat="1">
+    <row r="49" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="7"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="5" customFormat="1">
+    <row r="50" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="B50" s="5" t="s">
         <v>128</v>
       </c>
@@ -6818,25 +6632,25 @@
       <c r="I50" s="7"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:12" s="5" customFormat="1">
+    <row r="51" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F51" s="23"/>
       <c r="H51" s="27"/>
       <c r="I51" s="7"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="5" customFormat="1">
+    <row r="52" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F52" s="23"/>
       <c r="H52" s="27"/>
       <c r="I52" s="7"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="2:12" s="5" customFormat="1">
+    <row r="53" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F53" s="23"/>
       <c r="H53" s="27"/>
       <c r="I53" s="7"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="5" customFormat="1">
+    <row r="54" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="B54" s="5" t="s">
         <v>129</v>
       </c>
@@ -6846,13 +6660,13 @@
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="2:12" s="5" customFormat="1">
+    <row r="55" spans="2:12" s="5" customFormat="1" ht="16">
       <c r="F55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="7"/>
       <c r="J55" s="36"/>
     </row>
-    <row r="56" spans="2:12" s="5" customFormat="1" ht="33">
+    <row r="56" spans="2:12" s="5" customFormat="1" ht="32">
       <c r="B56" s="28" t="s">
         <v>130</v>
       </c>
@@ -6897,7 +6711,7 @@
       <c r="L57" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F15">
     <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
@@ -6961,7 +6775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
@@ -6971,16 +6785,16 @@
       <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="5"/>
-    <col min="7" max="7" width="13.375" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.125" style="5"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="5"/>
+    <col min="7" max="7" width="13.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7286,7 +7100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="99">
+    <row r="12" spans="1:14" ht="80">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
@@ -7460,7 +7274,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:14" ht="33">
+    <row r="20" spans="1:14" ht="32">
       <c r="A20" s="13"/>
       <c r="B20" s="15" t="s">
         <v>73</v>
@@ -7513,7 +7327,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:14" ht="49.5">
+    <row r="23" spans="1:14" ht="32">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -7615,7 +7429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="33">
+    <row r="27" spans="1:14" ht="32">
       <c r="A27" s="13"/>
       <c r="C27" s="10" t="s">
         <v>15</v>
@@ -7638,7 +7452,7 @@
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
     </row>
-    <row r="28" spans="1:14" ht="33">
+    <row r="28" spans="1:14" ht="32">
       <c r="A28" s="13"/>
       <c r="C28" s="10" t="s">
         <v>15</v>
@@ -7662,7 +7476,7 @@
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:14" ht="33">
+    <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
       <c r="C29" s="10" t="s">
         <v>15</v>
@@ -7686,7 +7500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="33">
+    <row r="30" spans="1:14" ht="32">
       <c r="A30" s="13"/>
       <c r="C30" s="10" t="s">
         <v>15</v>
@@ -7710,7 +7524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="33">
+    <row r="31" spans="1:14" ht="32">
       <c r="A31" s="13"/>
       <c r="C31" s="10" t="s">
         <v>15</v>
@@ -7759,7 +7573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="33">
+    <row r="33" spans="1:14" ht="32">
       <c r="C33" s="10" t="s">
         <v>42</v>
       </c>
@@ -7802,7 +7616,7 @@
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:14" ht="33">
+    <row r="36" spans="1:14" ht="32">
       <c r="A36" s="11"/>
       <c r="B36" s="21" t="s">
         <v>45</v>
@@ -7832,7 +7646,7 @@
       </c>
       <c r="M36" s="34"/>
     </row>
-    <row r="37" spans="1:14" ht="33">
+    <row r="37" spans="1:14" ht="32">
       <c r="A37" s="11"/>
       <c r="C37" s="5" t="s">
         <v>15</v>
@@ -7895,7 +7709,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:14" ht="33">
+    <row r="41" spans="1:14" ht="32">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>119</v>
@@ -7908,7 +7722,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:14" ht="33">
+    <row r="42" spans="1:14" ht="32">
       <c r="B42" s="26" t="s">
         <v>121</v>
       </c>
@@ -7920,7 +7734,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:14" ht="33">
+    <row r="43" spans="1:14" ht="32">
       <c r="A43" s="3"/>
       <c r="B43" s="26" t="s">
         <v>122</v>
@@ -8065,7 +7879,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="36"/>
     </row>
-    <row r="61" spans="2:12" ht="33">
+    <row r="61" spans="2:12" ht="32">
       <c r="B61" s="28" t="s">
         <v>130</v>
       </c>
@@ -8110,7 +7924,7 @@
       <c r="L62" s="47"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
@@ -8155,21 +7969,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="5"/>
-    <col min="4" max="4" width="49.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="5"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="49.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -8534,7 +8348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="66">
+    <row r="15" spans="1:14" ht="64">
       <c r="A15" s="3"/>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -8699,64 +8513,64 @@
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
-        <v>522</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>516</v>
+        <v>366</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>523</v>
+        <v>282</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="7" t="s">
-        <v>521</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="5" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>524</v>
+        <v>367</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>321</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="7" t="s">
-        <v>525</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>526</v>
+        <v>369</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>527</v>
+        <v>368</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>528</v>
+        <v>321</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="7" t="s">
-        <v>521</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="15" t="s">
         <v>73</v>
       </c>
@@ -8764,7 +8578,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>235</v>
@@ -8773,37 +8587,37 @@
         <v>321</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>520</v>
+        <v>19</v>
       </c>
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="42"/>
+      <c r="A28" s="45"/>
       <c r="C28" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>321</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>521</v>
+        <v>19</v>
       </c>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="G29" s="34"/>
@@ -8821,19 +8635,19 @@
     <row r="31" spans="1:13">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>19</v>
@@ -8845,13 +8659,13 @@
         <v>15</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>19</v>
@@ -8863,13 +8677,13 @@
         <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>19</v>
@@ -8881,13 +8695,13 @@
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>97</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>19</v>
@@ -8899,13 +8713,13 @@
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>19</v>
@@ -8917,13 +8731,13 @@
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>97</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>19</v>
@@ -8935,37 +8749,37 @@
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="33">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="32">
       <c r="A38" s="11"/>
       <c r="B38" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>27</v>
@@ -8977,19 +8791,19 @@
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>97</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8998,19 +8812,19 @@
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -9019,7 +8833,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>83</v>
@@ -9028,22 +8842,22 @@
         <v>8</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="33">
+    <row r="42" spans="1:9" ht="32">
       <c r="A42" s="11"/>
       <c r="B42" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>83</v>
@@ -9052,7 +8866,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>19</v>
@@ -9064,7 +8878,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>97</v>
@@ -9073,7 +8887,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>19</v>
@@ -9088,13 +8902,13 @@
         <v>42</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>19</v>
@@ -9116,145 +8930,137 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="11"/>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="E47" s="39" t="s">
+      <c r="C47" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="43"/>
+      <c r="G47" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="11"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="38" t="s">
+      <c r="C48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="H48" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="39"/>
+      <c r="G48" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="11"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="E49" s="39" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="39"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="K49" s="34"/>
       <c r="M49" s="34"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="11"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="E50" s="39" t="s">
+      <c r="D50" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="39"/>
+      <c r="G50" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="K50" s="34"/>
       <c r="M50" s="34"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="B51" s="39"/>
-      <c r="C51" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F51" s="39" t="s">
+      <c r="C51" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="39"/>
+      <c r="G51" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F52" s="39" t="s">
+      <c r="D52" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="39"/>
-    </row>
-    <row r="53" spans="1:13" ht="33">
+      <c r="G52" s="34"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:13" ht="32">
       <c r="A53" s="25"/>
       <c r="B53" s="26" t="s">
         <v>119</v>
@@ -9267,7 +9073,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:13" ht="33">
+    <row r="54" spans="1:13" ht="32">
       <c r="B54" s="26" t="s">
         <v>121</v>
       </c>
@@ -9279,7 +9085,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:13" ht="33">
+    <row r="55" spans="1:13" ht="32">
       <c r="A55" s="3"/>
       <c r="B55" s="26" t="s">
         <v>122</v>
@@ -9381,7 +9187,7 @@
         <v>128</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
@@ -9390,7 +9196,7 @@
     </row>
     <row r="68" spans="2:11">
       <c r="D68" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
@@ -9399,7 +9205,7 @@
     </row>
     <row r="69" spans="2:11">
       <c r="D69" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
@@ -9408,7 +9214,7 @@
     </row>
     <row r="70" spans="2:11">
       <c r="D70" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
@@ -9417,7 +9223,7 @@
     </row>
     <row r="71" spans="2:11">
       <c r="D71" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="27"/>
@@ -9451,7 +9257,7 @@
       <c r="H75" s="7"/>
       <c r="I75" s="36"/>
     </row>
-    <row r="76" spans="2:11" ht="33">
+    <row r="76" spans="2:11" ht="32">
       <c r="B76" s="28" t="s">
         <v>130</v>
       </c>
@@ -9492,50 +9298,10 @@
       <c r="K77" s="47"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]附录!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B30 H30 H45 C30:C43 F30:F40 F44:F45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F46 F1:F29 F41:F43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C46 C1:C29 C93:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>H46 H93:H1048576 H31:H44 H1:H29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B29 B31:B46 B93:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[2]附录!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B47:C51 F47:F52</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -9544,24 +9310,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9600,7 +9366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -9617,7 +9383,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -9626,136 +9392,148 @@
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>539</v>
+        <v>422</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="34"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>540</v>
+        <v>424</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>529</v>
+        <v>272</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="17.25">
+    <row r="5" spans="1:13" ht="16">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>541</v>
+        <v>425</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>542</v>
+        <v>22</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="34"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="17.25">
+    <row r="6" spans="1:13" ht="16">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="34"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
     </row>
-    <row r="7" spans="1:13" ht="17.25">
+    <row r="7" spans="1:13" ht="16">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>519</v>
+        <v>272</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="34"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25">
+    <row r="8" spans="1:13" ht="16">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>503</v>
+        <v>428</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>499</v>
+        <v>22</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="34"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="1:13" ht="17.25">
+    <row r="9" spans="1:13" ht="16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -9770,7 +9548,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="17.25">
+    <row r="10" spans="1:13" ht="16">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>30</v>
@@ -9779,69 +9557,75 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>500</v>
+        <v>9</v>
       </c>
       <c r="G10" s="34"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:13" ht="17.25">
+    <row r="11" spans="1:13" ht="16">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>501</v>
+        <v>9</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:13" ht="17.25">
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>499</v>
+        <v>22</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="17.25">
+    <row r="13" spans="1:13" ht="16">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9856,175 +9640,193 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="17.25">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
-        <v>504</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>511</v>
+        <v>47</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="K14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="17.25">
+    <row r="15" spans="1:13" ht="16">
       <c r="A15" s="3"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>507</v>
+        <v>432</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="F15" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:13" ht="17.25">
+    <row r="16" spans="1:13" ht="16">
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>508</v>
+        <v>433</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>509</v>
+        <v>47</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="J16" s="34"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>530</v>
+        <v>434</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>510</v>
+        <v>47</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>11</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="J17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:12" ht="17.25">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>531</v>
+        <v>435</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="F18" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="J18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="3"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>532</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>533</v>
+        <v>436</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>514</v>
+        <v>38</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>11</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="J19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" ht="17.25">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
-        <v>522</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>535</v>
+        <v>437</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="F20" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" ht="17.25">
+      <c r="H20" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>537</v>
+        <v>438</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>538</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" ht="17.25">
+      <c r="H21" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
       <c r="D22" s="7" t="s">
-        <v>534</v>
+        <v>439</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.25">
+      <c r="H22" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10"/>
@@ -10034,7 +9836,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="17.25">
+    <row r="24" spans="1:12" ht="16">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
@@ -10042,7 +9844,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="17.25">
+    <row r="25" spans="1:12" ht="16">
       <c r="B25" s="12" t="s">
         <v>66</v>
       </c>
@@ -10050,23 +9852,25 @@
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>546</v>
+        <v>440</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="17.25">
+      <c r="H25" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16">
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>282</v>
@@ -10074,41 +9878,47 @@
       <c r="F26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" ht="17.25">
+      <c r="H26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16">
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" ht="17.25">
+      <c r="H27" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16">
       <c r="B28" s="12"/>
       <c r="C28" s="13" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>551</v>
+        <v>445</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.25">
+        <v>282</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16">
       <c r="B29" s="12"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>287</v>
@@ -10116,16 +9926,18 @@
       <c r="F29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" ht="17.25">
+      <c r="H29" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>287</v>
@@ -10133,74 +9945,82 @@
       <c r="F30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.25">
+      <c r="H30" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.25">
+      <c r="H31" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.25">
+      <c r="H32" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>547</v>
+        <v>451</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.25">
+      <c r="H33" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>548</v>
+        <v>452</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:13" ht="17.25">
+    <row r="35" spans="1:13" ht="16">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>73</v>
@@ -10209,16 +10029,18 @@
         <v>15</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>290</v>
       </c>
       <c r="G35" s="16"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:13" ht="17.25">
+    <row r="36" spans="1:13" ht="16">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="13"/>
@@ -10226,13 +10048,13 @@
       <c r="E36" s="5"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:13" ht="17.25">
+    <row r="37" spans="1:13" ht="16">
       <c r="A37" s="14"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:13" ht="17.25">
+    <row r="38" spans="1:13" ht="16">
       <c r="A38" s="11" t="s">
         <v>81</v>
       </c>
@@ -10240,15 +10062,15 @@
       <c r="D38" s="13"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:13" ht="17.25">
+    <row r="39" spans="1:13" ht="16">
       <c r="B39" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>97</v>
@@ -10257,18 +10079,20 @@
         <v>12</v>
       </c>
       <c r="G39" s="18"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" ht="17.25">
+      <c r="H39" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16">
       <c r="A40" s="11"/>
       <c r="B40" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>92</v>
@@ -10277,18 +10101,20 @@
         <v>12</v>
       </c>
       <c r="G40" s="18"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" ht="17.25">
+      <c r="H40" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16">
       <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>97</v>
@@ -10297,18 +10123,20 @@
         <v>12</v>
       </c>
       <c r="G41" s="19"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" ht="17.25">
+      <c r="H41" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16">
       <c r="A42" s="14"/>
       <c r="B42" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>549</v>
+        <v>457</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>83</v>
@@ -10317,18 +10145,20 @@
         <v>12</v>
       </c>
       <c r="G42" s="18"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.25">
+      <c r="H42" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16">
       <c r="A43" s="14"/>
       <c r="B43" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>550</v>
+        <v>458</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>89</v>
@@ -10337,18 +10167,23 @@
         <v>11</v>
       </c>
       <c r="G43" s="18"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" ht="17.25">
+      <c r="H43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16">
       <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>97</v>
@@ -10357,18 +10192,20 @@
         <v>12</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" ht="17.25">
+      <c r="H44" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="16">
       <c r="A45" s="14"/>
       <c r="B45" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>92</v>
@@ -10377,18 +10214,20 @@
         <v>11</v>
       </c>
       <c r="G45" s="18"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" ht="17.25">
+      <c r="H45" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="16">
       <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>92</v>
@@ -10397,9 +10236,14 @@
         <v>12</v>
       </c>
       <c r="G46" s="18"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" ht="17.25">
+      <c r="H46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="16">
       <c r="A47" s="14"/>
       <c r="B47" s="5" t="s">
         <v>45</v>
@@ -10408,7 +10252,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>89</v>
@@ -10417,29 +10261,33 @@
         <v>9</v>
       </c>
       <c r="G47" s="18"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" ht="17.25">
+      <c r="H47" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="16">
       <c r="A48" s="14"/>
       <c r="B48" s="5" t="s">
-        <v>553</v>
+        <v>45</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>554</v>
+        <v>465</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>552</v>
+        <v>97</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="18"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" ht="17.25">
+      <c r="H48" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16">
       <c r="A49" s="14"/>
       <c r="B49" s="5"/>
       <c r="C49" s="10"/>
@@ -10449,13 +10297,13 @@
       <c r="G49" s="18"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:13" ht="17.25">
+    <row r="50" spans="1:13" ht="16">
       <c r="C50" s="10"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:13" ht="17.25">
+    <row r="51" spans="1:13" ht="16">
       <c r="A51" s="11" t="s">
         <v>102</v>
       </c>
@@ -10467,108 +10315,117 @@
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:13" ht="17.25">
+    <row r="52" spans="1:13" ht="16">
       <c r="A52" s="11"/>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="E52" s="39" t="s">
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>104</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="23"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="I52" s="34"/>
     </row>
-    <row r="53" spans="1:13" ht="17.25">
+    <row r="53" spans="1:13" ht="16">
       <c r="A53" s="11"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="E53" s="39" t="s">
+      <c r="C53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="44" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="23"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:13" ht="17.25">
+      <c r="H53" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="16">
       <c r="A54" s="11"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F54" s="40" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F54" s="44" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="K54" s="34"/>
       <c r="M54" s="34"/>
     </row>
-    <row r="55" spans="1:13" ht="17.25">
+    <row r="55" spans="1:13" ht="16">
       <c r="A55" s="11"/>
-      <c r="B55" s="38"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="5" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F55" s="40"/>
+        <v>469</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F55" s="44"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="K55" s="34"/>
       <c r="M55" s="34"/>
     </row>
-    <row r="56" spans="1:13" ht="17.25">
+    <row r="56" spans="1:13" ht="16">
       <c r="A56" s="11"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F56" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="44" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="23"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="K56" s="34"/>
       <c r="M56" s="34"/>
     </row>
-    <row r="57" spans="1:13" ht="17.25">
-      <c r="B57" s="38"/>
+    <row r="57" spans="1:13" ht="16">
+      <c r="B57" s="21"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:13" s="5" customFormat="1" ht="17.25">
+    <row r="58" spans="1:13" s="5" customFormat="1" ht="16">
       <c r="A58" s="24" t="s">
         <v>118</v>
       </c>
@@ -10584,7 +10441,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" s="5" customFormat="1" ht="33">
+    <row r="59" spans="1:13" s="5" customFormat="1" ht="32">
       <c r="A59" s="25"/>
       <c r="B59" s="26" t="s">
         <v>119</v>
@@ -10597,7 +10454,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:13" s="5" customFormat="1" ht="33">
+    <row r="60" spans="1:13" s="5" customFormat="1" ht="32">
       <c r="B60" s="26" t="s">
         <v>121</v>
       </c>
@@ -10609,7 +10466,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:13" s="5" customFormat="1" ht="33">
+    <row r="61" spans="1:13" s="5" customFormat="1" ht="32">
       <c r="A61" s="3"/>
       <c r="B61" s="26" t="s">
         <v>122</v>
@@ -10619,7 +10476,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:13" s="5" customFormat="1">
+    <row r="62" spans="1:13" s="5" customFormat="1" ht="16">
       <c r="A62" s="3"/>
       <c r="B62" s="26"/>
       <c r="F62" s="23"/>
@@ -10627,7 +10484,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:13" s="5" customFormat="1">
+    <row r="63" spans="1:13" s="5" customFormat="1" ht="16">
       <c r="A63" s="3"/>
       <c r="B63" s="26"/>
       <c r="F63" s="23"/>
@@ -10635,7 +10492,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:13" s="5" customFormat="1">
+    <row r="64" spans="1:13" s="5" customFormat="1" ht="16">
       <c r="A64" s="3"/>
       <c r="B64" s="26"/>
       <c r="F64" s="23"/>
@@ -10643,7 +10500,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="2:9" s="5" customFormat="1">
+    <row r="65" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B65" s="26" t="s">
         <v>123</v>
       </c>
@@ -10652,7 +10509,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="2:9" s="5" customFormat="1">
+    <row r="66" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B66" s="26" t="s">
         <v>124</v>
       </c>
@@ -10661,62 +10518,62 @@
       <c r="H66" s="7"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="2:9" s="5" customFormat="1">
+    <row r="67" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B67" s="26"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="7"/>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="2:9" s="5" customFormat="1">
+    <row r="68" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B68" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="7"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="2:9" s="5" customFormat="1">
+    <row r="69" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B69" s="26"/>
       <c r="D69" s="5" t="s">
-        <v>555</v>
+        <v>472</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="7"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="2:9" s="5" customFormat="1">
+    <row r="70" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B70" s="26"/>
       <c r="D70" s="5" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="7"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="2:9" s="5" customFormat="1">
+    <row r="71" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B71" s="26"/>
       <c r="D71" s="5" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
       <c r="H71" s="7"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="2:9" s="5" customFormat="1">
+    <row r="72" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="7"/>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="2:9" s="5" customFormat="1">
+    <row r="73" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B73" s="21" t="s">
         <v>126</v>
       </c>
@@ -10725,13 +10582,13 @@
       <c r="H73" s="7"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="2:9" s="5" customFormat="1">
+    <row r="74" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="7"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="2:9" s="5" customFormat="1">
+    <row r="75" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B75" s="5" t="s">
         <v>127</v>
       </c>
@@ -10740,277 +10597,277 @@
       <c r="H75" s="7"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="2:9" s="5" customFormat="1">
+    <row r="76" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="7"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="2:9" s="5" customFormat="1">
+    <row r="77" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="B77" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
       <c r="H77" s="7"/>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="2:9" s="5" customFormat="1">
+    <row r="78" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="D78" s="5" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="7"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="2:9" s="5" customFormat="1">
+    <row r="79" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="D79" s="5" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="7"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="2:9" s="5" customFormat="1">
+    <row r="80" spans="2:9" s="5" customFormat="1" ht="16">
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
       <c r="H80" s="7"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="4:9" s="5" customFormat="1">
+    <row r="81" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D81" s="5" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="7"/>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="4:9" s="5" customFormat="1">
+    <row r="82" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D82" s="5" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="7"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="4:9" s="5" customFormat="1">
+    <row r="83" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D83" s="5" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="27"/>
       <c r="H83" s="7"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="4:9" s="5" customFormat="1">
+    <row r="84" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D84" s="5" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="27"/>
       <c r="H84" s="7"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="4:9" s="5" customFormat="1">
+    <row r="85" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D85" s="5" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="27"/>
       <c r="H85" s="7"/>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="4:9" s="5" customFormat="1">
+    <row r="86" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D86" s="5" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="27"/>
       <c r="H86" s="7"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="4:9" s="5" customFormat="1">
+    <row r="87" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D87" s="5" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="27"/>
       <c r="H87" s="7"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="4:9" s="5" customFormat="1">
+    <row r="88" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D88" s="5" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="27"/>
       <c r="H88" s="7"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="4:9" s="5" customFormat="1">
+    <row r="89" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D89" s="5" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="27"/>
       <c r="H89" s="7"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="4:9" s="5" customFormat="1">
+    <row r="90" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D90" s="5" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="27"/>
       <c r="H90" s="7"/>
       <c r="I90" s="23"/>
     </row>
-    <row r="91" spans="4:9" s="5" customFormat="1">
+    <row r="91" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D91" s="5" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="27"/>
       <c r="H91" s="7"/>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="4:9" s="5" customFormat="1">
+    <row r="92" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D92" s="5" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="27"/>
       <c r="H92" s="7"/>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="4:9" s="5" customFormat="1">
+    <row r="93" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D93" s="5" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="27"/>
       <c r="H93" s="7"/>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="4:9" s="5" customFormat="1">
+    <row r="94" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D94" s="5" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="27"/>
       <c r="H94" s="7"/>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="4:9" s="5" customFormat="1">
+    <row r="95" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D95" s="5" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="27"/>
       <c r="H95" s="7"/>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="4:9" s="5" customFormat="1">
+    <row r="96" spans="4:9" s="5" customFormat="1" ht="16">
       <c r="D96" s="5" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="27"/>
       <c r="H96" s="7"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="2:11" s="5" customFormat="1">
+    <row r="97" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="D97" s="5" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="27"/>
       <c r="H97" s="7"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="2:11" s="5" customFormat="1">
+    <row r="98" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="D98" s="5" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="27"/>
       <c r="H98" s="7"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="2:11" s="5" customFormat="1">
+    <row r="99" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="D99" s="5" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" s="27"/>
       <c r="H99" s="7"/>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="2:11" s="5" customFormat="1">
+    <row r="100" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F100" s="23"/>
       <c r="G100" s="27"/>
       <c r="H100" s="7"/>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="2:11" s="5" customFormat="1">
+    <row r="101" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="D101" s="5" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="27"/>
       <c r="H101" s="7"/>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="2:11" s="5" customFormat="1">
+    <row r="102" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="D102" s="5" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="27"/>
       <c r="H102" s="7"/>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="2:11" s="5" customFormat="1">
+    <row r="103" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F103" s="23"/>
       <c r="G103" s="27"/>
       <c r="H103" s="7"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="2:11" s="5" customFormat="1">
+    <row r="104" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="D104" s="5" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="27"/>
       <c r="H104" s="7"/>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="2:11" s="5" customFormat="1">
+    <row r="105" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="D105" s="5" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="27"/>
       <c r="H105" s="7"/>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="2:11" s="5" customFormat="1">
+    <row r="106" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="D106" s="5" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="27"/>
       <c r="H106" s="7"/>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="2:11" s="5" customFormat="1">
+    <row r="107" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="B107" s="5" t="s">
         <v>129</v>
       </c>
@@ -11019,13 +10876,13 @@
       <c r="H107" s="7"/>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="2:11" s="5" customFormat="1">
+    <row r="108" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
       <c r="H108" s="7"/>
       <c r="I108" s="36"/>
     </row>
-    <row r="109" spans="2:11" s="5" customFormat="1" ht="33">
+    <row r="109" spans="2:11" s="5" customFormat="1" ht="32">
       <c r="B109" s="28" t="s">
         <v>130</v>
       </c>
@@ -11057,57 +10914,23 @@
       <c r="B110" s="31"/>
       <c r="C110" s="32"/>
       <c r="D110" s="32" t="s">
-        <v>556</v>
+        <v>502</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="32"/>
       <c r="G110" s="33"/>
       <c r="H110" s="32"/>
       <c r="I110" s="32" t="s">
-        <v>557</v>
+        <v>503</v>
       </c>
       <c r="J110" s="32"/>
       <c r="K110" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B121:B1048576 B1:B51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C121:C1048576 C1:C51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>H121:H1048576 H1:H51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[2]附录!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F53:F56</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F52</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -11116,24 +10939,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -11172,7 +10995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -11189,55 +11012,55 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="3"/>
-      <c r="B3" s="76" t="s">
-        <v>562</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>563</v>
-      </c>
-      <c r="E3" s="76" t="s">
+      <c r="B3" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="39" t="s">
         <v>321</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="3"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="18">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="3"/>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>564</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>565</v>
-      </c>
-      <c r="F5" s="82" t="s">
+      <c r="C5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="8"/>
@@ -11245,19 +11068,19 @@
       <c r="J5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="18">
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="3"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>566</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>567</v>
-      </c>
-      <c r="F6" s="81" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>321</v>
       </c>
       <c r="G6" s="8"/>
@@ -11265,19 +11088,19 @@
       <c r="J6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:13" ht="18">
+    <row r="7" spans="1:13" ht="17">
       <c r="A7" s="3"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>568</v>
-      </c>
-      <c r="E7" s="77" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="8"/>
@@ -11285,19 +11108,19 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:13" ht="18">
+    <row r="8" spans="1:13" ht="17">
       <c r="A8" s="3"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>569</v>
-      </c>
-      <c r="E8" s="78" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>510</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="42" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="8"/>
@@ -11305,19 +11128,19 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:13" ht="18">
+    <row r="9" spans="1:13" ht="17">
       <c r="A9" s="3"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>570</v>
-      </c>
-      <c r="E9" s="78" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="8"/>
@@ -11325,19 +11148,19 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:13" ht="18">
+    <row r="10" spans="1:13" ht="17">
       <c r="A10" s="3"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>571</v>
-      </c>
-      <c r="E10" s="78" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="42" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="8"/>
@@ -11345,19 +11168,19 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:13" ht="18">
+    <row r="11" spans="1:13" ht="17">
       <c r="A11" s="3"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>572</v>
-      </c>
-      <c r="E11" s="78" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="42" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="8"/>
@@ -11365,19 +11188,19 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:13" ht="18">
+    <row r="12" spans="1:13" ht="17">
       <c r="A12" s="3"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>573</v>
-      </c>
-      <c r="E12" s="78" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="39" t="s">
         <v>321</v>
       </c>
       <c r="G12" s="8"/>
@@ -11385,521 +11208,871 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="18">
+    <row r="13" spans="1:13" ht="17">
       <c r="A13" s="3"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="80" t="s">
-        <v>574</v>
-      </c>
-      <c r="E13" s="78" t="s">
+      <c r="D13" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="39" t="s">
         <v>321</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="18">
+    <row r="14" spans="1:13" ht="17">
       <c r="A14" s="3"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="79"/>
+      <c r="B14" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="17.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:13" ht="17">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="17">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="17">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="16">
+      <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.25">
-      <c r="B16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="5"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="16">
+      <c r="B20" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="16">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="16">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="16">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="16">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="16">
+      <c r="B25" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="16">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="16">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="7"/>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="7"/>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="5"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="5"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.25">
-      <c r="A23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25">
-      <c r="A24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25">
-      <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
+      <c r="C27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G27" s="16"/>
       <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25">
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="1:13" ht="16">
       <c r="A28" s="14"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="7"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" ht="16">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="17.25">
-      <c r="C30" s="10"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+    <row r="30" spans="1:13" ht="16">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="5"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="17.25">
+    <row r="31" spans="1:13" ht="16">
       <c r="A31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="16">
+      <c r="B32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="16">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="16">
+      <c r="A34" s="14"/>
+      <c r="B34" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="16">
+      <c r="A35" s="14"/>
+      <c r="B35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="16">
+      <c r="A36" s="14"/>
+      <c r="B36" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" ht="16">
+      <c r="A37" s="14"/>
+      <c r="B37" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" ht="16">
+      <c r="A38" s="14"/>
+      <c r="B38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="16">
+      <c r="A39" s="14"/>
+      <c r="B39" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" ht="16">
+      <c r="A40" s="14"/>
+      <c r="B40" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" ht="16">
+      <c r="A41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" ht="16">
+      <c r="A42" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" ht="17.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="34"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.25">
-      <c r="A33" s="11"/>
-      <c r="C33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
-      <c r="K34" s="34"/>
-      <c r="M34" s="34"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="7"/>
-      <c r="K35" s="34"/>
-      <c r="M35" s="34"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.25">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" s="5" customFormat="1" ht="17.25">
-      <c r="A37" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="B39" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" ht="33">
-      <c r="A40" s="3"/>
-      <c r="B40" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:13" s="5" customFormat="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="26"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:13" s="5" customFormat="1">
-      <c r="B42" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="23"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:13" s="5" customFormat="1">
-      <c r="B43" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="23"/>
+    </row>
+    <row r="43" spans="1:13" ht="16">
+      <c r="A43" s="11"/>
+      <c r="B43" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="G43" s="23"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:13" s="5" customFormat="1">
-      <c r="B44" s="26"/>
-      <c r="F44" s="23"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:13" ht="16">
+      <c r="A44" s="11"/>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>9</v>
+      </c>
       <c r="G44" s="23"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:13" s="5" customFormat="1">
-      <c r="B45" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+    </row>
+    <row r="45" spans="1:13" ht="16">
+      <c r="A45" s="11"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:13" s="5" customFormat="1">
-      <c r="F46" s="23"/>
+      <c r="K45" s="34"/>
+      <c r="M45" s="34"/>
+    </row>
+    <row r="46" spans="1:13" ht="16">
+      <c r="A46" s="11"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="G46" s="23"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:13" s="5" customFormat="1">
-      <c r="B47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="K46" s="34"/>
+      <c r="M46" s="34"/>
+    </row>
+    <row r="47" spans="1:13" ht="16">
+      <c r="C47" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:13" s="5" customFormat="1">
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+    </row>
+    <row r="48" spans="1:13" s="5" customFormat="1" ht="16">
+      <c r="A48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
-      <c r="B49" s="5" t="s">
-        <v>127</v>
+      <c r="I48" s="35"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="32">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="32">
+      <c r="B50" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="7"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="32">
+      <c r="A51" s="3"/>
+      <c r="B51" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="2:11" s="5" customFormat="1">
-      <c r="B52" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>560</v>
-      </c>
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="A52" s="3"/>
+      <c r="B52" s="26"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="7"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="2:11" s="5" customFormat="1">
-      <c r="D53" s="5" t="s">
-        <v>558</v>
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B53" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="F53" s="23"/>
-      <c r="G53" s="27"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="7"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="2:11" s="5" customFormat="1">
-      <c r="D54" s="5" t="s">
-        <v>559</v>
+    <row r="54" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B54" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="G54" s="27"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="7"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="2:11" s="5" customFormat="1">
-      <c r="D55" s="5" t="s">
-        <v>561</v>
-      </c>
+    <row r="55" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B55" s="26"/>
       <c r="F55" s="23"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="23"/>
       <c r="H55" s="7"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="2:11" s="5" customFormat="1">
-      <c r="B56" s="5" t="s">
-        <v>129</v>
+    <row r="56" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B56" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="7"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="2:11" s="5" customFormat="1">
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="36"/>
-    </row>
-    <row r="58" spans="2:11" s="5" customFormat="1" ht="33">
-      <c r="B58" s="28" t="s">
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B58" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" ht="16">
+      <c r="D64" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D65" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D66" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="D67" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="F68" s="23"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="B69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="23"/>
+    </row>
+    <row r="70" spans="2:11" s="5" customFormat="1" ht="16">
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="36"/>
+    </row>
+    <row r="71" spans="2:11" s="5" customFormat="1" ht="32">
+      <c r="B71" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C71" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D71" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29" t="s">
+      <c r="E71" s="28"/>
+      <c r="F71" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G71" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H58" s="30"/>
-      <c r="I58" s="37" t="s">
+      <c r="H71" s="30"/>
+      <c r="I71" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J58" s="28" t="s">
+      <c r="J71" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K58" s="28" t="s">
+      <c r="K71" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
+    <row r="72" spans="2:11">
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="D73" s="4" t="s">
+        <v>582</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="4"/>
-    <col min="4" max="4" width="49.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.125" style="4"/>
+    <col min="3" max="3" width="10.1640625" style="4"/>
+    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -11938,7 +12111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -11955,7 +12128,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
@@ -11970,7 +12143,7 @@
       <c r="H3" s="7"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
@@ -11985,7 +12158,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="17.25">
+    <row r="5" spans="1:13" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
@@ -11999,7 +12172,7 @@
       <c r="J5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="17.25">
+    <row r="6" spans="1:13" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -12013,7 +12186,7 @@
       <c r="J6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:13" ht="17.25">
+    <row r="7" spans="1:13" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -12027,7 +12200,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25">
+    <row r="8" spans="1:13" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
@@ -12037,7 +12210,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="17.25">
+    <row r="9" spans="1:13" ht="16">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -12045,7 +12218,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:13" ht="17.25">
+    <row r="10" spans="1:13" ht="16">
       <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
@@ -12056,7 +12229,7 @@
       <c r="E10" s="5"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="17.25">
+    <row r="11" spans="1:13" ht="16">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>42</v>
@@ -12065,12 +12238,12 @@
       <c r="E11" s="5"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="17.25">
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="17.25">
+    <row r="13" spans="1:13" ht="16">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>73</v>
@@ -12084,7 +12257,7 @@
       <c r="H13" s="7"/>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:13" ht="17.25">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="14"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -12096,7 +12269,7 @@
       <c r="H14" s="7"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="17.25">
+    <row r="15" spans="1:13" ht="16">
       <c r="A15" s="14"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -12106,7 +12279,7 @@
       <c r="E15" s="5"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="17.25">
+    <row r="16" spans="1:13" ht="16">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
@@ -12114,13 +12287,13 @@
       <c r="E16" s="5"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="17.25">
+    <row r="17" spans="1:13" ht="16">
       <c r="A17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="17.25">
+    <row r="18" spans="1:13" ht="16">
       <c r="A18" s="11" t="s">
         <v>81</v>
       </c>
@@ -12128,7 +12301,7 @@
       <c r="D18" s="13"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="17.25">
+    <row r="19" spans="1:13" ht="16">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -12141,7 +12314,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="17.25">
+    <row r="20" spans="1:13" ht="16">
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -12153,7 +12326,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="17.25">
+    <row r="21" spans="1:13" ht="16">
       <c r="A21" s="14"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -12165,7 +12338,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="17.25">
+    <row r="22" spans="1:13" ht="16">
       <c r="A22" s="14"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
@@ -12177,7 +12350,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="17.25">
+    <row r="23" spans="1:13" ht="16">
       <c r="A23" s="11"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
@@ -12189,13 +12362,13 @@
       <c r="G23" s="18"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="17.25">
+    <row r="24" spans="1:13" ht="16">
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="17.25">
+    <row r="25" spans="1:13" ht="16">
       <c r="A25" s="11" t="s">
         <v>102</v>
       </c>
@@ -12207,7 +12380,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="17.25">
+    <row r="26" spans="1:13" ht="16">
       <c r="A26" s="11"/>
       <c r="B26" s="21" t="s">
         <v>45</v>
@@ -12221,7 +12394,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:13" ht="17.25">
+    <row r="27" spans="1:13" ht="16">
       <c r="A27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -12232,7 +12405,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:13" ht="17.25">
+    <row r="28" spans="1:13" ht="16">
       <c r="A28" s="11"/>
       <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
@@ -12246,7 +12419,7 @@
       <c r="K28" s="34"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:13" ht="17.25">
+    <row r="29" spans="1:13" ht="16">
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
@@ -12260,13 +12433,13 @@
       <c r="K29" s="34"/>
       <c r="M29" s="34"/>
     </row>
-    <row r="30" spans="1:13" ht="17.25">
+    <row r="30" spans="1:13" ht="16">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" ht="17.25">
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="16">
       <c r="A31" s="24" t="s">
         <v>118</v>
       </c>
@@ -12282,7 +12455,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="33">
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="32">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>119</v>
@@ -12295,7 +12468,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="33">
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="32">
       <c r="B33" s="26" t="s">
         <v>121</v>
       </c>
@@ -12307,7 +12480,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="33">
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="32">
       <c r="A34" s="3"/>
       <c r="B34" s="26" t="s">
         <v>122</v>
@@ -12320,7 +12493,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="A35" s="3"/>
       <c r="B35" s="26"/>
       <c r="F35" s="23"/>
@@ -12328,7 +12501,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B36" s="26" t="s">
         <v>123</v>
       </c>
@@ -12337,7 +12510,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1">
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B37" s="26" t="s">
         <v>124</v>
       </c>
@@ -12346,14 +12519,14 @@
       <c r="H37" s="7"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B38" s="26"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="7"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" s="5" customFormat="1">
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B39" s="26" t="s">
         <v>125</v>
       </c>
@@ -12362,13 +12535,13 @@
       <c r="H39" s="7"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" s="5" customFormat="1">
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="7"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B41" s="21" t="s">
         <v>126</v>
       </c>
@@ -12377,13 +12550,13 @@
       <c r="H41" s="7"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="7"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" s="5" customFormat="1">
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B43" s="5" t="s">
         <v>127</v>
       </c>
@@ -12392,19 +12565,19 @@
       <c r="H43" s="7"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1">
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="7"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" s="5" customFormat="1">
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="7"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" s="5" customFormat="1">
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="B46" s="5" t="s">
         <v>128</v>
       </c>
@@ -12413,25 +12586,25 @@
       <c r="H46" s="7"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" s="5" customFormat="1">
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F47" s="23"/>
       <c r="G47" s="27"/>
       <c r="H47" s="7"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1">
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="16">
       <c r="F48" s="23"/>
       <c r="G48" s="27"/>
       <c r="H48" s="7"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="2:11" s="5" customFormat="1">
+    <row r="49" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F49" s="23"/>
       <c r="G49" s="27"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="2:11" s="5" customFormat="1">
+    <row r="50" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="B50" s="5" t="s">
         <v>129</v>
       </c>
@@ -12440,13 +12613,13 @@
       <c r="H50" s="7"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="2:11" s="5" customFormat="1">
+    <row r="51" spans="2:11" s="5" customFormat="1" ht="16">
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="7"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" ht="33">
+    <row r="52" spans="2:11" s="5" customFormat="1" ht="32">
       <c r="B52" s="28" t="s">
         <v>130</v>
       </c>
@@ -12487,7 +12660,7 @@
       <c r="K53" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -12527,40 +12700,40 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="265" zoomScaleNormal="265" zoomScalePageLayoutView="265" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25">
+    <row r="1" spans="1:9">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="17.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -12573,12 +12746,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -12591,12 +12764,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -12609,28 +12782,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -12640,163 +12813,163 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="17.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="17.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" ht="17.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" ht="17.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="17.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9" ht="17.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9" ht="17.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9" ht="17.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:9" ht="17.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9" ht="17.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35100" windowHeight="19200" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26860" windowHeight="19200" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$69</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="675">
   <si>
     <t>类别</t>
   </si>
@@ -1351,9 +1350,6 @@
     <t>对局配置跟进</t>
   </si>
   <si>
-    <t>小怪美术需求？</t>
-  </si>
-  <si>
     <t>宠物数据确定，用csv导入</t>
   </si>
   <si>
@@ -1630,213 +1626,554 @@
     <t>封妖测试用例设计</t>
   </si>
   <si>
+    <t>美术风格-ui大板按钮 颜色调整</t>
+  </si>
+  <si>
+    <t>孙帆  豆豆</t>
+  </si>
+  <si>
+    <t>美术风格-ui全屏板 版式按钮设计</t>
+  </si>
+  <si>
+    <t>大家注意任务自主和非自主的区别，非自主任务由测试负责验收关闭</t>
+  </si>
+  <si>
+    <t>任务时限</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>任务状态</t>
+  </si>
+  <si>
+    <t>本周必须完成的任务</t>
+  </si>
+  <si>
+    <t>超额任务，有可能在本周完成</t>
+  </si>
+  <si>
+    <t>长期持续进行的工作</t>
+  </si>
+  <si>
+    <t>提交配置</t>
+  </si>
+  <si>
+    <t>提交测试</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>客户端新功能</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>服务器新功能</t>
+  </si>
+  <si>
+    <t>Day9</t>
+  </si>
+  <si>
+    <t>Day10</t>
+  </si>
+  <si>
+    <t>服务器自主任务</t>
+  </si>
+  <si>
+    <t>Day11</t>
+  </si>
+  <si>
+    <t>Day12</t>
+  </si>
+  <si>
+    <t>Day13</t>
+  </si>
+  <si>
+    <t>Day14</t>
+  </si>
+  <si>
+    <t>内容测试</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>角色原画</t>
+  </si>
+  <si>
+    <t>场景原画</t>
+  </si>
+  <si>
+    <t>角色3D</t>
+  </si>
+  <si>
+    <t>场景3D</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划验收</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能，伤害公式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局流程</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>换宠</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>星，xw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目转方向时间预估</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目转方向时间讨论—Day5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术量-怪物头像-青鸟，朱厌，耳鼠</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-照妖镜</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo对局制作依赖的内容还剩哪些？剩余内容什么时候完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   本周程序内容全部制作完成，配置大概一天完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序拆分任务后需要确认时间并发布任务到Jira，策划负责回归任务拆分到对应文档，标明优先级和时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认游戏规划计划一简化讨论时间-Day'5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-245</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-246</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-247</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-197</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-243</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-241</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-242</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器搭建</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-244</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-166 MG-167</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-233</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-234</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-235</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-236</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-237</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-238</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-239</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-221</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-208</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-209</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-210</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-212</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-232</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-227</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-226</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-222</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术量-UI-对局界面调整修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-223</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-202</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-201</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-206</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-207</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-205</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-204</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-203</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-224 MG-225</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-218</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-215</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-213</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-219</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-165</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-216 MG-217</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-220</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-214</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-228</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-230</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-231</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪美术需求*4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-186</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-229</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-211</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期1天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-249</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-251</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-248</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-250</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-252</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-253</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-254</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-255</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-257</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-259</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-260</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-261</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-262</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo怪物AI脚本编写</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-266</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-256</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-258</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-264</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-263</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-265</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff阻碍</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>美术风格-男性角色 5张脸</t>
-  </si>
-  <si>
-    <t>美术风格-ui大板按钮 颜色调整</t>
-  </si>
-  <si>
-    <t>孙帆  豆豆</t>
-  </si>
-  <si>
-    <t>美术风格-ui全屏板 版式按钮设计</t>
-  </si>
-  <si>
-    <t>大家注意任务自主和非自主的区别，非自主任务由测试负责验收关闭</t>
-  </si>
-  <si>
-    <t>任务时限</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>任务状态</t>
-  </si>
-  <si>
-    <t>本周必须完成的任务</t>
-  </si>
-  <si>
-    <t>超额任务，有可能在本周完成</t>
-  </si>
-  <si>
-    <t>长期持续进行的工作</t>
-  </si>
-  <si>
-    <t>提交配置</t>
-  </si>
-  <si>
-    <t>提交测试</t>
-  </si>
-  <si>
-    <t>debug</t>
-  </si>
-  <si>
-    <t>Day7</t>
-  </si>
-  <si>
-    <t>客户端新功能</t>
-  </si>
-  <si>
-    <t>Day8</t>
-  </si>
-  <si>
-    <t>服务器新功能</t>
-  </si>
-  <si>
-    <t>Day9</t>
-  </si>
-  <si>
-    <t>Day10</t>
-  </si>
-  <si>
-    <t>服务器自主任务</t>
-  </si>
-  <si>
-    <t>Day11</t>
-  </si>
-  <si>
-    <t>Day12</t>
-  </si>
-  <si>
-    <t>Day13</t>
-  </si>
-  <si>
-    <t>Day14</t>
-  </si>
-  <si>
-    <t>内容测试</t>
-  </si>
-  <si>
-    <t>Day15</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>角色原画</t>
-  </si>
-  <si>
-    <t>场景原画</t>
-  </si>
-  <si>
-    <t>角色3D</t>
-  </si>
-  <si>
-    <t>场景3D</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划验收</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能，伤害公式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物数据</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局流程</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>换宠</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>星，xw</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必须</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>自主任务</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目转方向时间预估</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目转方向时间讨论—Day5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>超额</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术量-怪物头像-青鸟，朱厌，耳鼠</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-照妖镜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙帆</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo对局制作依赖的内容还剩哪些？剩余内容什么时候完成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   本周程序内容全部制作完成，配置大概一天完成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序拆分任务后需要确认时间并发布任务到Jira，策划负责回归任务拆分到对应文档，标明优先级和时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认游戏规划计划一简化讨论时间-Day'5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1889,12 +2226,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Verdana"/>
       <charset val="134"/>
@@ -1913,6 +2244,25 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1955,11 +2305,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1971,17 +2327,59 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2057,19 +2455,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2083,7 +2473,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2093,7 +2483,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2145,8 +2535,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="24">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
@@ -2155,6 +2563,22 @@
     <cellStyle name="常规 8" xfId="6"/>
     <cellStyle name="常规_2-4周版本输出" xfId="7"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -2860,7 +3284,7 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="61" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="24" t="s">
@@ -2879,11 +3303,11 @@
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
@@ -2938,13 +3362,13 @@
       <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="67"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
@@ -2968,9 +3392,9 @@
       <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-      <c r="M5" s="69"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="M5" s="65"/>
       <c r="O5" s="27" t="s">
         <v>28</v>
       </c>
@@ -2999,7 +3423,7 @@
       <c r="L6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="69"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
@@ -3009,10 +3433,10 @@
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="67"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
@@ -3042,7 +3466,7 @@
       <c r="L8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="69"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3"/>
@@ -3069,7 +3493,7 @@
       <c r="K9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="69"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3"/>
@@ -3095,7 +3519,7 @@
       <c r="L10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="69"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3"/>
@@ -3113,17 +3537,17 @@
         <v>10</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="57" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="69"/>
+      <c r="M11" s="65"/>
       <c r="O11" s="27" t="s">
         <v>41</v>
       </c>
@@ -3148,10 +3572,10 @@
       <c r="I12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="67"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="63"/>
       <c r="O12" s="5" t="s">
         <v>44</v>
       </c>
@@ -3165,10 +3589,10 @@
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="67"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3"/>
@@ -3192,10 +3616,10 @@
       <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="67"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3"/>
@@ -3219,10 +3643,10 @@
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="67"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3"/>
@@ -3240,17 +3664,17 @@
         <v>10</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="57" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="26"/>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="69"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3"/>
@@ -3268,10 +3692,10 @@
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="67"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3"/>
@@ -3283,10 +3707,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="67"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3"/>
@@ -3306,7 +3730,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="57" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="34" t="s">
@@ -3315,7 +3739,7 @@
       <c r="K19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="69"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3"/>
@@ -3327,10 +3751,10 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="67"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="63"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3"/>
@@ -3350,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="58" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="34" t="s">
@@ -3375,7 +3799,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="58" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="34" t="s">
@@ -3400,7 +3824,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="58" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="34" t="s">
@@ -3417,11 +3841,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="N24" s="67"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="N24" s="63"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
@@ -3429,11 +3853,11 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="N25" s="67"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="N25" s="63"/>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="12" t="s">
@@ -3454,7 +3878,7 @@
       <c r="H26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="40" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="27" t="s">
@@ -3481,20 +3905,20 @@
       <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="N27" s="67"/>
+      <c r="I27" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="N27" s="63"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="N28" s="67"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="N28" s="63"/>
     </row>
     <row r="29" spans="1:14" ht="32">
       <c r="A29" s="13"/>
@@ -3516,12 +3940,12 @@
       <c r="H29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="N29" s="68"/>
+      <c r="I29" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="N29" s="64"/>
     </row>
     <row r="30" spans="1:14" ht="96">
       <c r="A30" s="13"/>
@@ -3540,12 +3964,12 @@
       <c r="H30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="N30" s="68" t="s">
+      <c r="I30" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="N30" s="64" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3553,10 +3977,10 @@
       <c r="A31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="N31" s="67"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="N31" s="63"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
@@ -3564,10 +3988,10 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="N32" s="67"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="1:14" ht="32">
       <c r="B33" s="5" t="s">
@@ -3582,16 +4006,16 @@
       <c r="E33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="H33" s="63" t="s">
+      <c r="F33" s="45"/>
+      <c r="H33" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="N33" s="67"/>
+      <c r="I33" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="1:14" ht="32">
       <c r="A34" s="11"/>
@@ -3604,15 +4028,15 @@
       <c r="E34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="H34" s="63" t="s">
+      <c r="F34" s="45"/>
+      <c r="H34" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
+      <c r="I34" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
       <c r="N34" s="27" t="s">
         <v>87</v>
       </c>
@@ -3628,16 +4052,16 @@
       <c r="E35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="49"/>
-      <c r="H35" s="63" t="s">
+      <c r="F35" s="45"/>
+      <c r="H35" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="N35" s="67"/>
+      <c r="I35" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="13"/>
@@ -3648,16 +4072,16 @@
       <c r="E36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="H36" s="63" t="s">
+      <c r="F36" s="45"/>
+      <c r="H36" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="N36" s="67"/>
+      <c r="I36" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="N36" s="63"/>
     </row>
     <row r="37" spans="1:14" ht="32">
       <c r="A37" s="13"/>
@@ -3670,16 +4094,16 @@
       <c r="E37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="49"/>
-      <c r="H37" s="63" t="s">
+      <c r="F37" s="45"/>
+      <c r="H37" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="N37" s="67"/>
+      <c r="I37" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="N37" s="63"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="11"/>
@@ -3692,16 +4116,16 @@
       <c r="E38" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="49"/>
-      <c r="H38" s="64" t="s">
+      <c r="F38" s="45"/>
+      <c r="H38" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="N38" s="67"/>
+      <c r="I38" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="N38" s="63"/>
     </row>
     <row r="39" spans="1:14">
       <c r="C39" s="10" t="s">
@@ -3716,22 +4140,22 @@
       <c r="H39" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="N39" s="67"/>
+      <c r="I39" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="N39" s="63"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="N40" s="67"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="N40" s="63"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="11"/>
@@ -3753,7 +4177,7 @@
       <c r="H41" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="26"/>
@@ -3776,15 +4200,15 @@
       <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="68"/>
-      <c r="K42" s="67"/>
+      <c r="I42" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="64"/>
+      <c r="K42" s="63"/>
       <c r="M42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="67"/>
+      <c r="N42" s="63"/>
     </row>
     <row r="43" spans="1:14">
       <c r="C43" s="5" t="s">
@@ -3799,12 +4223,12 @@
       <c r="H43" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="N43" s="67"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="11"/>
@@ -3820,7 +4244,7 @@
       <c r="F44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -3845,15 +4269,15 @@
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
+      <c r="I45" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="68"/>
+      <c r="N45" s="64"/>
     </row>
     <row r="46" spans="1:14">
       <c r="C46" s="5" t="s">
@@ -3868,15 +4292,15 @@
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
       <c r="M46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N46" s="67"/>
+      <c r="N46" s="63"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="11"/>
@@ -3893,30 +4317,30 @@
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
+      <c r="I47" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
       <c r="M47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N47" s="68"/>
+      <c r="N47" s="64"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="I48" s="43"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="N48" s="67"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="N48" s="63"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="43"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="N49" s="67"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="N49" s="63"/>
     </row>
     <row r="50" spans="1:14" ht="32">
       <c r="A50" s="25"/>
@@ -3927,10 +4351,10 @@
         <v>120</v>
       </c>
       <c r="F50" s="23"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="N50" s="67"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="N50" s="63"/>
     </row>
     <row r="51" spans="1:14" ht="32">
       <c r="B51" s="26" t="s">
@@ -3940,10 +4364,10 @@
         <v>120</v>
       </c>
       <c r="F51" s="23"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="N51" s="67"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="N51" s="63"/>
     </row>
     <row r="52" spans="1:14" ht="32">
       <c r="A52" s="3"/>
@@ -3954,175 +4378,175 @@
         <v>120</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="N52" s="67"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="N52" s="63"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="26"/>
       <c r="F53" s="23"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="N53" s="67"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="N53" s="63"/>
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="N54" s="67"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="N54" s="63"/>
     </row>
     <row r="55" spans="1:14">
       <c r="B55" s="26" t="s">
         <v>124</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="N55" s="67"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="N55" s="63"/>
     </row>
     <row r="56" spans="1:14">
       <c r="B56" s="26"/>
       <c r="F56" s="23"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="N56" s="67"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="N56" s="63"/>
     </row>
     <row r="57" spans="1:14">
       <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="N57" s="67"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="N57" s="63"/>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" s="23"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="N58" s="67"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="N58" s="63"/>
     </row>
     <row r="59" spans="1:14">
       <c r="F59" s="23"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="N59" s="67"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="N59" s="63"/>
     </row>
     <row r="60" spans="1:14">
       <c r="F60" s="23"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="N60" s="67"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="N60" s="63"/>
     </row>
     <row r="61" spans="1:14">
       <c r="F61" s="23"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="N61" s="67"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="N61" s="63"/>
     </row>
     <row r="62" spans="1:14">
       <c r="B62" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="N62" s="67"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="N62" s="63"/>
     </row>
     <row r="63" spans="1:14">
       <c r="F63" s="23"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="N63" s="67"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="N63" s="63"/>
     </row>
     <row r="64" spans="1:14">
       <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="N64" s="67"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="N64" s="63"/>
     </row>
     <row r="65" spans="2:14">
       <c r="F65" s="23"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="N65" s="67"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="N65" s="63"/>
     </row>
     <row r="66" spans="2:14">
       <c r="F66" s="23"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="N66" s="67"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="N66" s="63"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="23"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="N67" s="67"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="N67" s="63"/>
     </row>
     <row r="68" spans="2:14">
       <c r="F68" s="23"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="67"/>
-      <c r="N68" s="67"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="N68" s="63"/>
     </row>
     <row r="69" spans="2:14">
       <c r="F69" s="23"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="N69" s="67"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="N69" s="63"/>
     </row>
     <row r="70" spans="2:14">
       <c r="F70" s="23"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="N70" s="67"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="N70" s="63"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="51"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="67"/>
-      <c r="N71" s="67"/>
+      <c r="G71" s="47"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="N71" s="63"/>
     </row>
     <row r="72" spans="2:14">
       <c r="F72" s="23"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="67"/>
-      <c r="N72" s="67"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="63"/>
+      <c r="N72" s="63"/>
     </row>
     <row r="73" spans="2:14" ht="32">
       <c r="B73" s="28" t="s">
@@ -4145,34 +4569,34 @@
         <v>135</v>
       </c>
       <c r="I73" s="29"/>
-      <c r="J73" s="73" t="s">
+      <c r="J73" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="K73" s="73" t="s">
+      <c r="K73" s="69" t="s">
         <v>137</v>
       </c>
       <c r="L73" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="N73" s="67"/>
+      <c r="N73" s="63"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="46"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="47"/>
-      <c r="N74" s="67"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="43"/>
+      <c r="N74" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N74"/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
@@ -4323,7 +4747,7 @@
       <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="50" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -4348,7 +4772,7 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="50" t="s">
         <v>139</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -4363,7 +4787,7 @@
       <c r="A5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="54"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="9"/>
       <c r="L5" s="34"/>
     </row>
@@ -4384,7 +4808,7 @@
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="51" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -4409,7 +4833,7 @@
       <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="50" t="s">
         <v>142</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -4434,7 +4858,7 @@
       <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="50" t="s">
         <v>144</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -4449,7 +4873,7 @@
       <c r="A9" s="3"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="54"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="9"/>
       <c r="L9" s="34"/>
     </row>
@@ -4470,7 +4894,7 @@
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="50" t="s">
         <v>146</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -4539,7 +4963,7 @@
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="50" t="s">
         <v>152</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -4563,7 +4987,7 @@
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="50" t="s">
         <v>154</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -4587,7 +5011,7 @@
       <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="50" t="s">
         <v>156</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -4614,7 +5038,7 @@
       <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="50" t="s">
         <v>158</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -4726,7 +5150,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="56"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:14">
@@ -4828,7 +5252,7 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="45"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
@@ -4853,7 +5277,7 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="45"/>
+      <c r="A29" s="41"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
@@ -4875,7 +5299,7 @@
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="45"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -4883,7 +5307,7 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="45"/>
+      <c r="A31" s="41"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="F31" s="7"/>
@@ -4913,7 +5337,7 @@
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="53" t="s">
         <v>181</v>
       </c>
       <c r="I33" s="9" t="s">
@@ -4936,7 +5360,7 @@
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="53" t="s">
         <v>183</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -4947,7 +5371,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="45"/>
+      <c r="A35" s="41"/>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
@@ -4959,7 +5383,7 @@
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="54" t="s">
         <v>185</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -4967,7 +5391,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="45"/>
+      <c r="A36" s="41"/>
       <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
@@ -4979,7 +5403,7 @@
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="53" t="s">
         <v>187</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -5002,7 +5426,7 @@
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="57" t="s">
+      <c r="H37" s="53" t="s">
         <v>189</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -5022,7 +5446,7 @@
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="57" t="s">
+      <c r="H38" s="53" t="s">
         <v>191</v>
       </c>
       <c r="I38" s="9" t="s">
@@ -5042,7 +5466,7 @@
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="57" t="s">
+      <c r="H39" s="53" t="s">
         <v>193</v>
       </c>
       <c r="I39" s="9" t="s">
@@ -5232,7 +5656,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:14" s="53" customFormat="1">
+    <row r="49" spans="1:14" s="49" customFormat="1">
       <c r="A49" s="5"/>
       <c r="C49" s="5" t="s">
         <v>42</v>
@@ -5381,7 +5805,7 @@
         <v>129</v>
       </c>
       <c r="F66" s="23"/>
-      <c r="G66" s="51"/>
+      <c r="G66" s="47"/>
       <c r="I66" s="7"/>
     </row>
     <row r="67" spans="2:12">
@@ -5421,21 +5845,21 @@
       </c>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="46"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N69"/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
@@ -6655,7 +7079,7 @@
         <v>129</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="G54" s="51"/>
+      <c r="G54" s="47"/>
       <c r="H54" s="23"/>
       <c r="I54" s="7"/>
       <c r="J54" s="23"/>
@@ -6711,7 +7135,7 @@
       <c r="L57" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B3:F4 B13:C13 E13 B5:E12 F5:F15">
     <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"阻碍"</formula>
@@ -7122,7 +7546,7 @@
       <c r="I12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="J12" s="48" t="s">
         <v>278</v>
       </c>
       <c r="K12" s="34"/>
@@ -7340,7 +7764,7 @@
       <c r="E23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="45"/>
       <c r="H23" s="8" t="s">
         <v>293</v>
       </c>
@@ -7365,7 +7789,7 @@
       <c r="E24" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="45"/>
       <c r="H24" s="8" t="s">
         <v>296</v>
       </c>
@@ -7390,7 +7814,7 @@
       <c r="E25" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="45"/>
       <c r="H25" s="8" t="s">
         <v>298</v>
       </c>
@@ -7415,7 +7839,7 @@
       <c r="E26" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="45"/>
       <c r="H26" s="8" t="s">
         <v>298</v>
       </c>
@@ -7440,7 +7864,7 @@
       <c r="E27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="45"/>
       <c r="H27" s="8" t="s">
         <v>301</v>
       </c>
@@ -7463,7 +7887,7 @@
       <c r="E28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="49"/>
+      <c r="F28" s="45"/>
       <c r="H28" s="8" t="s">
         <v>303</v>
       </c>
@@ -7487,7 +7911,7 @@
       <c r="E29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="45"/>
       <c r="H29" s="8" t="s">
         <v>305</v>
       </c>
@@ -7511,7 +7935,7 @@
       <c r="E30" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="45"/>
       <c r="H30" s="8" t="s">
         <v>307</v>
       </c>
@@ -7535,7 +7959,7 @@
       <c r="E31" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="45"/>
       <c r="H31" s="8" t="s">
         <v>309</v>
       </c>
@@ -7559,7 +7983,7 @@
       <c r="E32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="45"/>
       <c r="H32" s="8" t="s">
         <v>311</v>
       </c>
@@ -7596,7 +8020,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="C34" s="10"/>
-      <c r="D34" s="50"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="20"/>
       <c r="I34" s="7"/>
       <c r="J34" s="34"/>
@@ -7868,7 +8292,7 @@
         <v>129</v>
       </c>
       <c r="F59" s="23"/>
-      <c r="G59" s="51"/>
+      <c r="G59" s="47"/>
       <c r="H59" s="23"/>
       <c r="I59" s="7"/>
       <c r="J59" s="23"/>
@@ -7911,20 +8335,20 @@
       </c>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
@@ -8570,7 +8994,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="45"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="15" t="s">
         <v>73</v>
       </c>
@@ -8595,7 +9019,7 @@
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="45"/>
+      <c r="A28" s="41"/>
       <c r="C28" s="13" t="s">
         <v>15</v>
       </c>
@@ -8617,7 +9041,7 @@
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="45"/>
+      <c r="A29" s="41"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="G29" s="34"/>
@@ -9286,19 +9710,19 @@
       </c>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="46"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -9313,21 +9737,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4"/>
     <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.1640625" style="4"/>
+    <col min="6" max="6" width="10.1640625" style="63"/>
+    <col min="7" max="7" width="10.1640625" style="27"/>
+    <col min="8" max="16384" width="10.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16">
+    <row r="1" spans="1:13">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9341,10 +9767,10 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -9366,7 +9792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -9374,8 +9800,8 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="7"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -9383,7 +9809,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="16">
+    <row r="3" spans="1:13">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -9397,12 +9823,14 @@
       <c r="E3" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="26" t="s">
+        <v>607</v>
+      </c>
       <c r="H3" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
@@ -9410,7 +9838,7 @@
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -9422,10 +9850,10 @@
       <c r="E4" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
@@ -9433,7 +9861,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="16">
+    <row r="5" spans="1:13">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -9445,12 +9873,12 @@
       <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -9458,7 +9886,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="16">
+    <row r="6" spans="1:13">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -9470,12 +9898,14 @@
       <c r="E6" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="26" t="s">
+        <v>608</v>
+      </c>
       <c r="H6" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -9483,7 +9913,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
     </row>
-    <row r="7" spans="1:13" ht="16">
+    <row r="7" spans="1:13">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -9495,12 +9925,14 @@
       <c r="E7" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="26" t="s">
+        <v>610</v>
+      </c>
       <c r="H7" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
@@ -9508,7 +9940,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="1:13" ht="16">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -9520,12 +9952,14 @@
       <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="26" t="s">
+        <v>609</v>
+      </c>
       <c r="H8" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -9533,14 +9967,14 @@
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="1:13" ht="16">
+    <row r="9" spans="1:13">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -9548,7 +9982,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="16">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>30</v>
@@ -9562,12 +9996,14 @@
       <c r="E10" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="26" t="s">
+        <v>607</v>
+      </c>
       <c r="H10" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
@@ -9575,7 +10011,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:13" ht="16">
+    <row r="11" spans="1:13">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -9587,12 +10023,14 @@
       <c r="E11" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="26" t="s">
+        <v>608</v>
+      </c>
       <c r="H11" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -9600,7 +10038,7 @@
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:13" ht="16">
+    <row r="12" spans="1:13">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -9612,12 +10050,14 @@
       <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="26" t="s">
+        <v>641</v>
+      </c>
       <c r="H12" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
@@ -9625,14 +10065,14 @@
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="16">
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -9640,7 +10080,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>45</v>
@@ -9654,16 +10094,18 @@
       <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="50" t="s">
+        <v>639</v>
+      </c>
       <c r="H14" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="16">
+    <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
@@ -9675,18 +10117,20 @@
       <c r="E15" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="26" t="s">
+        <v>610</v>
+      </c>
       <c r="H15" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:13" ht="16">
+    <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
@@ -9698,17 +10142,19 @@
       <c r="E16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="50" t="s">
+        <v>634</v>
+      </c>
       <c r="H16" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J16" s="34"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:12" ht="16">
+    <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
@@ -9720,17 +10166,19 @@
       <c r="E17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="50" t="s">
+        <v>640</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
+    <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
@@ -9742,17 +10190,19 @@
       <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="50" t="s">
+        <v>613</v>
+      </c>
       <c r="H18" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
+    <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
@@ -9764,17 +10214,19 @@
       <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="50" t="s">
+        <v>635</v>
+      </c>
       <c r="H19" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
@@ -9786,15 +10238,17 @@
       <c r="E20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>612</v>
+      </c>
       <c r="H20" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -9806,45 +10260,51 @@
       <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="10" t="s">
+        <v>611</v>
+      </c>
       <c r="H21" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
       <c r="D22" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="10"/>
+        <v>637</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="10" t="s">
+        <v>636</v>
+      </c>
       <c r="H22" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="10"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="16">
+    <row r="24" spans="1:12">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="16">
+    <row r="25" spans="1:12">
       <c r="B25" s="12" t="s">
         <v>66</v>
       </c>
@@ -9852,58 +10312,64 @@
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="63" t="s">
         <v>8</v>
       </c>
+      <c r="G25" s="27" t="s">
+        <v>618</v>
+      </c>
       <c r="H25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16">
+    <row r="26" spans="1:12">
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>442</v>
+      <c r="D26" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="63" t="s">
         <v>9</v>
       </c>
+      <c r="G26" s="27" t="s">
+        <v>619</v>
+      </c>
       <c r="H26" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16">
+    <row r="27" spans="1:12">
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>443</v>
+      <c r="D27" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>282</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="B28" s="12"/>
       <c r="C28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>445</v>
+      <c r="D28" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>282</v>
@@ -9912,115 +10378,130 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16">
+    <row r="29" spans="1:12">
       <c r="B29" s="12"/>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>446</v>
+      <c r="D29" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="63" t="s">
         <v>10</v>
       </c>
+      <c r="G29" s="27" t="s">
+        <v>624</v>
+      </c>
       <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16">
+    <row r="30" spans="1:12">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>447</v>
+      <c r="C30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="63" t="s">
         <v>12</v>
       </c>
+      <c r="G30" s="27" t="s">
+        <v>623</v>
+      </c>
       <c r="H30" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16">
+    <row r="31" spans="1:12">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="63" t="s">
         <v>8</v>
       </c>
+      <c r="G31" s="27" t="s">
+        <v>622</v>
+      </c>
       <c r="H31" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16">
+    <row r="32" spans="1:12">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>450</v>
+      <c r="C32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F32" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F32" s="63" t="s">
         <v>8</v>
       </c>
+      <c r="G32" s="27" t="s">
+        <v>620</v>
+      </c>
       <c r="H32" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16">
+    <row r="33" spans="1:13">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>451</v>
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F33" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F33" s="63" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16">
+    <row r="34" spans="1:13">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>452</v>
+      <c r="D34" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>621</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:13" ht="16">
+    <row r="35" spans="1:13" ht="32">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>73</v>
@@ -10029,18 +10510,20 @@
         <v>15</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="G35" s="16"/>
+      <c r="G35" s="26" t="s">
+        <v>625</v>
+      </c>
       <c r="H35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:13" ht="16">
+    <row r="36" spans="1:13">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="13"/>
@@ -10048,13 +10531,13 @@
       <c r="E36" s="5"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:13" ht="16">
+    <row r="37" spans="1:13">
       <c r="A37" s="14"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:13" ht="16">
+    <row r="38" spans="1:13">
       <c r="A38" s="11" t="s">
         <v>81</v>
       </c>
@@ -10062,7 +10545,7 @@
       <c r="D38" s="13"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:13" ht="16">
+    <row r="39" spans="1:13">
       <c r="B39" s="5" t="s">
         <v>400</v>
       </c>
@@ -10070,20 +10553,22 @@
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="18"/>
+      <c r="G39" s="53" t="s">
+        <v>628</v>
+      </c>
       <c r="H39" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16">
+    <row r="40" spans="1:13">
       <c r="A40" s="11"/>
       <c r="B40" s="5" t="s">
         <v>400</v>
@@ -10092,20 +10577,22 @@
         <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="53" t="s">
+        <v>633</v>
+      </c>
       <c r="H40" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16">
+    <row r="41" spans="1:13">
       <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>400</v>
@@ -10114,20 +10601,22 @@
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G41" s="54" t="s">
+        <v>627</v>
+      </c>
       <c r="H41" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16">
+    <row r="42" spans="1:13">
       <c r="A42" s="14"/>
       <c r="B42" s="5" t="s">
         <v>400</v>
@@ -10136,20 +10625,22 @@
         <v>42</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="53" t="s">
+        <v>631</v>
+      </c>
       <c r="H42" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16">
+    <row r="43" spans="1:13">
       <c r="A43" s="14"/>
       <c r="B43" s="5" t="s">
         <v>391</v>
@@ -10158,23 +10649,25 @@
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="53" t="s">
+        <v>630</v>
+      </c>
       <c r="H43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="16">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>375</v>
@@ -10183,20 +10676,22 @@
         <v>42</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="18"/>
+      <c r="G44" s="53" t="s">
+        <v>626</v>
+      </c>
       <c r="H44" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16">
+    <row r="45" spans="1:13">
       <c r="A45" s="14"/>
       <c r="B45" s="5" t="s">
         <v>375</v>
@@ -10205,20 +10700,22 @@
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="18"/>
+      <c r="G45" s="53" t="s">
+        <v>629</v>
+      </c>
       <c r="H45" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16">
+    <row r="46" spans="1:13">
       <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>375</v>
@@ -10227,23 +10724,25 @@
         <v>42</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="18"/>
+      <c r="G46" s="53" t="s">
+        <v>606</v>
+      </c>
       <c r="H46" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="16">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="14"/>
       <c r="B47" s="5" t="s">
         <v>45</v>
@@ -10252,20 +10751,22 @@
         <v>42</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="18"/>
+      <c r="G47" s="53" t="s">
+        <v>632</v>
+      </c>
       <c r="H47" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16">
+    <row r="48" spans="1:13">
       <c r="A48" s="14"/>
       <c r="B48" s="5" t="s">
         <v>45</v>
@@ -10274,36 +10775,36 @@
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="18"/>
+      <c r="G48" s="53"/>
       <c r="H48" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16">
+    <row r="49" spans="1:13">
       <c r="A49" s="14"/>
       <c r="B49" s="5"/>
       <c r="C49" s="10"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="53"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:13" ht="16">
+    <row r="50" spans="1:13">
       <c r="C50" s="10"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:13" ht="16">
+    <row r="51" spans="1:13">
       <c r="A51" s="11" t="s">
         <v>102</v>
       </c>
@@ -10311,11 +10812,10 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
+      <c r="F51" s="74"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:13" ht="16">
+    <row r="52" spans="1:13">
       <c r="A52" s="11"/>
       <c r="B52" s="21" t="s">
         <v>45</v>
@@ -10324,116 +10824,128 @@
         <v>15</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="23"/>
+      <c r="G52" s="27" t="s">
+        <v>617</v>
+      </c>
       <c r="H52" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I52" s="34"/>
     </row>
-    <row r="53" spans="1:13" ht="16">
+    <row r="53" spans="1:13">
       <c r="A53" s="11"/>
       <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="23"/>
       <c r="H53" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="16">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="11"/>
       <c r="B54" s="21"/>
       <c r="C54" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="5"/>
       <c r="H54" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K54" s="34"/>
       <c r="M54" s="34"/>
     </row>
-    <row r="55" spans="1:13" ht="16">
+    <row r="55" spans="1:13">
       <c r="A55" s="11"/>
       <c r="B55" s="21"/>
       <c r="C55" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="23"/>
+      <c r="F55" s="76"/>
       <c r="H55" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K55" s="34"/>
       <c r="M55" s="34"/>
     </row>
-    <row r="56" spans="1:13" ht="16">
+    <row r="56" spans="1:13">
       <c r="A56" s="11"/>
       <c r="B56" s="21"/>
       <c r="C56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="23"/>
       <c r="H56" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K56" s="34"/>
       <c r="M56" s="34"/>
     </row>
-    <row r="57" spans="1:13" ht="16">
+    <row r="57" spans="1:13">
       <c r="B57" s="21"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:13" s="5" customFormat="1" ht="16">
+      <c r="C57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="5" customFormat="1">
       <c r="A58" s="24" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="7"/>
       <c r="I58" s="35"/>
       <c r="J58" s="4"/>
@@ -10449,8 +10961,8 @@
       <c r="D59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="7"/>
       <c r="I59" s="23"/>
     </row>
@@ -10461,8 +10973,8 @@
       <c r="D60" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="7"/>
       <c r="I60" s="23"/>
     </row>
@@ -10471,414 +10983,414 @@
       <c r="B61" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="7"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:13" s="5" customFormat="1" ht="16">
+    <row r="62" spans="1:13" s="5" customFormat="1">
       <c r="A62" s="3"/>
       <c r="B62" s="26"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="7"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:13" s="5" customFormat="1" ht="16">
+    <row r="63" spans="1:13" s="5" customFormat="1">
       <c r="A63" s="3"/>
       <c r="B63" s="26"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="7"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:13" s="5" customFormat="1" ht="16">
+    <row r="64" spans="1:13" s="5" customFormat="1">
       <c r="A64" s="3"/>
       <c r="B64" s="26"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="7"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="65" spans="2:9" s="5" customFormat="1">
       <c r="B65" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="7"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="66" spans="2:9" s="5" customFormat="1">
       <c r="B66" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="7"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="67" spans="2:9" s="5" customFormat="1">
       <c r="B67" s="26"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="7"/>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="68" spans="2:9" s="5" customFormat="1">
       <c r="B68" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
+        <v>470</v>
+      </c>
+      <c r="F68" s="63"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="7"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="69" spans="2:9" s="5" customFormat="1">
       <c r="B69" s="26"/>
       <c r="D69" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
+        <v>471</v>
+      </c>
+      <c r="F69" s="63"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="7"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="70" spans="2:9" s="5" customFormat="1">
       <c r="B70" s="26"/>
       <c r="D70" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+        <v>472</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="7"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="71" spans="2:9" s="5" customFormat="1">
       <c r="B71" s="26"/>
       <c r="D71" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+        <v>473</v>
+      </c>
+      <c r="F71" s="63"/>
+      <c r="G71" s="27"/>
       <c r="H71" s="7"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="2:9" s="5" customFormat="1" ht="16">
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
+    <row r="72" spans="2:9" s="5" customFormat="1">
+      <c r="F72" s="63"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="7"/>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="73" spans="2:9" s="5" customFormat="1">
       <c r="B73" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="7"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="2:9" s="5" customFormat="1" ht="16">
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+    <row r="74" spans="2:9" s="5" customFormat="1">
+      <c r="F74" s="63"/>
+      <c r="G74" s="27"/>
       <c r="H74" s="7"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="75" spans="2:9" s="5" customFormat="1">
       <c r="B75" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="27"/>
       <c r="H75" s="7"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="2:9" s="5" customFormat="1" ht="16">
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
+    <row r="76" spans="2:9" s="5" customFormat="1">
+      <c r="F76" s="63"/>
+      <c r="G76" s="27"/>
       <c r="H76" s="7"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="77" spans="2:9" s="5" customFormat="1">
       <c r="B77" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
+        <v>474</v>
+      </c>
+      <c r="F77" s="63"/>
+      <c r="G77" s="27"/>
       <c r="H77" s="7"/>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="78" spans="2:9" s="5" customFormat="1">
       <c r="D78" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+        <v>475</v>
+      </c>
+      <c r="F78" s="63"/>
+      <c r="G78" s="27"/>
       <c r="H78" s="7"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="2:9" s="5" customFormat="1" ht="16">
+    <row r="79" spans="2:9" s="5" customFormat="1">
       <c r="D79" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
+        <v>476</v>
+      </c>
+      <c r="F79" s="63"/>
+      <c r="G79" s="27"/>
       <c r="H79" s="7"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="2:9" s="5" customFormat="1" ht="16">
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
+    <row r="80" spans="2:9" s="5" customFormat="1">
+      <c r="F80" s="63"/>
+      <c r="G80" s="27"/>
       <c r="H80" s="7"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="81" spans="4:9" s="5" customFormat="1">
       <c r="D81" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
+        <v>477</v>
+      </c>
+      <c r="F81" s="63"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="7"/>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="82" spans="4:9" s="5" customFormat="1">
       <c r="D82" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
+        <v>478</v>
+      </c>
+      <c r="F82" s="63"/>
+      <c r="G82" s="27"/>
       <c r="H82" s="7"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="83" spans="4:9" s="5" customFormat="1">
       <c r="D83" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F83" s="23"/>
+        <v>479</v>
+      </c>
+      <c r="F83" s="63"/>
       <c r="G83" s="27"/>
       <c r="H83" s="7"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="84" spans="4:9" s="5" customFormat="1">
       <c r="D84" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F84" s="23"/>
+        <v>480</v>
+      </c>
+      <c r="F84" s="63"/>
       <c r="G84" s="27"/>
       <c r="H84" s="7"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="85" spans="4:9" s="5" customFormat="1">
       <c r="D85" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="F85" s="23"/>
+        <v>481</v>
+      </c>
+      <c r="F85" s="63"/>
       <c r="G85" s="27"/>
       <c r="H85" s="7"/>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="86" spans="4:9" s="5" customFormat="1">
       <c r="D86" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F86" s="23"/>
+        <v>482</v>
+      </c>
+      <c r="F86" s="63"/>
       <c r="G86" s="27"/>
       <c r="H86" s="7"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="87" spans="4:9" s="5" customFormat="1">
       <c r="D87" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="F87" s="23"/>
+        <v>483</v>
+      </c>
+      <c r="F87" s="63"/>
       <c r="G87" s="27"/>
       <c r="H87" s="7"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="88" spans="4:9" s="5" customFormat="1">
       <c r="D88" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="F88" s="23"/>
+        <v>484</v>
+      </c>
+      <c r="F88" s="63"/>
       <c r="G88" s="27"/>
       <c r="H88" s="7"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="89" spans="4:9" s="5" customFormat="1">
       <c r="D89" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F89" s="23"/>
+        <v>485</v>
+      </c>
+      <c r="F89" s="63"/>
       <c r="G89" s="27"/>
       <c r="H89" s="7"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="90" spans="4:9" s="5" customFormat="1">
       <c r="D90" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F90" s="23"/>
+        <v>486</v>
+      </c>
+      <c r="F90" s="63"/>
       <c r="G90" s="27"/>
       <c r="H90" s="7"/>
       <c r="I90" s="23"/>
     </row>
-    <row r="91" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="91" spans="4:9" s="5" customFormat="1">
       <c r="D91" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="F91" s="23"/>
+        <v>487</v>
+      </c>
+      <c r="F91" s="63"/>
       <c r="G91" s="27"/>
       <c r="H91" s="7"/>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="92" spans="4:9" s="5" customFormat="1">
       <c r="D92" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="F92" s="23"/>
+        <v>488</v>
+      </c>
+      <c r="F92" s="63"/>
       <c r="G92" s="27"/>
       <c r="H92" s="7"/>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="93" spans="4:9" s="5" customFormat="1">
       <c r="D93" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F93" s="23"/>
+        <v>489</v>
+      </c>
+      <c r="F93" s="63"/>
       <c r="G93" s="27"/>
       <c r="H93" s="7"/>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="94" spans="4:9" s="5" customFormat="1">
       <c r="D94" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="F94" s="23"/>
+        <v>490</v>
+      </c>
+      <c r="F94" s="63"/>
       <c r="G94" s="27"/>
       <c r="H94" s="7"/>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="95" spans="4:9" s="5" customFormat="1">
       <c r="D95" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F95" s="23"/>
+        <v>491</v>
+      </c>
+      <c r="F95" s="63"/>
       <c r="G95" s="27"/>
       <c r="H95" s="7"/>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="4:9" s="5" customFormat="1" ht="16">
+    <row r="96" spans="4:9" s="5" customFormat="1">
       <c r="D96" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="F96" s="23"/>
+        <v>492</v>
+      </c>
+      <c r="F96" s="63"/>
       <c r="G96" s="27"/>
       <c r="H96" s="7"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="97" spans="2:11" s="5" customFormat="1">
       <c r="D97" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F97" s="23"/>
+        <v>493</v>
+      </c>
+      <c r="F97" s="63"/>
       <c r="G97" s="27"/>
       <c r="H97" s="7"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="98" spans="2:11" s="5" customFormat="1">
       <c r="D98" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F98" s="23"/>
+        <v>494</v>
+      </c>
+      <c r="F98" s="63"/>
       <c r="G98" s="27"/>
       <c r="H98" s="7"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="99" spans="2:11" s="5" customFormat="1">
       <c r="D99" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="F99" s="23"/>
+        <v>495</v>
+      </c>
+      <c r="F99" s="63"/>
       <c r="G99" s="27"/>
       <c r="H99" s="7"/>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="2:11" s="5" customFormat="1" ht="16">
-      <c r="F100" s="23"/>
+    <row r="100" spans="2:11" s="5" customFormat="1">
+      <c r="F100" s="63"/>
       <c r="G100" s="27"/>
       <c r="H100" s="7"/>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="101" spans="2:11" s="5" customFormat="1">
       <c r="D101" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F101" s="23"/>
+        <v>496</v>
+      </c>
+      <c r="F101" s="63"/>
       <c r="G101" s="27"/>
       <c r="H101" s="7"/>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="102" spans="2:11" s="5" customFormat="1">
       <c r="D102" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F102" s="23"/>
+        <v>497</v>
+      </c>
+      <c r="F102" s="63"/>
       <c r="G102" s="27"/>
       <c r="H102" s="7"/>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="2:11" s="5" customFormat="1" ht="16">
-      <c r="F103" s="23"/>
+    <row r="103" spans="2:11" s="5" customFormat="1">
+      <c r="F103" s="63"/>
       <c r="G103" s="27"/>
       <c r="H103" s="7"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="104" spans="2:11" s="5" customFormat="1">
       <c r="D104" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="F104" s="23"/>
+        <v>498</v>
+      </c>
+      <c r="F104" s="63"/>
       <c r="G104" s="27"/>
       <c r="H104" s="7"/>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="105" spans="2:11" s="5" customFormat="1">
       <c r="D105" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="F105" s="23"/>
+        <v>499</v>
+      </c>
+      <c r="F105" s="63"/>
       <c r="G105" s="27"/>
       <c r="H105" s="7"/>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="106" spans="2:11" s="5" customFormat="1">
       <c r="D106" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="F106" s="23"/>
+        <v>500</v>
+      </c>
+      <c r="F106" s="63"/>
       <c r="G106" s="27"/>
       <c r="H106" s="7"/>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="107" spans="2:11" s="5" customFormat="1">
       <c r="B107" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="27"/>
       <c r="H107" s="7"/>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="2:11" s="5" customFormat="1" ht="16">
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
+    <row r="108" spans="2:11" s="5" customFormat="1">
+      <c r="F108" s="63"/>
+      <c r="G108" s="27"/>
       <c r="H108" s="7"/>
       <c r="I108" s="36"/>
     </row>
@@ -10893,10 +11405,10 @@
         <v>132</v>
       </c>
       <c r="E109" s="28"/>
-      <c r="F109" s="29" t="s">
+      <c r="F109" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H109" s="30"/>
@@ -10914,20 +11426,20 @@
       <c r="B110" s="31"/>
       <c r="C110" s="32"/>
       <c r="D110" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="33"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="55"/>
       <c r="H110" s="32"/>
       <c r="I110" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J110" s="32"/>
       <c r="K110" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -10940,24 +11452,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4"/>
-    <col min="4" max="4" width="49.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.1640625" style="4"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5"/>
+    <col min="4" max="4" width="41.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="63"/>
+    <col min="7" max="7" width="10.1640625" style="27"/>
+    <col min="8" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:13">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10970,10 +11483,10 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -10995,7 +11508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -11003,8 +11516,8 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="7"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -11012,41 +11525,43 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="16">
+    <row r="3" spans="1:13">
       <c r="A3" s="3"/>
       <c r="B3" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>504</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>505</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="50" t="s">
+        <v>647</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13">
       <c r="A4" s="3"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="7"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="17">
+    <row r="5" spans="1:13">
       <c r="A5" s="3"/>
       <c r="B5" s="38" t="s">
         <v>45</v>
@@ -11054,996 +11569,1088 @@
       <c r="C5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="50" t="s">
+        <v>645</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="J5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" spans="1:13">
       <c r="A6" s="3"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="F6" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="50" t="s">
+        <v>648</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="J6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13">
       <c r="A7" s="3"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>509</v>
-      </c>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="50" t="s">
+        <v>647</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:13" ht="17">
+    <row r="8" spans="1:13">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>510</v>
+      <c r="D8" s="39" t="s">
+        <v>509</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="50" t="s">
+        <v>646</v>
+      </c>
       <c r="H8" s="7"/>
-      <c r="J8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>668</v>
+      </c>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:13" ht="17">
+    <row r="9" spans="1:13">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>511</v>
+      <c r="D9" s="39" t="s">
+        <v>510</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="50" t="s">
+        <v>649</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:13" ht="17">
+    <row r="10" spans="1:13">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>512</v>
+      <c r="D10" s="39" t="s">
+        <v>511</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="50" t="s">
+        <v>650</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="J10" s="34"/>
+      <c r="J10" s="34" t="s">
+        <v>667</v>
+      </c>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:13" ht="17">
+    <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>513</v>
+      <c r="D11" s="39" t="s">
+        <v>512</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="50" t="s">
+        <v>651</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:13" ht="17">
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>514</v>
+      <c r="D12" s="39" t="s">
+        <v>513</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="50" t="s">
+        <v>652</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="17">
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>515</v>
+      <c r="D13" s="39" t="s">
+        <v>514</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>653</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="17">
+    <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>569</v>
+        <v>574</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>567</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="G14" s="10"/>
+        <v>571</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>654</v>
+      </c>
       <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="17">
+      <c r="I14" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>570</v>
+        <v>574</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>568</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="G15" s="10"/>
+        <v>571</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>655</v>
+      </c>
       <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="17">
+      <c r="I15" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>571</v>
+        <v>574</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>569</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>572</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>656</v>
+      </c>
       <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="17">
+      <c r="I16" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>572</v>
+        <v>574</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>570</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F17" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>657</v>
+      </c>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="17">
+      <c r="I17" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>659</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="10" t="s">
+        <v>661</v>
+      </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="16">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" ht="16">
-      <c r="B20" s="12" t="s">
+      <c r="F20" s="73"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" ht="16">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="16">
+      <c r="I21" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>519</v>
+        <v>442</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
+        <v>282</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>592</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="16">
+    <row r="23" spans="1:13">
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>321</v>
+        <v>448</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>595</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="16">
+    <row r="24" spans="1:13">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="41"/>
+      <c r="B28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E28" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="16">
-      <c r="B25" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="16">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" ht="16">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="7"/>
-      <c r="M27" s="34"/>
-    </row>
-    <row r="28" spans="1:13" ht="16">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="26" t="s">
+        <v>589</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:13" ht="16">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="41"/>
       <c r="C29" s="13" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="63" t="s">
+        <v>669</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="41"/>
+      <c r="C30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" ht="16">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="5"/>
+      <c r="G30" s="27" t="s">
+        <v>591</v>
+      </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="16">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="41"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" ht="16">
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E34" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="41"/>
+      <c r="B35" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="J35" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="41"/>
+      <c r="B36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="J36" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="41"/>
+      <c r="B37" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" ht="16">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5" t="s">
+      <c r="F37" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="J37" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="41"/>
+      <c r="B38" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="41"/>
+      <c r="B39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>604</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="J39" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="41"/>
+      <c r="B40" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="41"/>
+      <c r="B41" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="E33" s="17" t="s">
+      <c r="C41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="16">
-      <c r="A34" s="14"/>
-      <c r="B34" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="42" t="s">
+      <c r="F41" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="41"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="F43" s="74"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="11"/>
+      <c r="B44" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="11"/>
+      <c r="C45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F45" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" ht="16">
-      <c r="A35" s="14"/>
-      <c r="B35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" ht="16">
-      <c r="A36" s="14"/>
-      <c r="B36" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" ht="16">
-      <c r="A37" s="14"/>
-      <c r="B37" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" ht="16">
-      <c r="A38" s="14"/>
-      <c r="B38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" ht="16">
-      <c r="A39" s="14"/>
-      <c r="B39" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" ht="16">
-      <c r="A40" s="14"/>
-      <c r="B40" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" ht="16">
-      <c r="A41" s="14"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" ht="16">
-      <c r="A42" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" ht="16">
-      <c r="A43" s="11"/>
-      <c r="B43" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="34"/>
-    </row>
-    <row r="44" spans="1:13" ht="16">
-      <c r="A44" s="11"/>
-      <c r="C44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" ht="16">
-      <c r="A45" s="11"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="G45" s="5"/>
+      <c r="G45" s="27" t="s">
+        <v>663</v>
+      </c>
       <c r="H45" s="7"/>
-      <c r="K45" s="34"/>
-      <c r="M45" s="34"/>
-    </row>
-    <row r="46" spans="1:13" ht="16">
+      <c r="J45" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="11"/>
       <c r="B46" s="21"/>
       <c r="C46" s="5" t="s">
-        <v>15</v>
+        <v>581</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="23"/>
+      <c r="F46" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>665</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="K46" s="34"/>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:13" ht="16">
+    <row r="47" spans="1:13">
+      <c r="A47" s="11"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="5" t="s">
-        <v>576</v>
+        <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>577</v>
+        <v>672</v>
+      </c>
+      <c r="F47" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>664</v>
       </c>
       <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" s="5" customFormat="1" ht="16">
-      <c r="A48" s="24" t="s">
+      <c r="K47" s="34"/>
+      <c r="M47" s="34"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="C48" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F48" s="63" t="s">
+        <v>575</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="32">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
       <c r="H49" s="7"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="32">
+    <row r="50" spans="1:9" ht="32">
+      <c r="A50" s="25"/>
       <c r="B50" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
       <c r="H50" s="7"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="32">
-      <c r="A51" s="3"/>
+    <row r="51" spans="1:9" ht="32">
       <c r="B51" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
       <c r="H51" s="7"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="52" spans="1:9" ht="32">
       <c r="A52" s="3"/>
-      <c r="B52" s="26"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="B52" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="B53" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3"/>
+      <c r="B53" s="26"/>
       <c r="H53" s="7"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="54" spans="1:9">
       <c r="B54" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+        <v>123</v>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="B55" s="26"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+    <row r="55" spans="1:9">
+      <c r="B55" s="26" t="s">
+        <v>124</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="B56" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+    <row r="56" spans="1:9">
+      <c r="B56" s="26"/>
       <c r="H56" s="7"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+    <row r="57" spans="1:9">
+      <c r="B57" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="B58" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+    <row r="58" spans="1:9">
       <c r="H58" s="7"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+    <row r="59" spans="1:9">
+      <c r="B59" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="H59" s="7"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="B60" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+    <row r="60" spans="1:9">
       <c r="H60" s="7"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+    <row r="61" spans="1:9">
+      <c r="B61" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="H61" s="7"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+    <row r="62" spans="1:9">
       <c r="H62" s="7"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="16">
-      <c r="B63" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
+    <row r="63" spans="1:9">
       <c r="H63" s="7"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="16">
+    <row r="64" spans="1:9">
+      <c r="B64" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="D64" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+        <v>585</v>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="65" spans="2:11">
       <c r="D65" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+        <v>586</v>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="66" spans="2:11">
       <c r="D66" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="27"/>
+        <v>587</v>
+      </c>
       <c r="H66" s="7"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="2:11" s="5" customFormat="1" ht="16">
+    <row r="67" spans="2:11">
       <c r="D67" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="27"/>
+        <v>534</v>
+      </c>
       <c r="H67" s="7"/>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="2:11" s="5" customFormat="1" ht="16">
-      <c r="F68" s="23"/>
-      <c r="G68" s="27"/>
+    <row r="68" spans="2:11">
+      <c r="D68" s="5" t="s">
+        <v>588</v>
+      </c>
       <c r="H68" s="7"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="2:11" s="5" customFormat="1" ht="16">
-      <c r="B69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
+    <row r="69" spans="2:11">
       <c r="H69" s="7"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="2:11" s="5" customFormat="1" ht="16">
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+    <row r="70" spans="2:11">
+      <c r="B70" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="36"/>
-    </row>
-    <row r="71" spans="2:11" s="5" customFormat="1" ht="32">
-      <c r="B71" s="28" t="s">
+      <c r="I70" s="23"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="H71" s="7"/>
+      <c r="I71" s="36"/>
+    </row>
+    <row r="72" spans="2:11" ht="32">
+      <c r="B72" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C72" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D72" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29" t="s">
+      <c r="E72" s="28"/>
+      <c r="F72" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G72" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="H71" s="30"/>
-      <c r="I71" s="37" t="s">
+      <c r="H72" s="30"/>
+      <c r="I72" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J71" s="28" t="s">
+      <c r="J72" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K71" s="28" t="s">
+      <c r="K72" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32" t="s">
+    <row r="73" spans="2:11">
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="E73" s="43"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="D73" s="4" t="s">
-        <v>582</v>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="D74" s="5" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -12660,7 +13267,7 @@
       <c r="K53" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -12714,15 +13321,15 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
@@ -12733,7 +13340,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -12751,7 +13358,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -12769,7 +13376,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -12787,7 +13394,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -12797,7 +13404,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>12</v>
@@ -12817,30 +13424,30 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -12850,17 +13457,17 @@
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12870,7 +13477,7 @@
         <v>400</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12880,7 +13487,7 @@
         <v>375</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12890,24 +13497,24 @@
         <v>391</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -12915,7 +13522,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -12923,7 +13530,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -12931,7 +13538,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -12939,7 +13546,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -12947,7 +13554,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -12955,7 +13562,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I24" s="4"/>
     </row>
@@ -12969,7 +13576,7 @@
       <c r="C26" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 E2:E24 G2:G5 I1:I25">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1-周版本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26860" windowHeight="19200" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="4305" yWindow="255" windowWidth="31800" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="4-1周输出" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="4-29周输出" sheetId="5" r:id="rId5"/>
     <sheet name="5-6周输出" sheetId="6" r:id="rId6"/>
     <sheet name="5-13周输出" sheetId="7" r:id="rId7"/>
-    <sheet name="模板" sheetId="8" r:id="rId8"/>
-    <sheet name="附录" sheetId="9" r:id="rId9"/>
+    <sheet name="5-20周输出" sheetId="10" r:id="rId8"/>
+    <sheet name="模板" sheetId="8" r:id="rId9"/>
+    <sheet name="附录" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4-1周输出'!$A$1:$N$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4-8周输出'!$A$1:$N$69</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="756">
   <si>
     <t>类别</t>
   </si>
@@ -1569,199 +1570,645 @@
     <t>技能数值计算工具（用于其他策划配置）</t>
   </si>
   <si>
+    <t>疲劳值初版</t>
+  </si>
+  <si>
+    <t>副本星级评价预研</t>
+  </si>
+  <si>
+    <t>客户端任务</t>
+  </si>
+  <si>
+    <t>怪物弱点数据确定</t>
+  </si>
+  <si>
+    <t>zz 文生</t>
+  </si>
+  <si>
+    <t>弱点模块</t>
+  </si>
+  <si>
+    <t>照妖镜功能完善</t>
+  </si>
+  <si>
+    <t>大招功能实现</t>
+  </si>
+  <si>
+    <t>用户帐号角色</t>
+  </si>
+  <si>
+    <t>csv配置解析java版</t>
+  </si>
+  <si>
+    <t>宠物数据</t>
+  </si>
+  <si>
+    <t>技能逻辑用例走读</t>
+  </si>
+  <si>
+    <t>技能逻辑用例修改</t>
+  </si>
+  <si>
+    <t>伤害公式用例走读</t>
+  </si>
+  <si>
+    <t>伤害公式用例修改</t>
+  </si>
+  <si>
+    <t>伤害公式计算表格修改</t>
+  </si>
+  <si>
+    <t>对局测试-流程、换宠、UI</t>
+  </si>
+  <si>
+    <t>封妖测试用例设计</t>
+  </si>
+  <si>
+    <t>美术风格-ui大板按钮 颜色调整</t>
+  </si>
+  <si>
+    <t>孙帆  豆豆</t>
+  </si>
+  <si>
+    <t>大家注意任务自主和非自主的区别，非自主任务由测试负责验收关闭</t>
+  </si>
+  <si>
+    <t>任务时限</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>任务状态</t>
+  </si>
+  <si>
+    <t>本周必须完成的任务</t>
+  </si>
+  <si>
+    <t>超额任务，有可能在本周完成</t>
+  </si>
+  <si>
+    <t>长期持续进行的工作</t>
+  </si>
+  <si>
+    <t>提交配置</t>
+  </si>
+  <si>
+    <t>提交测试</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>客户端新功能</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>服务器新功能</t>
+  </si>
+  <si>
+    <t>Day9</t>
+  </si>
+  <si>
+    <t>Day10</t>
+  </si>
+  <si>
+    <t>服务器自主任务</t>
+  </si>
+  <si>
+    <t>Day11</t>
+  </si>
+  <si>
+    <t>Day12</t>
+  </si>
+  <si>
+    <t>Day13</t>
+  </si>
+  <si>
+    <t>Day14</t>
+  </si>
+  <si>
+    <t>内容测试</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>角色原画</t>
+  </si>
+  <si>
+    <t>场景原画</t>
+  </si>
+  <si>
+    <t>角色3D</t>
+  </si>
+  <si>
+    <t>场景3D</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划验收</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能，伤害公式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局流程</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>换宠</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>星，xw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目转方向时间预估</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目转方向时间讨论—Day5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术量-怪物头像-青鸟，朱厌，耳鼠</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-照妖镜</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo对局制作依赖的内容还剩哪些？剩余内容什么时候完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   本周程序内容全部制作完成，配置大概一天完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序拆分任务后需要确认时间并发布任务到Jira，策划负责回归任务拆分到对应文档，标明优先级和时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认游戏规划计划一简化讨论时间-Day'5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-245</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-246</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-247</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-197</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-243</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-241</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-242</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器搭建</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-244</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-233</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-234</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-235</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-236</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-237</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-238</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-239</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-221</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-208</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-209</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-210</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-212</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-232</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-227</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-226</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-222</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术量-UI-对局界面调整修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-223</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-202</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-201</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-206</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-207</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-205</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-204</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-203</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-224 MG-225</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-218</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-215</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-213</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-219</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-165</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-216 MG-217</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-220</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-214</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-228</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-230</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-231</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪美术需求*4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-186</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-229</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-211</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期1天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-249</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-251</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-248</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-250</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-252</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-253</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-254</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-255</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-257</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-259</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-260</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-261</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-262</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo怪物AI脚本编写</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-266</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-256</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-258</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-264</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-263</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-265</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术风格-男性角色 5张脸</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>时间价值基础模型构架</t>
-  </si>
-  <si>
-    <t>疲劳值初版</t>
-  </si>
-  <si>
-    <t>副本星级评价预研</t>
-  </si>
-  <si>
-    <t>客户端任务</t>
-  </si>
-  <si>
-    <t>怪物弱点数据确定</t>
-  </si>
-  <si>
-    <t>zz 文生</t>
-  </si>
-  <si>
-    <t>弱点模块</t>
-  </si>
-  <si>
-    <t>照妖镜功能完善</t>
-  </si>
-  <si>
-    <t>大招功能实现</t>
-  </si>
-  <si>
-    <t>用户帐号角色</t>
-  </si>
-  <si>
-    <t>csv配置解析java版</t>
-  </si>
-  <si>
-    <t>宠物数据</t>
-  </si>
-  <si>
-    <t>技能逻辑用例走读</t>
-  </si>
-  <si>
-    <t>技能逻辑用例修改</t>
-  </si>
-  <si>
-    <t>伤害公式用例走读</t>
-  </si>
-  <si>
-    <t>伤害公式用例修改</t>
-  </si>
-  <si>
-    <t>伤害公式计算表格修改</t>
-  </si>
-  <si>
-    <t>对局测试-流程、换宠、UI</t>
-  </si>
-  <si>
-    <t>封妖测试用例设计</t>
-  </si>
-  <si>
-    <t>美术风格-ui大板按钮 颜色调整</t>
-  </si>
-  <si>
-    <t>孙帆  豆豆</t>
-  </si>
-  <si>
-    <t>美术风格-ui全屏板 版式按钮设计</t>
-  </si>
-  <si>
-    <t>大家注意任务自主和非自主的区别，非自主任务由测试负责验收关闭</t>
-  </si>
-  <si>
-    <t>任务时限</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>任务状态</t>
-  </si>
-  <si>
-    <t>本周必须完成的任务</t>
-  </si>
-  <si>
-    <t>超额任务，有可能在本周完成</t>
-  </si>
-  <si>
-    <t>长期持续进行的工作</t>
-  </si>
-  <si>
-    <t>提交配置</t>
-  </si>
-  <si>
-    <t>提交测试</t>
-  </si>
-  <si>
-    <t>debug</t>
-  </si>
-  <si>
-    <t>Day7</t>
-  </si>
-  <si>
-    <t>客户端新功能</t>
-  </si>
-  <si>
-    <t>Day8</t>
-  </si>
-  <si>
-    <t>服务器新功能</t>
-  </si>
-  <si>
-    <t>Day9</t>
-  </si>
-  <si>
-    <t>Day10</t>
-  </si>
-  <si>
-    <t>服务器自主任务</t>
-  </si>
-  <si>
-    <t>Day11</t>
-  </si>
-  <si>
-    <t>Day12</t>
-  </si>
-  <si>
-    <t>Day13</t>
-  </si>
-  <si>
-    <t>Day14</t>
-  </si>
-  <si>
-    <t>内容测试</t>
-  </si>
-  <si>
-    <t>Day15</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>角色原画</t>
-  </si>
-  <si>
-    <t>场景原画</t>
-  </si>
-  <si>
-    <t>角色3D</t>
-  </si>
-  <si>
-    <t>场景3D</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>特效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划验收</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能，伤害公式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物数据</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局流程</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>换宠</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>星，xw</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
+    <t>风险</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术风格-IM 版式按钮设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术量-妲己立绘</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-269</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主任务</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1769,27 +2216,176 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>IM系统文档分析</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点功能验收</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务取消</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-167</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>G-166 MG271</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff阻碍（已解决）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖测试用例走读</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖测试用例修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局弱点（照妖镜、技能）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局弱点（伤害公式）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo关卡测试（技能表现、动画、对局、boss、大招）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能bug修改后复查&amp;测试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式bug修改后复查&amp;测试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I自动化测试方法研究-ios</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I自动化测试方法研究-android</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画模块完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试策划验收所缺功能补充，测试bug fix</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局技能宠物属性联调</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示调整</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局结算</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz 小智 文生</t>
+  </si>
+  <si>
+    <t>zz 小智 文生</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>Day1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>自主任务</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目转方向时间预估</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目转方向时间讨论—Day5</t>
+    <t>Day6</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1797,383 +2393,128 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>美术量-怪物头像-青鸟，朱厌，耳鼠</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-照妖镜</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙帆</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo对局制作依赖的内容还剩哪些？剩余内容什么时候完成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   本周程序内容全部制作完成，配置大概一天完成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序拆分任务后需要确认时间并发布任务到Jira，策划负责回归任务拆分到对应文档，标明优先级和时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认游戏规划计划一简化讨论时间-Day'5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-245</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-246</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-247</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-197</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-243</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-241</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-242</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器搭建</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-244</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-166 MG-167</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-233</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-234</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-235</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-236</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-237</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-238</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-239</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-221</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-208</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-209</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-210</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    